--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1686">
   <si>
     <t>No.</t>
   </si>
@@ -5622,13 +5622,19 @@
   <si>
     <t>(ติดโค้ดหน่วยย่อยไปด้วย)</t>
   </si>
+  <si>
+    <t>alter table ProductList add AdjustUnit  bigint;</t>
+  </si>
+  <si>
+    <t>alter table ProductList add RateUnit  numeric(18,2);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -6241,7 +6247,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6325,20 +6331,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6506,11 +6512,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6597,6 +6603,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6604,6 +6619,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6617,18 +6635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7493,20 +7499,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="196" t="s">
+      <c r="A2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="200" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8708,12 +8714,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8724,6 +8724,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10638,8 +10644,8 @@
   </sheetPr>
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12311,11 +12317,11 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:3" ht="87" x14ac:dyDescent="0.5">
       <c r="B294" s="151" t="s">
         <v>1606</v>
       </c>
-      <c r="C294" s="185" t="s">
+      <c r="C294" s="152" t="s">
         <v>1607</v>
       </c>
     </row>
@@ -12584,10 +12590,14 @@
       <c r="B344" s="151" t="s">
         <v>1679</v>
       </c>
-      <c r="C344" s="152"/>
+      <c r="C344" s="151" t="s">
+        <v>1684</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C345" s="152"/>
+      <c r="C345" s="152" t="s">
+        <v>1685</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C346" s="152"/>
@@ -21218,97 +21228,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="193" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="200" t="s">
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="193" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="200" t="s">
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="193" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="200" t="s">
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="193" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="193" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="200" t="s">
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="193" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="200" t="s">
+      <c r="AU2" s="194"/>
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="193" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="202"/>
+      <c r="AY2" s="194"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="195"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="199"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26462,6 +26472,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26472,12 +26488,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -26995,16 +27005,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="202" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="204" t="s">
@@ -27071,10 +27081,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -32870,6 +32880,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -32879,11 +32894,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33361,98 +33371,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="202" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="193" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="193" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="193" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="193" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="200" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="200" t="s">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="193" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="200" t="s">
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="193" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="193" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="202"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="193" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="202"/>
-      <c r="AU2" s="200" t="s">
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="194"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="193" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="200" t="s">
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="194"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="193" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="202"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="195"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -38865,11 +38875,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -38881,6 +38886,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39071,7 +39081,7 @@
       <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="212" t="s">
@@ -39099,7 +39109,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="197"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1688">
   <si>
     <t>No.</t>
   </si>
@@ -5628,13 +5628,19 @@
   <si>
     <t>alter table ProductList add RateUnit  numeric(18,2);</t>
   </si>
+  <si>
+    <t>update ProductList set AdjustUnit=units;</t>
+  </si>
+  <si>
+    <t>update ProductList set RateUnit=1;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -6247,7 +6253,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6331,20 +6337,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6512,11 +6518,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6603,15 +6609,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6619,9 +6616,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6635,6 +6629,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7499,20 +7505,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="200" t="s">
+      <c r="A2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="196" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8714,6 +8720,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8724,12 +8736,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10645,7 +10651,7 @@
   <dimension ref="A1:C362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C348" sqref="C348"/>
+      <selection activeCell="C344" sqref="C344:C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12600,11 +12606,16 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C346" s="152"/>
+      <c r="C346" s="152" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B347" s="151" t="s">
         <v>1525</v>
+      </c>
+      <c r="C347" s="151" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.5">
@@ -21228,97 +21239,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="200" t="s">
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="193" t="s">
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="193" t="s">
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="193" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="193" t="s">
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="193" t="s">
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="193" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="193" t="s">
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="195"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="202"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26472,12 +26483,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26488,6 +26493,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27005,16 +27016,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="204" t="s">
@@ -27081,10 +27092,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="203"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -32880,11 +32891,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -32894,6 +32900,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33371,98 +33382,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="193" t="s">
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="193" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="193" t="s">
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="193" t="s">
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="193" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="202"/>
+      <c r="AQ2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="194"/>
-      <c r="AT2" s="195"/>
-      <c r="AU2" s="193" t="s">
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="202"/>
+      <c r="AU2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="193" t="s">
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="194"/>
-      <c r="BB2" s="195"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="202"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="203"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -38875,6 +38886,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -38886,11 +38902,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39081,7 +39092,7 @@
       <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="212" t="s">
@@ -39109,7 +39120,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="201"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1693">
   <si>
     <t>No.</t>
   </si>
@@ -5633,6 +5633,21 @@
   </si>
   <si>
     <t>update ProductList set RateUnit=1;</t>
+  </si>
+  <si>
+    <t>สินค้าเพิ่มหน่อยขายหลัก</t>
+  </si>
+  <si>
+    <t>หน่วยย่อยใช้กำหนดตัวมาหารแทน เช่น 1/12 โหล</t>
+  </si>
+  <si>
+    <t>update stock ให้ทำ SN ได้</t>
+  </si>
+  <si>
+    <t>PO เพิ่มหน่วย</t>
+  </si>
+  <si>
+    <t>update stock เปลี่ยนเป็น list สินค้ามา update เลย</t>
   </si>
 </sst>
 </file>
@@ -6609,6 +6624,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6616,6 +6640,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6629,18 +6656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7505,20 +7520,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="196" t="s">
+      <c r="A2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="200" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8720,12 +8735,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8736,6 +8745,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10648,10 +10663,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C344" sqref="C344:C347"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12611,80 +12626,107 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B347" s="151" t="s">
-        <v>1525</v>
-      </c>
       <c r="C347" s="151" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B348" s="151" t="s">
-        <v>1451</v>
-      </c>
-    </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B349" s="151" t="s">
-        <v>1624</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B350" s="151" t="s">
-        <v>1526</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B351" s="151" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B352" s="152" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B354" s="187" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B355" s="188" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B356" s="189" t="s">
-        <v>1643</v>
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B352" s="151" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B353" s="151" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B357" s="190" t="s">
-        <v>1645</v>
+      <c r="B357" s="151" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B358" s="186" t="s">
-        <v>1646</v>
+      <c r="B358" s="151" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B359" s="151" t="s">
-        <v>1647</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B360" s="151" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B361" s="151" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B362" s="152" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B364" s="187" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B365" s="188" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B366" s="189" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B367" s="190" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B368" s="186" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B369" s="151" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B370" s="151" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B361" s="187" t="s">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B371" s="187" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B362" s="151" t="s">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B372" s="151" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -21239,97 +21281,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="193" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="200" t="s">
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="193" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="200" t="s">
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="193" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="200" t="s">
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="193" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="193" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="200" t="s">
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="193" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="200" t="s">
+      <c r="AU2" s="194"/>
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="193" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="202"/>
+      <c r="AY2" s="194"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="195"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="199"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26483,6 +26525,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26493,12 +26541,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27016,16 +27058,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="202" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="204" t="s">
@@ -27092,10 +27134,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -32891,6 +32933,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -32900,11 +32947,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33382,98 +33424,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="202" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="193" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="193" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="193" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="193" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="200" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="200" t="s">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="193" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="200" t="s">
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="193" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="193" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="202"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="193" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="202"/>
-      <c r="AU2" s="200" t="s">
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="194"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="193" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="200" t="s">
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="194"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="193" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="202"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="195"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -38886,11 +38928,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -38902,6 +38939,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39092,7 +39134,7 @@
       <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="212" t="s">
@@ -39120,7 +39162,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="197"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1694">
   <si>
     <t>No.</t>
   </si>
@@ -5648,6 +5648,9 @@
   </si>
   <si>
     <t>update stock เปลี่ยนเป็น list สินค้ามา update เลย</t>
+  </si>
+  <si>
+    <t>หน้ารายการรวม เพิ่มคอลัมรหัสลูกค้า</t>
   </si>
 </sst>
 </file>
@@ -6624,15 +6627,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6640,9 +6634,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6656,6 +6647,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7520,20 +7523,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="200" t="s">
+      <c r="A2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="196" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8735,6 +8738,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8745,12 +8754,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10665,8 +10668,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12653,6 +12656,11 @@
     <row r="353" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B353" s="151" t="s">
         <v>1691</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B354" s="151" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.5">
@@ -21281,97 +21289,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="200" t="s">
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="193" t="s">
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="193" t="s">
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="193" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="193" t="s">
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="193" t="s">
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="193" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="193" t="s">
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="195"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="202"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26525,12 +26533,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26541,6 +26543,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27058,16 +27066,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="204" t="s">
@@ -27134,10 +27142,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="203"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -32933,11 +32941,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -32947,6 +32950,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33424,98 +33432,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="193" t="s">
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="193" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="193" t="s">
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="193" t="s">
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="193" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="202"/>
+      <c r="AQ2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="194"/>
-      <c r="AT2" s="195"/>
-      <c r="AU2" s="193" t="s">
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="202"/>
+      <c r="AU2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="193" t="s">
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="194"/>
-      <c r="BB2" s="195"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="202"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="203"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -38928,6 +38936,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -38939,11 +38952,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39134,7 +39142,7 @@
       <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="212" t="s">
@@ -39162,7 +39170,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="201"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -5658,7 +5658,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -6271,7 +6271,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6355,20 +6355,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6536,11 +6536,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6627,6 +6627,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6634,6 +6643,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6647,18 +6659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7523,20 +7523,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="196" t="s">
+      <c r="A2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="200" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8738,12 +8738,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8754,6 +8748,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10668,8 +10668,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -21289,97 +21289,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="193" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="200" t="s">
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="193" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="200" t="s">
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="193" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="200" t="s">
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="193" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="193" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="200" t="s">
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="193" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="200" t="s">
+      <c r="AU2" s="194"/>
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="193" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="202"/>
+      <c r="AY2" s="194"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="195"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="199"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26533,6 +26533,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26543,12 +26549,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27066,16 +27066,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="202" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="204" t="s">
@@ -27142,10 +27142,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -32941,6 +32941,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -32950,11 +32955,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33432,98 +33432,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="202" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="193" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="193" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="193" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="193" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="200" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="200" t="s">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="193" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="200" t="s">
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="193" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="193" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="202"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="193" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="202"/>
-      <c r="AU2" s="200" t="s">
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="194"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="193" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="200" t="s">
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="194"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="193" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="202"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="195"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -38936,11 +38936,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -38952,6 +38947,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39142,7 +39142,7 @@
       <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="212" t="s">
@@ -39170,7 +39170,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="197"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="1695">
   <si>
     <t>No.</t>
   </si>
@@ -5651,6 +5651,9 @@
   </si>
   <si>
     <t>หน้ารายการรวม เพิ่มคอลัมรหัสลูกค้า</t>
+  </si>
+  <si>
+    <t>หน้าข้อมูลจังหวัด</t>
   </si>
 </sst>
 </file>
@@ -6627,15 +6630,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6643,9 +6637,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6659,6 +6650,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7523,20 +7526,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="200" t="s">
+      <c r="A2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="196" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8738,6 +8741,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8748,12 +8757,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10668,8 +10671,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C348" sqref="C348"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12661,6 +12664,11 @@
     <row r="354" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B354" s="151" t="s">
         <v>1693</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B355" s="151" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.5">
@@ -21289,97 +21297,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="200" t="s">
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="193" t="s">
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="193" t="s">
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="193" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="193" t="s">
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="193" t="s">
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="193" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="193" t="s">
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="195"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="202"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26533,12 +26541,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26549,6 +26551,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27066,16 +27074,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="204" t="s">
@@ -27142,10 +27150,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="203"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -32941,11 +32949,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -32955,6 +32958,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33432,98 +33440,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="193" t="s">
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="193" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="193" t="s">
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="193" t="s">
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="193" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="202"/>
+      <c r="AQ2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="194"/>
-      <c r="AT2" s="195"/>
-      <c r="AU2" s="193" t="s">
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="202"/>
+      <c r="AU2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="193" t="s">
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="194"/>
-      <c r="BB2" s="195"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="202"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="203"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -38936,6 +38944,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -38947,11 +38960,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39142,7 +39150,7 @@
       <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="212" t="s">
@@ -39170,7 +39178,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="201"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="735" windowWidth="19080" windowHeight="6765" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="795" windowWidth="19080" windowHeight="6705" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1701">
   <si>
     <t>No.</t>
   </si>
@@ -5635,15 +5635,9 @@
     <t>update ProductList set RateUnit=1;</t>
   </si>
   <si>
-    <t>สินค้าเพิ่มหน่อยขายหลัก</t>
-  </si>
-  <si>
     <t>หน่วยย่อยใช้กำหนดตัวมาหารแทน เช่น 1/12 โหล</t>
   </si>
   <si>
-    <t>update stock ให้ทำ SN ได้</t>
-  </si>
-  <si>
     <t>PO เพิ่มหน่วย</t>
   </si>
   <si>
@@ -5654,6 +5648,30 @@
   </si>
   <si>
     <t>หน้าข้อมูลจังหวัด</t>
+  </si>
+  <si>
+    <t>1.0.0.90</t>
+  </si>
+  <si>
+    <t>สินค้าเพิ่มหน่วยหลักซื้อ</t>
+  </si>
+  <si>
+    <t>alter table Produc add UnitMainIDBuy  bigint;</t>
+  </si>
+  <si>
+    <t>Update Set UnitMainIDBuy=UnitMainID;</t>
+  </si>
+  <si>
+    <t>จังหวัด</t>
+  </si>
+  <si>
+    <t>ProvinceBar</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (98,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'ProvinceBar','จังหวัด' ,'Province',1 ,1 ,1,1,1,0,0,0,0,0,0);</t>
   </si>
 </sst>
 </file>
@@ -6280,7 +6298,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6624,6 +6642,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7526,20 +7545,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="196" t="s">
+      <c r="A2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="197" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8634,100 +8653,100 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="213"/>
+      <c r="C31" s="214"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="214" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="213"/>
+      <c r="C32" s="214"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="214"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="213"/>
+      <c r="C34" s="214"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="213"/>
+      <c r="C35" s="214"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="213"/>
+      <c r="C36" s="214"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="213"/>
+      <c r="C37" s="214"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B38" s="213" t="s">
+      <c r="B38" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="213"/>
+      <c r="C38" s="214"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="213"/>
+      <c r="C39" s="214"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="214" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="213"/>
+      <c r="C40" s="214"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="213"/>
+      <c r="C41" s="214"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B42" s="213" t="s">
+      <c r="B42" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="213"/>
+      <c r="C42" s="214"/>
     </row>
     <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="213"/>
+      <c r="C43" s="214"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B44" s="213" t="s">
+      <c r="B44" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="213"/>
+      <c r="C44" s="214"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="213"/>
+      <c r="C45" s="214"/>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="213"/>
+      <c r="C46" s="214"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
@@ -10671,8 +10690,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -10705,7 +10724,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="192" t="s">
         <v>993</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -10713,13 +10732,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B5" s="191"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="151" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B6" s="191"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="151" t="s">
         <v>992</v>
       </c>
@@ -10910,7 +10929,7 @@
       <c r="B37" s="151" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="193" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -10918,61 +10937,61 @@
       <c r="B38" s="151" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="192"/>
+      <c r="C38" s="193"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B39" s="151" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="192"/>
+      <c r="C39" s="193"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B40" s="151" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="192"/>
+      <c r="C40" s="193"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B41" s="151" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="193"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B42" s="151" t="s">
         <v>1059</v>
       </c>
-      <c r="C42" s="192"/>
+      <c r="C42" s="193"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B43" s="151" t="s">
         <v>1063</v>
       </c>
-      <c r="C43" s="192"/>
+      <c r="C43" s="193"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B44" s="151" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="192"/>
+      <c r="C44" s="193"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="192"/>
+      <c r="C45" s="193"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="192"/>
+      <c r="C46" s="193"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="192"/>
+      <c r="C47" s="193"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="192"/>
+      <c r="C48" s="193"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="192"/>
+      <c r="C49" s="193"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="192"/>
+      <c r="C50" s="193"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="151" t="s">
@@ -12612,7 +12631,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A344" s="151" t="s">
-        <v>1678</v>
+        <v>1693</v>
       </c>
       <c r="B344" s="151" t="s">
         <v>1679</v>
@@ -12622,53 +12641,51 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B345" s="151" t="s">
+        <v>1694</v>
+      </c>
       <c r="C345" s="152" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B346" s="151" t="s">
+        <v>1688</v>
+      </c>
       <c r="C346" s="152" t="s">
         <v>1686</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B347" s="151" t="s">
+        <v>1690</v>
+      </c>
       <c r="C347" s="151" t="s">
         <v>1687</v>
       </c>
     </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B348" s="151" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C348" s="151" t="s">
+        <v>1695</v>
+      </c>
+    </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B349" s="151" t="s">
-        <v>1688</v>
+        <v>1691</v>
+      </c>
+      <c r="C349" s="151" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B350" s="151" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B351" s="151" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B352" s="151" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B353" s="151" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B354" s="151" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B355" s="151" t="s">
-        <v>1694</v>
+      <c r="C350" s="191" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.5">
@@ -13654,7 +13671,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="214" t="s">
+      <c r="A39" s="215" t="s">
         <v>927</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -13662,19 +13679,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="214"/>
+      <c r="A40" s="215"/>
       <c r="B40" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="214"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="215" t="s">
         <v>927</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -13682,13 +13699,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="214"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="214"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
@@ -13734,12 +13751,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19230,12 +19247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="120">
         <v>96</v>
       </c>
       <c r="B97" s="120">
-        <f t="shared" ref="B97:B98" si="30">IF( H97=TRUE,1,0)+IF(I97=TRUE,2,0)+IF( J97=TRUE,4,0)+IF( K97=TRUE,8,0)+IF( L97=TRUE,16,0)+IF( M97=TRUE,32,0)+IF( N97=TRUE,64,0)+IF( O97=TRUE,128,0)+IF(P97=TRUE,256,0)+IF(Q97=TRUE,512,0)+IF(R97=TRUE,1024,0)</f>
+        <f t="shared" ref="B97:B99" si="30">IF( H97=TRUE,1,0)+IF(I97=TRUE,2,0)+IF( J97=TRUE,4,0)+IF( K97=TRUE,8,0)+IF( L97=TRUE,16,0)+IF( M97=TRUE,32,0)+IF( N97=TRUE,64,0)+IF( O97=TRUE,128,0)+IF(P97=TRUE,256,0)+IF(Q97=TRUE,512,0)+IF(R97=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C97" s="120" t="s">
@@ -19287,7 +19304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="120">
         <v>97</v>
       </c>
@@ -19342,6 +19359,66 @@
       </c>
       <c r="R98" s="121" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="120">
+        <v>98</v>
+      </c>
+      <c r="B99" s="120">
+        <f t="shared" si="30"/>
+        <v>31</v>
+      </c>
+      <c r="C99" s="120" t="s">
+        <v>778</v>
+      </c>
+      <c r="D99" s="120" t="s">
+        <v>837</v>
+      </c>
+      <c r="E99" s="120" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F99" s="120" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G99" s="120" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" s="191" t="s">
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -21297,97 +21374,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="193" t="s">
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200" t="s">
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="200" t="s">
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="200" t="s">
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="200" t="s">
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AM2" s="202"/>
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="200" t="s">
+      <c r="AQ2" s="202"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="200" t="s">
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="203"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="199"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27074,86 +27151,86 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="204" t="s">
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="204" t="s">
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="204" t="s">
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="205" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="204" t="s">
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="205" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="205" t="s">
         <v>653</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="204" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>731</v>
       </c>
-      <c r="AF2" s="205"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="204" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>655</v>
       </c>
-      <c r="AJ2" s="205"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="204" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="206"/>
-      <c r="AQ2" s="204" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AR2" s="205"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33440,98 +33517,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="193" t="s">
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="193" t="s">
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="193" t="s">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="193" t="s">
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="200" t="s">
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="200" t="s">
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="200" t="s">
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="202"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="202"/>
-      <c r="AU2" s="200" t="s">
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="200" t="s">
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="203"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39147,38 +39224,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="212" t="s">
+      <c r="A1" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="213" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="212" t="s">
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="213" t="s">
         <v>730</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="212" t="s">
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="213" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="208" t="s">
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="209" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="209"/>
+      <c r="P1" s="210"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="211"/>
-      <c r="B2" s="197"/>
+      <c r="A2" s="212"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -5656,12 +5656,6 @@
     <t>สินค้าเพิ่มหน่วยหลักซื้อ</t>
   </si>
   <si>
-    <t>alter table Produc add UnitMainIDBuy  bigint;</t>
-  </si>
-  <si>
-    <t>Update Set UnitMainIDBuy=UnitMainID;</t>
-  </si>
-  <si>
     <t>จังหวัด</t>
   </si>
   <si>
@@ -5672,6 +5666,12 @@
   </si>
   <si>
     <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (98,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'ProvinceBar','จังหวัด' ,'Province',1 ,1 ,1,1,1,0,0,0,0,0,0);</t>
+  </si>
+  <si>
+    <t>alter table Product add UnitMainIDBuy  bigint;</t>
+  </si>
+  <si>
+    <t>Update Product Set UnitMainIDBuy=UnitMainID;</t>
   </si>
 </sst>
 </file>
@@ -6649,6 +6649,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6656,6 +6665,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6669,18 +6681,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7545,20 +7545,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="197" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8760,12 +8760,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8776,6 +8770,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10690,8 +10690,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G376" sqref="G376"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12669,7 +12669,7 @@
         <v>1689</v>
       </c>
       <c r="C348" s="151" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.5">
@@ -12677,7 +12677,7 @@
         <v>1691</v>
       </c>
       <c r="C349" s="151" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.5">
@@ -12685,7 +12685,7 @@
         <v>1692</v>
       </c>
       <c r="C350" s="191" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.5">
@@ -19376,49 +19376,49 @@
         <v>837</v>
       </c>
       <c r="E99" s="120" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F99" s="120" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G99" s="120" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" s="191" t="s">
         <v>1698</v>
-      </c>
-      <c r="F99" s="120" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G99" s="120" t="s">
-        <v>1699</v>
-      </c>
-      <c r="H99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="M99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="O99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="P99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="R99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="S99" s="191" t="s">
-        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -21374,97 +21374,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="197" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="194" t="s">
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="194" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="194" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="194" t="s">
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="201" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="201" t="s">
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="201" t="s">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="201" t="s">
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="202"/>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="201" t="s">
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="202"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="201" t="s">
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="202"/>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="201" t="s">
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="203"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="196"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="200"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26618,6 +26618,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26628,12 +26634,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27151,16 +27151,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27227,10 +27227,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33026,6 +33026,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33035,11 +33040,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33517,98 +33517,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="194" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="194" t="s">
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="194" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="194" t="s">
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="201" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="201" t="s">
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="201" t="s">
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="201" t="s">
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="201" t="s">
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="196"/>
+      <c r="AQ2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="201" t="s">
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="196"/>
+      <c r="AU2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="201" t="s">
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="203"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="196"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39021,11 +39021,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39037,6 +39032,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39227,7 +39227,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39255,7 +39255,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="198"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1702">
   <si>
     <t>No.</t>
   </si>
@@ -5672,6 +5672,73 @@
   </si>
   <si>
     <t>Update Product Set UnitMainIDBuy=UnitMainID;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER PROCEDURE [dbo].[spCheckStock] 
+ @pProductCategoryID  VARCHAR(100) 
+ ,@pProductTypeID VARCHAR(100)
+ ,@pProductGroupID VARCHAR(100)
+ ,@pProductBrandID VARCHAR(100)
+AS
+BEGIN
+ SET NOCOUNT ON;
+DECLARE @query VARCHAR(4000)
+DECLARE @Locations VARCHAR(2000)
+DECLARE @Where  VARCHAR(2000)=''
+SELECT  @Locations = COALESCE(@Locations + ',[' + NameThai+ ']',
+                         '[' + NameThai + ']')
+FROM    Product_LocationDTL
+where Product_LocationDTL.LocationDTLID not in (select LocationDTLID from RunningFormat where MenuID=34)
+ORDER BY NameThai
+if @pProductCategoryID &lt;&gt; '0'
+begin
+SET @Where = ' and Product.ProductCategoryID in (' + @pProductCategoryID + ')'   
+end
+if @pProductTypeID &lt;&gt; '0'
+begin
+SET @Where  = @Where + ' and Product.ProductTypeID in (' + @pProductTypeID + ')'
+end
+if @pProductGroupID &lt;&gt; '0' 
+begin
+SET @Where = @Where + ' and Product.ProductGroupID in (' + @pProductGroupID + ')' 
+end
+if @pProductBrandID &lt;&gt; '0' 
+begin
+SET @Where = @Where + ' and Product.ProductBrandID in (' + @pProductBrandID + ')' 
+end
+SET @query =
+'
+SELECT pvt.*,a.SumUnit as คลังรวม FROM
+(
+  SELECT  Product.ProductCode,Product.ProductName,Product.Remark
+,CASE WHEN Product_Unit.CodeThai IS NULL then ProUnit.CodeThai ELSE Product_Unit.CodeThai END UnitName
+,Product_LocationDTL.NameThai ,Product_Stock.Units,Product.ProductID
+,CASE WHEN Product_Unit.UnitID IS NULL then ProUnit.UnitID ELSE Product_Unit.UnitID END UnitID
+FROM Product 
+left outer join Product_Unit as ProUnit on ProUnit.UnitID=Product.UnitMainID   
+Inner join Product_LocationS on Product_LocationS.RefID=Product.ProductID and Product_LocationS.IsDelete=0
+Inner join Product_LocationDTL on Product_LocationDTL.LocationDTLID=Product_LocationS.LocationDTLID
+left outer join Product_Stock on Product_Stock.ProductID=Product.ProductID and Product_Stock.IsSumStock=0
+and Product_Stock.LocationDTLID=Product_LocationS.LocationDTLID
+left outer join Product_Unit on Product_Unit.UnitID=Product_Stock.UnitID
+where Product.IsDelete=0 and Product.IsInActive=0 and 
+Product_LocationS.LocationDTLID not in(select LocationDTLID from RunningFormat where MenuID=34) '
++ @Where +
+'
+)t
+PIVOT (SUM(Units) FOR NameThai
+IN ('+@Locations+')) AS pvt
+left outer join (select Product_Stock.ProductID,Product_Stock.UnitID,
+sum(Product_Stock.Units) as SumUnit from Product_Stock
+where  IsSumStock=1 and Product_Stock.LocationDTLID=(select LocationDTLID from RunningFormat where MenuID=34)
+group by Product_Stock.ProductID,Product_Stock.UnitID) as a
+on pvt.ProductID=a.ProductID   and pvt.UnitID=a.UnitID   
+order by ProductCode
+'
+ --print(@query)
+EXECUTE (@query)
+END
+</t>
   </si>
 </sst>
 </file>
@@ -6649,15 +6716,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6665,9 +6723,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6681,6 +6736,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7545,20 +7612,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="197" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8760,6 +8827,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8770,12 +8843,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10690,8 +10757,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C349" sqref="C349"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12686,6 +12753,11 @@
       </c>
       <c r="C350" s="191" t="s">
         <v>1698</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C351" s="185" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.5">
@@ -21374,97 +21446,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="197" t="s">
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="197" t="s">
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="197" t="s">
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="194" t="s">
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="194" t="s">
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="194" t="s">
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="195"/>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="194" t="s">
+      <c r="AM2" s="202"/>
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="194" t="s">
+      <c r="AQ2" s="202"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="194" t="s">
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="196"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="203"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26618,12 +26690,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26634,6 +26700,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27151,16 +27223,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27227,10 +27299,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33026,11 +33098,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33040,6 +33107,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33517,98 +33589,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="197" t="s">
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="197" t="s">
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="197" t="s">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="197" t="s">
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="194" t="s">
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="194" t="s">
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="194" t="s">
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="194" t="s">
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="194" t="s">
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="194" t="s">
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="194" t="s">
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="196"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="203"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39021,6 +39093,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39032,11 +39109,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39227,7 +39299,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39255,7 +39327,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="1704">
   <si>
     <t>No.</t>
   </si>
@@ -5739,6 +5739,12 @@
 EXECUTE (@query)
 END
 </t>
+  </si>
+  <si>
+    <t>alter table ProductList add PriceMain  numeric(18,2);</t>
+  </si>
+  <si>
+    <t>update  ProductList set PriceMain=Price;</t>
   </si>
 </sst>
 </file>
@@ -6716,6 +6722,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6723,6 +6738,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6736,18 +6754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7612,20 +7618,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="197" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8827,12 +8833,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8843,6 +8843,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10757,8 +10763,8 @@
   </sheetPr>
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C353" sqref="C352:C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12760,57 +12766,67 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C352" s="152" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C353" s="151" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B357" s="151" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B358" s="151" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B359" s="151" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B360" s="151" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B361" s="151" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="362" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+    <row r="362" spans="2:3" ht="87" x14ac:dyDescent="0.5">
       <c r="B362" s="152" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B364" s="187" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="365" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="365" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
       <c r="B365" s="188" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B366" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B367" s="190" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B368" s="186" t="s">
         <v>1646</v>
       </c>
@@ -21446,97 +21462,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="197" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="194" t="s">
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="194" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="194" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="194" t="s">
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="201" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="201" t="s">
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="201" t="s">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="201" t="s">
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="202"/>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="201" t="s">
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="202"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="201" t="s">
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="202"/>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="201" t="s">
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="203"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="196"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="200"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26690,6 +26706,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26700,12 +26722,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27223,16 +27239,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27299,10 +27315,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33098,6 +33114,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33107,11 +33128,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33589,98 +33605,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="194" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="194" t="s">
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="194" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="194" t="s">
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="201" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="201" t="s">
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="201" t="s">
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="201" t="s">
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="201" t="s">
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="196"/>
+      <c r="AQ2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="201" t="s">
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="196"/>
+      <c r="AU2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="201" t="s">
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="203"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="196"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39093,11 +39109,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39109,6 +39120,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39299,7 +39315,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39327,7 +39343,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="198"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,54 +4,54 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="795" windowWidth="19080" windowHeight="6705" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="855" windowWidth="19080" windowHeight="6645" tabRatio="884" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="45" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="46" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="45" state="hidden" r:id="rId2"/>
     <sheet name="UpdateList" sheetId="43" r:id="rId3"/>
     <sheet name="Menu" sheetId="42" r:id="rId4"/>
     <sheet name="TimeLine" sheetId="39" r:id="rId5"/>
     <sheet name="Windows(old)" sheetId="41" state="hidden" r:id="rId6"/>
-    <sheet name="Windows (2)" sheetId="44" r:id="rId7"/>
+    <sheet name="Windows (2)" sheetId="44" state="hidden" r:id="rId7"/>
     <sheet name="Windows" sheetId="38" r:id="rId8"/>
     <sheet name="Web" sheetId="40" r:id="rId9"/>
     <sheet name="Main" sheetId="1" state="hidden" r:id="rId10"/>
-    <sheet name="Admin" sheetId="2" r:id="rId11"/>
-    <sheet name="ลูกค้า" sheetId="3" r:id="rId12"/>
-    <sheet name="เจ้าหนี้" sheetId="4" r:id="rId13"/>
-    <sheet name="สินค้า" sheetId="6" r:id="rId14"/>
-    <sheet name="ราคาขาย" sheetId="5" r:id="rId15"/>
-    <sheet name="เครดิต" sheetId="7" r:id="rId16"/>
-    <sheet name="เสนอราคา" sheetId="8" r:id="rId17"/>
-    <sheet name="จองสินค้า" sheetId="9" r:id="rId18"/>
-    <sheet name="สั่งขาย" sheetId="10" r:id="rId19"/>
-    <sheet name="ส่งของ" sheetId="11" r:id="rId20"/>
-    <sheet name="คืน" sheetId="12" r:id="rId21"/>
-    <sheet name="เพิ่มสินค้า" sheetId="13" r:id="rId22"/>
-    <sheet name="มัดจำ" sheetId="14" r:id="rId23"/>
-    <sheet name="คืนมัดจำ" sheetId="15" r:id="rId24"/>
-    <sheet name="ตั้งลูกหนี้" sheetId="16" r:id="rId25"/>
-    <sheet name="ลดลูกหนี้" sheetId="17" r:id="rId26"/>
-    <sheet name="วางบิล" sheetId="18" r:id="rId27"/>
-    <sheet name="ใบเสร็จ" sheetId="19" r:id="rId28"/>
-    <sheet name="ชำระหนี้ " sheetId="20" r:id="rId29"/>
-    <sheet name="สั่งซื้อ" sheetId="21" r:id="rId30"/>
-    <sheet name="รับสินค้า" sheetId="22" r:id="rId31"/>
-    <sheet name="ตั้งหนี้" sheetId="23" r:id="rId32"/>
-    <sheet name="ส่งคืน" sheetId="24" r:id="rId33"/>
-    <sheet name="ตั้งเจ้าหนี้" sheetId="25" r:id="rId34"/>
-    <sheet name="ลดเจ้าหนี้" sheetId="26" r:id="rId35"/>
-    <sheet name="รับวางบิล" sheetId="27" r:id="rId36"/>
-    <sheet name="เตรียมจ่าย" sheetId="29" r:id="rId37"/>
-    <sheet name="จ่ายหนี้ " sheetId="28" r:id="rId38"/>
-    <sheet name="คลัง" sheetId="30" r:id="rId39"/>
-    <sheet name="บัญชี" sheetId="31" r:id="rId40"/>
-    <sheet name="เช็ค " sheetId="32" r:id="rId41"/>
-    <sheet name="สินทรัพย์ " sheetId="33" r:id="rId42"/>
-    <sheet name="ทดรองจ่าย" sheetId="34" r:id="rId43"/>
-    <sheet name="ขนส่ง" sheetId="35" r:id="rId44"/>
-    <sheet name="MIS" sheetId="36" r:id="rId45"/>
+    <sheet name="Admin" sheetId="2" state="hidden" r:id="rId11"/>
+    <sheet name="ลูกค้า" sheetId="3" state="hidden" r:id="rId12"/>
+    <sheet name="เจ้าหนี้" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="สินค้า" sheetId="6" state="hidden" r:id="rId14"/>
+    <sheet name="ราคาขาย" sheetId="5" state="hidden" r:id="rId15"/>
+    <sheet name="เครดิต" sheetId="7" state="hidden" r:id="rId16"/>
+    <sheet name="เสนอราคา" sheetId="8" state="hidden" r:id="rId17"/>
+    <sheet name="จองสินค้า" sheetId="9" state="hidden" r:id="rId18"/>
+    <sheet name="สั่งขาย" sheetId="10" state="hidden" r:id="rId19"/>
+    <sheet name="ส่งของ" sheetId="11" state="hidden" r:id="rId20"/>
+    <sheet name="คืน" sheetId="12" state="hidden" r:id="rId21"/>
+    <sheet name="เพิ่มสินค้า" sheetId="13" state="hidden" r:id="rId22"/>
+    <sheet name="มัดจำ" sheetId="14" state="hidden" r:id="rId23"/>
+    <sheet name="คืนมัดจำ" sheetId="15" state="hidden" r:id="rId24"/>
+    <sheet name="ตั้งลูกหนี้" sheetId="16" state="hidden" r:id="rId25"/>
+    <sheet name="ลดลูกหนี้" sheetId="17" state="hidden" r:id="rId26"/>
+    <sheet name="วางบิล" sheetId="18" state="hidden" r:id="rId27"/>
+    <sheet name="ใบเสร็จ" sheetId="19" state="hidden" r:id="rId28"/>
+    <sheet name="ชำระหนี้ " sheetId="20" state="hidden" r:id="rId29"/>
+    <sheet name="สั่งซื้อ" sheetId="21" state="hidden" r:id="rId30"/>
+    <sheet name="รับสินค้า" sheetId="22" state="hidden" r:id="rId31"/>
+    <sheet name="ตั้งหนี้" sheetId="23" state="hidden" r:id="rId32"/>
+    <sheet name="ส่งคืน" sheetId="24" state="hidden" r:id="rId33"/>
+    <sheet name="ตั้งเจ้าหนี้" sheetId="25" state="hidden" r:id="rId34"/>
+    <sheet name="ลดเจ้าหนี้" sheetId="26" state="hidden" r:id="rId35"/>
+    <sheet name="รับวางบิล" sheetId="27" state="hidden" r:id="rId36"/>
+    <sheet name="เตรียมจ่าย" sheetId="29" state="hidden" r:id="rId37"/>
+    <sheet name="จ่ายหนี้ " sheetId="28" state="hidden" r:id="rId38"/>
+    <sheet name="คลัง" sheetId="30" state="hidden" r:id="rId39"/>
+    <sheet name="บัญชี" sheetId="31" state="hidden" r:id="rId40"/>
+    <sheet name="เช็ค " sheetId="32" state="hidden" r:id="rId41"/>
+    <sheet name="สินทรัพย์ " sheetId="33" state="hidden" r:id="rId42"/>
+    <sheet name="ทดรองจ่าย" sheetId="34" state="hidden" r:id="rId43"/>
+    <sheet name="ขนส่ง" sheetId="35" state="hidden" r:id="rId44"/>
+    <sheet name="MIS" sheetId="36" state="hidden" r:id="rId45"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1712">
   <si>
     <t>No.</t>
   </si>
@@ -4788,9 +4788,6 @@
     <t>update Orders  set IsMakePO=0;</t>
   </si>
   <si>
-    <t>set error end</t>
-  </si>
-  <si>
     <t>alter table ProductList add IsMerge int;</t>
   </si>
   <si>
@@ -5011,9 +5008,6 @@
   </si>
   <si>
     <t>เช็ค Stock มีหลายหน่วย</t>
-  </si>
-  <si>
-    <t>menu add pk</t>
   </si>
   <si>
     <t>1.0.0.69</t>
@@ -5410,9 +5404,6 @@
   </si>
   <si>
     <t>ใบเสนอราคาที่กลับมาแก้ไข หมายเหตุแล้วจะไม่แสดงครับ</t>
-  </si>
-  <si>
-    <t>สินค้านี้มี sn เดียวใช่ไหมครับ</t>
   </si>
   <si>
     <t>เบย์ลองแล้วครับ มันคำนวน ที่แถวมันอ่ะครับ อยากให้มันเลือกได้ว่าจะคำนวนแถวหรือจาก cost อ่ะครับ</t>
@@ -5745,6 +5736,39 @@
   </si>
   <si>
     <t>update  ProductList set PriceMain=Price;</t>
+  </si>
+  <si>
+    <t>alter table Province add IsInActive  int ;</t>
+  </si>
+  <si>
+    <t>alter table Province add IsDelete  int ;</t>
+  </si>
+  <si>
+    <t>alter table Province add CreateBy  bigint ;</t>
+  </si>
+  <si>
+    <t>alter table Province add CreateTime  datetime ;</t>
+  </si>
+  <si>
+    <t>alter table Province add ModifiedBy  bigint ;</t>
+  </si>
+  <si>
+    <t>alter table Province add ModifiedTime  datetime ;</t>
+  </si>
+  <si>
+    <t>alter table Province add Remark  nvarchar(100) ;</t>
+  </si>
+  <si>
+    <t>update Province set IsInActive=0;</t>
+  </si>
+  <si>
+    <t>update Province set IsDelete=0;</t>
+  </si>
+  <si>
+    <t>กำหนดราคา  เพิ่มเงื่อนไขการคำนวณให้เลือกใช้ cost เป็นตัวตั้ง หรือใช้ราคานั้นๆ</t>
+  </si>
+  <si>
+    <t>รายการสินค้าสามารถปรับเลื่อนขึ้นลงได้</t>
   </si>
 </sst>
 </file>
@@ -6046,12 +6070,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF2A411F"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Cordia New"/>
@@ -6061,6 +6079,12 @@
       <sz val="9"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Cordia New"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6709,27 +6733,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6738,9 +6752,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6754,6 +6765,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6788,6 +6811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7190,7 +7214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -7566,27 +7590,27 @@
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="163" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -7618,20 +7642,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="196" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8447,7 +8471,7 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8726,100 +8750,100 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="213" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="214"/>
+      <c r="C31" s="213"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="213" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="214"/>
+      <c r="C32" s="213"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="214"/>
+      <c r="C33" s="213"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B34" s="214" t="s">
+      <c r="B34" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="214"/>
+      <c r="C34" s="213"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="214"/>
+      <c r="C35" s="213"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B36" s="214" t="s">
+      <c r="B36" s="213" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="214"/>
+      <c r="C36" s="213"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="214"/>
+      <c r="C37" s="213"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B38" s="214" t="s">
+      <c r="B38" s="213" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="214"/>
+      <c r="C38" s="213"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="213" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="214"/>
+      <c r="C39" s="213"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="213" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="214"/>
+      <c r="C40" s="213"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="214" t="s">
+      <c r="B41" s="213" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="214"/>
+      <c r="C41" s="213"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B42" s="214" t="s">
+      <c r="B42" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="214"/>
+      <c r="C42" s="213"/>
     </row>
     <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B43" s="214" t="s">
+      <c r="B43" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="214"/>
+      <c r="C43" s="213"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B44" s="214" t="s">
+      <c r="B44" s="213" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="214"/>
+      <c r="C44" s="213"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="214" t="s">
+      <c r="B45" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="214"/>
+      <c r="C45" s="213"/>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B46" s="214" t="s">
+      <c r="B46" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="214"/>
+      <c r="C46" s="213"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
@@ -8833,6 +8857,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8843,12 +8873,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8862,7 +8886,9 @@
   </sheetPr>
   <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8963,7 +8989,7 @@
   <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9277,7 +9303,7 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9362,7 +9388,9 @@
   </sheetPr>
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9437,7 +9465,7 @@
   <dimension ref="B2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9530,7 +9558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
@@ -9961,82 +9989,82 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="180" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="180" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="180" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="180" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="161" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="167" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="180" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="163" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="163" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="121" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
   </sheetData>
@@ -10204,7 +10232,9 @@
   </sheetPr>
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10444,7 +10474,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10484,7 +10514,9 @@
   </sheetPr>
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10524,7 +10556,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10560,7 +10592,7 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10620,7 +10652,9 @@
   </sheetPr>
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10669,7 +10703,9 @@
   </sheetPr>
   <dimension ref="B2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10761,10 +10797,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C353" sqref="C352:C353"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -10797,7 +10833,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="191" t="s">
         <v>993</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -10805,13 +10841,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B5" s="192"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="151" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B6" s="192"/>
+      <c r="B6" s="191"/>
       <c r="C6" s="151" t="s">
         <v>992</v>
       </c>
@@ -11002,7 +11038,7 @@
       <c r="B37" s="151" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="192" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -11010,61 +11046,61 @@
       <c r="B38" s="151" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="193"/>
+      <c r="C38" s="192"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B39" s="151" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="193"/>
+      <c r="C39" s="192"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B40" s="151" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="193"/>
+      <c r="C40" s="192"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B41" s="151" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="193"/>
+      <c r="C41" s="192"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B42" s="151" t="s">
         <v>1059</v>
       </c>
-      <c r="C42" s="193"/>
+      <c r="C42" s="192"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B43" s="151" t="s">
         <v>1063</v>
       </c>
-      <c r="C43" s="193"/>
+      <c r="C43" s="192"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B44" s="151" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="193"/>
+      <c r="C44" s="192"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="193"/>
+      <c r="C45" s="192"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="193"/>
+      <c r="C46" s="192"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="193"/>
+      <c r="C47" s="192"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="193"/>
+      <c r="C48" s="192"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="193"/>
+      <c r="C49" s="192"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="193"/>
+      <c r="C50" s="192"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="151" t="s">
@@ -11953,7 +11989,7 @@
         <v>1433</v>
       </c>
       <c r="B212" s="151" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C212" s="151" t="s">
         <v>1432</v>
@@ -11961,7 +11997,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B213" s="151" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C213" s="151" t="s">
         <v>1435</v>
@@ -11969,7 +12005,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B214" s="151" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C214" s="151" t="s">
         <v>1450</v>
@@ -11977,7 +12013,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B215" s="151" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C215" s="151" t="s">
         <v>1436</v>
@@ -11985,7 +12021,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B216" s="120" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C216" s="151" t="s">
         <v>1442</v>
@@ -11993,7 +12029,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B217" s="151" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C217" s="151" t="s">
         <v>1448</v>
@@ -12001,7 +12037,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B218" s="151" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C218" s="151" t="s">
         <v>1449</v>
@@ -12009,65 +12045,65 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C219" s="151" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C220" s="151" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C221" s="151" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C222" s="151" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C223" s="151" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C224" s="151" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C225" s="151" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C226" s="151" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C227" s="151" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C228" s="151" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C229" s="151" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="151" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B231" s="151" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C231" s="151" t="s">
         <v>1450</v>
@@ -12080,208 +12116,208 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C233" s="151" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C234" s="151" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="151" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B235" s="151" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="151" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B236" s="151" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="151" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B238" s="151" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C238" s="151" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B239" s="151" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C239" s="151" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B240" s="151" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C240" s="151" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C241" s="151" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C242" s="151" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A244" s="151" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B244" s="151" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A246" s="151" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B246" s="151" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C246" s="151" t="s">
         <v>1499</v>
-      </c>
-      <c r="B246" s="151" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C246" s="151" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C247" s="151" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A249" s="151" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B249" s="151" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C249" s="151" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B250" s="151" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A252" s="151" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B252" s="151" t="s">
         <v>1516</v>
       </c>
-      <c r="B252" s="151" t="s">
-        <v>1517</v>
-      </c>
       <c r="C252" s="151" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B253" s="151" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C253" s="151" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C254" s="151" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C255" s="151" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A257" s="151" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B257" s="151" t="s">
         <v>1521</v>
       </c>
-      <c r="B257" s="151" t="s">
-        <v>1522</v>
-      </c>
       <c r="C257" s="151" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B258" s="151" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C258" s="151" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A260" s="151" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C260" s="151" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A261" s="151" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B261" s="151" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A262" s="151" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B262" s="151" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A263" s="151" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B263" s="151" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C263" s="185" t="s">
         <v>1535</v>
-      </c>
-      <c r="C263" s="185" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A264" s="151" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B264" s="151" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C264" s="185"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B265" s="151" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C265" s="185"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B266" s="151" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C266" s="185"/>
     </row>
@@ -12290,45 +12326,45 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A268" s="151" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B268" s="151" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C268" s="185" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B269" s="151" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C269" s="185" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B270" s="151" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C270" s="151" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B271" s="151" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C271" s="185"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C272" s="185" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C273" s="185" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.5">
@@ -12336,344 +12372,344 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C275" s="151" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C276" s="185" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C277" s="185" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C278" s="151" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C279" s="151" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A281" s="151" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B281" s="151" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B282" s="151" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A284" s="151" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B284" s="151" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B285" s="151" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A287" s="151" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B287" s="151" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A288" s="151" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B288" s="151" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A290" s="151" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B290" s="151" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C290" s="151" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B291" s="151" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C291" s="151" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B292" s="151" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C292" s="151" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B293" s="151" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C293" s="151" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="87" x14ac:dyDescent="0.5">
       <c r="B294" s="151" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C294" s="152" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B295" s="151" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C295" s="151" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A297" s="151" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B297" s="151" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B298" s="151" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B299" s="151" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B300" s="151" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B301" s="151" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B302" s="151" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A304" s="151" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B304" s="151" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B305" s="151" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B306" s="151" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B307" s="151" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A309" s="151" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B309" s="151" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C309" s="151" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B310" s="151" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C310" s="151" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B311" s="151" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A313" s="151" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B313" s="151" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B314" s="151" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B315" s="151" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B316" s="151" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B317" s="151" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A319" s="151" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B319" s="151" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B320" s="151" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B321" s="151" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B322" s="151" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A324" s="151" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="B324" s="151" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A325" s="151" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B325" s="151" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A327" s="151" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B327" s="151" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C327" s="151" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B328" s="151" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C328" s="151" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C329" s="185" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C330" s="151" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C331" s="151" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C332" s="185" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C333" s="151" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C334" s="151" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C335" s="151" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C336" s="185" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="87" x14ac:dyDescent="0.5">
       <c r="C337" s="152" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="108.75" x14ac:dyDescent="0.5">
       <c r="C338" s="152" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A339" s="151" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B339" s="151" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C339" s="152"/>
     </row>
@@ -12682,21 +12718,21 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A341" s="151" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B341" s="151" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="C341" s="151" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B342" s="151" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C342" s="152" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.5">
@@ -12704,151 +12740,187 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A344" s="151" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B344" s="151" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C344" s="151" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B345" s="151" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C345" s="152" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B346" s="151" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C346" s="152" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B347" s="151" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C347" s="151" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B348" s="151" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C348" s="151" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B349" s="151" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C349" s="151" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B350" s="151" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C350" s="191" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C350" s="190" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B351" s="151" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C351" s="185" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C351" s="185" t="s">
-        <v>1701</v>
-      </c>
-    </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B352" s="151" t="s">
+        <v>1711</v>
+      </c>
       <c r="C352" s="152" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C353" s="151" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C354" s="151" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C355" s="151" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C356" s="151" t="s">
         <v>1703</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B357" s="151" t="s">
-        <v>1525</v>
+      <c r="C357" s="151" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B358" s="151" t="s">
-        <v>1451</v>
+      <c r="C358" s="151" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B359" s="151" t="s">
+      <c r="C359" s="151" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C360" s="151" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C361" s="151" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C362" s="151" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B366" s="151" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B367" s="215" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B368" s="215" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B369" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B360" s="151" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B361" s="151" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B362" s="152" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B364" s="187" t="s">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B371" s="186" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B372" s="187" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B373" s="188" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B374" s="189" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B375" s="215" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B365" s="188" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B366" s="189" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B367" s="190" t="s">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B376" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B368" s="186" t="s">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B377" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B369" s="151" t="s">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B378" s="215" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B370" s="151" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B371" s="187" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B372" s="151" t="s">
-        <v>1650</v>
       </c>
     </row>
   </sheetData>
@@ -12868,7 +12940,9 @@
   </sheetPr>
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12983,7 +13057,9 @@
   </sheetPr>
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13022,7 +13098,9 @@
   </sheetPr>
   <dimension ref="B2:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13167,7 +13245,7 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13238,7 +13316,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13278,9 +13356,7 @@
   </sheetPr>
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13477,9 +13553,7 @@
   </sheetPr>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13569,9 +13643,7 @@
   </sheetPr>
   <dimension ref="A2:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13759,7 +13831,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="215" t="s">
+      <c r="A39" s="214" t="s">
         <v>927</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -13767,19 +13839,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="215"/>
+      <c r="A40" s="214"/>
       <c r="B40" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="215"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="214" t="s">
         <v>927</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -13787,13 +13859,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="215"/>
+      <c r="A43" s="214"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="215"/>
+      <c r="A44" s="214"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
@@ -18216,7 +18288,7 @@
         <v>1121</v>
       </c>
       <c r="G77" s="120" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H77" s="121" t="b">
         <v>1</v>
@@ -18780,13 +18852,13 @@
         <v>817</v>
       </c>
       <c r="E87" s="120" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F87" s="120" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G87" s="120" t="s">
         <v>1466</v>
-      </c>
-      <c r="G87" s="120" t="s">
-        <v>1467</v>
       </c>
       <c r="H87" s="121" t="b">
         <v>1</v>
@@ -18837,13 +18909,13 @@
         <v>902</v>
       </c>
       <c r="E88" s="120" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F88" s="120" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G88" s="120" t="s">
         <v>1485</v>
-      </c>
-      <c r="F88" s="120" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G88" s="120" t="s">
-        <v>1486</v>
       </c>
       <c r="H88" s="121" t="b">
         <v>1</v>
@@ -18894,13 +18966,13 @@
         <v>131</v>
       </c>
       <c r="E89" s="120" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="F89" s="120" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G89" s="120" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H89" s="121" t="b">
         <v>1</v>
@@ -18951,13 +19023,13 @@
         <v>779</v>
       </c>
       <c r="E90" s="120" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F90" s="120" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G90" s="120" t="s">
         <v>1547</v>
-      </c>
-      <c r="F90" s="120" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G90" s="120" t="s">
-        <v>1549</v>
       </c>
       <c r="H90" s="121" t="b">
         <v>1</v>
@@ -19008,13 +19080,13 @@
         <v>779</v>
       </c>
       <c r="E91" s="120" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F91" s="120" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G91" s="120" t="s">
         <v>1551</v>
-      </c>
-      <c r="F91" s="120" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G91" s="120" t="s">
-        <v>1553</v>
       </c>
       <c r="H91" s="121" t="b">
         <v>1</v>
@@ -19065,13 +19137,13 @@
         <v>779</v>
       </c>
       <c r="E92" s="120" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F92" s="120" t="s">
         <v>1555</v>
       </c>
-      <c r="F92" s="120" t="s">
-        <v>1557</v>
-      </c>
       <c r="G92" s="120" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H92" s="121" t="b">
         <v>1</v>
@@ -19122,13 +19194,13 @@
         <v>779</v>
       </c>
       <c r="E93" s="120" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F93" s="120" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G93" s="120" t="s">
         <v>1566</v>
-      </c>
-      <c r="F93" s="120" t="s">
-        <v>1567</v>
-      </c>
-      <c r="G93" s="120" t="s">
-        <v>1568</v>
       </c>
       <c r="H93" s="121" t="b">
         <v>1</v>
@@ -19179,13 +19251,13 @@
         <v>817</v>
       </c>
       <c r="E94" s="120" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F94" s="120" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G94" s="120" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H94" s="121" t="b">
         <v>1</v>
@@ -19236,13 +19308,13 @@
         <v>837</v>
       </c>
       <c r="E95" s="120" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F95" s="120" t="s">
         <v>1592</v>
       </c>
-      <c r="F95" s="120" t="s">
-        <v>1594</v>
-      </c>
       <c r="G95" s="120" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="H95" s="121" t="b">
         <v>1</v>
@@ -19293,13 +19365,13 @@
         <v>779</v>
       </c>
       <c r="E96" s="120" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F96" s="120" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="G96" s="120" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="H96" s="121" t="b">
         <v>1</v>
@@ -19350,13 +19422,13 @@
         <v>779</v>
       </c>
       <c r="E97" s="120" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="F97" s="120" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="G97" s="120" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="H97" s="121" t="b">
         <v>1</v>
@@ -19407,13 +19479,13 @@
         <v>817</v>
       </c>
       <c r="E98" s="120" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="F98" s="120" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="G98" s="120" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="H98" s="121" t="b">
         <v>1</v>
@@ -19464,49 +19536,49 @@
         <v>837</v>
       </c>
       <c r="E99" s="120" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="F99" s="120" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G99" s="120" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" s="190" t="s">
         <v>1695</v>
-      </c>
-      <c r="G99" s="120" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="M99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="O99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="P99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="R99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="S99" s="191" t="s">
-        <v>1698</v>
       </c>
     </row>
   </sheetData>
@@ -19786,9 +19858,7 @@
   </sheetPr>
   <dimension ref="B2:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -19979,9 +20049,7 @@
   </sheetPr>
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20281,8 +20349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" activeCellId="3" sqref="E9 E12 E15 E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21016,7 +21084,7 @@
         <v>40000</v>
       </c>
       <c r="F16" s="175" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G16" s="48"/>
       <c r="H16" s="49" t="s">
@@ -21462,97 +21530,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="197" t="s">
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="197" t="s">
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="197" t="s">
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="194" t="s">
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="194" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="194" t="s">
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="195"/>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="194" t="s">
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="194" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="194" t="s">
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="196"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="202"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26706,12 +26774,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26722,6 +26784,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27239,86 +27307,86 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="205" t="s">
+      <c r="G2" s="204" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="205" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="204" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="205" t="s">
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="204" t="s">
         <v>729</v>
       </c>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="205" t="s">
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="204" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="205" t="s">
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="204" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>653</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="204" t="s">
         <v>731</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="205"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="204" t="s">
         <v>655</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="205"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="204" t="s">
         <v>656</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="206"/>
+      <c r="AQ2" s="204" t="s">
         <v>657</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
+      <c r="AR2" s="205"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="206"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33114,11 +33182,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33128,6 +33191,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33605,98 +33673,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="198" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="193" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="197" t="s">
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="193" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="197" t="s">
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="193" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="197" t="s">
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="193" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="197" t="s">
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="194" t="s">
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="194" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="194" t="s">
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="194" t="s">
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="194" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="202"/>
+      <c r="AQ2" s="200" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="194" t="s">
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="202"/>
+      <c r="AU2" s="200" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="194" t="s">
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="200" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="196"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="202"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39109,6 +39177,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39120,11 +39193,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39312,38 +39380,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="213" t="s">
+      <c r="A1" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="212" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="213" t="s">
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="212" t="s">
         <v>730</v>
       </c>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="213" t="s">
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="212" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="209" t="s">
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="208" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="210"/>
+      <c r="P1" s="209"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="212"/>
-      <c r="B2" s="202"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1713">
   <si>
     <t>No.</t>
   </si>
@@ -5769,6 +5769,20 @@
   </si>
   <si>
     <t>รายการสินค้าสามารถปรับเลื่อนขึ้นลงได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE [dbo].NotifiData(
+ [IsClose] [int] NOT NULL,
+ [NotifyLevel] [int] NOT NULL,
+ [System] [nvarchar] (100) NULL,
+ [MenuDisplay] [nvarchar] (100) NULL,
+ [ValueDate] [Date] NULL,
+ [RefTable] [nvarchar] (50) NOT NULL,
+ [RefID] [bigint] NOT NULL,
+ [UserID] [bigint] NOT NULL,
+ [Remark] [nvarchar] (100) NULL 
+) ON [PRIMARY]
+</t>
   </si>
 </sst>
 </file>
@@ -6739,11 +6753,21 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6752,6 +6776,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6765,18 +6792,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6811,7 +6826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7642,20 +7656,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="196" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8750,100 +8764,100 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="213"/>
+      <c r="C31" s="214"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="214" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="213"/>
+      <c r="C32" s="214"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="214"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="213"/>
+      <c r="C34" s="214"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="213"/>
+      <c r="C35" s="214"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="213"/>
+      <c r="C36" s="214"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="213"/>
+      <c r="C37" s="214"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B38" s="213" t="s">
+      <c r="B38" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="213"/>
+      <c r="C38" s="214"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="213"/>
+      <c r="C39" s="214"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="214" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="213"/>
+      <c r="C40" s="214"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="213"/>
+      <c r="C41" s="214"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B42" s="213" t="s">
+      <c r="B42" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="213"/>
+      <c r="C42" s="214"/>
     </row>
     <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="213"/>
+      <c r="C43" s="214"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B44" s="213" t="s">
+      <c r="B44" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="213"/>
+      <c r="C44" s="214"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="213"/>
+      <c r="C45" s="214"/>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="213"/>
+      <c r="C46" s="214"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
@@ -8857,12 +8871,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8873,6 +8881,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10799,8 +10813,8 @@
   </sheetPr>
   <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -10833,7 +10847,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="192" t="s">
         <v>993</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -10841,13 +10855,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B5" s="191"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="151" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B6" s="191"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="151" t="s">
         <v>992</v>
       </c>
@@ -11038,7 +11052,7 @@
       <c r="B37" s="151" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="193" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -11046,61 +11060,61 @@
       <c r="B38" s="151" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="192"/>
+      <c r="C38" s="193"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B39" s="151" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="192"/>
+      <c r="C39" s="193"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B40" s="151" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="192"/>
+      <c r="C40" s="193"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B41" s="151" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="193"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B42" s="151" t="s">
         <v>1059</v>
       </c>
-      <c r="C42" s="192"/>
+      <c r="C42" s="193"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B43" s="151" t="s">
         <v>1063</v>
       </c>
-      <c r="C43" s="192"/>
+      <c r="C43" s="193"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B44" s="151" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="192"/>
+      <c r="C44" s="193"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="192"/>
+      <c r="C45" s="193"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="192"/>
+      <c r="C46" s="193"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="192"/>
+      <c r="C47" s="193"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="192"/>
+      <c r="C48" s="193"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="192"/>
+      <c r="C49" s="193"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="192"/>
+      <c r="C50" s="193"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="151" t="s">
@@ -12863,18 +12877,23 @@
         <v>1709</v>
       </c>
     </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C363" s="185" t="s">
+        <v>1712</v>
+      </c>
+    </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B366" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B367" s="215" t="s">
+      <c r="B367" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B368" s="215" t="s">
+      <c r="B368" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -12904,7 +12923,7 @@
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B375" s="215" t="s">
+      <c r="B375" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -12919,7 +12938,7 @@
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B378" s="215" t="s">
+      <c r="B378" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -13831,7 +13850,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="214" t="s">
+      <c r="A39" s="215" t="s">
         <v>927</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -13839,19 +13858,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="214"/>
+      <c r="A40" s="215"/>
       <c r="B40" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="214"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="215" t="s">
         <v>927</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -13859,13 +13878,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="214"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="214"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
@@ -21530,97 +21549,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="193" t="s">
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="200" t="s">
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="200" t="s">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="200" t="s">
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="200" t="s">
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="200" t="s">
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="202"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="196"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26774,6 +26793,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26784,12 +26809,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27307,86 +27326,86 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="204" t="s">
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="204" t="s">
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="204" t="s">
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="205" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="204" t="s">
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="205" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="205" t="s">
         <v>653</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="204" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>731</v>
       </c>
-      <c r="AF2" s="205"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="204" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>655</v>
       </c>
-      <c r="AJ2" s="205"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="204" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="206"/>
-      <c r="AQ2" s="204" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AR2" s="205"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33182,6 +33201,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33191,11 +33215,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33673,98 +33692,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="193" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="193" t="s">
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="193" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="193" t="s">
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="200" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="200" t="s">
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="200" t="s">
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="202"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="196"/>
+      <c r="AQ2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="202"/>
-      <c r="AU2" s="200" t="s">
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="196"/>
+      <c r="AU2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="200" t="s">
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="202"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="196"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39177,11 +39196,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39193,6 +39207,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39380,38 +39399,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="212" t="s">
+      <c r="A1" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="213" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="212" t="s">
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="213" t="s">
         <v>730</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="212" t="s">
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="213" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="208" t="s">
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="209" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="209"/>
+      <c r="P1" s="210"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="211"/>
-      <c r="B2" s="197"/>
+      <c r="A2" s="212"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="855" windowWidth="19080" windowHeight="6645" tabRatio="884" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="915" windowWidth="19080" windowHeight="6585" tabRatio="884" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" state="hidden" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1715">
   <si>
     <t>No.</t>
   </si>
@@ -5783,6 +5783,12 @@
  [Remark] [nvarchar] (100) NULL 
 ) ON [PRIMARY]
 </t>
+  </si>
+  <si>
+    <t>ใบสำคัญลงบัญชีแสดงยอดรวมผิดกรณีชำระ 2 ครั้ง</t>
+  </si>
+  <si>
+    <t>ใบสำคัญลงบัญชีเพิ่มช่องวันที่เอกสาร</t>
   </si>
 </sst>
 </file>
@@ -6760,15 +6766,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6776,9 +6773,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6792,6 +6786,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7656,20 +7662,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="197" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8871,6 +8877,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8881,12 +8893,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10813,8 +10819,8 @@
   </sheetPr>
   <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12828,11 +12834,17 @@
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B353" s="151" t="s">
+        <v>1713</v>
+      </c>
       <c r="C353" s="151" t="s">
         <v>1700</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B354" s="151" t="s">
+        <v>1714</v>
+      </c>
       <c r="C354" s="151" t="s">
         <v>1701</v>
       </c>
@@ -21549,97 +21561,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="197" t="s">
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="197" t="s">
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="197" t="s">
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="194" t="s">
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="194" t="s">
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="194" t="s">
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="195"/>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="194" t="s">
+      <c r="AM2" s="202"/>
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="194" t="s">
+      <c r="AQ2" s="202"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="194" t="s">
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="196"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="203"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26793,12 +26805,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26809,6 +26815,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27326,16 +27338,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27402,10 +27414,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33201,11 +33213,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33215,6 +33222,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33692,98 +33704,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="197" t="s">
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="197" t="s">
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="197" t="s">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="197" t="s">
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="194" t="s">
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="194" t="s">
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="194" t="s">
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="194" t="s">
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="194" t="s">
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="194" t="s">
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="194" t="s">
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="196"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="203"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39196,6 +39208,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39207,11 +39224,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39402,7 +39414,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39430,7 +39442,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5632,19 +5632,10 @@
     <t>PO เพิ่มหน่วย</t>
   </si>
   <si>
-    <t>update stock เปลี่ยนเป็น list สินค้ามา update เลย</t>
-  </si>
-  <si>
     <t>หน้ารายการรวม เพิ่มคอลัมรหัสลูกค้า</t>
   </si>
   <si>
-    <t>หน้าข้อมูลจังหวัด</t>
-  </si>
-  <si>
     <t>1.0.0.90</t>
-  </si>
-  <si>
-    <t>สินค้าเพิ่มหน่วยหลักซื้อ</t>
   </si>
   <si>
     <t>จังหวัด</t>
@@ -5790,13 +5781,22 @@
   <si>
     <t>ใบสำคัญลงบัญชีเพิ่มช่องวันที่เอกสาร</t>
   </si>
+  <si>
+    <t>ข้อมูลสินค้าเพิ่มหน่วยหลักซื้อ</t>
+  </si>
+  <si>
+    <t>update stock เปลี่ยนรูปแบบหน้าจอ</t>
+  </si>
+  <si>
+    <t>เพิ่มหน้าข้อมูลจังหวัด</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -6409,7 +6409,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6493,20 +6493,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6674,11 +6674,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6766,6 +6766,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6773,6 +6782,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6786,18 +6798,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7662,20 +7662,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="197" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8877,12 +8877,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8893,6 +8887,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10820,7 +10820,7 @@
   <dimension ref="A1:C378"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B357" sqref="B357"/>
+      <selection activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A344" s="151" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B344" s="151" t="s">
         <v>1676</v>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B345" s="151" t="s">
-        <v>1691</v>
+        <v>1712</v>
       </c>
       <c r="C345" s="152" t="s">
         <v>1682</v>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B347" s="151" t="s">
-        <v>1687</v>
+        <v>1713</v>
       </c>
       <c r="C347" s="151" t="s">
         <v>1684</v>
@@ -12798,100 +12798,100 @@
         <v>1686</v>
       </c>
       <c r="C348" s="151" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B349" s="151" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C349" s="151" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B350" s="151" t="s">
-        <v>1689</v>
+        <v>1714</v>
       </c>
       <c r="C350" s="190" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B351" s="151" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C351" s="185" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B352" s="151" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C352" s="152" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B353" s="151" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C353" s="151" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B354" s="151" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C354" s="151" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C355" s="151" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C356" s="151" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C357" s="151" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C358" s="151" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C359" s="151" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C360" s="151" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C361" s="151" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C362" s="151" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C363" s="185" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.5">
@@ -19567,49 +19567,49 @@
         <v>837</v>
       </c>
       <c r="E99" s="120" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="F99" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G99" s="120" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" s="190" t="s">
         <v>1692</v>
-      </c>
-      <c r="G99" s="120" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" s="121" t="b">
-        <v>1</v>
-      </c>
-      <c r="M99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="O99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="P99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="R99" s="121" t="b">
-        <v>0</v>
-      </c>
-      <c r="S99" s="190" t="s">
-        <v>1695</v>
       </c>
     </row>
   </sheetData>
@@ -21561,97 +21561,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="197" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="194" t="s">
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="194" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="194" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="194" t="s">
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="201" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="201" t="s">
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="201" t="s">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="201" t="s">
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="202"/>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="201" t="s">
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="202"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="201" t="s">
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="202"/>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="201" t="s">
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="203"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="196"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="200"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26805,6 +26805,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26815,12 +26821,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27338,16 +27338,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27414,10 +27414,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33213,6 +33213,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33222,11 +33227,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33704,98 +33704,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="194" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="194" t="s">
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="194" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="194" t="s">
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="201" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="201" t="s">
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="201" t="s">
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="201" t="s">
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="201" t="s">
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="196"/>
+      <c r="AQ2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="201" t="s">
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="196"/>
+      <c r="AU2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="201" t="s">
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="203"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="196"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39208,11 +39208,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39224,6 +39219,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39414,7 +39414,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39442,7 +39442,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="198"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1718">
   <si>
     <t>No.</t>
   </si>
@@ -5790,13 +5790,22 @@
   <si>
     <t>เพิ่มหน้าข้อมูลจังหวัด</t>
   </si>
+  <si>
+    <t>1.0.0.91</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหากไม่มีการระบุวงเงินเครดิตลูกค้า ไม่ต้องเข้าโปรเซสเช็คเครดิต</t>
+  </si>
+  <si>
+    <t>แสดงหน้า Splash ระหว่างรอหน้าแรกโหลดตอนเข้าโปรแกรม</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -6409,7 +6418,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6493,20 +6502,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6674,11 +6683,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6766,15 +6775,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6782,9 +6782,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6798,6 +6795,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7662,20 +7671,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="197" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8877,6 +8886,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8887,12 +8902,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10817,10 +10826,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C378"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354"/>
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12833,7 +12842,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B353" s="151" t="s">
         <v>1710</v>
       </c>
@@ -12841,7 +12850,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B354" s="151" t="s">
         <v>1711</v>
       </c>
@@ -12849,108 +12858,135 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C355" s="151" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C356" s="151" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C357" s="151" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C358" s="151" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C359" s="151" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C360" s="151" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C361" s="151" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C362" s="151" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C363" s="185" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B366" s="151" t="s">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A364" s="151" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B364" s="151" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C364" s="185"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B365" s="151" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C365" s="185"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C366" s="185"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C367" s="185"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C368" s="185"/>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C369" s="185"/>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B372" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B367" s="191" t="s">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B373" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B368" s="191" t="s">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B374" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B369" s="152" t="s">
+    <row r="375" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B375" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B371" s="186" t="s">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B377" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B372" s="187" t="s">
+    <row r="378" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B378" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B373" s="188" t="s">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B379" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B374" s="189" t="s">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B380" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B375" s="191" t="s">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B381" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B376" s="151" t="s">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B382" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B377" s="186" t="s">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B383" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B378" s="191" t="s">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B384" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -21561,97 +21597,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="197" t="s">
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="197" t="s">
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="197" t="s">
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="194" t="s">
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="194" t="s">
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="194" t="s">
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="195"/>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="194" t="s">
+      <c r="AM2" s="202"/>
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="194" t="s">
+      <c r="AQ2" s="202"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="194" t="s">
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="196"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="203"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26805,12 +26841,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26821,6 +26851,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27338,16 +27374,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27414,10 +27450,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33213,11 +33249,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33227,6 +33258,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33704,98 +33740,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="194" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="197" t="s">
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="194" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="197" t="s">
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="194" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="197" t="s">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="194" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="197" t="s">
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="194" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="194" t="s">
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="194" t="s">
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="194" t="s">
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="201" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="194" t="s">
+      <c r="AJ2" s="202"/>
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="201" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="194" t="s">
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="201" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="194" t="s">
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="202"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="201" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="194" t="s">
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="201" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="196"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="203"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39208,6 +39244,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39219,11 +39260,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39414,7 +39450,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39442,7 +39478,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="915" windowWidth="19080" windowHeight="6585" tabRatio="884" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="915" windowWidth="19080" windowHeight="6585" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="46" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="45" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="45" r:id="rId2"/>
     <sheet name="UpdateList" sheetId="43" r:id="rId3"/>
     <sheet name="Menu" sheetId="42" r:id="rId4"/>
     <sheet name="TimeLine" sheetId="39" r:id="rId5"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1736">
   <si>
     <t>No.</t>
   </si>
@@ -5799,6 +5799,60 @@
   <si>
     <t>แสดงหน้า Splash ระหว่างรอหน้าแรกโหลดตอนเข้าโปรแกรม</t>
   </si>
+  <si>
+    <t>alter table Campaign add EvaluateTarget  numeric(18,2);</t>
+  </si>
+  <si>
+    <t>กรณีใช้หน่วยย่อยแก้ราคาแล้วไม่เปลี่ยน</t>
+  </si>
+  <si>
+    <t>alter table Orders add CampaignID   bigint ;</t>
+  </si>
+  <si>
+    <t>ต้นครับ รายการอนุมัติ ขอเพิ่ม ใบกำกับภาษี/ยืมสินค้า/ใบส่งของ</t>
+  </si>
+  <si>
+    <t>สรุปเรื่อง อนุมัติอ่ะครับ พอดีมันไม่ครอบคลุมอ่ะครับ ส่วนที่ขาด</t>
+  </si>
+  <si>
+    <t>1. เรื่องบิลต่ำกว่าเกณฑ์ที่กำหนด (เฉพาะใบกำกับภาษี/ใบส่งของครับ เช็คยอดรวมของใบนั้นเทียบกับเกณฑ์ครับ)ให้ส่งอนุมัติ</t>
+  </si>
+  <si>
+    <t>2. เรื่องราคาสินค้าต่ำกว่าทุนที่กำหนด (Cost)ให้ส่งอนุมัติ (เฉพาะใบสั่งขาย/ใบสั่งจอง)</t>
+  </si>
+  <si>
+    <t>ปล. Cost คือต้นทุนที่กำหนดไม่ใช่ต้นทุนซึ่งคำนวนจากต้นทุนจริง จากระบบ FIFO</t>
+  </si>
+  <si>
+    <t>-----------------------</t>
+  </si>
+  <si>
+    <t>ส่วนสร้างใบสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>1. เรื่องสินค้าดึงยกเลิกใบสั่งซื้อแล้ว รายการซื้อล่าสุดจะหายไปไม่แสดงครับ แม้จะมีสินค้ารายการเดิมก็ตามจะแสดงของปีเก่าๆ</t>
+  </si>
+  <si>
+    <t>2. เรื่องดึงราคาอยากให้ดึงราคาล่าสุดที่เคยซื้อ กรณีไม่มีราคาในส่วนแจ้งราคาครับ</t>
+  </si>
+  <si>
+    <t>3. แสดงรายการแจ้งราคาซื้อด้านล่าง รายการซื้อ 3ลำดับล่าสุด</t>
+  </si>
+  <si>
+    <t>ส่วนกำหนดราคาสินค้า:อยากเพิ่มต้นทุนจริงที่คำนวนจากระบบ FIFO ด้วยครับ มาแสดงที่หน้าจอกำหนดราคาสินค้าแสดงก่อนหน้า Cost ด้วยครับ</t>
+  </si>
+  <si>
+    <t>เพิ่มการเลือก Campaign ในหน้าทำรายการขาย</t>
+  </si>
+  <si>
+    <t>หน้าจอ Campaign</t>
+  </si>
+  <si>
+    <t>เบเทสไม่เจอ</t>
+  </si>
+  <si>
+    <t>3. เรื่องของ Account ที่ถูกระงับวงเงินอยู่ ให้ส่งอนุมัติ (เฉพาะใบสั่งขาย/ใบสั่งจอง)</t>
+  </si>
 </sst>
 </file>
 
@@ -5807,7 +5861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6113,6 +6167,12 @@
     <font>
       <sz val="14"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Cordia New"/>
       <family val="2"/>
     </font>
@@ -6424,7 +6484,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6775,6 +6835,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6782,6 +6851,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6795,18 +6867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6841,6 +6901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7671,20 +7732,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="197" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8886,12 +8947,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8902,6 +8957,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10826,10 +10887,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -12916,77 +12977,198 @@
       <c r="B365" s="151" t="s">
         <v>1717</v>
       </c>
-      <c r="C365" s="185"/>
+      <c r="C365" s="152" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C366" s="185"/>
+      <c r="B366" s="151" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C366" s="152" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B367" s="151" t="s">
+        <v>1732</v>
+      </c>
       <c r="C367" s="185"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B368" s="151" t="s">
+        <v>1731</v>
+      </c>
       <c r="C368" s="185"/>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B369" s="151" t="s">
+        <v>1733</v>
+      </c>
       <c r="C369" s="185"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C370" s="185"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C371" s="185"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B372" s="151" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C372" s="185"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B373" s="151" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C373" s="185"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B374" s="151" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C374" s="185"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B375" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C375" s="185"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B376" s="151" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C376" s="185"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B377" s="151" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C377" s="185"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B378" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C378" s="185"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B379" s="216" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C379" s="185"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C380" s="185"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C381" s="185"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B382" s="151" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C382" s="185"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A383" s="151" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B383" s="216" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C383" s="185"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B384" s="151" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C384" s="185"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B385" s="151" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C385" s="185"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C386" s="185"/>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C387" s="185"/>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C388" s="185"/>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C389" s="185"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C390" s="185"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C391" s="185"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B394" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B373" s="191" t="s">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B395" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B374" s="191" t="s">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B396" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="375" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B375" s="152" t="s">
+    <row r="397" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B397" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B377" s="186" t="s">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B399" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="378" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B378" s="187" t="s">
+    <row r="400" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B400" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B379" s="188" t="s">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B401" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B380" s="189" t="s">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B402" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B381" s="191" t="s">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B403" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B382" s="151" t="s">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B404" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B383" s="186" t="s">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B405" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B384" s="191" t="s">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B406" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -13981,9 +14163,9 @@
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21597,97 +21779,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="197" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="194" t="s">
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="194" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="194" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="194" t="s">
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="201" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="201" t="s">
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="201" t="s">
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="201" t="s">
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="202"/>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="201" t="s">
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="202"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="201" t="s">
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="202"/>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="201" t="s">
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="203"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="196"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="200"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -26841,6 +27023,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -26851,12 +27039,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27374,16 +27556,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="205" t="s">
@@ -27450,10 +27632,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33249,6 +33431,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33258,11 +33445,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33740,98 +33922,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="197" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="197" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="194" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="197" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="194" t="s">
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="197" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="194" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="197" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="194" t="s">
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="201" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="194" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="201" t="s">
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="194" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="201" t="s">
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="194" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="201" t="s">
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="194" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="201" t="s">
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="196"/>
+      <c r="AQ2" s="194" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="202"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="201" t="s">
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="196"/>
+      <c r="AU2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="201" t="s">
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="194" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="203"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="196"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39244,11 +39426,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39260,6 +39437,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39450,7 +39632,7 @@
       <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="213" t="s">
@@ -39478,7 +39660,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="212"/>
-      <c r="B2" s="198"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="915" windowWidth="19080" windowHeight="6585" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="975" windowWidth="19080" windowHeight="6525" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1741">
   <si>
     <t>No.</t>
   </si>
@@ -5842,16 +5842,31 @@
     <t>ส่วนกำหนดราคาสินค้า:อยากเพิ่มต้นทุนจริงที่คำนวนจากระบบ FIFO ด้วยครับ มาแสดงที่หน้าจอกำหนดราคาสินค้าแสดงก่อนหน้า Cost ด้วยครับ</t>
   </si>
   <si>
-    <t>เพิ่มการเลือก Campaign ในหน้าทำรายการขาย</t>
-  </si>
-  <si>
-    <t>หน้าจอ Campaign</t>
-  </si>
-  <si>
     <t>เบเทสไม่เจอ</t>
   </si>
   <si>
     <t>3. เรื่องของ Account ที่ถูกระงับวงเงินอยู่ ให้ส่งอนุมัติ (เฉพาะใบสั่งขาย/ใบสั่งจอง)</t>
+  </si>
+  <si>
+    <t>หน้าจอ Campaign เพิ่มการแสดง activity</t>
+  </si>
+  <si>
+    <t>เพิ่มการเลือก Campaign ในหน้าใบกำกับภาษี</t>
+  </si>
+  <si>
+    <t>รายการอนุมัติ : เพิ่ม ใบกำกับภาษี/ยืมสินค้า/ใบส่งของ</t>
+  </si>
+  <si>
+    <t>รายการอนุมัติ :  เรื่องบิลต่ำกว่าเกณฑ์ที่กำหนด (เฉพาะใบกำกับภาษี/ใบส่งของครับ เช็คยอดรวมของใบนั้นเทียบกับเกณฑ์)</t>
+  </si>
+  <si>
+    <t>รายการอนุมัติ :  Account ที่ถูกระงับวงเงินอยู่ ให้ส่งอนุมัติ (เฉพาะใบสั่งขาย/ใบสั่งจอง)</t>
+  </si>
+  <si>
+    <t>ส่วนสร้างใบสั่งซื้อ: ดึงราคาล่าสุดที่เคยซื้อ กรณีไม่มีราคาในส่วนแจ้งราคาซื้อ</t>
+  </si>
+  <si>
+    <t>ส่วนสร้างใบสั่งซื้อ:  แสดงรายการซื้อ 3ลำดับล่าสุด</t>
   </si>
 </sst>
 </file>
@@ -6829,6 +6844,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6901,7 +6917,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7732,20 +7747,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="202" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8840,100 +8855,100 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="215" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="214"/>
+      <c r="C31" s="215"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="215" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="214"/>
+      <c r="C32" s="215"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B33" s="214" t="s">
+      <c r="B33" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="214"/>
+      <c r="C33" s="215"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B34" s="214" t="s">
+      <c r="B34" s="215" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="214"/>
+      <c r="C34" s="215"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="214"/>
+      <c r="C35" s="215"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B36" s="214" t="s">
+      <c r="B36" s="215" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="214"/>
+      <c r="C36" s="215"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="214"/>
+      <c r="C37" s="215"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B38" s="214" t="s">
+      <c r="B38" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="214"/>
+      <c r="C38" s="215"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="215" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="214"/>
+      <c r="C39" s="215"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="215" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="214"/>
+      <c r="C40" s="215"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="214" t="s">
+      <c r="B41" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="214"/>
+      <c r="C41" s="215"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B42" s="214" t="s">
+      <c r="B42" s="215" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="214"/>
+      <c r="C42" s="215"/>
     </row>
     <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B43" s="214" t="s">
+      <c r="B43" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="214"/>
+      <c r="C43" s="215"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B44" s="214" t="s">
+      <c r="B44" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="214"/>
+      <c r="C44" s="215"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="214" t="s">
+      <c r="B45" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="214"/>
+      <c r="C45" s="215"/>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B46" s="214" t="s">
+      <c r="B46" s="215" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="214"/>
+      <c r="C46" s="215"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
@@ -10887,10 +10902,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C406"/>
+  <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B373" sqref="B373"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -10923,7 +10938,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="193" t="s">
         <v>993</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -10931,13 +10946,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B5" s="192"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="151" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B6" s="192"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="151" t="s">
         <v>992</v>
       </c>
@@ -11128,7 +11143,7 @@
       <c r="B37" s="151" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="194" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -11136,61 +11151,61 @@
       <c r="B38" s="151" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="193"/>
+      <c r="C38" s="194"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B39" s="151" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="193"/>
+      <c r="C39" s="194"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B40" s="151" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="193"/>
+      <c r="C40" s="194"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B41" s="151" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="193"/>
+      <c r="C41" s="194"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B42" s="151" t="s">
         <v>1059</v>
       </c>
-      <c r="C42" s="193"/>
+      <c r="C42" s="194"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B43" s="151" t="s">
         <v>1063</v>
       </c>
-      <c r="C43" s="193"/>
+      <c r="C43" s="194"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B44" s="151" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="193"/>
+      <c r="C44" s="194"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="193"/>
+      <c r="C45" s="194"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="193"/>
+      <c r="C46" s="194"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="193"/>
+      <c r="C47" s="194"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="193"/>
+      <c r="C48" s="194"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="193"/>
+      <c r="C49" s="194"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="193"/>
+      <c r="C50" s="194"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="151" t="s">
@@ -12991,7 +13006,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B367" s="151" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="C367" s="185"/>
     </row>
@@ -13001,174 +13016,204 @@
       </c>
       <c r="C368" s="185"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B369" s="151" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C369" s="185"/>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B370" s="151" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C370" s="185"/>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B371" s="151" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C371" s="185"/>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B372" s="151" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C372" s="185"/>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B373" s="151" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C373" s="185"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B374" s="151" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C374" s="185"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C375" s="185"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C376" s="185"/>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B377" s="192" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C377" s="185"/>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B378" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C378" s="185"/>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B379" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C379" s="185"/>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B380" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C380" s="185"/>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B381" s="192" t="s">
         <v>1733</v>
       </c>
-      <c r="C369" s="185"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C370" s="185"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C371" s="185"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B372" s="151" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C372" s="185"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B373" s="151" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C373" s="185"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B374" s="151" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C374" s="185"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B375" s="151" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C375" s="185"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B376" s="151" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C376" s="185"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B377" s="151" t="s">
+      <c r="C381" s="185"/>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B382" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C377" s="185"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B378" s="151" t="s">
+      <c r="C382" s="185"/>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B383" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C378" s="185"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B379" s="216" t="s">
+      <c r="C383" s="185"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B384" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C379" s="185"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C380" s="185"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C381" s="185"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B382" s="151" t="s">
+      <c r="C384" s="185"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C385" s="185"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C386" s="185"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B387" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C382" s="185"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A383" s="151" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B383" s="216" t="s">
+      <c r="C387" s="185"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A388" s="151" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B388" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C383" s="185"/>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B384" s="151" t="s">
+      <c r="C388" s="185"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B389" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C384" s="185"/>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B385" s="151" t="s">
+      <c r="C389" s="185"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B390" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C385" s="185"/>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C386" s="185"/>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C387" s="185"/>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C388" s="185"/>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C389" s="185"/>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C390" s="185"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C391" s="185"/>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B394" s="151" t="s">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C392" s="185"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C393" s="185"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C394" s="185"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C395" s="185"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C396" s="185"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B399" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B395" s="191" t="s">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B400" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B396" s="191" t="s">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B401" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="397" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B397" s="152" t="s">
+    <row r="402" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B402" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B399" s="186" t="s">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B404" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="400" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B400" s="187" t="s">
+    <row r="405" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B405" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B401" s="188" t="s">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B406" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B402" s="189" t="s">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B407" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B403" s="191" t="s">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B408" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B404" s="151" t="s">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B409" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B405" s="186" t="s">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B410" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B406" s="191" t="s">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B411" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -14080,7 +14125,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="215" t="s">
+      <c r="A39" s="216" t="s">
         <v>927</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -14088,19 +14133,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="215"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="215"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="216" t="s">
         <v>927</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -14108,13 +14153,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="215"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="215"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
@@ -21779,97 +21824,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="204" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="197" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="197" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="197" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="194" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="195" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="195" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="194" t="s">
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="195" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="194" t="s">
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="195" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="195"/>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="194" t="s">
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="195" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="194" t="s">
+      <c r="AQ2" s="196"/>
+      <c r="AR2" s="196"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="195" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="194" t="s">
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="195" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="196"/>
+      <c r="AY2" s="196"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="197"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="205"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27556,86 +27601,86 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="204" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="205" t="s">
+      <c r="G2" s="206" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="205" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="206" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="205" t="s">
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="206" t="s">
         <v>729</v>
       </c>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="205" t="s">
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="206" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="205" t="s">
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="206" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>653</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="206" t="s">
         <v>731</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="206" t="s">
         <v>655</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="207"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="206" t="s">
         <v>656</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="208"/>
+      <c r="AQ2" s="206" t="s">
         <v>657</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
+      <c r="AR2" s="207"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="208"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="205"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33922,98 +33967,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="204" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="197" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="197" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="197" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="197" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="194" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="195" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="194" t="s">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="195" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="194" t="s">
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="195" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="194" t="s">
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="197"/>
+      <c r="AM2" s="195" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="195"/>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="194" t="s">
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="195" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="195"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="194" t="s">
+      <c r="AR2" s="196"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="197"/>
+      <c r="AU2" s="195" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="194" t="s">
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="195" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="196"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="196"/>
+      <c r="BB2" s="197"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="205"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39629,38 +39674,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="213" t="s">
+      <c r="A1" s="212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="214" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="213" t="s">
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="214" t="s">
         <v>730</v>
       </c>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="213" t="s">
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="214" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="209" t="s">
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="210" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="210"/>
+      <c r="P1" s="211"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="212"/>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1747">
   <si>
     <t>No.</t>
   </si>
@@ -5868,13 +5868,31 @@
   <si>
     <t>ส่วนสร้างใบสั่งซื้อ:  แสดงรายการซื้อ 3ลำดับล่าสุด</t>
   </si>
+  <si>
+    <t>alter table Company add IsApproveInvoice   integer ;</t>
+  </si>
+  <si>
+    <t>alter table Company add IsApproveShiping   integer ;</t>
+  </si>
+  <si>
+    <t>alter table Company add IsApproveBorrow   integer ;</t>
+  </si>
+  <si>
+    <t>alter table Company add CheckLimitInvoice   integer ;</t>
+  </si>
+  <si>
+    <t>alter table Company add CheckLimitShiping   integer ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alter table Company add UnderLimit   numeric(18,2) ; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -6493,7 +6511,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6577,20 +6595,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6758,11 +6776,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6851,15 +6869,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6867,9 +6876,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6883,6 +6889,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7747,20 +7765,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="202" t="s">
+      <c r="A2" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="198" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="203"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8962,6 +8980,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8972,12 +8996,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10904,14 +10922,14 @@
   </sheetPr>
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B376" sqref="B376"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C365" sqref="C365:C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="151"/>
-    <col min="2" max="2" width="64.42578125" style="151" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" style="151" customWidth="1"/>
     <col min="3" max="3" width="74.5703125" style="151" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="151"/>
   </cols>
@@ -13008,37 +13026,49 @@
       <c r="B367" s="151" t="s">
         <v>1735</v>
       </c>
-      <c r="C367" s="185"/>
+      <c r="C367" s="152" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B368" s="151" t="s">
         <v>1731</v>
       </c>
-      <c r="C368" s="185"/>
+      <c r="C368" s="185" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B369" s="151" t="s">
         <v>1734</v>
       </c>
-      <c r="C369" s="185"/>
+      <c r="C369" s="185" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B370" s="151" t="s">
         <v>1736</v>
       </c>
-      <c r="C370" s="185"/>
+      <c r="C370" s="185" t="s">
+        <v>1744</v>
+      </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B371" s="151" t="s">
         <v>1737</v>
       </c>
-      <c r="C371" s="185"/>
+      <c r="C371" s="185" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B372" s="151" t="s">
         <v>1738</v>
       </c>
-      <c r="C372" s="185"/>
+      <c r="C372" s="185" t="s">
+        <v>1746</v>
+      </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B373" s="151" t="s">
@@ -13172,7 +13202,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+    <row r="402" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
       <c r="B402" s="152" t="s">
         <v>1624</v>
       </c>
@@ -13182,7 +13212,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="405" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B405" s="187" t="s">
         <v>1640</v>
       </c>
@@ -21824,97 +21854,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="202" t="s">
+      <c r="B2" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="200" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="195" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="195" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="195" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="195" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="195" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="195" t="s">
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="202" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="195" t="s">
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="202" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="195" t="s">
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="202" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="195" t="s">
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="203"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="202" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="195" t="s">
+      <c r="AM2" s="203"/>
+      <c r="AN2" s="203"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="202" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="195" t="s">
+      <c r="AQ2" s="203"/>
+      <c r="AR2" s="203"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="202" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="196"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="195" t="s">
+      <c r="AU2" s="203"/>
+      <c r="AV2" s="203"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="202" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="196"/>
-      <c r="AZ2" s="196"/>
-      <c r="BA2" s="197"/>
+      <c r="AY2" s="203"/>
+      <c r="AZ2" s="203"/>
+      <c r="BA2" s="204"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="205"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27068,12 +27098,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27084,6 +27108,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27601,16 +27631,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="202" t="s">
+      <c r="C2" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="200" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="206" t="s">
@@ -27677,10 +27707,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="205"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33476,11 +33506,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33490,6 +33515,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33967,98 +33997,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="202" t="s">
+      <c r="C2" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="200" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="195" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="195" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="195" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="195" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="195" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="195" t="s">
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="202" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="195" t="s">
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="204"/>
+      <c r="AE2" s="202" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="195" t="s">
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="202" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="195" t="s">
+      <c r="AJ2" s="203"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="204"/>
+      <c r="AM2" s="202" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="195" t="s">
+      <c r="AN2" s="203"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="204"/>
+      <c r="AQ2" s="202" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="195" t="s">
+      <c r="AR2" s="203"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="204"/>
+      <c r="AU2" s="202" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="197"/>
-      <c r="AY2" s="195" t="s">
+      <c r="AV2" s="203"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="204"/>
+      <c r="AY2" s="202" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="196"/>
-      <c r="BA2" s="196"/>
-      <c r="BB2" s="197"/>
+      <c r="AZ2" s="203"/>
+      <c r="BA2" s="203"/>
+      <c r="BB2" s="204"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="205"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39471,6 +39501,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39482,11 +39517,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39677,7 +39707,7 @@
       <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="198" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="214" t="s">
@@ -39705,7 +39735,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="213"/>
-      <c r="B2" s="203"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1757">
   <si>
     <t>No.</t>
   </si>
@@ -5885,6 +5885,36 @@
   </si>
   <si>
     <t xml:space="preserve">alter table Company add UnderLimit   numeric(18,2) ; </t>
+  </si>
+  <si>
+    <t>อย่างลักกี้วัน กรุ๊ป มี 3 รายการถ้าดึง 2 รายการ ดึงไปสั่งซื้อ 1 รายการจะไม่หายครับ ถ้าดึงครบหมดถึงจะปิดได้แล้วจะหายหมดครับ</t>
+  </si>
+  <si>
+    <t>อีกกรณีคือมีรายใบพร้อมกันจะปิดใบล่างสุดที่ครบครับ</t>
+  </si>
+  <si>
+    <t>สรา้งใบสั่  :ดึงใบสั่งจอง --&gt; สร้างใบสั่งซื้อ--&gt; แล้วไม่ปิดรายการ  ดึงหลายๆใบรวมไม่ปิด ปิดใบล่างสุด 1 ใบครับ</t>
+  </si>
+  <si>
+    <t>ส่วนของนำเข้าระบบด้วยนะครับ รับสินค้าเข้าแล้วสินค้านั้นๆก้อยังอยู่ถ้าไม่ได้รับทั้งใบอ่ะครับ</t>
+  </si>
+  <si>
+    <t>สั่งขายแล้วตัวไหนไม่มีของ --&gt; เปิดใบสั่งจอง จำนวนเป็น 0 ครับ</t>
+  </si>
+  <si>
+    <t>ปัญหาที่เจออีกอย่าง หลังจากนำสินค้าเข้าระบบแล้ว ใบสั่งซื้อจะปิดเลย ไม่สามารถดึงมาใบกำกับภาษีได้ครับ</t>
+  </si>
+  <si>
+    <t>1.0.0.92</t>
+  </si>
+  <si>
+    <t>หน้าจอสร้างใบสั่งซื้อ : ไม่บันทึกราคาหลัก</t>
+  </si>
+  <si>
+    <t>หน้าจอสร้างใบสั่งซื้อ : กรณีสร้างจากใบจองหลายใบแสดงสถานะผิด</t>
+  </si>
+  <si>
+    <t>หน้าจอสร้างใบสั่งซื้อ : กรณีสร้างจากใบจองหลายใบ รวมสินค้า แสดงสถานะผิด</t>
   </si>
 </sst>
 </file>
@@ -6869,6 +6899,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6876,6 +6915,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6889,18 +6931,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7027,6 +7057,49 @@
         <a:xfrm>
           <a:off x="4318000" y="25812750"/>
           <a:ext cx="4624917" cy="4401131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4431785</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>143620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7461249" y="113019417"/>
+          <a:ext cx="4114286" cy="2514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7765,20 +7838,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="198" t="s">
+      <c r="A2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="202" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="199"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8980,12 +9053,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -8996,6 +9063,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10920,10 +10993,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C411"/>
+  <dimension ref="A1:C431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C365" sqref="C365:C372"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -10975,7 +11048,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B7" s="152" t="s">
         <v>999</v>
       </c>
@@ -11041,7 +11114,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B16" s="154" t="s">
         <v>1009</v>
       </c>
@@ -11095,7 +11168,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B25" s="152" t="s">
         <v>1021</v>
       </c>
@@ -11714,12 +11787,12 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B136" s="152" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B137" s="152" t="s">
         <v>1247</v>
       </c>
@@ -13038,7 +13111,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B369" s="151" t="s">
         <v>1734</v>
       </c>
@@ -13046,7 +13119,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B370" s="151" t="s">
         <v>1736</v>
       </c>
@@ -13054,7 +13127,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B371" s="151" t="s">
         <v>1737</v>
       </c>
@@ -13062,7 +13135,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B372" s="151" t="s">
         <v>1738</v>
       </c>
@@ -13070,180 +13143,270 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B373" s="151" t="s">
         <v>1739</v>
       </c>
       <c r="C373" s="185"/>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B374" s="151" t="s">
         <v>1740</v>
       </c>
       <c r="C374" s="185"/>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C375" s="185"/>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A376" s="151" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B376" s="151" t="s">
+        <v>1754</v>
+      </c>
       <c r="C376" s="185"/>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B377" s="192" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B377" s="151" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C377" s="185"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C378" s="185"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B379" s="151" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C379" s="185"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B380" s="151" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C380" s="185"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B381" s="151" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C381" s="185"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B382" s="151" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C382" s="185"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B383" s="151" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C383" s="185"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B384" s="151" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C384" s="185"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B385" s="151" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C385" s="185"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C386" s="185"/>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C387" s="185"/>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C388" s="185"/>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C389" s="185"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C390" s="185"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C391" s="185"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C392" s="185"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C393" s="185"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C394" s="185"/>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C395" s="185"/>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C396" s="185"/>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B397" s="192" t="s">
         <v>1721</v>
       </c>
-      <c r="C377" s="185"/>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B378" s="192" t="s">
+      <c r="C397" s="185"/>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B398" s="192" t="s">
         <v>1722</v>
       </c>
-      <c r="C378" s="185"/>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B379" s="192" t="s">
+      <c r="C398" s="185"/>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B399" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C379" s="185"/>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B380" s="151" t="s">
+      <c r="C399" s="185"/>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B400" s="151" t="s">
         <v>1724</v>
       </c>
-      <c r="C380" s="185"/>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B381" s="192" t="s">
+      <c r="C400" s="185"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B401" s="192" t="s">
         <v>1733</v>
       </c>
-      <c r="C381" s="185"/>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B382" s="192" t="s">
+      <c r="C401" s="185"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B402" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C382" s="185"/>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B383" s="151" t="s">
+      <c r="C402" s="185"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B403" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C383" s="185"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B384" s="192" t="s">
+      <c r="C403" s="185"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B404" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C384" s="185"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C385" s="185"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C386" s="185"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B387" s="151" t="s">
+      <c r="C404" s="185"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C405" s="185"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C406" s="185"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B407" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C387" s="185"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A388" s="151" t="s">
+      <c r="C407" s="185"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A408" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B388" s="192" t="s">
+      <c r="B408" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C388" s="185"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B389" s="192" t="s">
+      <c r="C408" s="185"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B409" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C389" s="185"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B390" s="192" t="s">
+      <c r="C409" s="185"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B410" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C390" s="185"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C391" s="185"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C392" s="185"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C393" s="185"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C394" s="185"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C395" s="185"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C396" s="185"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B399" s="151" t="s">
+      <c r="C410" s="185"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C411" s="185"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C412" s="185"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C413" s="185"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C414" s="185"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C415" s="185"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C416" s="185"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B419" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B400" s="191" t="s">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B420" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B401" s="191" t="s">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B421" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B402" s="152" t="s">
+    <row r="422" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B422" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B404" s="186" t="s">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B424" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B405" s="187" t="s">
+    <row r="425" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B425" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B406" s="188" t="s">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B426" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B407" s="189" t="s">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B427" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B408" s="191" t="s">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B428" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B409" s="151" t="s">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B429" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B410" s="186" t="s">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B430" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B411" s="191" t="s">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B431" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -13254,6 +13417,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21854,97 +22018,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="198" t="s">
+      <c r="B2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="200" t="s">
+      <c r="E2" s="204" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="195" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="195" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="195" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="195" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="202" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="195" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="195" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="202" t="s">
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="195" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="203"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="202" t="s">
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="195" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="203"/>
-      <c r="AN2" s="203"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="202" t="s">
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="195" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="203"/>
-      <c r="AR2" s="203"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="202" t="s">
+      <c r="AQ2" s="196"/>
+      <c r="AR2" s="196"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="195" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="203"/>
-      <c r="AV2" s="203"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="202" t="s">
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="195" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="203"/>
-      <c r="AZ2" s="203"/>
-      <c r="BA2" s="204"/>
+      <c r="AY2" s="196"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="197"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="201"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="205"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27098,6 +27262,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27108,12 +27278,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27631,16 +27795,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="198" t="s">
+      <c r="C2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="204" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="206" t="s">
@@ -27707,10 +27871,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="201"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="205"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33506,6 +33670,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33515,11 +33684,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -33997,98 +34161,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="198" t="s">
+      <c r="C2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="204" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="195" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="195" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="195" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="195" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="202" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="195" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="204"/>
-      <c r="AE2" s="202" t="s">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="195" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="204"/>
-      <c r="AI2" s="202" t="s">
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="195" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="203"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="204"/>
-      <c r="AM2" s="202" t="s">
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="197"/>
+      <c r="AM2" s="195" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="203"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="204"/>
-      <c r="AQ2" s="202" t="s">
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="195" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="203"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="204"/>
-      <c r="AU2" s="202" t="s">
+      <c r="AR2" s="196"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="197"/>
+      <c r="AU2" s="195" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="203"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="204"/>
-      <c r="AY2" s="202" t="s">
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="195" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="203"/>
-      <c r="BA2" s="203"/>
-      <c r="BB2" s="204"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="196"/>
+      <c r="BB2" s="197"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="201"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="205"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39501,11 +39665,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39517,6 +39676,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39707,7 +39871,7 @@
       <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="202" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="214" t="s">
@@ -39735,7 +39899,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="213"/>
-      <c r="B2" s="199"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1764">
   <si>
     <t>No.</t>
   </si>
@@ -5916,13 +5916,34 @@
   <si>
     <t>หน้าจอสร้างใบสั่งซื้อ : กรณีสร้างจากใบจองหลายใบ รวมสินค้า แสดงสถานะผิด</t>
   </si>
+  <si>
+    <t>ใบเสนอราคา ใบสั่งจอง ให้แก้หน่วยได้ทุก mode</t>
+  </si>
+  <si>
+    <t>รายงานแสดงจำนวนหน่วยย่อยผิด</t>
+  </si>
+  <si>
+    <t>ใบสั่งซื้อหลังจากนำเข้าระบบแล้วปกติต้องเปง received ตอนนี้เปง close เลย</t>
+  </si>
+  <si>
+    <t>1.0.0.93</t>
+  </si>
+  <si>
+    <t>เพิ่มช่องหน่วยในรายงานใบสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>ทำรายการแล้วรวมสินค้าไม่ได้</t>
+  </si>
+  <si>
+    <t>ลบ invoice ไม่ได้ error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -6541,7 +6562,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6625,20 +6646,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6806,11 +6827,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7057,49 +7078,6 @@
         <a:xfrm>
           <a:off x="4318000" y="25812750"/>
           <a:ext cx="4624917" cy="4401131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>317499</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4431785</xdr:colOff>
-      <xdr:row>385</xdr:row>
-      <xdr:rowOff>143620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7461249" y="113019417"/>
-          <a:ext cx="4114286" cy="2514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10993,10 +10971,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C431"/>
+  <dimension ref="A1:C439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A373" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B386" sqref="B386"/>
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13177,69 +13155,90 @@
       <c r="C378" s="185"/>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A379" s="151" t="s">
+        <v>1760</v>
+      </c>
       <c r="B379" s="151" t="s">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="C379" s="185"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B380" s="151" t="s">
-        <v>1747</v>
+        <v>1759</v>
       </c>
       <c r="C380" s="185"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B381" s="151" t="s">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="C381" s="185"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B382" s="151" t="s">
-        <v>1750</v>
+        <v>1761</v>
       </c>
       <c r="C382" s="185"/>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B383" s="151" t="s">
-        <v>1751</v>
+        <v>1762</v>
       </c>
       <c r="C383" s="185"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B384" s="151" t="s">
-        <v>1752</v>
+        <v>1763</v>
       </c>
       <c r="C384" s="185"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B385" s="151" t="s">
-        <v>1756</v>
-      </c>
       <c r="C385" s="185"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C386" s="185"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B387" s="151" t="s">
+        <v>1749</v>
+      </c>
       <c r="C387" s="185"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B388" s="151" t="s">
+        <v>1747</v>
+      </c>
       <c r="C388" s="185"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B389" s="151" t="s">
+        <v>1748</v>
+      </c>
       <c r="C389" s="185"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B390" s="151" t="s">
+        <v>1750</v>
+      </c>
       <c r="C390" s="185"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B391" s="151" t="s">
+        <v>1751</v>
+      </c>
       <c r="C391" s="185"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B392" s="151" t="s">
+        <v>1752</v>
+      </c>
       <c r="C392" s="185"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B393" s="151" t="s">
+        <v>1756</v>
+      </c>
       <c r="C393" s="185"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.5">
@@ -13252,90 +13251,75 @@
       <c r="C396" s="185"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B397" s="192" t="s">
+      <c r="C397" s="185"/>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C398" s="185"/>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C399" s="185"/>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C400" s="185"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C401" s="185"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C402" s="185"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C403" s="185"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C404" s="185"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B405" s="192" t="s">
         <v>1721</v>
       </c>
-      <c r="C397" s="185"/>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B398" s="192" t="s">
+      <c r="C405" s="185"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B406" s="192" t="s">
         <v>1722</v>
       </c>
-      <c r="C398" s="185"/>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B399" s="192" t="s">
+      <c r="C406" s="185"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B407" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C399" s="185"/>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B400" s="151" t="s">
+      <c r="C407" s="185"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B408" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C400" s="185"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B401" s="192" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C401" s="185"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B402" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C402" s="185"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B403" s="151" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C403" s="185"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B404" s="192" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C404" s="185"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C405" s="185"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C406" s="185"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B407" s="151" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C407" s="185"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A408" s="151" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B408" s="192" t="s">
-        <v>1728</v>
       </c>
       <c r="C408" s="185"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B409" s="192" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="C409" s="185"/>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B410" s="192" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="C410" s="185"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B411" s="151" t="s">
+        <v>1726</v>
+      </c>
       <c r="C411" s="185"/>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B412" s="192" t="s">
+        <v>1731</v>
+      </c>
       <c r="C412" s="185"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.5">
@@ -13345,68 +13329,107 @@
       <c r="C414" s="185"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B415" s="151" t="s">
+        <v>1727</v>
+      </c>
       <c r="C415" s="185"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A416" s="151" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B416" s="192" t="s">
+        <v>1728</v>
+      </c>
       <c r="C416" s="185"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B419" s="151" t="s">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B417" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C417" s="185"/>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B418" s="192" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C418" s="185"/>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C419" s="185"/>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C420" s="185"/>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C421" s="185"/>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C422" s="185"/>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C423" s="185"/>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C424" s="185"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B427" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B420" s="191" t="s">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B428" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B421" s="191" t="s">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B429" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="422" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B422" s="152" t="s">
+    <row r="430" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B430" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B424" s="186" t="s">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B432" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="425" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B425" s="187" t="s">
+    <row r="433" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B433" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B426" s="188" t="s">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B434" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B427" s="189" t="s">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B435" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B428" s="191" t="s">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B436" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B429" s="151" t="s">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B437" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B430" s="186" t="s">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B438" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B431" s="191" t="s">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B439" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -13417,7 +13440,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1768">
   <si>
     <t>No.</t>
   </si>
@@ -5937,6 +5937,18 @@
   <si>
     <t>ลบ invoice ไม่ได้ error</t>
   </si>
+  <si>
+    <t>หน้ากำหนดราคาแสดงข้อมูลซ้ำเนื่องจาก cost มีหลายอัน</t>
+  </si>
+  <si>
+    <t>หน้า cost มีรายการ active มากกว่า 1</t>
+  </si>
+  <si>
+    <t>1.0.0.94</t>
+  </si>
+  <si>
+    <t>จังหวัดแสดงรหัส</t>
+  </si>
 </sst>
 </file>
 
@@ -5945,7 +5957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6260,6 +6272,12 @@
       <name val="Cordia New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -6568,7 +6586,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6986,6 +7004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -10971,10 +10990,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C439"/>
+  <dimension ref="A1:C445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13193,243 +13212,273 @@
       </c>
       <c r="C384" s="185"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C385" s="185"/>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A386" s="151" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B386" s="151" t="s">
+        <v>1767</v>
+      </c>
       <c r="C386" s="185"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B387" s="151" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C387" s="185"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C388" s="185"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C389" s="185"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C390" s="185"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B391" s="151" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C391" s="185"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B392" s="151" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C392" s="185"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B393" s="151" t="s">
         <v>1749</v>
       </c>
-      <c r="C387" s="185"/>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B388" s="151" t="s">
+      <c r="C393" s="185"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B394" s="151" t="s">
         <v>1747</v>
       </c>
-      <c r="C388" s="185"/>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B389" s="151" t="s">
+      <c r="C394" s="185"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B395" s="151" t="s">
         <v>1748</v>
       </c>
-      <c r="C389" s="185"/>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B390" s="151" t="s">
+      <c r="C395" s="185"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B396" s="151" t="s">
         <v>1750</v>
       </c>
-      <c r="C390" s="185"/>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B391" s="151" t="s">
+      <c r="C396" s="185"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B397" s="151" t="s">
         <v>1751</v>
       </c>
-      <c r="C391" s="185"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B392" s="151" t="s">
+      <c r="C397" s="185"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B398" s="217" t="s">
         <v>1752</v>
       </c>
-      <c r="C392" s="185"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B393" s="151" t="s">
+      <c r="C398" s="185"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B399" s="151" t="s">
         <v>1756</v>
       </c>
-      <c r="C393" s="185"/>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C394" s="185"/>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C395" s="185"/>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C396" s="185"/>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C397" s="185"/>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C398" s="185"/>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C399" s="185"/>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C400" s="185"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C401" s="185"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C402" s="185"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C403" s="185"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C404" s="185"/>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B405" s="192" t="s">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C405" s="185"/>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C406" s="185"/>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C407" s="185"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C408" s="185"/>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C409" s="185"/>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C410" s="185"/>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B411" s="192" t="s">
         <v>1721</v>
       </c>
-      <c r="C405" s="185"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B406" s="192" t="s">
+      <c r="C411" s="185"/>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B412" s="192" t="s">
         <v>1722</v>
       </c>
-      <c r="C406" s="185"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B407" s="192" t="s">
+      <c r="C412" s="185"/>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B413" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C407" s="185"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B408" s="151" t="s">
+      <c r="C413" s="185"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B414" s="151" t="s">
         <v>1724</v>
       </c>
-      <c r="C408" s="185"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B409" s="192" t="s">
+      <c r="C414" s="185"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B415" s="192" t="s">
         <v>1733</v>
       </c>
-      <c r="C409" s="185"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B410" s="192" t="s">
+      <c r="C415" s="185"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B416" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C410" s="185"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B411" s="151" t="s">
+      <c r="C416" s="185"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B417" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C411" s="185"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B412" s="192" t="s">
+      <c r="C417" s="185"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B418" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C412" s="185"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C413" s="185"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C414" s="185"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B415" s="151" t="s">
+      <c r="C418" s="185"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C419" s="185"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C420" s="185"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B421" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C415" s="185"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A416" s="151" t="s">
+      <c r="C421" s="185"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A422" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B416" s="192" t="s">
+      <c r="B422" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C416" s="185"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B417" s="192" t="s">
+      <c r="C422" s="185"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B423" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C417" s="185"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B418" s="192" t="s">
+      <c r="C423" s="185"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B424" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C418" s="185"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C419" s="185"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C420" s="185"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C421" s="185"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C422" s="185"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C423" s="185"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C424" s="185"/>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B427" s="151" t="s">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C425" s="185"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C426" s="185"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C427" s="185"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C428" s="185"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C429" s="185"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C430" s="185"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B433" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B428" s="191" t="s">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B434" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B429" s="191" t="s">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B435" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="430" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B430" s="152" t="s">
+    <row r="436" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B436" s="152" t="s">
         <v>1624</v>
-      </c>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B432" s="186" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B433" s="187" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B434" s="188" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B435" s="189" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B436" s="191" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B437" s="151" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B438" s="186" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B439" s="187" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B440" s="188" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B441" s="189" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B442" s="191" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B443" s="151" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B444" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B439" s="191" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B445" s="191" t="s">
         <v>1647</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1769">
   <si>
     <t>No.</t>
   </si>
@@ -5949,13 +5949,16 @@
   <si>
     <t>จังหวัดแสดงรหัส</t>
   </si>
+  <si>
+    <t>สถานะ wait approve ต้องพิมพ์เอกสารไม่ได้</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6580,7 +6583,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6664,20 +6667,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6845,11 +6848,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6932,20 +6935,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6954,9 +6949,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6970,6 +6962,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7004,7 +7008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7835,20 +7838,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="202" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="203"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -8943,100 +8946,100 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="215" t="s">
+      <c r="B31" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="215"/>
+      <c r="C31" s="216"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B32" s="215" t="s">
+      <c r="B32" s="216" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="215"/>
+      <c r="C32" s="216"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B33" s="215" t="s">
+      <c r="B33" s="216" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="215"/>
+      <c r="C33" s="216"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B34" s="215" t="s">
+      <c r="B34" s="216" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="215"/>
+      <c r="C34" s="216"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="216" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="215"/>
+      <c r="C35" s="216"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B36" s="215" t="s">
+      <c r="B36" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="215"/>
+      <c r="C36" s="216"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="215" t="s">
+      <c r="B37" s="216" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="215"/>
+      <c r="C37" s="216"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B38" s="215" t="s">
+      <c r="B38" s="216" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="215"/>
+      <c r="C38" s="216"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="216" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="215"/>
+      <c r="C39" s="216"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B40" s="215" t="s">
+      <c r="B40" s="216" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="215"/>
+      <c r="C40" s="216"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="215" t="s">
+      <c r="B41" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="215"/>
+      <c r="C41" s="216"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B42" s="215" t="s">
+      <c r="B42" s="216" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="215"/>
+      <c r="C42" s="216"/>
     </row>
     <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B43" s="215" t="s">
+      <c r="B43" s="216" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="215"/>
+      <c r="C43" s="216"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B44" s="215" t="s">
+      <c r="B44" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="215"/>
+      <c r="C44" s="216"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="215" t="s">
+      <c r="B45" s="216" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="215"/>
+      <c r="C45" s="216"/>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B46" s="215" t="s">
+      <c r="B46" s="216" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="215"/>
+      <c r="C46" s="216"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
@@ -9050,6 +9053,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9060,12 +9069,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10990,10 +10993,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C445"/>
+  <dimension ref="A1:C446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B396" sqref="B396"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386:XFD386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -11026,7 +11029,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="194" t="s">
         <v>993</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -11034,13 +11037,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B5" s="193"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="151" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B6" s="193"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="151" t="s">
         <v>992</v>
       </c>
@@ -11231,7 +11234,7 @@
       <c r="B37" s="151" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="194" t="s">
+      <c r="C37" s="195" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -11239,61 +11242,61 @@
       <c r="B38" s="151" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="194"/>
+      <c r="C38" s="195"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B39" s="151" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="194"/>
+      <c r="C39" s="195"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B40" s="151" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="194"/>
+      <c r="C40" s="195"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B41" s="151" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="194"/>
+      <c r="C41" s="195"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B42" s="151" t="s">
         <v>1059</v>
       </c>
-      <c r="C42" s="194"/>
+      <c r="C42" s="195"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B43" s="151" t="s">
         <v>1063</v>
       </c>
-      <c r="C43" s="194"/>
+      <c r="C43" s="195"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B44" s="151" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="194"/>
+      <c r="C44" s="195"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="194"/>
+      <c r="C45" s="195"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="194"/>
+      <c r="C46" s="195"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="194"/>
+      <c r="C47" s="195"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="194"/>
+      <c r="C48" s="195"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="194"/>
+      <c r="C49" s="195"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="194"/>
+      <c r="C50" s="195"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="151" t="s">
@@ -13213,18 +13216,21 @@
       <c r="C384" s="185"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B385" s="151" t="s">
+        <v>1768</v>
+      </c>
       <c r="C385" s="185"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A386" s="151" t="s">
+      <c r="C386" s="185"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A387" s="151" t="s">
         <v>1766</v>
       </c>
-      <c r="B386" s="151" t="s">
+      <c r="B387" s="151" t="s">
         <v>1767</v>
       </c>
-      <c r="C386" s="185"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C387" s="185"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.5">
@@ -13237,60 +13243,60 @@
       <c r="C390" s="185"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B391" s="151" t="s">
-        <v>1764</v>
-      </c>
       <c r="C391" s="185"/>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B392" s="151" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C392" s="185"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B393" s="151" t="s">
-        <v>1749</v>
+        <v>1765</v>
       </c>
       <c r="C393" s="185"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B394" s="151" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C394" s="185"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B395" s="151" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C395" s="185"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B396" s="151" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C396" s="185"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B397" s="151" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C397" s="185"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B398" s="151" t="s">
         <v>1751</v>
       </c>
-      <c r="C397" s="185"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B398" s="217" t="s">
+      <c r="C398" s="185"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B399" s="193" t="s">
         <v>1752</v>
       </c>
-      <c r="C398" s="185"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B399" s="151" t="s">
+      <c r="C399" s="185"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B400" s="151" t="s">
         <v>1756</v>
       </c>
-      <c r="C399" s="185"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C400" s="185"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.5">
@@ -13324,87 +13330,87 @@
       <c r="C410" s="185"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B411" s="192" t="s">
-        <v>1721</v>
-      </c>
       <c r="C411" s="185"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B412" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C412" s="185"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B413" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C413" s="185"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B414" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C413" s="185"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B414" s="151" t="s">
+      <c r="C414" s="185"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B415" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C414" s="185"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B415" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C415" s="185"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B416" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C416" s="185"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B417" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C416" s="185"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B417" s="151" t="s">
+      <c r="C417" s="185"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B418" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C417" s="185"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B418" s="192" t="s">
+      <c r="C418" s="185"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B419" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C418" s="185"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C419" s="185"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C420" s="185"/>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B421" s="151" t="s">
+      <c r="C421" s="185"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B422" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C421" s="185"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A422" s="151" t="s">
+      <c r="C422" s="185"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A423" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B422" s="192" t="s">
+      <c r="B423" s="192" t="s">
         <v>1728</v>
-      </c>
-      <c r="C422" s="185"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B423" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C423" s="185"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B424" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C424" s="185"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B425" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C424" s="185"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C425" s="185"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.5">
@@ -13422,63 +13428,66 @@
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C430" s="185"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B433" s="151" t="s">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C431" s="185"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B434" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B434" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B435" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B436" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B436" s="152" t="s">
+    <row r="437" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B437" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B438" s="186" t="s">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B439" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B439" s="187" t="s">
+    <row r="440" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B440" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B440" s="188" t="s">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B441" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B441" s="189" t="s">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B442" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B442" s="191" t="s">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B443" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B443" s="151" t="s">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B444" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B444" s="186" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B445" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B445" s="191" t="s">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B446" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -14390,7 +14399,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="216" t="s">
+      <c r="A39" s="217" t="s">
         <v>927</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -14398,19 +14407,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="216"/>
+      <c r="A40" s="217"/>
       <c r="B40" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="216"/>
+      <c r="A41" s="217"/>
       <c r="B41" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="216" t="s">
+      <c r="A42" s="217" t="s">
         <v>927</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -14418,13 +14427,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="216"/>
+      <c r="A43" s="217"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="216"/>
+      <c r="A44" s="217"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
@@ -22089,97 +22098,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="202" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="195" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="195" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="195" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="195" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="195" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="195" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="196"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="195" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="196"/>
-      <c r="AZ2" s="196"/>
-      <c r="BA2" s="197"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="205"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27333,12 +27342,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27349,6 +27352,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27866,86 +27875,86 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="202" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="206" t="s">
+      <c r="G2" s="207" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="206" t="s">
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="207" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="206" t="s">
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="207" t="s">
         <v>729</v>
       </c>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="206" t="s">
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="207" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="206" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="207" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="207" t="s">
         <v>653</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="206" t="s">
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="207" t="s">
         <v>731</v>
       </c>
-      <c r="AF2" s="207"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="206" t="s">
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="208"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="207" t="s">
         <v>655</v>
       </c>
-      <c r="AJ2" s="207"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="206" t="s">
+      <c r="AJ2" s="208"/>
+      <c r="AK2" s="208"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="207" t="s">
         <v>656</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="208"/>
-      <c r="AQ2" s="206" t="s">
+      <c r="AN2" s="208"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="209"/>
+      <c r="AQ2" s="207" t="s">
         <v>657</v>
       </c>
-      <c r="AR2" s="207"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="208"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="208"/>
+      <c r="AT2" s="209"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="205"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33741,11 +33750,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33755,6 +33759,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34232,98 +34241,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="202" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="195" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="195" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="195" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="195" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="195" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="195" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="197"/>
-      <c r="AY2" s="195" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="196"/>
-      <c r="BA2" s="196"/>
-      <c r="BB2" s="197"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="205"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39736,6 +39745,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39747,11 +39761,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39939,38 +39948,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="214" t="s">
+      <c r="A1" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="215" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="214" t="s">
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="215" t="s">
         <v>730</v>
       </c>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="214" t="s">
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="215" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="210" t="s">
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="211" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="211"/>
+      <c r="P1" s="212"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="213"/>
-      <c r="B2" s="203"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -5958,7 +5958,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6583,7 +6583,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6667,20 +6667,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6848,11 +6848,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6942,6 +6942,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6949,6 +6958,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6962,18 +6974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7838,20 +7838,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9053,12 +9053,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9069,6 +9063,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10996,7 +10996,7 @@
   <dimension ref="A1:C446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A386" sqref="A386:XFD386"/>
+      <selection activeCell="B391" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13234,6 +13234,9 @@
       <c r="C387" s="185"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B388" s="151" t="s">
+        <v>1756</v>
+      </c>
       <c r="C388" s="185"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.5">
@@ -13294,9 +13297,6 @@
       <c r="C399" s="185"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B400" s="151" t="s">
-        <v>1756</v>
-      </c>
       <c r="C400" s="185"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.5">
@@ -22098,97 +22098,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27342,6 +27342,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27352,12 +27358,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27875,16 +27875,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -27951,10 +27951,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33750,6 +33750,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33759,11 +33764,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34241,98 +34241,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39745,11 +39745,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39761,6 +39756,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39951,7 +39951,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -39979,7 +39979,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="975" windowWidth="19080" windowHeight="6525" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1035" windowWidth="19080" windowHeight="6465" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="1772">
   <si>
     <t>No.</t>
   </si>
@@ -5899,9 +5899,6 @@
     <t>ส่วนของนำเข้าระบบด้วยนะครับ รับสินค้าเข้าแล้วสินค้านั้นๆก้อยังอยู่ถ้าไม่ได้รับทั้งใบอ่ะครับ</t>
   </si>
   <si>
-    <t>สั่งขายแล้วตัวไหนไม่มีของ --&gt; เปิดใบสั่งจอง จำนวนเป็น 0 ครับ</t>
-  </si>
-  <si>
     <t>ปัญหาที่เจออีกอย่าง หลังจากนำสินค้าเข้าระบบแล้ว ใบสั่งซื้อจะปิดเลย ไม่สามารถดึงมาใบกำกับภาษีได้ครับ</t>
   </si>
   <si>
@@ -5951,6 +5948,18 @@
   </si>
   <si>
     <t>สถานะ wait approve ต้องพิมพ์เอกสารไม่ได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สั่งขายแล้วตัวไหนไม่มีของ --&gt; เปิดใบสั่งจอง จำนวนเป็น 0 </t>
+  </si>
+  <si>
+    <t>สินค้า :หน่วยหลักต้องเป็นหน่วยย่อยสุด</t>
+  </si>
+  <si>
+    <t>เพิ่ม log ของการ update stock ที่หน้า update stock</t>
+  </si>
+  <si>
+    <t>SN เพิ่มจำนวนจากเดิม กดโหลด SN จะซ้ำของเดิมที่มีอยู่</t>
   </si>
 </sst>
 </file>
@@ -10993,10 +11002,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C446"/>
+  <dimension ref="A1:C447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13160,16 +13169,16 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A376" s="151" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B376" s="151" t="s">
         <v>1753</v>
-      </c>
-      <c r="B376" s="151" t="s">
-        <v>1754</v>
       </c>
       <c r="C376" s="185"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B377" s="151" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C377" s="185"/>
     </row>
@@ -13178,46 +13187,46 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A379" s="151" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B379" s="151" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C379" s="185"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B380" s="151" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C380" s="185"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B381" s="151" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C381" s="185"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B382" s="151" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C382" s="185"/>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B383" s="151" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C383" s="185"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B384" s="151" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C384" s="185"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B385" s="151" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C385" s="185"/>
     </row>
@@ -13226,80 +13235,89 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A387" s="151" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B387" s="151" t="s">
         <v>1766</v>
-      </c>
-      <c r="B387" s="151" t="s">
-        <v>1767</v>
       </c>
       <c r="C387" s="185"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B388" s="151" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C388" s="185"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B389" s="151" t="s">
+        <v>1768</v>
+      </c>
       <c r="C389" s="185"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B390" s="151" t="s">
+        <v>1769</v>
+      </c>
       <c r="C390" s="185"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B391" s="151" t="s">
+        <v>1770</v>
+      </c>
       <c r="C391" s="185"/>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B392" s="151" t="s">
-        <v>1764</v>
-      </c>
       <c r="C392" s="185"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B393" s="151" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C393" s="185"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B394" s="151" t="s">
-        <v>1749</v>
+        <v>1764</v>
       </c>
       <c r="C394" s="185"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B395" s="151" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C395" s="185"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B396" s="151" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C396" s="185"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B397" s="151" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C397" s="185"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B398" s="151" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C398" s="185"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C399" s="185"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B400" s="193" t="s">
         <v>1751</v>
       </c>
-      <c r="C398" s="185"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B399" s="193" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C399" s="185"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C400" s="185"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B401" s="151" t="s">
+        <v>1771</v>
+      </c>
       <c r="C401" s="185"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.5">
@@ -13333,87 +13351,87 @@
       <c r="C411" s="185"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B412" s="192" t="s">
-        <v>1721</v>
-      </c>
       <c r="C412" s="185"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B413" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C413" s="185"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B414" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C414" s="185"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B415" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C414" s="185"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B415" s="151" t="s">
+      <c r="C415" s="185"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B416" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C415" s="185"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B416" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C416" s="185"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B417" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C417" s="185"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B418" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C417" s="185"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B418" s="151" t="s">
+      <c r="C418" s="185"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B419" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C418" s="185"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B419" s="192" t="s">
+      <c r="C419" s="185"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B420" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C419" s="185"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C420" s="185"/>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C421" s="185"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B422" s="151" t="s">
+      <c r="C422" s="185"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B423" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C422" s="185"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A423" s="151" t="s">
+      <c r="C423" s="185"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A424" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B423" s="192" t="s">
+      <c r="B424" s="192" t="s">
         <v>1728</v>
-      </c>
-      <c r="C423" s="185"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B424" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C424" s="185"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B425" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C425" s="185"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B426" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C425" s="185"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C426" s="185"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.5">
@@ -13431,63 +13449,66 @@
     <row r="431" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C431" s="185"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B434" s="151" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C432" s="185"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B435" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B435" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B436" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B437" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B437" s="152" t="s">
+    <row r="438" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B438" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B439" s="186" t="s">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B440" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B440" s="187" t="s">
+    <row r="441" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B441" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B441" s="188" t="s">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B442" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B442" s="189" t="s">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B443" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B443" s="191" t="s">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B444" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B444" s="151" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B445" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B445" s="186" t="s">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B446" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B446" s="191" t="s">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B447" s="191" t="s">
         <v>1647</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1774">
   <si>
     <t>No.</t>
   </si>
@@ -5960,6 +5960,12 @@
   </si>
   <si>
     <t>SN เพิ่มจำนวนจากเดิม กดโหลด SN จะซ้ำของเดิมที่มีอยู่</t>
+  </si>
+  <si>
+    <t>1.0.0.95</t>
+  </si>
+  <si>
+    <t>ส่วนรายละเอียดสินค้า แสดงพื้นที่เล็ก</t>
   </si>
 </sst>
 </file>
@@ -6951,15 +6957,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6967,9 +6964,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6983,6 +6977,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7847,20 +7853,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9062,6 +9068,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9072,12 +9084,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11002,10 +11008,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C447"/>
+  <dimension ref="A1:C450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B401" sqref="B401"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13270,53 +13276,53 @@
       <c r="C392" s="185"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A393" s="151" t="s">
+        <v>1772</v>
+      </c>
       <c r="B393" s="151" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="C393" s="185"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B394" s="151" t="s">
-        <v>1764</v>
-      </c>
       <c r="C394" s="185"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B395" s="151" t="s">
-        <v>1749</v>
-      </c>
       <c r="C395" s="185"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B396" s="151" t="s">
-        <v>1747</v>
+        <v>1763</v>
       </c>
       <c r="C396" s="185"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B397" s="151" t="s">
-        <v>1748</v>
+        <v>1764</v>
       </c>
       <c r="C397" s="185"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B398" s="151" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C398" s="185"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B399" s="151" t="s">
+        <v>1747</v>
+      </c>
       <c r="C399" s="185"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B400" s="193" t="s">
-        <v>1751</v>
+      <c r="B400" s="151" t="s">
+        <v>1748</v>
       </c>
       <c r="C400" s="185"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B401" s="151" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="C401" s="185"/>
     </row>
@@ -13324,9 +13330,15 @@
       <c r="C402" s="185"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B403" s="193" t="s">
+        <v>1751</v>
+      </c>
       <c r="C403" s="185"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B404" s="151" t="s">
+        <v>1771</v>
+      </c>
       <c r="C404" s="185"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.5">
@@ -13354,93 +13366,93 @@
       <c r="C412" s="185"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B413" s="192" t="s">
+      <c r="C413" s="185"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C414" s="185"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C415" s="185"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B416" s="192" t="s">
         <v>1721</v>
-      </c>
-      <c r="C413" s="185"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B414" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C414" s="185"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B415" s="192" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C415" s="185"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B416" s="151" t="s">
-        <v>1724</v>
       </c>
       <c r="C416" s="185"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B417" s="192" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="C417" s="185"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B418" s="192" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C418" s="185"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B419" s="151" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C419" s="185"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B420" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C420" s="185"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B421" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C421" s="185"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B422" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C422" s="185"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B423" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C420" s="185"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C421" s="185"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C422" s="185"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B423" s="151" t="s">
+      <c r="C423" s="185"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C424" s="185"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C425" s="185"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B426" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C423" s="185"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A424" s="151" t="s">
+      <c r="C426" s="185"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A427" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B424" s="192" t="s">
+      <c r="B427" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C424" s="185"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B425" s="192" t="s">
+      <c r="C427" s="185"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B428" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C425" s="185"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B426" s="192" t="s">
+      <c r="C428" s="185"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B429" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C426" s="185"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C427" s="185"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C428" s="185"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C429" s="185"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
@@ -13452,63 +13464,72 @@
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C432" s="185"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B435" s="151" t="s">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C434" s="185"/>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C435" s="185"/>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B438" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B436" s="191" t="s">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B439" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B437" s="191" t="s">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B440" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B438" s="152" t="s">
+    <row r="441" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B441" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B440" s="186" t="s">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B443" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B441" s="187" t="s">
+    <row r="444" spans="2:3" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B444" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B442" s="188" t="s">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B445" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B443" s="189" t="s">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B446" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B444" s="191" t="s">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B447" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B445" s="151" t="s">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B448" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B446" s="186" t="s">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B449" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B447" s="191" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B450" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -22119,97 +22140,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27363,12 +27384,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27379,6 +27394,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -27896,16 +27917,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -27972,10 +27993,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33771,11 +33792,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33785,6 +33801,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34262,98 +34283,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39766,6 +39787,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39777,11 +39803,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -39972,7 +39993,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40000,7 +40021,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1779">
   <si>
     <t>No.</t>
   </si>
@@ -5941,9 +5941,6 @@
     <t>หน้า cost มีรายการ active มากกว่า 1</t>
   </si>
   <si>
-    <t>1.0.0.94</t>
-  </si>
-  <si>
     <t>จังหวัดแสดงรหัส</t>
   </si>
   <si>
@@ -5966,6 +5963,24 @@
   </si>
   <si>
     <t>ส่วนรายละเอียดสินค้า แสดงพื้นที่เล็ก</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alter table ProductList add ProductListRefID2  bigint;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alter table ProductList add ProductListRefID3  bigint;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> update ProductList set ProductListRefID2=0,ProductListRefID3=0;</t>
+  </si>
+  <si>
+    <t>ดึงใบจองไปทำใบสั่งขายบางส่วน ใบสั่งจองจะถูกปิดเลย ทำให้ที่เหลือดึงไปทำต่อไม่ได้</t>
+  </si>
+  <si>
+    <t>1.0.0.96</t>
+  </si>
+  <si>
+    <t>ลบใบกำกับภาษีแล้ว ใบสั่งขายที่ดึงมาไม่คืนสถานะ ทำให้ดึงไปทำใหม่ไม่ได้</t>
   </si>
 </sst>
 </file>
@@ -5973,7 +5988,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6598,7 +6613,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6682,20 +6697,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6863,11 +6878,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11008,10 +11023,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C450"/>
+  <dimension ref="A1:C452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B394" sqref="B394"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13232,7 +13247,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B385" s="151" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C385" s="185"/>
     </row>
@@ -13241,10 +13256,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A387" s="151" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B387" s="151" t="s">
         <v>1765</v>
-      </c>
-      <c r="B387" s="151" t="s">
-        <v>1766</v>
       </c>
       <c r="C387" s="185"/>
     </row>
@@ -13256,19 +13271,19 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B389" s="151" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C389" s="185"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B390" s="151" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C390" s="185"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B391" s="151" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C391" s="185"/>
     </row>
@@ -13277,74 +13292,86 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A393" s="151" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B393" s="151" t="s">
         <v>1772</v>
       </c>
-      <c r="B393" s="151" t="s">
+      <c r="C393" s="185" t="s">
         <v>1773</v>
       </c>
-      <c r="C393" s="185"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C394" s="185"/>
+      <c r="B394" s="151" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C394" s="185" t="s">
+        <v>1774</v>
+      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C395" s="185"/>
+      <c r="B395" s="151" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C395" s="185" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B396" s="151" t="s">
-        <v>1763</v>
-      </c>
       <c r="C396" s="185"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B397" s="151" t="s">
-        <v>1764</v>
-      </c>
       <c r="C397" s="185"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B398" s="151" t="s">
-        <v>1749</v>
+        <v>1763</v>
       </c>
       <c r="C398" s="185"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B399" s="151" t="s">
-        <v>1747</v>
+        <v>1764</v>
       </c>
       <c r="C399" s="185"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B400" s="151" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C400" s="185"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B401" s="151" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C401" s="185"/>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B402" s="151" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C402" s="185"/>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B403" s="151" t="s">
         <v>1750</v>
       </c>
-      <c r="C401" s="185"/>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C402" s="185"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B403" s="193" t="s">
+      <c r="C403" s="185"/>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C404" s="185"/>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B405" s="193" t="s">
         <v>1751</v>
       </c>
-      <c r="C403" s="185"/>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B404" s="151" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C404" s="185"/>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C405" s="185"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B406" s="151" t="s">
+        <v>1770</v>
+      </c>
       <c r="C406" s="185"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.5">
@@ -13375,90 +13402,90 @@
       <c r="C415" s="185"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B416" s="192" t="s">
-        <v>1721</v>
-      </c>
       <c r="C416" s="185"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B417" s="192" t="s">
-        <v>1722</v>
-      </c>
       <c r="C417" s="185"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B418" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C418" s="185"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B419" s="151" t="s">
-        <v>1724</v>
+      <c r="B419" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C419" s="185"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B420" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C420" s="185"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B421" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C421" s="185"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B422" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C420" s="185"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B421" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C421" s="185"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B422" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C422" s="185"/>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B423" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C423" s="185"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B424" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C424" s="185"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B425" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C423" s="185"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C424" s="185"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C425" s="185"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B426" s="151" t="s">
+      <c r="C426" s="185"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C427" s="185"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B428" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C426" s="185"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A427" s="151" t="s">
+      <c r="C428" s="185"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A429" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B427" s="192" t="s">
+      <c r="B429" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C427" s="185"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B428" s="192" t="s">
+      <c r="C429" s="185"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B430" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C428" s="185"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B429" s="192" t="s">
+      <c r="C430" s="185"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B431" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C429" s="185"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C430" s="185"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C431" s="185"/>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
@@ -13473,63 +13500,69 @@
     <row r="435" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C435" s="185"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B438" s="151" t="s">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C436" s="185"/>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C437" s="185"/>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B440" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B439" s="191" t="s">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B441" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B440" s="191" t="s">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B442" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="441" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B441" s="152" t="s">
+    <row r="443" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B443" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B443" s="186" t="s">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B445" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="444" spans="2:3" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B444" s="187" t="s">
+    <row r="446" spans="2:3" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B446" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B445" s="188" t="s">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B447" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B446" s="189" t="s">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B448" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B447" s="191" t="s">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B449" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B448" s="151" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B450" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B449" s="186" t="s">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B451" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B450" s="191" t="s">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B452" s="191" t="s">
         <v>1647</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1785">
   <si>
     <t>No.</t>
   </si>
@@ -5981,6 +5981,24 @@
   </si>
   <si>
     <t>ลบใบกำกับภาษีแล้ว ใบสั่งขายที่ดึงมาไม่คืนสถานะ ทำให้ดึงไปทำใหม่ไม่ได้</t>
+  </si>
+  <si>
+    <t>update stock ไม่มี sn error</t>
+  </si>
+  <si>
+    <t>ขายไม่พอ เปิดใบสั่งจองแสดงหน่วนที่ adjust unit ผิด</t>
+  </si>
+  <si>
+    <t>สร้างใบสั่งซื้อรวมสินค้าที่มี sn แล้ว error (เช็ค nothing)</t>
+  </si>
+  <si>
+    <t>1.0.0.97</t>
+  </si>
+  <si>
+    <t>ยกเลิกสถานะ cancel ไม่ได้</t>
+  </si>
+  <si>
+    <t>1.0.0.98</t>
   </si>
 </sst>
 </file>
@@ -11023,10 +11041,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C452"/>
+  <dimension ref="A1:C457"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+      <selection activeCell="B408" sqref="B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13321,248 +13339,280 @@
       <c r="C396" s="185"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A397" s="151" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B397" s="151" t="s">
+        <v>1779</v>
+      </c>
       <c r="C397" s="185"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B398" s="151" t="s">
-        <v>1763</v>
+        <v>1780</v>
       </c>
       <c r="C398" s="185"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B399" s="151" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C399" s="185"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C400" s="185"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A401" s="151" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B401" s="151" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C402" s="185"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B403" s="151" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C403" s="185"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B404" s="151" t="s">
         <v>1764</v>
       </c>
-      <c r="C399" s="185"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B400" s="151" t="s">
+      <c r="C404" s="185"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B405" s="151" t="s">
         <v>1749</v>
       </c>
-      <c r="C400" s="185"/>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B401" s="151" t="s">
+      <c r="C405" s="185"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B406" s="151" t="s">
         <v>1747</v>
       </c>
-      <c r="C401" s="185"/>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B402" s="151" t="s">
+      <c r="C406" s="185"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B407" s="151" t="s">
         <v>1748</v>
       </c>
-      <c r="C402" s="185"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B403" s="151" t="s">
+      <c r="C407" s="185"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B408" s="151" t="s">
         <v>1750</v>
       </c>
-      <c r="C403" s="185"/>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C404" s="185"/>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B405" s="193" t="s">
+      <c r="C408" s="185"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C409" s="185"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B410" s="193" t="s">
         <v>1751</v>
       </c>
-      <c r="C405" s="185"/>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B406" s="151" t="s">
+      <c r="C410" s="185"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B411" s="151" t="s">
         <v>1770</v>
       </c>
-      <c r="C406" s="185"/>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C407" s="185"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C408" s="185"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C409" s="185"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C410" s="185"/>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C411" s="185"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C412" s="185"/>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C413" s="185"/>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C414" s="185"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C415" s="185"/>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C416" s="185"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C417" s="185"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B418" s="192" t="s">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C418" s="185"/>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C419" s="185"/>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C420" s="185"/>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C421" s="185"/>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C422" s="185"/>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B423" s="192" t="s">
         <v>1721</v>
       </c>
-      <c r="C418" s="185"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B419" s="192" t="s">
+      <c r="C423" s="185"/>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B424" s="192" t="s">
         <v>1722</v>
       </c>
-      <c r="C419" s="185"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B420" s="192" t="s">
+      <c r="C424" s="185"/>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B425" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C420" s="185"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B421" s="151" t="s">
+      <c r="C425" s="185"/>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B426" s="151" t="s">
         <v>1724</v>
       </c>
-      <c r="C421" s="185"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B422" s="192" t="s">
+      <c r="C426" s="185"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B427" s="192" t="s">
         <v>1733</v>
       </c>
-      <c r="C422" s="185"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B423" s="192" t="s">
+      <c r="C427" s="185"/>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B428" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C423" s="185"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B424" s="151" t="s">
+      <c r="C428" s="185"/>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B429" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C424" s="185"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B425" s="192" t="s">
+      <c r="C429" s="185"/>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B430" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C425" s="185"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C426" s="185"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C427" s="185"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B428" s="151" t="s">
+      <c r="C430" s="185"/>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C431" s="185"/>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C432" s="185"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B433" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C428" s="185"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A429" s="151" t="s">
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A434" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B429" s="192" t="s">
+      <c r="B434" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C429" s="185"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B430" s="192" t="s">
+      <c r="C434" s="185"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B435" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C430" s="185"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B431" s="192" t="s">
+      <c r="C435" s="185"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B436" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C431" s="185"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C432" s="185"/>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C433" s="185"/>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C434" s="185"/>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C435" s="185"/>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C436" s="185"/>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C437" s="185"/>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B440" s="151" t="s">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C438" s="185"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C439" s="185"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C440" s="185"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C441" s="185"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C442" s="185"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B445" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B441" s="191" t="s">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B446" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B442" s="191" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B447" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="443" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B443" s="152" t="s">
+    <row r="448" spans="1:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B448" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B445" s="186" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B450" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="446" spans="2:3" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="B446" s="187" t="s">
+    <row r="451" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+      <c r="B451" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B447" s="188" t="s">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B452" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B448" s="189" t="s">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B453" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B449" s="191" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B454" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B450" s="151" t="s">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B455" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B451" s="186" t="s">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B456" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B452" s="191" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B457" s="191" t="s">
         <v>1647</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1787">
   <si>
     <t>No.</t>
   </si>
@@ -5999,6 +5999,12 @@
   </si>
   <si>
     <t>1.0.0.98</t>
+  </si>
+  <si>
+    <t>1.0.0.99</t>
+  </si>
+  <si>
+    <t>เปิดหน้าใบสั่งขาย error time out</t>
   </si>
 </sst>
 </file>
@@ -6990,6 +6996,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6997,6 +7012,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7010,18 +7028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7886,20 +7892,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9101,12 +9107,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9117,6 +9117,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11043,8 +11049,8 @@
   </sheetPr>
   <dimension ref="A1:C457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B408" sqref="B408"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13428,6 +13434,12 @@
       <c r="C412" s="185"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A413" s="151" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B413" s="151" t="s">
+        <v>1786</v>
+      </c>
       <c r="C413" s="185"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.5">
@@ -22223,97 +22235,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27467,6 +27479,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27477,12 +27495,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28000,16 +28012,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28076,10 +28088,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33875,6 +33887,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33884,11 +33901,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34366,98 +34378,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39870,11 +39882,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39886,6 +39893,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40076,7 +40088,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40104,7 +40116,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1789">
   <si>
     <t>No.</t>
   </si>
@@ -6005,6 +6005,12 @@
   </si>
   <si>
     <t>เปิดหน้าใบสั่งขาย error time out</t>
+  </si>
+  <si>
+    <t>1.0.1.00</t>
+  </si>
+  <si>
+    <t>กำหนดช่วงวันในการเรียกข้อมูลเป็นย้แนหลัง 2 เดือน เนื่องจากข้อมูลมากทำให้โหลดช้า</t>
   </si>
 </sst>
 </file>
@@ -6996,15 +7002,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7012,9 +7009,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7028,6 +7022,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7892,20 +7898,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9107,6 +9113,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9117,12 +9129,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11050,7 +11056,7 @@
   <dimension ref="A1:C457"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A404" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13446,6 +13452,12 @@
       <c r="C414" s="185"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A415" s="151" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B415" s="151" t="s">
+        <v>1788</v>
+      </c>
       <c r="C415" s="185"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.5">
@@ -22235,97 +22247,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27479,12 +27491,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27495,6 +27501,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28012,16 +28024,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28088,10 +28100,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33887,11 +33899,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33901,6 +33908,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34378,98 +34390,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39882,6 +39894,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39893,11 +39910,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40088,7 +40100,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40116,7 +40128,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1790">
   <si>
     <t>No.</t>
   </si>
@@ -6011,6 +6011,18 @@
   </si>
   <si>
     <t>กำหนดช่วงวันในการเรียกข้อมูลเป็นย้แนหลัง 2 เดือน เนื่องจากข้อมูลมากทำให้โหลดช้า</t>
+  </si>
+  <si>
+    <t>1. วิเคราะห์ลูกหนี้/เจ้าหนี้ค้างชำระ (ดึงไปใบวางบิลแล้วแต่ยังไม่ชำระด้วยนะครับ)
+- รายชื่อลูกหนี้/เจ้าหนี้
+- ช่วงเวลา
+- ใบกำกับภาษี/ใบส่งของ/ใบยืมสินค้า
+- รายชื่อลูกหนี้/เจ้าหนี // เบย์ขอแบบค้นหาได้หรือมีให้เลือกติกเลือกทั้งหมดด้วยนะครับ
+2. มูลค่าสต๊อกคลังสินค้า
+- รหัส/ชื่อสินค้า
+- คลังสินค้า 
+- จำนวนสินค้า
+- ต้นทุนเฉลี่ยโดยระบบ / Cost</t>
   </si>
 </sst>
 </file>
@@ -7002,6 +7014,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7009,6 +7030,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7022,18 +7046,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7160,6 +7172,49 @@
         <a:xfrm>
           <a:off x="4318000" y="25812750"/>
           <a:ext cx="4624917" cy="4401131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522736</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>48893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="136642475"/>
+          <a:ext cx="9098411" cy="6805293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7898,20 +7953,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9113,12 +9168,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9129,6 +9178,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11053,10 +11108,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C457"/>
+  <dimension ref="A1:C460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B411" sqref="B411"/>
+    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13640,6 +13695,11 @@
         <v>1647</v>
       </c>
     </row>
+    <row r="460" spans="2:2" ht="217.5" x14ac:dyDescent="0.5">
+      <c r="B460" s="152" t="s">
+        <v>1789</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:B6"/>
@@ -13647,6 +13707,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22247,97 +22308,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27491,6 +27552,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27501,12 +27568,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28024,16 +28085,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28100,10 +28161,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33899,6 +33960,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33908,11 +33974,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34390,98 +34451,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39894,11 +39955,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39910,6 +39966,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40100,7 +40161,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40128,7 +40189,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1794">
   <si>
     <t>No.</t>
   </si>
@@ -6013,12 +6013,26 @@
     <t>กำหนดช่วงวันในการเรียกข้อมูลเป็นย้แนหลัง 2 เดือน เนื่องจากข้อมูลมากทำให้โหลดช้า</t>
   </si>
   <si>
+    <t>1.0.1.01</t>
+  </si>
+  <si>
+    <t>หน้าตัดระบบแสดงรายการรหัสเดียวกันซ้ำ</t>
+  </si>
+  <si>
+    <t>คือ ส่วนค้างชำระ จะดูจาก 3 ส่วนครับ
+1. ใบกำกับภาษี/ใบส่งของ/ใบยืมสินค้าที่ สถานะopen/ approve
+2. ใบกำกับภาษี/ใบส่งของที่ สถานะ billed
+3. ใบเสร็จ/ตัดรับชำระที่ยังไม่มีรายการรับครับ</t>
+  </si>
+  <si>
     <t>1. วิเคราะห์ลูกหนี้/เจ้าหนี้ค้างชำระ (ดึงไปใบวางบิลแล้วแต่ยังไม่ชำระด้วยนะครับ)
 - รายชื่อลูกหนี้/เจ้าหนี้
 - ช่วงเวลา
 - ใบกำกับภาษี/ใบส่งของ/ใบยืมสินค้า
-- รายชื่อลูกหนี้/เจ้าหนี // เบย์ขอแบบค้นหาได้หรือมีให้เลือกติกเลือกทั้งหมดด้วยนะครับ
-2. มูลค่าสต๊อกคลังสินค้า
+- รายชื่อลูกหนี้/เจ้าหนี // เบย์ขอแบบค้นหาได้หรือมีให้เลือกติกเลือกทั้งหมดด้วยนะครับ</t>
+  </si>
+  <si>
+    <t>2. มูลค่าสต๊อกคลังสินค้า
 - รหัส/ชื่อสินค้า
 - คลังสินค้า 
 - จำนวนสินค้า
@@ -6030,7 +6044,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6655,7 +6669,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6739,20 +6753,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6920,11 +6934,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7014,15 +7028,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7030,9 +7035,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7046,6 +7048,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7187,16 +7201,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>457</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>522736</xdr:colOff>
-      <xdr:row>473</xdr:row>
-      <xdr:rowOff>48893</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160787</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7213,8 +7227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5359400" y="136642475"/>
-          <a:ext cx="9098411" cy="6805293"/>
+          <a:off x="7229476" y="136084342"/>
+          <a:ext cx="7475986" cy="5591776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7953,20 +7967,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9168,6 +9182,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9178,12 +9198,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11108,9 +11122,9 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C460"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
@@ -13518,76 +13532,82 @@
     <row r="416" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C416" s="185"/>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A417" s="151" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B417" s="151" t="s">
+        <v>1790</v>
+      </c>
       <c r="C417" s="185"/>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C418" s="185"/>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C419" s="185"/>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C420" s="185"/>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C421" s="185"/>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C422" s="185"/>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B423" s="192" t="s">
         <v>1721</v>
       </c>
       <c r="C423" s="185"/>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B424" s="192" t="s">
         <v>1722</v>
       </c>
       <c r="C424" s="185"/>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B425" s="192" t="s">
         <v>1723</v>
       </c>
       <c r="C425" s="185"/>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B426" s="151" t="s">
         <v>1724</v>
       </c>
       <c r="C426" s="185"/>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B427" s="192" t="s">
         <v>1733</v>
       </c>
       <c r="C427" s="185"/>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B428" s="192" t="s">
         <v>1725</v>
       </c>
       <c r="C428" s="185"/>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B429" s="151" t="s">
         <v>1726</v>
       </c>
       <c r="C429" s="185"/>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B430" s="192" t="s">
         <v>1731</v>
       </c>
       <c r="C430" s="185"/>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C431" s="185"/>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C432" s="185"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.5">
@@ -13695,9 +13715,19 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="217.5" x14ac:dyDescent="0.5">
+    <row r="460" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B460" s="152" t="s">
-        <v>1789</v>
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B461" s="152" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B462" s="152" t="s">
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
@@ -22308,97 +22338,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27552,12 +27582,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27568,6 +27592,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28085,16 +28115,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28161,10 +28191,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33960,11 +33990,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33974,6 +33999,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34451,98 +34481,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39955,6 +39985,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -39966,11 +40001,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40161,7 +40191,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40189,7 +40219,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1799">
   <si>
     <t>No.</t>
   </si>
@@ -6037,6 +6037,21 @@
 - คลังสินค้า 
 - จำนวนสินค้า
 - ต้นทุนเฉลี่ยโดยระบบ / Cost</t>
+  </si>
+  <si>
+    <t>ReportDebtAnalystBar</t>
+  </si>
+  <si>
+    <t>รายงานวิเคราะห์อายุลูกหนี้/เจ้าหนี้</t>
+  </si>
+  <si>
+    <t>ReportDebtAnalyst</t>
+  </si>
+  <si>
+    <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (99,35,'Report','ฝ่ายขาย' ,'ReportDebtAnalystBar','รายงานวิเคราะห์อายุลูกหนี้/เจ้าหนี้' ,'ReportDebtAnalyst',1 ,1 ,0,0,0,1,0,0,0,0,0);</t>
+  </si>
+  <si>
+    <t>1.0.1.02</t>
   </si>
 </sst>
 </file>
@@ -7028,6 +7043,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7035,6 +7059,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7048,18 +7075,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7967,20 +7982,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9182,12 +9197,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9198,6 +9207,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11124,14 +11139,14 @@
   </sheetPr>
   <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="151"/>
-    <col min="2" max="2" width="97.85546875" style="151" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" style="151" customWidth="1"/>
     <col min="3" max="3" width="74.5703125" style="151" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="151"/>
   </cols>
@@ -13545,7 +13560,15 @@
       <c r="C418" s="185"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C419" s="185"/>
+      <c r="A419" s="151" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B419" s="151" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C419" s="185" t="s">
+        <v>1797</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C420" s="185"/>
@@ -14719,12 +14742,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20220,7 +20243,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="120">
-        <f t="shared" ref="B97:B99" si="30">IF( H97=TRUE,1,0)+IF(I97=TRUE,2,0)+IF( J97=TRUE,4,0)+IF( K97=TRUE,8,0)+IF( L97=TRUE,16,0)+IF( M97=TRUE,32,0)+IF( N97=TRUE,64,0)+IF( O97=TRUE,128,0)+IF(P97=TRUE,256,0)+IF(Q97=TRUE,512,0)+IF(R97=TRUE,1024,0)</f>
+        <f t="shared" ref="B97:B100" si="30">IF( H97=TRUE,1,0)+IF(I97=TRUE,2,0)+IF( J97=TRUE,4,0)+IF( K97=TRUE,8,0)+IF( L97=TRUE,16,0)+IF( M97=TRUE,32,0)+IF( N97=TRUE,64,0)+IF( O97=TRUE,128,0)+IF(P97=TRUE,256,0)+IF(Q97=TRUE,512,0)+IF(R97=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C97" s="120" t="s">
@@ -20385,9 +20408,65 @@
       <c r="R99" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="S99" s="190" t="s">
-        <v>1692</v>
-      </c>
+      <c r="S99" s="190"/>
+    </row>
+    <row r="100" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="120">
+        <v>99</v>
+      </c>
+      <c r="B100" s="120">
+        <f t="shared" si="30"/>
+        <v>35</v>
+      </c>
+      <c r="C100" s="120" t="s">
+        <v>943</v>
+      </c>
+      <c r="D100" s="120" t="s">
+        <v>779</v>
+      </c>
+      <c r="E100" s="120" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F100" s="120" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G100" s="120" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H100" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R100" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S100" s="190"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22338,97 +22417,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27582,6 +27661,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27592,12 +27677,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28115,16 +28194,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28191,10 +28270,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -33990,6 +34069,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -33999,11 +34083,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34481,98 +34560,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -39985,11 +40064,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40001,6 +40075,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40191,7 +40270,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40219,7 +40298,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1800">
   <si>
     <t>No.</t>
   </si>
@@ -6053,13 +6053,16 @@
   <si>
     <t>1.0.1.02</t>
   </si>
+  <si>
+    <t>เพิ่มข้อมูลรายละเอียดหน้าค้นหาสินค้า</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6684,7 +6687,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6768,20 +6771,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6949,11 +6952,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7043,15 +7046,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7059,9 +7053,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7075,6 +7066,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7982,20 +7985,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9197,6 +9200,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9207,12 +9216,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11139,8 +11142,8 @@
   </sheetPr>
   <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B420" sqref="B420"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -11192,7 +11195,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B7" s="152" t="s">
         <v>999</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B25" s="152" t="s">
         <v>1021</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B136" s="152" t="s">
         <v>1246</v>
       </c>
@@ -13571,6 +13574,9 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B420" s="151" t="s">
+        <v>1799</v>
+      </c>
       <c r="C420" s="185"/>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.5">
@@ -13693,7 +13699,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:3" ht="87" x14ac:dyDescent="0.5">
       <c r="B448" s="152" t="s">
         <v>1624</v>
       </c>
@@ -13703,7 +13709,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="451" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
       <c r="B451" s="187" t="s">
         <v>1640</v>
       </c>
@@ -22417,97 +22423,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27661,12 +27667,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27677,6 +27677,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28194,16 +28200,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28270,10 +28276,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34069,11 +34075,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34083,6 +34084,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34560,98 +34566,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40064,6 +40070,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40075,11 +40086,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40270,7 +40276,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40298,7 +40304,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1804">
   <si>
     <t>No.</t>
   </si>
@@ -6056,13 +6056,25 @@
   <si>
     <t>เพิ่มข้อมูลรายละเอียดหน้าค้นหาสินค้า</t>
   </si>
+  <si>
+    <t>1.0.1.03</t>
+  </si>
+  <si>
+    <t>เปลี่ยนหน่วยหลักหลังทำรายการ เมื่อดึงรายการเก่ามาใช้ ไม่ได้ refresh ข้อมูลใหม่</t>
+  </si>
+  <si>
+    <t>รายงานวิเคราะห์ : กรณียอดรวมหลังหักส่วนลดของใบเสร็จ =ยอดชำระ ถือว่าชำระแล้ว จะไม่สนยอดจาก invoice</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อความเตือนกรณียอดชำระ ต่ำกว่ายอดรวม</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6687,7 +6699,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6771,20 +6783,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6952,11 +6964,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7046,6 +7058,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7053,6 +7074,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7066,18 +7090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7221,13 +7233,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>468</xdr:row>
       <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7985,20 +7997,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9200,12 +9212,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9216,6 +9222,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11140,10 +11152,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C462"/>
+  <dimension ref="A1:C466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13583,99 +13595,111 @@
       <c r="C421" s="185"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A422" s="151" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B422" s="151" t="s">
+        <v>1801</v>
+      </c>
       <c r="C422" s="185"/>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B423" s="192" t="s">
-        <v>1721</v>
+      <c r="B423" s="151" t="s">
+        <v>1802</v>
       </c>
       <c r="C423" s="185"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B424" s="192" t="s">
-        <v>1722</v>
+      <c r="B424" s="151" t="s">
+        <v>1803</v>
       </c>
       <c r="C424" s="185"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B425" s="192" t="s">
-        <v>1723</v>
-      </c>
       <c r="C425" s="185"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B426" s="151" t="s">
-        <v>1724</v>
-      </c>
       <c r="C426" s="185"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B427" s="192" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="C427" s="185"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B428" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C428" s="185"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B429" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C429" s="185"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B430" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C430" s="185"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B431" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C431" s="185"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B432" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C428" s="185"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B429" s="151" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C429" s="185"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B430" s="192" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C430" s="185"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C431" s="185"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C432" s="185"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B433" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B434" s="192" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C434" s="185"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C435" s="185"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C436" s="185"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B437" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C433" s="185"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A434" s="151" t="s">
+      <c r="C437" s="185"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A438" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B434" s="192" t="s">
+      <c r="B438" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C434" s="185"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B435" s="192" t="s">
+      <c r="C438" s="185"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B439" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C435" s="185"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B436" s="192" t="s">
+      <c r="C439" s="185"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B440" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C436" s="185"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C437" s="185"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C438" s="185"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C439" s="185"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C440" s="185"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
@@ -13684,78 +13708,90 @@
     <row r="442" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C442" s="185"/>
     </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C443" s="185"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C444" s="185"/>
+    </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B445" s="151" t="s">
+      <c r="C445" s="185"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C446" s="185"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B449" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B446" s="191" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B450" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B447" s="191" t="s">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B451" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B448" s="152" t="s">
+    <row r="452" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B452" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B450" s="186" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B454" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B451" s="187" t="s">
+    <row r="455" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B455" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B452" s="188" t="s">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B456" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B453" s="189" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B457" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B454" s="191" t="s">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B458" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B455" s="151" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B459" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B456" s="186" t="s">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B460" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B457" s="191" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B461" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B460" s="152" t="s">
+    <row r="464" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B464" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B461" s="152" t="s">
+    <row r="465" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B465" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B462" s="152" t="s">
+    <row r="466" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B466" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -22423,97 +22459,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27667,6 +27703,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27677,12 +27719,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28200,16 +28236,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28276,10 +28312,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34075,6 +34111,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34084,11 +34125,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34566,98 +34602,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40070,11 +40106,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40086,6 +40117,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40276,7 +40312,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40304,7 +40340,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1806">
   <si>
     <t>No.</t>
   </si>
@@ -6067,6 +6067,12 @@
   </si>
   <si>
     <t>เพิ่มข้อความเตือนกรณียอดชำระ ต่ำกว่ายอดรวม</t>
+  </si>
+  <si>
+    <t>เพิ่มเลขที่ใบกำกับภาษีเจ้าหนี้ ในบันทึกเพิ่มหนี้/ลดหนี้</t>
+  </si>
+  <si>
+    <t>ขยายช่องรหัสสินค้าในรายงานใบสั่งซื้อ</t>
   </si>
 </sst>
 </file>
@@ -7058,15 +7064,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7074,9 +7071,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7090,6 +7084,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7233,13 +7239,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>459</xdr:row>
+      <xdr:row>460</xdr:row>
       <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>468</xdr:row>
+      <xdr:row>469</xdr:row>
       <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7997,20 +8003,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9212,6 +9218,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9222,12 +9234,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11152,10 +11158,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C466"/>
+  <dimension ref="A1:C467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B426" sqref="B426"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13616,93 +13622,99 @@
       <c r="C424" s="185"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B425" s="151" t="s">
+        <v>1804</v>
+      </c>
       <c r="C425" s="185"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B426" s="151" t="s">
+        <v>1805</v>
+      </c>
       <c r="C426" s="185"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B427" s="192" t="s">
-        <v>1721</v>
-      </c>
       <c r="C427" s="185"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B428" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C428" s="185"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B429" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C429" s="185"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B430" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C429" s="185"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B430" s="151" t="s">
+      <c r="C430" s="185"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B431" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C430" s="185"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B431" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C431" s="185"/>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B432" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C432" s="185"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B433" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C432" s="185"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B433" s="151" t="s">
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B434" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C433" s="185"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B434" s="192" t="s">
+      <c r="C434" s="185"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B435" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C434" s="185"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C435" s="185"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C436" s="185"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B437" s="151" t="s">
+      <c r="C437" s="185"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B438" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C437" s="185"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A438" s="151" t="s">
+      <c r="C438" s="185"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A439" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B438" s="192" t="s">
+      <c r="B439" s="192" t="s">
         <v>1728</v>
-      </c>
-      <c r="C438" s="185"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B439" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C439" s="185"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B440" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C440" s="185"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B441" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C440" s="185"/>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C441" s="185"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.5">
@@ -13720,78 +13732,81 @@
     <row r="446" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C446" s="185"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B449" s="151" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C447" s="185"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B450" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B450" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B451" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B452" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B452" s="152" t="s">
+    <row r="453" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B453" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B454" s="186" t="s">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B455" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B455" s="187" t="s">
+    <row r="456" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B456" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B456" s="188" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B457" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B457" s="189" t="s">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B458" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B458" s="191" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B459" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B459" s="151" t="s">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B460" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B460" s="186" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B461" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B461" s="191" t="s">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B462" s="191" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="464" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B464" s="152" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="465" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B465" s="152" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B466" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B466" s="152" t="s">
+    <row r="467" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B467" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -22459,97 +22474,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27703,12 +27718,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27719,6 +27728,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28236,16 +28251,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28312,10 +28327,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34111,11 +34126,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34125,6 +34135,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34602,98 +34617,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40106,6 +40121,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40117,11 +40137,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40312,7 +40327,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40340,7 +40355,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1811">
   <si>
     <t>No.</t>
   </si>
@@ -6074,13 +6074,29 @@
   <si>
     <t>ขยายช่องรหัสสินค้าในรายงานใบสั่งซื้อ</t>
   </si>
+  <si>
+    <t>รายงานมูลค่าสต๊อกคลังสินค้า</t>
+  </si>
+  <si>
+    <t>StockReport</t>
+  </si>
+  <si>
+    <t>StockReportBar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (100,35,'Report','ฝ่ายขาย' ,'StockReportBar','รายงานมูลค่าสต๊อกคลังสินค้า' ,'StockReport',1 ,1 ,0,0,0,1,0,0,0,0,0);
+</t>
+  </si>
+  <si>
+    <t>ทำใบสั่งซื้อแบบรวมสินค้า ใบสั่งจองไม่ปิด</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6705,7 +6721,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6789,20 +6805,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6970,11 +6986,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7064,6 +7080,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7071,6 +7096,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7084,18 +7112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7239,13 +7255,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>461</xdr:row>
       <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8003,20 +8019,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9218,12 +9234,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9234,6 +9244,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11158,10 +11174,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C467"/>
+  <dimension ref="A1:C469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13607,7 +13623,9 @@
       <c r="B422" s="151" t="s">
         <v>1801</v>
       </c>
-      <c r="C422" s="185"/>
+      <c r="C422" s="185" t="s">
+        <v>1809</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B423" s="151" t="s">
@@ -13634,93 +13652,96 @@
       <c r="C426" s="185"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B427" s="151" t="s">
+        <v>1810</v>
+      </c>
       <c r="C427" s="185"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B428" s="192" t="s">
-        <v>1721</v>
-      </c>
       <c r="C428" s="185"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B429" s="192" t="s">
-        <v>1722</v>
-      </c>
       <c r="C429" s="185"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B430" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C430" s="185"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B431" s="151" t="s">
-        <v>1724</v>
+      <c r="B431" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C431" s="185"/>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B432" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C432" s="185"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B433" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B434" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C432" s="185"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B433" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C433" s="185"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B434" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C434" s="185"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B435" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C435" s="185"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B436" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C436" s="185"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B437" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C435" s="185"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C436" s="185"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C437" s="185"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B438" s="151" t="s">
+      <c r="C438" s="185"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C439" s="185"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A440" s="151" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B440" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C438" s="185"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A439" s="151" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B439" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C439" s="185"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B440" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C440" s="185"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B441" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C441" s="185"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B442" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C442" s="185"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B443" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C441" s="185"/>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C442" s="185"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C443" s="185"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.5">
@@ -13735,78 +13756,81 @@
     <row r="447" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C447" s="185"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B450" s="151" t="s">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C448" s="185"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B452" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B451" s="191" t="s">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B453" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B452" s="191" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B454" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B453" s="152" t="s">
+    <row r="455" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B455" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B455" s="186" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B457" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B456" s="187" t="s">
+    <row r="458" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B458" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B457" s="188" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B459" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B458" s="189" t="s">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B460" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B459" s="191" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B461" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B460" s="151" t="s">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B462" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B461" s="186" t="s">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B463" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B462" s="191" t="s">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B464" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B465" s="152" t="s">
+    <row r="467" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B467" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B466" s="152" t="s">
+    <row r="468" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B468" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B467" s="152" t="s">
+    <row r="469" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B469" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -14799,12 +14823,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20524,6 +20548,64 @@
         <v>0</v>
       </c>
       <c r="S100" s="190"/>
+    </row>
+    <row r="101" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="120">
+        <v>100</v>
+      </c>
+      <c r="B101" s="120">
+        <f t="shared" ref="B101" si="31">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
+        <v>35</v>
+      </c>
+      <c r="C101" s="120" t="s">
+        <v>943</v>
+      </c>
+      <c r="D101" s="120" t="s">
+        <v>779</v>
+      </c>
+      <c r="E101" s="120" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F101" s="120" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G101" s="120" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H101" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R101" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S101" s="190"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22474,97 +22556,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27718,6 +27800,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27728,12 +27816,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28251,16 +28333,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28327,10 +28409,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34126,6 +34208,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34135,11 +34222,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34617,98 +34699,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40121,11 +40203,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40137,6 +40214,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40327,7 +40409,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40355,7 +40437,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="1811">
   <si>
     <t>No.</t>
   </si>
@@ -6096,7 +6096,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6721,7 +6721,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6805,20 +6805,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6986,11 +6986,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7080,15 +7080,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7096,9 +7087,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7112,6 +7100,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8019,20 +8019,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9234,6 +9234,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9244,12 +9250,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11176,8 +11176,8 @@
   </sheetPr>
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B429" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13658,6 +13658,9 @@
       <c r="C427" s="185"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B428" s="151" t="s">
+        <v>1806</v>
+      </c>
       <c r="C428" s="185"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.5">
@@ -22556,97 +22559,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27800,12 +27803,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27816,6 +27813,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28333,16 +28336,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28409,10 +28412,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34208,11 +34211,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34222,6 +34220,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34699,98 +34702,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40203,6 +40206,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40214,11 +40222,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40409,7 +40412,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40437,7 +40440,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1035" windowWidth="19080" windowHeight="6465" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -7080,6 +7080,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7087,6 +7096,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7100,18 +7112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7255,13 +7255,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>467</xdr:row>
       <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8019,20 +8019,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9234,12 +9234,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9250,6 +9244,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11174,10 +11174,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B429" sqref="B429"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C432" sqref="C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13667,83 +13667,68 @@
       <c r="C429" s="185"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B430" s="192" t="s">
+      <c r="C430" s="185"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C431" s="185"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C432" s="185"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C434" s="185"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C435" s="185"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B436" s="192" t="s">
         <v>1721</v>
-      </c>
-      <c r="C430" s="185"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B431" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C431" s="185"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B432" s="192" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C432" s="185"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B433" s="151" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C433" s="185"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B434" s="192" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C434" s="185"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B435" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C435" s="185"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B436" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C436" s="185"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B437" s="192" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="C437" s="185"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B438" s="192" t="s">
+        <v>1723</v>
+      </c>
       <c r="C438" s="185"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B439" s="151" t="s">
+        <v>1724</v>
+      </c>
       <c r="C439" s="185"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A440" s="151" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B440" s="151" t="s">
-        <v>1727</v>
+      <c r="B440" s="192" t="s">
+        <v>1733</v>
       </c>
       <c r="C440" s="185"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B441" s="192" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C441" s="185"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B442" s="192" t="s">
-        <v>1729</v>
+      <c r="B442" s="151" t="s">
+        <v>1726</v>
       </c>
       <c r="C442" s="185"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B443" s="192" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C443" s="185"/>
     </row>
@@ -13754,86 +13739,119 @@
       <c r="C445" s="185"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A446" s="151" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B446" s="151" t="s">
+        <v>1727</v>
+      </c>
       <c r="C446" s="185"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B447" s="192" t="s">
+        <v>1728</v>
+      </c>
       <c r="C447" s="185"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B448" s="192" t="s">
+        <v>1729</v>
+      </c>
       <c r="C448" s="185"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B452" s="151" t="s">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B449" s="192" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C449" s="185"/>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C450" s="185"/>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C451" s="185"/>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C452" s="185"/>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C453" s="185"/>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C454" s="185"/>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B458" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B453" s="191" t="s">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B459" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B454" s="191" t="s">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B460" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B455" s="152" t="s">
+    <row r="461" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B461" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B457" s="186" t="s">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B463" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B458" s="187" t="s">
+    <row r="464" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B464" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B459" s="188" t="s">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B465" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B460" s="189" t="s">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B466" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B461" s="191" t="s">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B467" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B462" s="151" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B468" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B463" s="186" t="s">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B469" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B464" s="191" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B470" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B467" s="152" t="s">
+    <row r="473" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B473" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B468" s="152" t="s">
+    <row r="474" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B474" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="469" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B469" s="152" t="s">
+    <row r="475" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B475" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -22559,97 +22577,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27803,6 +27821,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27813,12 +27837,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28336,16 +28354,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28412,10 +28430,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34211,6 +34229,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34220,11 +34243,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34702,98 +34720,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40206,11 +40224,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40222,6 +40235,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40412,7 +40430,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40440,7 +40458,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1814">
   <si>
     <t>No.</t>
   </si>
@@ -6090,13 +6090,22 @@
   <si>
     <t>ทำใบสั่งซื้อแบบรวมสินค้า ใบสั่งจองไม่ปิด</t>
   </si>
+  <si>
+    <t xml:space="preserve"> alter table ProductList add ProductListUnitRef2  bigint;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alter table ProductList add ProductListUnitRef3  bigint;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> update ProductList set ProductListUnitRef2=0,ProductListUnitRef3=0;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6721,7 +6730,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6805,20 +6814,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6986,11 +6995,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7080,15 +7089,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7096,9 +7096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7112,6 +7109,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8019,20 +8028,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9234,6 +9243,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9244,12 +9259,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11176,8 +11185,8 @@
   </sheetPr>
   <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C432" sqref="C432"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C430" sqref="C430:C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13667,13 +13676,19 @@
       <c r="C429" s="185"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C430" s="185"/>
+      <c r="C430" s="185" t="s">
+        <v>1811</v>
+      </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C431" s="185"/>
+      <c r="C431" s="185" t="s">
+        <v>1812</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C432" s="185"/>
+      <c r="C432" s="185" t="s">
+        <v>1813</v>
+      </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C433" s="185"/>
@@ -22577,97 +22592,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27821,12 +27836,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27837,6 +27846,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28354,16 +28369,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28430,10 +28445,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34229,11 +34244,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34243,6 +34253,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34720,98 +34735,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40224,6 +40239,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40235,11 +40255,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40430,7 +40445,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40458,7 +40473,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -56,7 +56,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="1815">
   <si>
     <t>No.</t>
   </si>
@@ -6099,13 +6099,16 @@
   <si>
     <t xml:space="preserve"> update ProductList set ProductListUnitRef2=0,ProductListUnitRef3=0;</t>
   </si>
+  <si>
+    <t>1.0.1.04</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6730,7 +6733,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6814,20 +6817,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6995,11 +6998,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7089,6 +7092,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7096,6 +7108,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7109,18 +7124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8028,20 +8031,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="203" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9243,12 +9246,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9259,6 +9256,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11186,7 +11189,7 @@
   <dimension ref="A1:C475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C430" sqref="C430:C432"/>
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13676,6 +13679,9 @@
       <c r="C429" s="185"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A430" s="151" t="s">
+        <v>1814</v>
+      </c>
       <c r="C430" s="185" t="s">
         <v>1811</v>
       </c>
@@ -22592,97 +22598,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27836,6 +27842,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27846,12 +27858,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28369,16 +28375,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28445,10 +28451,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34244,6 +34250,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34253,11 +34264,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34735,98 +34741,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="196" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="196" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="198"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="206"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40239,11 +40245,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40255,6 +40256,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40445,7 +40451,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40473,7 +40479,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -52,11 +52,12 @@
     <sheet name="ทดรองจ่าย" sheetId="34" state="hidden" r:id="rId43"/>
     <sheet name="ขนส่ง" sheetId="35" state="hidden" r:id="rId44"/>
     <sheet name="MIS" sheetId="36" state="hidden" r:id="rId45"/>
+    <sheet name="Sheet3" sheetId="47" r:id="rId46"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -226,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="1823">
   <si>
     <t>No.</t>
   </si>
@@ -6102,13 +6103,37 @@
   <si>
     <t>1.0.1.04</t>
   </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>prolistid</t>
+  </si>
+  <si>
+    <t>prolistid_new</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6733,13 +6758,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6817,20 +6842,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -6998,11 +7023,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7092,15 +7117,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7108,9 +7124,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7124,6 +7137,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7157,6 +7182,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8031,20 +8064,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="203" t="s">
+      <c r="A2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="199" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9246,6 +9279,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9256,12 +9295,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11188,7 +11221,7 @@
   </sheetPr>
   <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
@@ -21410,6 +21443,178 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="120" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="120"/>
+    <col min="10" max="11" width="9.140625" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="219"/>
+      <c r="B1" s="219" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1" s="219" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D1" s="219" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1" s="219" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1" s="220" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G1" s="221">
+        <v>1</v>
+      </c>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221">
+        <v>2</v>
+      </c>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221">
+        <v>3</v>
+      </c>
+      <c r="L1" s="221"/>
+    </row>
+    <row r="2" spans="1:12" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="219"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H2" s="220" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I2" s="220" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J2" s="220" t="s">
+        <v>1821</v>
+      </c>
+      <c r="K2" s="220" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L2" s="220" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="120">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="120">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" s="218" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="120">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="120">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" s="218" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="120">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22598,97 +22803,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="203" t="s">
+      <c r="B2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="196" t="s">
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="196" t="s">
+      <c r="AM2" s="204"/>
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="205"/>
+      <c r="AP2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="198"/>
-      <c r="AT2" s="196" t="s">
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
+      <c r="AT2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="196" t="s">
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="AY2" s="204"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="205"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -27842,12 +28047,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -27858,6 +28057,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28375,16 +28580,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="207" t="s">
@@ -28451,10 +28656,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34250,11 +34455,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34264,6 +34464,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34741,98 +34946,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="C2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="201" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="199" t="s">
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="199" t="s">
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="199" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="196" t="s">
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="203" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="196" t="s">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="203" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="203" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="196" t="s">
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="205"/>
+      <c r="AM2" s="203" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="196" t="s">
+      <c r="AN2" s="204"/>
+      <c r="AO2" s="204"/>
+      <c r="AP2" s="205"/>
+      <c r="AQ2" s="203" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="196" t="s">
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="198"/>
-      <c r="AY2" s="196" t="s">
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="203" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="198"/>
+      <c r="AZ2" s="204"/>
+      <c r="BA2" s="204"/>
+      <c r="BB2" s="205"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40245,6 +40450,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40256,11 +40466,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40451,7 +40656,7 @@
       <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="215" t="s">
@@ -40479,7 +40684,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="214"/>
-      <c r="B2" s="204"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="45"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="1823">
   <si>
     <t>No.</t>
   </si>
@@ -6098,9 +6098,6 @@
     <t xml:space="preserve"> alter table ProductList add ProductListUnitRef3  bigint;</t>
   </si>
   <si>
-    <t xml:space="preserve"> update ProductList set ProductListUnitRef2=0,ProductListUnitRef3=0;</t>
-  </si>
-  <si>
     <t>1.0.1.04</t>
   </si>
   <si>
@@ -6110,12 +6107,6 @@
     <t>pro</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>prolistid</t>
   </si>
   <si>
@@ -6126,6 +6117,15 @@
   </si>
   <si>
     <t>ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alter table ProductList add ProductListUnitRef1  bigint;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> update ProductList set ProductListUnitRef1=0, ProductListUnitRef2=0,ProductListUnitRef3=0;</t>
+  </si>
+  <si>
+    <t>7023</t>
   </si>
 </sst>
 </file>
@@ -6133,7 +6133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6758,13 +6758,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6842,20 +6842,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7023,11 +7023,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7111,11 +7111,24 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7124,6 +7137,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7137,18 +7153,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7182,11 +7186,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8064,20 +8063,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="199" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9172,100 +9171,100 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="218" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="216"/>
+      <c r="C31" s="218"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B32" s="216" t="s">
+      <c r="B32" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="216"/>
+      <c r="C32" s="218"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B33" s="216" t="s">
+      <c r="B33" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="216"/>
+      <c r="C33" s="218"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B34" s="216" t="s">
+      <c r="B34" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="216"/>
+      <c r="C34" s="218"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="218" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="216"/>
+      <c r="C35" s="218"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B36" s="216" t="s">
+      <c r="B36" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="216"/>
+      <c r="C36" s="218"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="216"/>
+      <c r="C37" s="218"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B38" s="216" t="s">
+      <c r="B38" s="218" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="216"/>
+      <c r="C38" s="218"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B39" s="216" t="s">
+      <c r="B39" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="216"/>
+      <c r="C39" s="218"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B40" s="216" t="s">
+      <c r="B40" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="216"/>
+      <c r="C40" s="218"/>
     </row>
     <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="216" t="s">
+      <c r="B41" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="216"/>
+      <c r="C41" s="218"/>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B42" s="216" t="s">
+      <c r="B42" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="216"/>
+      <c r="C42" s="218"/>
     </row>
     <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B43" s="216" t="s">
+      <c r="B43" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="216"/>
+      <c r="C43" s="218"/>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="218" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="216"/>
+      <c r="C44" s="218"/>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="216" t="s">
+      <c r="B45" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="216"/>
+      <c r="C45" s="218"/>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B46" s="216" t="s">
+      <c r="B46" s="218" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="216"/>
+      <c r="C46" s="218"/>
     </row>
     <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
@@ -9279,12 +9278,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9295,6 +9288,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11221,8 +11220,8 @@
   </sheetPr>
   <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B431" sqref="B431"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -11255,7 +11254,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="196" t="s">
         <v>993</v>
       </c>
       <c r="C4" s="153" t="s">
@@ -11263,13 +11262,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B5" s="194"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="151" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B6" s="194"/>
+      <c r="B6" s="196"/>
       <c r="C6" s="151" t="s">
         <v>992</v>
       </c>
@@ -11460,7 +11459,7 @@
       <c r="B37" s="151" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="195" t="s">
+      <c r="C37" s="197" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -11468,61 +11467,61 @@
       <c r="B38" s="151" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="195"/>
+      <c r="C38" s="197"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B39" s="151" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="195"/>
+      <c r="C39" s="197"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B40" s="151" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="195"/>
+      <c r="C40" s="197"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B41" s="151" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="195"/>
+      <c r="C41" s="197"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B42" s="151" t="s">
         <v>1059</v>
       </c>
-      <c r="C42" s="195"/>
+      <c r="C42" s="197"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B43" s="151" t="s">
         <v>1063</v>
       </c>
-      <c r="C43" s="195"/>
+      <c r="C43" s="197"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B44" s="151" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="195"/>
+      <c r="C44" s="197"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C45" s="195"/>
+      <c r="C45" s="197"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C46" s="195"/>
+      <c r="C46" s="197"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C47" s="195"/>
+      <c r="C47" s="197"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C48" s="195"/>
+      <c r="C48" s="197"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C49" s="195"/>
+      <c r="C49" s="197"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C50" s="195"/>
+      <c r="C50" s="197"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="151" t="s">
@@ -13709,11 +13708,13 @@
       <c r="C428" s="185"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C429" s="185"/>
+      <c r="C429" s="185" t="s">
+        <v>1820</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A430" s="151" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C430" s="185" t="s">
         <v>1811</v>
@@ -13726,7 +13727,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C432" s="185" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.5">
@@ -14818,7 +14819,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="217" t="s">
+      <c r="A39" s="219" t="s">
         <v>927</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -14826,19 +14827,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="217"/>
+      <c r="A40" s="219"/>
       <c r="B40" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="217"/>
+      <c r="A41" s="219"/>
       <c r="B41" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="217" t="s">
+      <c r="A42" s="219" t="s">
         <v>927</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -14846,13 +14847,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="217"/>
+      <c r="A43" s="219"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="217"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
@@ -21450,86 +21451,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="120" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="120" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="120" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="120"/>
     <col min="10" max="11" width="9.140625" style="120"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219"/>
-      <c r="B1" s="219" t="s">
+      <c r="A1" s="194"/>
+      <c r="B1" s="194" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1" s="194" t="s">
         <v>1815</v>
       </c>
-      <c r="C1" s="219" t="s">
+      <c r="D1" s="194" t="s">
         <v>1816</v>
       </c>
-      <c r="D1" s="219" t="s">
+      <c r="E1" s="194" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F1" s="195" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G1" s="220">
+        <v>1</v>
+      </c>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220">
+        <v>2</v>
+      </c>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220">
+        <v>3</v>
+      </c>
+      <c r="L1" s="220"/>
+    </row>
+    <row r="2" spans="1:12" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195" t="s">
         <v>1819</v>
       </c>
-      <c r="E1" s="219" t="s">
-        <v>1821</v>
-      </c>
-      <c r="F1" s="220" t="s">
-        <v>1820</v>
-      </c>
-      <c r="G1" s="221">
-        <v>1</v>
-      </c>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221">
-        <v>2</v>
-      </c>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221">
-        <v>3</v>
-      </c>
-      <c r="L1" s="221"/>
-    </row>
-    <row r="2" spans="1:12" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H2" s="220" t="s">
-        <v>1821</v>
-      </c>
-      <c r="I2" s="220" t="s">
-        <v>1822</v>
-      </c>
-      <c r="J2" s="220" t="s">
-        <v>1821</v>
-      </c>
-      <c r="K2" s="220" t="s">
-        <v>1822</v>
-      </c>
-      <c r="L2" s="220" t="s">
-        <v>1821</v>
+      <c r="H2" s="195" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I2" s="195" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J2" s="195" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K2" s="195" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L2" s="195" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3" s="55">
+        <v>7023</v>
+      </c>
+      <c r="D3" s="120">
+        <v>112729</v>
       </c>
       <c r="E3" s="120">
         <v>2</v>
@@ -21538,13 +21539,13 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>112729</v>
       </c>
       <c r="H3" s="120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>112731</v>
       </c>
       <c r="J3" s="120">
         <v>1</v>
@@ -21554,11 +21555,11 @@
       <c r="B4">
         <v>33</v>
       </c>
-      <c r="C4" s="218" t="s">
-        <v>1818</v>
+      <c r="C4" s="55">
+        <v>7022</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>112728</v>
       </c>
       <c r="E4" s="120">
         <v>2</v>
@@ -21566,14 +21567,14 @@
       <c r="F4" s="12">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="G4" s="120">
+        <v>112728</v>
       </c>
       <c r="H4" s="120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>112730</v>
       </c>
       <c r="J4" s="120">
         <v>1</v>
@@ -21583,11 +21584,11 @@
       <c r="B5">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>1817</v>
+      <c r="C5" s="55">
+        <v>7022</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>112730</v>
       </c>
       <c r="E5" s="120">
         <v>1</v>
@@ -21597,11 +21598,11 @@
       <c r="B6">
         <v>34</v>
       </c>
-      <c r="C6" s="218" t="s">
-        <v>1818</v>
+      <c r="C6" s="55" t="s">
+        <v>1822</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>112731</v>
       </c>
       <c r="E6" s="120">
         <v>1</v>
@@ -21614,7 +21615,7 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22803,97 +22804,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="199" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="203" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="204"/>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="205"/>
-      <c r="AP2" s="203" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="203" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="203" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="205"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="202"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -28047,6 +28048,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -28057,12 +28064,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28580,86 +28581,86 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="209" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="207" t="s">
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="209" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="207" t="s">
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="209" t="s">
         <v>729</v>
       </c>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="207" t="s">
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="209" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="207" t="s">
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="209" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="207" t="s">
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="209" t="s">
         <v>653</v>
       </c>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="207" t="s">
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="210"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="209" t="s">
         <v>731</v>
       </c>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="207" t="s">
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="210"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="209" t="s">
         <v>655</v>
       </c>
-      <c r="AJ2" s="208"/>
-      <c r="AK2" s="208"/>
-      <c r="AL2" s="209"/>
-      <c r="AM2" s="207" t="s">
+      <c r="AJ2" s="210"/>
+      <c r="AK2" s="210"/>
+      <c r="AL2" s="211"/>
+      <c r="AM2" s="209" t="s">
         <v>656</v>
       </c>
-      <c r="AN2" s="208"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="209"/>
-      <c r="AQ2" s="207" t="s">
+      <c r="AN2" s="210"/>
+      <c r="AO2" s="210"/>
+      <c r="AP2" s="211"/>
+      <c r="AQ2" s="209" t="s">
         <v>657</v>
       </c>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="208"/>
-      <c r="AT2" s="209"/>
+      <c r="AR2" s="210"/>
+      <c r="AS2" s="210"/>
+      <c r="AT2" s="211"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34455,6 +34456,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34464,11 +34470,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34946,98 +34947,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="196" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="196" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="196" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="203" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="203" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="204"/>
-      <c r="AK2" s="204"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="204"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="203" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="203" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="205"/>
-      <c r="AY2" s="203" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="205"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40450,11 +40451,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40466,6 +40462,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40653,38 +40654,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="215" t="s">
+      <c r="A1" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="217" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="215" t="s">
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="217" t="s">
         <v>730</v>
       </c>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="215" t="s">
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="217" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="211" t="s">
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="213" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="212"/>
+      <c r="P1" s="214"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="214"/>
-      <c r="B2" s="200"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1824">
   <si>
     <t>No.</t>
   </si>
@@ -6127,13 +6127,16 @@
   <si>
     <t>7023</t>
   </si>
+  <si>
+    <t>ดึงใบจองไปทำ PO แบบรวมหลายรายการแล้วสถานะไม่ปิด</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6758,7 +6761,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6842,20 +6845,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7023,11 +7026,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11220,8 +11223,8 @@
   </sheetPr>
   <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13715,6 +13718,9 @@
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A430" s="151" t="s">
         <v>1813</v>
+      </c>
+      <c r="B430" s="151" t="s">
+        <v>1823</v>
       </c>
       <c r="C430" s="185" t="s">
         <v>1811</v>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1826">
   <si>
     <t>No.</t>
   </si>
@@ -6130,13 +6130,19 @@
   <si>
     <t>ดึงใบจองไปทำ PO แบบรวมหลายรายการแล้วสถานะไม่ปิด</t>
   </si>
+  <si>
+    <t xml:space="preserve"> alter table Note add SEQ  int;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> update note set seq=noteid;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6761,7 +6767,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6845,20 +6851,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7026,11 +7032,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7124,15 +7130,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7140,9 +7137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7156,6 +7150,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7302,13 +7308,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>468</xdr:row>
       <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8066,20 +8072,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9281,6 +9287,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9291,12 +9303,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11221,10 +11227,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C475"/>
+  <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B430" sqref="B430"/>
+      <selection activeCell="C432" sqref="C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13740,93 +13746,97 @@
       <c r="C433" s="185"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C434" s="185"/>
+      <c r="C434" s="185" t="s">
+        <v>1824</v>
+      </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C435" s="185"/>
+      <c r="C435" s="185" t="s">
+        <v>1825</v>
+      </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B436" s="192" t="s">
-        <v>1721</v>
-      </c>
       <c r="C436" s="185"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B437" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C437" s="185"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B438" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C438" s="185"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B439" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C438" s="185"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B439" s="151" t="s">
+      <c r="C439" s="185"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B440" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C439" s="185"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B440" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C440" s="185"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B441" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C441" s="185"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B442" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C441" s="185"/>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B442" s="151" t="s">
+      <c r="C442" s="185"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B443" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C442" s="185"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B443" s="192" t="s">
+      <c r="C443" s="185"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B444" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C443" s="185"/>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C444" s="185"/>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C445" s="185"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A446" s="151" t="s">
+      <c r="C446" s="185"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A447" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B446" s="151" t="s">
+      <c r="B447" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C446" s="185"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B447" s="192" t="s">
-        <v>1728</v>
       </c>
       <c r="C447" s="185"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B448" s="192" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C448" s="185"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B449" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C449" s="185"/>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B450" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C449" s="185"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C450" s="185"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.5">
@@ -13841,78 +13851,81 @@
     <row r="454" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C454" s="185"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B458" s="151" t="s">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C455" s="185"/>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B459" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B459" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B460" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B461" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="461" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B461" s="152" t="s">
+    <row r="462" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B462" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B463" s="186" t="s">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="464" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B464" s="187" t="s">
+    <row r="465" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B465" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B465" s="188" t="s">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B466" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B466" s="189" t="s">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B467" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B467" s="191" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B468" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B468" s="151" t="s">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B469" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B469" s="186" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B470" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B470" s="191" t="s">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B471" s="191" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="473" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B473" s="152" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="474" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B474" s="152" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B475" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B475" s="152" t="s">
+    <row r="476" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B476" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -22810,97 +22823,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -28054,12 +28067,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -28070,6 +28077,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28587,16 +28600,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -28663,10 +28676,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34462,11 +34475,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34476,6 +34484,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34953,98 +34966,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40457,6 +40470,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40468,11 +40486,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40663,7 +40676,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -40691,7 +40704,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1829">
   <si>
     <t>No.</t>
   </si>
@@ -6136,13 +6136,22 @@
   <si>
     <t xml:space="preserve"> update note set seq=noteid;</t>
   </si>
+  <si>
+    <t>เพิ่มหมายเหตุ เพื่อพิมพ์ในเอกสารต่อท้ายรายการสินค้า</t>
+  </si>
+  <si>
+    <t>แก้ไขใบสั่งซื้อ แล้วใบสั่งจองกลับมาสถานะผิด</t>
+  </si>
+  <si>
+    <t>1.0.1.05</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6767,7 +6776,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6851,20 +6860,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7032,11 +7041,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7130,6 +7139,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7137,6 +7155,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7150,18 +7171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8072,20 +8081,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9287,12 +9296,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9303,6 +9306,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11230,7 +11239,7 @@
   <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C432" sqref="C432"/>
+      <selection activeCell="C434" sqref="C434:C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13746,11 +13755,20 @@
       <c r="C433" s="185"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A434" s="151" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B434" s="151" t="s">
+        <v>1826</v>
+      </c>
       <c r="C434" s="185" t="s">
         <v>1824</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B435" s="151" t="s">
+        <v>1827</v>
+      </c>
       <c r="C435" s="185" t="s">
         <v>1825</v>
       </c>
@@ -22823,97 +22841,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -28067,6 +28085,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -28077,12 +28101,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28600,16 +28618,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -28676,10 +28694,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34475,6 +34493,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34484,11 +34507,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -34966,98 +34984,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40470,11 +40488,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40486,6 +40499,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40676,7 +40694,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -40704,7 +40722,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1831">
   <si>
     <t>No.</t>
   </si>
@@ -6145,13 +6145,19 @@
   <si>
     <t>1.0.1.05</t>
   </si>
+  <si>
+    <t>1.0.1.06</t>
+  </si>
+  <si>
+    <t>หน้าประวัติขายเลือกสินค้าไม่ได้</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6776,7 +6782,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6860,20 +6866,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7041,11 +7047,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7317,13 +7323,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>468</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>143542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>477</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>210818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7343,6 +7349,82 @@
         <a:xfrm>
           <a:off x="7229476" y="136084342"/>
           <a:ext cx="7475986" cy="5591776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2709334</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>530858</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>273595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863417" y="130270250"/>
+          <a:ext cx="3409524" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2614084</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502275</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>309643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7768167" y="134397750"/>
+          <a:ext cx="3476191" cy="3590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11236,10 +11318,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C476"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C434" sqref="C434:C435"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I455" sqref="I455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13777,173 +13859,185 @@
       <c r="C436" s="185"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B437" s="192" t="s">
-        <v>1721</v>
+      <c r="A437" s="151" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B437" s="151" t="s">
+        <v>1830</v>
       </c>
       <c r="C437" s="185"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B438" s="192" t="s">
-        <v>1722</v>
-      </c>
       <c r="C438" s="185"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B439" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C439" s="185"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B440" s="151" t="s">
-        <v>1724</v>
+      <c r="B440" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C440" s="185"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B441" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C441" s="185"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B442" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C442" s="185"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B443" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C441" s="185"/>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B442" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C442" s="185"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B443" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C443" s="185"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B444" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C444" s="185"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B445" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C445" s="185"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B446" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C444" s="185"/>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C445" s="185"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C446" s="185"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A447" s="151" t="s">
+      <c r="C447" s="185"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C448" s="185"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A449" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B447" s="151" t="s">
+      <c r="B449" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C447" s="185"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B448" s="192" t="s">
+      <c r="C449" s="185"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B450" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C448" s="185"/>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B449" s="192" t="s">
+      <c r="C450" s="185"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B451" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C449" s="185"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B450" s="192" t="s">
+      <c r="C451" s="185"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B452" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C450" s="185"/>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C451" s="185"/>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C452" s="185"/>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C453" s="185"/>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C454" s="185"/>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C455" s="185"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B459" s="151" t="s">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C456" s="185"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C457" s="185"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B461" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B460" s="191" t="s">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B462" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B461" s="191" t="s">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B463" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="462" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B462" s="152" t="s">
+    <row r="464" spans="1:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B464" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B464" s="186" t="s">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B466" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B465" s="187" t="s">
+    <row r="467" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B467" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B466" s="188" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B468" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B467" s="189" t="s">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B469" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B468" s="191" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B470" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B469" s="151" t="s">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B471" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B470" s="186" t="s">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B472" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B471" s="191" t="s">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B473" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B474" s="152" t="s">
+    <row r="476" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B476" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B475" s="152" t="s">
+    <row r="477" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B477" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B476" s="152" t="s">
+    <row r="478" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B478" s="152" t="s">
         <v>1791</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1840">
   <si>
     <t>No.</t>
   </si>
@@ -6150,6 +6150,33 @@
   </si>
   <si>
     <t>หน้าประวัติขายเลือกสินค้าไม่ได้</t>
+  </si>
+  <si>
+    <t>เปิดหน้าลดหนี้ error</t>
+  </si>
+  <si>
+    <t>เพิ่มลำดับในหน้ารายละเอียดสินค้า</t>
+  </si>
+  <si>
+    <t>1.0.1.07</t>
+  </si>
+  <si>
+    <t>1.0.1.08</t>
+  </si>
+  <si>
+    <t>ใบลดหนี้ เพิ่มหนี้ ดึงใบกำกับภาษีมาทำรายการ ไม่แสดงสินค้า</t>
+  </si>
+  <si>
+    <t>รายงานวิเคราะห์ เพิ่มการแสดงข้อมูลของลูกค้ากลุ่ม Contacts</t>
+  </si>
+  <si>
+    <t>หน้า Login config เพิ่ม database user,password</t>
+  </si>
+  <si>
+    <t>หน้าค้นหารายการ เพิ่มเลขที่ใบกำกับเจ้าหนี้</t>
+  </si>
+  <si>
+    <t>หน้า Stockin ยกเลิกการแสดงรายการ SN ของใบ PO กรณีดึงใบ PO มาทำ</t>
   </si>
 </sst>
 </file>
@@ -7321,20 +7348,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>470</xdr:row>
-      <xdr:rowOff>143542</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>105832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160787</xdr:colOff>
-      <xdr:row>479</xdr:row>
-      <xdr:rowOff>210818</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604940</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>633427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7347,45 +7374,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7229476" y="136084342"/>
-          <a:ext cx="7475986" cy="5591776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2709334</xdr:colOff>
-      <xdr:row>436</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>530858</xdr:colOff>
-      <xdr:row>450</xdr:row>
-      <xdr:rowOff>273595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7863417" y="130270250"/>
+          <a:off x="11006666" y="135858249"/>
           <a:ext cx="3409524" cy="4104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7399,13 +7388,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2614084</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>461</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>502275</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>473</xdr:row>
       <xdr:rowOff>309643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7416,7 +7405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11318,10 +11307,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C478"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I455" sqref="I455"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13871,50 +13860,53 @@
       <c r="C438" s="185"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B439" s="192" t="s">
-        <v>1721</v>
+      <c r="A439" s="151" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B439" s="151" t="s">
+        <v>1831</v>
       </c>
       <c r="C439" s="185"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B440" s="192" t="s">
-        <v>1722</v>
+      <c r="B440" s="151" t="s">
+        <v>1832</v>
       </c>
       <c r="C440" s="185"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B441" s="192" t="s">
-        <v>1723</v>
-      </c>
       <c r="C441" s="185"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A442" s="151" t="s">
+        <v>1834</v>
+      </c>
       <c r="B442" s="151" t="s">
-        <v>1724</v>
+        <v>1835</v>
       </c>
       <c r="C442" s="185"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B443" s="192" t="s">
-        <v>1733</v>
+      <c r="B443" s="151" t="s">
+        <v>1836</v>
       </c>
       <c r="C443" s="185"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B444" s="192" t="s">
-        <v>1725</v>
+      <c r="B444" s="151" t="s">
+        <v>1837</v>
       </c>
       <c r="C444" s="185"/>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B445" s="151" t="s">
-        <v>1726</v>
+        <v>1838</v>
       </c>
       <c r="C445" s="185"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B446" s="192" t="s">
-        <v>1731</v>
+      <c r="B446" s="151" t="s">
+        <v>1839</v>
       </c>
       <c r="C446" s="185"/>
     </row>
@@ -13925,119 +13917,173 @@
       <c r="C448" s="185"/>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A449" s="151" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B449" s="151" t="s">
-        <v>1727</v>
+      <c r="B449" s="192" t="s">
+        <v>1721</v>
       </c>
       <c r="C449" s="185"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B450" s="192" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="C450" s="185"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B451" s="192" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="C451" s="185"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B452" s="192" t="s">
-        <v>1730</v>
+      <c r="B452" s="151" t="s">
+        <v>1724</v>
       </c>
       <c r="C452" s="185"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B453" s="192" t="s">
+        <v>1733</v>
+      </c>
       <c r="C453" s="185"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B454" s="192" t="s">
+        <v>1725</v>
+      </c>
       <c r="C454" s="185"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B455" s="151" t="s">
+        <v>1726</v>
+      </c>
       <c r="C455" s="185"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B456" s="192" t="s">
+        <v>1731</v>
+      </c>
       <c r="C456" s="185"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C457" s="185"/>
     </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C458" s="185"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A459" s="151" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B459" s="151" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C459" s="185"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B460" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C460" s="185"/>
+    </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B461" s="151" t="s">
+      <c r="B461" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C461" s="185"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B462" s="192" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C462" s="185"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C465" s="185"/>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C466" s="185"/>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C467" s="185"/>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B471" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B462" s="191" t="s">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B472" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B463" s="191" t="s">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B473" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B464" s="152" t="s">
+    <row r="474" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B474" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B466" s="186" t="s">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B476" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B467" s="187" t="s">
+    <row r="477" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B477" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B468" s="188" t="s">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B478" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B469" s="189" t="s">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B479" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B470" s="191" t="s">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B480" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B471" s="151" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B481" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B472" s="186" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B482" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B473" s="191" t="s">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B483" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B476" s="152" t="s">
+    <row r="486" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B486" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B477" s="152" t="s">
+    <row r="487" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B487" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B478" s="152" t="s">
+    <row r="488" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B488" s="152" t="s">
         <v>1791</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1843">
   <si>
     <t>No.</t>
   </si>
@@ -6177,6 +6177,15 @@
   </si>
   <si>
     <t>หน้า Stockin ยกเลิกการแสดงรายการ SN ของใบ PO กรณีดึงใบ PO มาทำ</t>
+  </si>
+  <si>
+    <t>1.0.1.09</t>
+  </si>
+  <si>
+    <t>กรณีดึงรายการอ้างอิง หมายเหตุสินค้าไม่ถูกดึงมาด้วย</t>
+  </si>
+  <si>
+    <t>แก้ไขใบกำกับภาษีชำระสดเป็นเชื่อ ให้สถานะเป็น Open โดยไม่เข้า flow approve</t>
   </si>
 </sst>
 </file>
@@ -7172,15 +7181,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7188,9 +7188,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7204,6 +7201,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7350,13 +7359,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>264583</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>105832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>604940</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>633427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7388,13 +7397,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2614084</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>502275</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>309643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8152,20 +8161,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9367,6 +9376,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -9377,12 +9392,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11307,10 +11316,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:XFD450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -13914,96 +13923,105 @@
       <c r="C447" s="185"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A448" s="151" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B448" s="151" t="s">
+        <v>1841</v>
+      </c>
       <c r="C448" s="185"/>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B449" s="192" t="s">
+      <c r="B449" s="151" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C449" s="185"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C450" s="185"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C451" s="185"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B452" s="192" t="s">
         <v>1721</v>
-      </c>
-      <c r="C449" s="185"/>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B450" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C450" s="185"/>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B451" s="192" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C451" s="185"/>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B452" s="151" t="s">
-        <v>1724</v>
       </c>
       <c r="C452" s="185"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B453" s="192" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="C453" s="185"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B454" s="192" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C454" s="185"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B455" s="151" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C455" s="185"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B456" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C456" s="185"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B457" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C457" s="185"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B458" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C458" s="185"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B459" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C456" s="185"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C457" s="185"/>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C458" s="185"/>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A459" s="151" t="s">
+      <c r="C459" s="185"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C460" s="185"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C461" s="185"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A462" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B459" s="151" t="s">
+      <c r="B462" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C459" s="185"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B460" s="192" t="s">
+      <c r="C462" s="185"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B463" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C460" s="185"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B461" s="192" t="s">
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C461" s="185"/>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B462" s="192" t="s">
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C462" s="185"/>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C465" s="185"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.5">
@@ -14012,78 +14030,87 @@
     <row r="467" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C467" s="185"/>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B471" s="151" t="s">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C468" s="185"/>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C469" s="185"/>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C470" s="185"/>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B474" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B472" s="191" t="s">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B475" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B473" s="191" t="s">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B476" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B474" s="152" t="s">
+    <row r="477" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B477" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B476" s="186" t="s">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B479" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="477" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B477" s="187" t="s">
+    <row r="480" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B480" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B478" s="188" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B481" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B479" s="189" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B482" s="189" t="s">
         <v>1643</v>
-      </c>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B480" s="191" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B481" s="151" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B482" s="186" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B483" s="191" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B484" s="151" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B485" s="186" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B486" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B486" s="152" t="s">
+    <row r="489" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B489" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B487" s="152" t="s">
+    <row r="490" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B490" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B488" s="152" t="s">
+    <row r="491" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B491" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -22981,97 +23008,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -28225,12 +28252,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -28241,6 +28262,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -28758,16 +28785,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -28834,10 +28861,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -34633,11 +34660,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -34647,6 +34669,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -35124,98 +35151,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -40628,6 +40655,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -40639,11 +40671,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -40834,7 +40861,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -40862,7 +40889,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -6193,7 +6193,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6818,7 +6818,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6902,20 +6902,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7083,11 +7083,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7357,20 +7357,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>264583</xdr:colOff>
-      <xdr:row>463</xdr:row>
-      <xdr:rowOff>105832</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1725084</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>232833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604940</xdr:colOff>
-      <xdr:row>476</xdr:row>
-      <xdr:rowOff>633427</xdr:rowOff>
+      <xdr:colOff>429822</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>216548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7383,8 +7383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11006666" y="135858249"/>
-          <a:ext cx="3409524" cy="4104762"/>
+          <a:off x="6879167" y="133508750"/>
+          <a:ext cx="7361905" cy="3285715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7396,19 +7396,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2614084</xdr:colOff>
-      <xdr:row>464</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:colOff>1725084</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502275</xdr:colOff>
-      <xdr:row>476</xdr:row>
-      <xdr:rowOff>309643</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605560</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>192226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7421,8 +7421,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7768167" y="134397750"/>
-          <a:ext cx="3476191" cy="3590476"/>
+          <a:off x="6879167" y="136948333"/>
+          <a:ext cx="6923810" cy="3123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1788584</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550465</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>200488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6942667" y="140546666"/>
+          <a:ext cx="7419048" cy="4761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1284624</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1112047</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>54334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1898457" y="140165667"/>
+          <a:ext cx="4367673" cy="5822250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11318,8 +11394,8 @@
   </sheetPr>
   <dimension ref="A1:C491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:XFD450"/>
+    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1846">
   <si>
     <t>No.</t>
   </si>
@@ -6187,13 +6187,132 @@
   <si>
     <t>แก้ไขใบกำกับภาษีชำระสดเป็นเชื่อ ให้สถานะเป็น Open โดยไม่เข้า flow approve</t>
   </si>
+  <si>
+    <t>1.0.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE [dbo].[OrdersLog](
+ [LogTime] [datetime] NOT NULL DEFAULT GETDATE(),
+ [OrderID] [bigint] NOT NULL,
+ [OrderCode] [nvarchar](100) NULL,
+ [OrderDate] [date] NULL,
+ [ShipingDate] [datetime] NULL,
+ [ExpireDate] [datetime] NULL,
+ [CustomerID] [bigint] NULL,
+ [AgencyID] [bigint] NULL,
+ [EmpID] [bigint] NULL,
+ [CurrencyID] [bigint] NULL,
+ [ExchangeRate] [numeric](18, 2) NULL,
+ [QuotationDays] [int] NULL,
+ [PO] [nvarchar](50) NULL,
+ [PayType] [nvarchar](10) NULL DEFAULT (N'CASH'),
+ [CreditRuleID] [bigint] NULL,
+ [VatTypeID] [bigint] NULL,
+ [OrderStatus] [nvarchar](50) NULL,
+ [IsCancel] [int] NULL,
+ [CancelRemark] [nvarchar](100) NULL,
+ [Total] [numeric](18, 2) NULL,
+ [PledgeTotal] [numeric](18, 2) NULL DEFAULT ((0)),
+ [DiscountPercen] [numeric](18, 2) NULL,
+ [DiscountAmount] [numeric](18, 2) NULL,
+ [VatPercen] [numeric](18, 2) NULL,
+ [VatAmount] [numeric](18, 2) NULL,
+ [GrandTotal] [numeric](18, 2) NULL,
+ [PayTotal] [numeric](18, 2) NULL DEFAULT ((0)),
+ [Remark] [nvarchar](500) NULL,
+ [SendBy] [nvarchar](50) NULL,
+ [ShipingByID] [bigint] NULL,
+ [ShipingMethodeID] [bigint] NULL,
+ [ShipingRuleID] [bigint] NULL,
+ [TaxAmount] [numeric](18, 2) NULL,
+ [TaxCanYes] [nchar](1) NULL,
+ [TaxCondition] [nvarchar](100) NULL,
+ [TaxTypeID] [int] NULL,
+ [TaxMonthYear] [date] NULL,
+ [TaxNumber] [nvarchar](100) NULL,
+ [TaxRate] [numeric](18, 2) NULL,
+ [TaxRemark] [nvarchar](100) NULL,
+ [TaxSection] [nvarchar](100) NULL,
+ [TaxTotal] [numeric](18, 2) NULL,
+ [TaxType] [nvarchar](100) NULL,
+ [CreateBy] [bigint] NULL,
+ [CreateTime] [datetime] NULL,
+ [ModifiedBy] [bigint] NULL,
+ [ModifiedTime] [datetime] NULL,
+ [IsInActive] [int] NULL,
+ [IsDelete] [int] NULL,
+ [TableID] [bigint] NULL,
+ [RefBillID] [bigint] NULL DEFAULT ((0)),
+ [RefReceiptID] [bigint] NULL DEFAULT ((0)),
+ [BillMedthodID] [bigint] NULL DEFAULT ((0)),
+ [InvoiceSuplierID] [nvarchar](100) NULL,
+ [Institute] [nvarchar](100) NULL,
+ [StockType] [char](1) NULL,
+ [ImportTXID] [bigint] NULL,
+ [IsSumStock] [int] NULL,
+ [IsEditVat] [int] NULL,
+ [OrderStatus2] [nvarchar](50) NULL,
+ [IsMakePO] [int] NULL,
+ [MakePOStatus] [nvarchar](50) NULL,
+ [QuotationRemarkID] [int] NULL,
+ [IsNotPass] [int] NULL,
+ [CampaignID] [bigint] NULL,
+ CONSTRAINT [PK_OrdersLog] PRIMARY KEY CLUSTERED 
+(
+ [LogTime] ASC,
+ [OrderID] ASC
+)WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON) ON [PRIMARY]
+) ON [PRIMARY];
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+CREATE TABLE [dbo].[ProductListLog](
+ [LogTime] [datetime] NOT NULL DEFAULT GETDATE(),
+ [ProductListID] [bigint] NOT NULL,
+ [SEQ] [int] NULL,
+ [RefID] [bigint] NULL,
+ [RefTable] [nvarchar](50) NULL,
+ [ProductID] [bigint] NULL,
+ [ProductName] [nvarchar](500) NULL,
+ [ProductNameExt] [nvarchar](500) NULL,
+ [LocationDTLID] [bigint] NULL,
+ [UnitID] [bigint] NULL,
+ [KeepMin] [bigint] NULL,
+ [Units] [bigint] NULL,
+ [Cost] [numeric](18, 2) NULL,
+ [Price] [numeric](18, 2) NULL,
+ [Discount] [numeric](18, 2) NULL DEFAULT ((0)),
+ [Total] [numeric](18, 2) NULL,
+ [Remark] [nvarchar](500) NULL,
+ [IsDelete] [int] NULL,
+ [IsConfirm] [int] NULL DEFAULT ((0)),
+ [ProductListRefID] [bigint] NULL,
+ [IsShow] [int] NULL,
+ [IsMerge] [int] NULL,
+ [AdjustUnit] [bigint] NULL,
+ [RateUnit] [numeric](18, 2) NULL,
+ [UnitMainID] [bigint] NULL,
+ [PriceMain] [numeric](18, 2) NULL,
+ [ProductListRefID2] [bigint] NULL,
+ [ProductListRefID3] [bigint] NULL,
+ [ProductListUnitRef2] [bigint] NULL,
+ [ProductListUnitRef3] [bigint] NULL,
+ [ProductListUnitRef1] [bigint] NULL,
+ CONSTRAINT [PK_ProductListLog] PRIMARY KEY CLUSTERED 
+( [LogTime] ASC,
+ [ProductListID] ASC
+)WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON) ON [PRIMARY]
+) ON [PRIMARY];
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -6818,7 +6937,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6902,20 +7021,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -7083,11 +7202,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7342,163 +7461,6 @@
         <a:xfrm>
           <a:off x="4318000" y="25812750"/>
           <a:ext cx="4624917" cy="4401131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1725084</xdr:colOff>
-      <xdr:row>447</xdr:row>
-      <xdr:rowOff>232833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>429822</xdr:colOff>
-      <xdr:row>459</xdr:row>
-      <xdr:rowOff>216548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6879167" y="133508750"/>
-          <a:ext cx="7361905" cy="3285715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1725084</xdr:colOff>
-      <xdr:row>460</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>605560</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>192226</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6879167" y="136948333"/>
-          <a:ext cx="6923810" cy="3123810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1788584</xdr:colOff>
-      <xdr:row>473</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>550465</xdr:colOff>
-      <xdr:row>485</xdr:row>
-      <xdr:rowOff>200488</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6942667" y="140546666"/>
-          <a:ext cx="7419048" cy="4761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1284624</xdr:colOff>
-      <xdr:row>472</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1112047</xdr:colOff>
-      <xdr:row>488</xdr:row>
-      <xdr:rowOff>54334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1898457" y="140165667"/>
-          <a:ext cx="4367673" cy="5822250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11392,9 +11354,9 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C491"/>
+  <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
@@ -14017,93 +13979,100 @@
       <c r="C450" s="185"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C451" s="185"/>
+      <c r="A451" s="151" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C451" s="185" t="s">
+        <v>1844</v>
+      </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B452" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C452" s="185"/>
+      <c r="C452" s="185" t="s">
+        <v>1845</v>
+      </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B453" s="192" t="s">
-        <v>1722</v>
-      </c>
       <c r="C453" s="185"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B454" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C454" s="185"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B455" s="151" t="s">
-        <v>1724</v>
+      <c r="B455" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C455" s="185"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B456" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C456" s="185"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B457" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C457" s="185"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B458" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C456" s="185"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B457" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C457" s="185"/>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B458" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C458" s="185"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B459" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C459" s="185"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B460" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C460" s="185"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B461" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C459" s="185"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C460" s="185"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C461" s="185"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A462" s="151" t="s">
+      <c r="C462" s="185"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A464" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B462" s="151" t="s">
+      <c r="B464" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C462" s="185"/>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B463" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B464" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C464" s="185"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B465" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C465" s="185"/>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B466" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C466" s="185"/>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B467" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C465" s="185"/>
-    </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C466" s="185"/>
-    </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C467" s="185"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.5">
@@ -14115,78 +14084,84 @@
     <row r="470" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C470" s="185"/>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B474" s="151" t="s">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C471" s="185"/>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C472" s="185"/>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B476" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B475" s="191" t="s">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B477" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B476" s="191" t="s">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B478" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="477" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B477" s="152" t="s">
+    <row r="479" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B479" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B479" s="186" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B481" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="480" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B480" s="187" t="s">
+    <row r="482" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B482" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B481" s="188" t="s">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B483" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B482" s="189" t="s">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B484" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B483" s="191" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B485" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B484" s="151" t="s">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B486" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B485" s="186" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B487" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B486" s="191" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B488" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="489" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B489" s="152" t="s">
+    <row r="491" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B491" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B490" s="152" t="s">
+    <row r="492" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B492" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B491" s="152" t="s">
+    <row r="493" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B493" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -14197,7 +14172,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1892">
   <si>
     <t>No.</t>
   </si>
@@ -6417,6 +6417,33 @@
   </si>
   <si>
     <t>'- หน้าสรุปเป้าการสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>ClaimResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผลการเคลม Supplier </t>
+  </si>
+  <si>
+    <t>ClaimResultBar</t>
+  </si>
+  <si>
+    <t>เคลม(ส่งคืน)</t>
+  </si>
+  <si>
+    <t>ClaimReturn</t>
+  </si>
+  <si>
+    <t>ClaimReturnBar</t>
+  </si>
+  <si>
+    <t>ใบเสนอราคาคู่เทียบ</t>
+  </si>
+  <si>
+    <t>Quotation2Bar</t>
+  </si>
+  <si>
+    <t>Quotation2</t>
   </si>
 </sst>
 </file>
@@ -7412,15 +7439,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7428,9 +7446,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7444,6 +7459,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8433,7 +8460,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8461,7 +8488,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9154,20 +9181,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10369,6 +10396,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10379,12 +10412,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12215,8 +12242,8 @@
   </sheetPr>
   <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B454" sqref="B454"/>
+    <sheetView topLeftCell="A434" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15837,8 +15864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17246,12 +17273,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22977,7 +23004,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="120">
-        <f t="shared" ref="B101" si="31">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
+        <f t="shared" ref="B101:B102" si="31">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
         <v>35</v>
       </c>
       <c r="C101" s="120" t="s">
@@ -23029,6 +23056,177 @@
         <v>0</v>
       </c>
       <c r="S101" s="190"/>
+    </row>
+    <row r="102" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="120">
+        <v>101</v>
+      </c>
+      <c r="B102" s="120">
+        <f t="shared" si="31"/>
+        <v>287</v>
+      </c>
+      <c r="C102" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="120" t="s">
+        <v>779</v>
+      </c>
+      <c r="E102" s="120" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F102" s="120" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G102" s="120" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H102" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P102" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R102" s="121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="120">
+        <v>102</v>
+      </c>
+      <c r="B103" s="120">
+        <f t="shared" ref="B103:B104" si="32">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
+        <v>287</v>
+      </c>
+      <c r="C103" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="120" t="s">
+        <v>779</v>
+      </c>
+      <c r="E103" s="120" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F103" s="120" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G103" s="120" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H103" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P103" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" s="121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="120">
+        <v>103</v>
+      </c>
+      <c r="B104" s="120">
+        <f t="shared" si="32"/>
+        <v>287</v>
+      </c>
+      <c r="C104" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="120" t="s">
+        <v>779</v>
+      </c>
+      <c r="E104" s="120" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F104" s="120" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G104" s="120" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H104" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P104" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R104" s="121" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24221,97 +24419,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -29465,12 +29663,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -29481,6 +29673,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -29998,16 +30196,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30074,10 +30272,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -35873,11 +36071,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -35887,6 +36080,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -36364,98 +36562,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -41868,6 +42066,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -41879,11 +42082,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1895">
   <si>
     <t>No.</t>
   </si>
@@ -6444,6 +6444,15 @@
   </si>
   <si>
     <t>Quotation2</t>
+  </si>
+  <si>
+    <t>ClaimRemark</t>
+  </si>
+  <si>
+    <t>LayoutStockType2</t>
+  </si>
+  <si>
+    <t>LayoutClaimResult</t>
   </si>
 </sst>
 </file>
@@ -7439,6 +7448,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7446,6 +7464,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7459,18 +7480,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8460,7 +8469,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8488,7 +8497,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9181,20 +9190,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10396,12 +10405,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10412,6 +10415,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12242,8 +12251,8 @@
   </sheetPr>
   <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+    <sheetView topLeftCell="A416" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -17273,23 +17282,23 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomLeft" activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="120" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7" style="120" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="120" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
@@ -17301,7 +17310,7 @@
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>761</v>
       </c>
@@ -17357,7 +17366,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17413,13 +17422,17 @@
       <c r="R2" s="117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="120" t="str">
+        <f t="shared" ref="S2:S65" si="0">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A2 &amp; "," &amp; B2 &amp; ",'" &amp; C2 &amp; "','" &amp; D2 &amp; "' ,'" &amp; E2 &amp; "','" &amp; F2 &amp; "' ,'" &amp; G2 &amp; "'," &amp; IF(H2=TRUE,1,0) &amp; " ," &amp; IF(I2=TRUE,1,0) &amp; " ," &amp; IF(J2=TRUE,1,0) &amp; "," &amp; IF(K2=TRUE,1,0) &amp; "," &amp; IF(L2=TRUE,1,0) &amp; "," &amp; IF(M2=TRUE,1,0) &amp; "," &amp; IF(N2=TRUE,1,0) &amp; "," &amp; IF(O2=TRUE,1,0) &amp; "," &amp; IF(P2=TRUE,1,0) &amp; "," &amp; IF(Q2=TRUE,1,0) &amp; "," &amp; IF(R2=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (1,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'PrefixBar','คำนำชื่อ' ,'Prefix',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="120">
-        <f t="shared" ref="B3:B23" si="0">IF( H3=TRUE,1,0)+IF(I3=TRUE,2,0)+IF( J3=TRUE,4,0)+IF( K3=TRUE,8,0)+IF( L3=TRUE,16,0)+IF( M3=TRUE,32,0)+IF( N3=TRUE,64,0)+IF( O3=TRUE,128,0)+IF(P3=TRUE,256,0)+IF(Q3=TRUE,512,0)+IF(R3=TRUE,1024,0)</f>
+        <f t="shared" ref="B3:B23" si="1">IF( H3=TRUE,1,0)+IF(I3=TRUE,2,0)+IF( J3=TRUE,4,0)+IF( K3=TRUE,8,0)+IF( L3=TRUE,16,0)+IF( M3=TRUE,32,0)+IF( N3=TRUE,64,0)+IF( O3=TRUE,128,0)+IF(P3=TRUE,256,0)+IF(Q3=TRUE,512,0)+IF(R3=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C3" s="120" t="s">
@@ -17470,13 +17483,17 @@
       <c r="R3" s="118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (2,31,'CRM','ฝ่ายขาย' ,'LeadTypeBar','ประเภทการเพิ่ม' ,'LeadType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C4" s="120" t="s">
@@ -17527,13 +17544,17 @@
       <c r="R4" s="119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (3,31,'CRM','ฝ่ายขาย' ,'SourceBar','แหล่งที่มา' ,'Source',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C5" s="120" t="s">
@@ -17584,13 +17605,17 @@
       <c r="R5" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (4,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'DepartmentBar','แผนก' ,'Department',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C6" s="120" t="s">
@@ -17641,13 +17666,17 @@
       <c r="R6" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (5,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'PositionBar','ตำแหน่ง' ,'Position',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C7" s="120" t="s">
@@ -17698,13 +17727,17 @@
       <c r="R7" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (6,31,'CRM','ฝ่ายขาย' ,'TerritoryBar','ทีมขาย' ,'Territory',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C8" s="120" t="s">
@@ -17755,13 +17788,17 @@
       <c r="R8" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (7,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'IndustryTypeBar','ประเภทอุตสาหกรรม' ,'IndustryType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C9" s="120" t="s">
@@ -17812,13 +17849,17 @@
       <c r="R9" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (8,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'BusinessTypeBar','ประเภทธุรกิจ' ,'BusinessType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C10" s="120" t="s">
@@ -17869,13 +17910,17 @@
       <c r="R10" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (9,31,'Admin','Admin' ,'EmployeeBar','พนักงาน' ,'Employee',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="C11" s="120" t="s">
@@ -17926,13 +17971,17 @@
       <c r="R11" s="121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (10,2047,'CRM','ฝ่ายขาย' ,'LeadBar','Leads' ,'Lead',1 ,1 ,1,1,1,1,1,1,1,1,1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C12" s="120" t="s">
@@ -17983,13 +18032,17 @@
       <c r="R12" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (11,31,'Admin','Admin' ,'UserBar','ผู้ใช้งานระบบ' ,'Admin_User',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C13" s="120" t="s">
@@ -18040,13 +18093,17 @@
       <c r="R13" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (12,31,'Admin','Admin' ,'PrivilegeBar','กำหนดสิทธิ' ,'Privilege',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C14" s="120" t="s">
@@ -18097,13 +18154,17 @@
       <c r="R14" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (13,3,'Admin','Admin' ,'ActivityBar','การใช้งานระบบ' ,'Activity',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C15" s="120" t="s">
@@ -18154,13 +18215,17 @@
       <c r="R15" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (14,31,'ข้อมูลเริ่มต้น','Product' ,'UnitBar','หน่วยนับ' ,'Unit',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C16" s="120" t="s">
@@ -18211,13 +18276,17 @@
       <c r="R16" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (15,31,'ข้อมูลเริ่มต้น','Product' ,'ProductGroupBar','กลุ่มสินค้า' ,'ProductGroup',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="120">
         <v>16</v>
       </c>
       <c r="B17" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C17" s="120" t="s">
@@ -18268,13 +18337,17 @@
       <c r="R17" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (16,31,'ข้อมูลเริ่มต้น','Product' ,'ProductDimensionBar','มิติสินค้า' ,'ProductDimension',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="120">
         <v>17</v>
       </c>
       <c r="B18" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C18" s="120" t="s">
@@ -18325,13 +18398,17 @@
       <c r="R18" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (17,31,'ข้อมูลเริ่มต้น','Product' ,'ProductCategoryBar','หมวดสินค้า' ,'ProductCategory',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120">
         <v>18</v>
       </c>
       <c r="B19" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C19" s="120" t="s">
@@ -18382,13 +18459,17 @@
       <c r="R19" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (18,31,'ข้อมูลเริ่มต้น','Product' ,'ProductBrandBar','ยี่ห้อสินค้า' ,'ProductBrand',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120">
         <v>19</v>
       </c>
       <c r="B20" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C20" s="120" t="s">
@@ -18439,13 +18520,17 @@
       <c r="R20" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (19,31,'ข้อมูลเริ่มต้น','Product' ,'ProductTypeBar','ประเภทสินค้า' ,'ProductType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C21" s="120" t="s">
@@ -18496,13 +18581,17 @@
       <c r="R21" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (20,31,'Admin','Admin' ,'EmpGroupBar','กลุ่มพนักงาน' ,'EmpGroup',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120">
         <v>21</v>
       </c>
       <c r="B22" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C22" s="120" t="s">
@@ -18553,13 +18642,17 @@
       <c r="R22" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (21,31,'CRM','ฝ่ายขาย' ,'LocationBar','คลังสินค้า' ,'Location',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="120">
         <v>22</v>
       </c>
       <c r="B23" s="120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
       <c r="C23" s="120" t="s">
@@ -18610,13 +18703,17 @@
       <c r="R23" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (22,383,'CRM','Product' ,'ProductBar','สินค้า' ,'Product',1 ,1 ,1,1,1,1,1,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120">
         <v>23</v>
       </c>
       <c r="B24" s="120">
-        <f t="shared" ref="B24:B27" si="1">IF( H24=TRUE,1,0)+IF(I24=TRUE,2,0)+IF( J24=TRUE,4,0)+IF( K24=TRUE,8,0)+IF( L24=TRUE,16,0)+IF( M24=TRUE,32,0)+IF( N24=TRUE,64,0)+IF( O24=TRUE,128,0)+IF(P24=TRUE,256,0)+IF(Q24=TRUE,512,0)+IF(R24=TRUE,1024,0)</f>
+        <f t="shared" ref="B24:B27" si="2">IF( H24=TRUE,1,0)+IF(I24=TRUE,2,0)+IF( J24=TRUE,4,0)+IF( K24=TRUE,8,0)+IF( L24=TRUE,16,0)+IF( M24=TRUE,32,0)+IF( N24=TRUE,64,0)+IF( O24=TRUE,128,0)+IF(P24=TRUE,256,0)+IF(Q24=TRUE,512,0)+IF(R24=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C24" s="120" t="s">
@@ -18667,13 +18764,17 @@
       <c r="R24" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (23,31,'CRM','ฝ่ายขาย' ,'ContactRoleBar','บทบาทหน้าที่' ,'ContactRole',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120">
         <v>24</v>
       </c>
       <c r="B25" s="120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="C25" s="120" t="s">
@@ -18724,13 +18825,17 @@
       <c r="R25" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (24,31,'CRM','ฝ่ายขาย' ,'CreditRuleBar','รหัสเครดิต' ,'CreditRole',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="120">
         <v>25</v>
       </c>
       <c r="B26" s="120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="C26" s="120" t="s">
@@ -18781,13 +18886,17 @@
       <c r="R26" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (25,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'CurrencyBar','สกลุเงิน' ,'Currency',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120">
         <v>26</v>
       </c>
       <c r="B27" s="120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1023</v>
       </c>
       <c r="C27" s="120" t="s">
@@ -18838,13 +18947,17 @@
       <c r="R27" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (26,1023,'CRM','ฝ่ายขาย' ,'ContactBar','Contacts' ,'Contact',1 ,1 ,1,1,1,1,1,1,1,1,0);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120">
         <v>27</v>
       </c>
       <c r="B28" s="120">
-        <f t="shared" ref="B28:B29" si="2">IF( H28=TRUE,1,0)+IF(I28=TRUE,2,0)+IF( J28=TRUE,4,0)+IF( K28=TRUE,8,0)+IF( L28=TRUE,16,0)+IF( M28=TRUE,32,0)+IF( N28=TRUE,64,0)+IF( O28=TRUE,128,0)+IF(P28=TRUE,256,0)+IF(Q28=TRUE,512,0)+IF(R28=TRUE,1024,0)</f>
+        <f t="shared" ref="B28:B29" si="3">IF( H28=TRUE,1,0)+IF(I28=TRUE,2,0)+IF( J28=TRUE,4,0)+IF( K28=TRUE,8,0)+IF( L28=TRUE,16,0)+IF( M28=TRUE,32,0)+IF( N28=TRUE,64,0)+IF( O28=TRUE,128,0)+IF(P28=TRUE,256,0)+IF(Q28=TRUE,512,0)+IF(R28=TRUE,1024,0)</f>
         <v>1023</v>
       </c>
       <c r="C28" s="120" t="s">
@@ -18895,13 +19008,17 @@
       <c r="R28" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (27,1023,'CRM','ฝ่ายขาย' ,'AccountsBar','Accounts' ,'Account',1 ,1 ,1,1,1,1,1,1,1,1,0);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120">
         <v>28</v>
       </c>
       <c r="B29" s="120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C29" s="120" t="s">
@@ -18952,13 +19069,17 @@
       <c r="R29" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (28,11,'Admin','Admin' ,'RunningBar','Running Format' ,'RunningFormat',1 ,1 ,0,1,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120">
         <v>29</v>
       </c>
       <c r="B30" s="120">
-        <f t="shared" ref="B30:B31" si="3">IF( H30=TRUE,1,0)+IF(I30=TRUE,2,0)+IF( J30=TRUE,4,0)+IF( K30=TRUE,8,0)+IF( L30=TRUE,16,0)+IF( M30=TRUE,32,0)+IF( N30=TRUE,64,0)+IF( O30=TRUE,128,0)+IF(P30=TRUE,256,0)+IF(Q30=TRUE,512,0)+IF(R30=TRUE,1024,0)</f>
+        <f t="shared" ref="B30:B31" si="4">IF( H30=TRUE,1,0)+IF(I30=TRUE,2,0)+IF( J30=TRUE,4,0)+IF( K30=TRUE,8,0)+IF( L30=TRUE,16,0)+IF( M30=TRUE,32,0)+IF( N30=TRUE,64,0)+IF( O30=TRUE,128,0)+IF(P30=TRUE,256,0)+IF(Q30=TRUE,512,0)+IF(R30=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C30" s="120" t="s">
@@ -19006,13 +19127,17 @@
       <c r="R30" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (29,3,'CRM','ฝ่ายขาย' ,'VerifyCusBar','Verify Customer' ,'',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120">
         <v>30</v>
       </c>
       <c r="B31" s="120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C31" s="120" t="s">
@@ -19063,13 +19188,17 @@
       <c r="R31" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (30,31,'CRM','ฝ่ายขาย' ,'OpportunityTypeBar','ประเภทโอกาสทางการขาย' ,'OpportunityType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120">
         <v>31</v>
       </c>
       <c r="B32" s="120">
-        <f t="shared" ref="B32" si="4">IF( H32=TRUE,1,0)+IF(I32=TRUE,2,0)+IF( J32=TRUE,4,0)+IF( K32=TRUE,8,0)+IF( L32=TRUE,16,0)+IF( M32=TRUE,32,0)+IF( N32=TRUE,64,0)+IF( O32=TRUE,128,0)+IF(P32=TRUE,256,0)+IF(Q32=TRUE,512,0)+IF(R32=TRUE,1024,0)</f>
+        <f t="shared" ref="B32" si="5">IF( H32=TRUE,1,0)+IF(I32=TRUE,2,0)+IF( J32=TRUE,4,0)+IF( K32=TRUE,8,0)+IF( L32=TRUE,16,0)+IF( M32=TRUE,32,0)+IF( N32=TRUE,64,0)+IF( O32=TRUE,128,0)+IF(P32=TRUE,256,0)+IF(Q32=TRUE,512,0)+IF(R32=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C32" s="120" t="s">
@@ -19120,13 +19249,17 @@
       <c r="R32" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (31,31,'CRM','ฝ่ายขาย' ,'OpportunityStageBar','ช่วงโอกาสทางการขาย' ,'OpportunityStage',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120">
         <v>32</v>
       </c>
       <c r="B33" s="120">
-        <f t="shared" ref="B33" si="5">IF( H33=TRUE,1,0)+IF(I33=TRUE,2,0)+IF( J33=TRUE,4,0)+IF( K33=TRUE,8,0)+IF( L33=TRUE,16,0)+IF( M33=TRUE,32,0)+IF( N33=TRUE,64,0)+IF( O33=TRUE,128,0)+IF(P33=TRUE,256,0)+IF(Q33=TRUE,512,0)+IF(R33=TRUE,1024,0)</f>
+        <f t="shared" ref="B33" si="6">IF( H33=TRUE,1,0)+IF(I33=TRUE,2,0)+IF( J33=TRUE,4,0)+IF( K33=TRUE,8,0)+IF( L33=TRUE,16,0)+IF( M33=TRUE,32,0)+IF( N33=TRUE,64,0)+IF( O33=TRUE,128,0)+IF(P33=TRUE,256,0)+IF(Q33=TRUE,512,0)+IF(R33=TRUE,1024,0)</f>
         <v>543</v>
       </c>
       <c r="C33" s="120" t="s">
@@ -19177,13 +19310,17 @@
       <c r="R33" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (32,543,'CRM','ฝ่ายขาย' ,'OpportunityBar','โอกาสทางการขาย' ,'Opportunity',1 ,1 ,1,1,1,0,0,0,0,1,0);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120">
         <v>33</v>
       </c>
       <c r="B34" s="120">
-        <f t="shared" ref="B34:B35" si="6">IF( H34=TRUE,1,0)+IF(I34=TRUE,2,0)+IF( J34=TRUE,4,0)+IF( K34=TRUE,8,0)+IF( L34=TRUE,16,0)+IF( M34=TRUE,32,0)+IF( N34=TRUE,64,0)+IF( O34=TRUE,128,0)+IF(P34=TRUE,256,0)+IF(Q34=TRUE,512,0)+IF(R34=TRUE,1024,0)</f>
+        <f t="shared" ref="B34:B35" si="7">IF( H34=TRUE,1,0)+IF(I34=TRUE,2,0)+IF( J34=TRUE,4,0)+IF( K34=TRUE,8,0)+IF( L34=TRUE,16,0)+IF( M34=TRUE,32,0)+IF( N34=TRUE,64,0)+IF( O34=TRUE,128,0)+IF(P34=TRUE,256,0)+IF(Q34=TRUE,512,0)+IF(R34=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C34" s="120" t="s">
@@ -19234,13 +19371,17 @@
       <c r="R34" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (33,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'VatTypeBar','รูปแบบภาษี' ,'VatType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="120">
         <v>34</v>
       </c>
       <c r="B35" s="120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>287</v>
       </c>
       <c r="C35" s="120" t="s">
@@ -19291,13 +19432,17 @@
       <c r="R35" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (34,287,'CRM','ฝ่ายขาย' ,'OrderBar','ใบสั่งขาย' ,'Orders',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="120">
         <v>35</v>
       </c>
       <c r="B36" s="120">
-        <f t="shared" ref="B36:B37" si="7">IF( H36=TRUE,1,0)+IF(I36=TRUE,2,0)+IF( J36=TRUE,4,0)+IF( K36=TRUE,8,0)+IF( L36=TRUE,16,0)+IF( M36=TRUE,32,0)+IF( N36=TRUE,64,0)+IF( O36=TRUE,128,0)+IF(P36=TRUE,256,0)+IF(Q36=TRUE,512,0)+IF(R36=TRUE,1024,0)</f>
+        <f t="shared" ref="B36:B37" si="8">IF( H36=TRUE,1,0)+IF(I36=TRUE,2,0)+IF( J36=TRUE,4,0)+IF( K36=TRUE,8,0)+IF( L36=TRUE,16,0)+IF( M36=TRUE,32,0)+IF( N36=TRUE,64,0)+IF( O36=TRUE,128,0)+IF(P36=TRUE,256,0)+IF(Q36=TRUE,512,0)+IF(R36=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C36" s="120" t="s">
@@ -19348,13 +19493,17 @@
       <c r="R36" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (35,287,'CRM','ฝ่ายขาย' ,'QuotationBar','ใบเสนอราคา' ,'Quotation',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="120">
         <v>36</v>
       </c>
       <c r="B37" s="120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="C37" s="120" t="s">
@@ -19405,13 +19554,17 @@
       <c r="R37" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (36,31,'CRM','ฝ่ายขาย' ,'CriterionPriceBar','เกณฑ์ราคา' ,'CriterionPrice',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="120">
         <v>37</v>
       </c>
       <c r="B38" s="120">
-        <f t="shared" ref="B38:B41" si="8">IF( H38=TRUE,1,0)+IF(I38=TRUE,2,0)+IF( J38=TRUE,4,0)+IF( K38=TRUE,8,0)+IF( L38=TRUE,16,0)+IF( M38=TRUE,32,0)+IF( N38=TRUE,64,0)+IF( O38=TRUE,128,0)+IF(P38=TRUE,256,0)+IF(Q38=TRUE,512,0)+IF(R38=TRUE,1024,0)</f>
+        <f t="shared" ref="B38:B41" si="9">IF( H38=TRUE,1,0)+IF(I38=TRUE,2,0)+IF( J38=TRUE,4,0)+IF( K38=TRUE,8,0)+IF( L38=TRUE,16,0)+IF( M38=TRUE,32,0)+IF( N38=TRUE,64,0)+IF( O38=TRUE,128,0)+IF(P38=TRUE,256,0)+IF(Q38=TRUE,512,0)+IF(R38=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C38" s="120" t="s">
@@ -19462,13 +19615,17 @@
       <c r="R38" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (37,31,'CRM','ฝ่ายขาย' ,'InformPriceBar','ระบบแจ้งราคาขาย' ,'InformPrice',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120">
         <v>38</v>
       </c>
       <c r="B39" s="120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="C39" s="120" t="s">
@@ -19519,13 +19676,17 @@
       <c r="R39" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (38,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'CompanyTypeBar','ประเภทบริษัท' ,'CompanyType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120">
         <v>39</v>
       </c>
       <c r="B40" s="120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="C40" s="120" t="s">
@@ -19576,13 +19737,17 @@
       <c r="R40" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (39,287,'CRM','ฝ่ายขาย' ,'InvoiceBar','ใบกำกับภาษี(ขาย)' ,'Invoice',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="120">
         <v>40</v>
       </c>
       <c r="B41" s="120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="C41" s="120" t="s">
@@ -19633,13 +19798,17 @@
       <c r="R41" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (40,79,'CRM','Product' ,'StockInBar','นำสินค้าเข้าระบบ' ,'StockIn',1 ,1 ,1,1,0,0,1,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="120">
         <v>41</v>
       </c>
       <c r="B42" s="120">
-        <f t="shared" ref="B42:B43" si="9">IF( H42=TRUE,1,0)+IF(I42=TRUE,2,0)+IF( J42=TRUE,4,0)+IF( K42=TRUE,8,0)+IF( L42=TRUE,16,0)+IF( M42=TRUE,32,0)+IF( N42=TRUE,64,0)+IF( O42=TRUE,128,0)+IF(P42=TRUE,256,0)+IF(Q42=TRUE,512,0)+IF(R42=TRUE,1024,0)</f>
+        <f t="shared" ref="B42:B43" si="10">IF( H42=TRUE,1,0)+IF(I42=TRUE,2,0)+IF( J42=TRUE,4,0)+IF( K42=TRUE,8,0)+IF( L42=TRUE,16,0)+IF( M42=TRUE,32,0)+IF( N42=TRUE,64,0)+IF( O42=TRUE,128,0)+IF(P42=TRUE,256,0)+IF(Q42=TRUE,512,0)+IF(R42=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C42" s="120" t="s">
@@ -19690,13 +19859,17 @@
       <c r="R42" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (41,287,'CRM','ฝ่ายขาย' ,'ShipingBar','ใบส่งของ' ,'Shiping',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120">
         <v>42</v>
       </c>
       <c r="B43" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C43" s="120" t="s">
@@ -19747,13 +19920,17 @@
       <c r="R43" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (42,31,'CRM','ฝ่ายขาย' ,'ShipingMethodyBar','วิธีการขนส่ง' ,'ShipingMethod',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="120">
         <v>43</v>
       </c>
       <c r="B44" s="120">
-        <f t="shared" ref="B44:B45" si="10">IF( H44=TRUE,1,0)+IF(I44=TRUE,2,0)+IF( J44=TRUE,4,0)+IF( K44=TRUE,8,0)+IF( L44=TRUE,16,0)+IF( M44=TRUE,32,0)+IF( N44=TRUE,64,0)+IF( O44=TRUE,128,0)+IF(P44=TRUE,256,0)+IF(Q44=TRUE,512,0)+IF(R44=TRUE,1024,0)</f>
+        <f t="shared" ref="B44:B45" si="11">IF( H44=TRUE,1,0)+IF(I44=TRUE,2,0)+IF( J44=TRUE,4,0)+IF( K44=TRUE,8,0)+IF( L44=TRUE,16,0)+IF( M44=TRUE,32,0)+IF( N44=TRUE,64,0)+IF( O44=TRUE,128,0)+IF(P44=TRUE,256,0)+IF(Q44=TRUE,512,0)+IF(R44=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C44" s="120" t="s">
@@ -19804,13 +19981,17 @@
       <c r="R44" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (43,31,'CRM','ฝ่ายขาย' ,'ShipingByBar','ขนส่งโดย' ,'ShipingBy',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="120">
         <v>44</v>
       </c>
       <c r="B45" s="120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="C45" s="120" t="s">
@@ -19861,13 +20042,17 @@
       <c r="R45" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (44,31,'CRM','ฝ่ายขาย' ,'BillBar','ใบวางบิล' ,'Bill',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="120">
         <v>45</v>
       </c>
       <c r="B46" s="120">
-        <f t="shared" ref="B46:B50" si="11">IF( H46=TRUE,1,0)+IF(I46=TRUE,2,0)+IF( J46=TRUE,4,0)+IF( K46=TRUE,8,0)+IF( L46=TRUE,16,0)+IF( M46=TRUE,32,0)+IF( N46=TRUE,64,0)+IF( O46=TRUE,128,0)+IF(P46=TRUE,256,0)+IF(Q46=TRUE,512,0)+IF(R46=TRUE,1024,0)</f>
+        <f t="shared" ref="B46:B50" si="12">IF( H46=TRUE,1,0)+IF(I46=TRUE,2,0)+IF( J46=TRUE,4,0)+IF( K46=TRUE,8,0)+IF( L46=TRUE,16,0)+IF( M46=TRUE,32,0)+IF( N46=TRUE,64,0)+IF( O46=TRUE,128,0)+IF(P46=TRUE,256,0)+IF(Q46=TRUE,512,0)+IF(R46=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C46" s="120" t="s">
@@ -19918,13 +20103,17 @@
       <c r="R46" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (45,31,'CRM','ฝ่ายขาย' ,'BillMethodBar','วิธีการวางบิล' ,'BillMethod',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C47" s="120" t="s">
@@ -19975,13 +20164,17 @@
       <c r="R47" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (46,3,'ข้อมูลเริ่มต้น','Product' ,'CheckStockBar','ตรวจสอบสต๊อก' ,'Product_Stock',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="120">
         <v>47</v>
       </c>
       <c r="B48" s="120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>511</v>
       </c>
       <c r="C48" s="120" t="s">
@@ -20032,13 +20225,17 @@
       <c r="R48" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (47,511,'CRM','ฝ่ายซื้อ' ,'AgencyBar','เจ้าหนี้' ,'Agency',1 ,1 ,1,1,1,1,1,1,1,0,0);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="120">
         <v>48</v>
       </c>
       <c r="B49" s="120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="C49" s="120" t="s">
@@ -20089,13 +20286,17 @@
       <c r="R49" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (48,287,'CRM','ฝ่ายซื้อ' ,'OrderInBar','ใบสั่งซื้อ' ,'PurchaseOrder',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="120">
         <v>49</v>
       </c>
       <c r="B50" s="120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="C50" s="120" t="s">
@@ -20146,13 +20347,17 @@
       <c r="R50" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S50" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (49,31,'Admin','Admin' ,'CompanyBar','บริษัท' ,'Company',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="120">
         <v>50</v>
       </c>
       <c r="B51" s="120">
-        <f t="shared" ref="B51" si="12">IF( H51=TRUE,1,0)+IF(I51=TRUE,2,0)+IF( J51=TRUE,4,0)+IF( K51=TRUE,8,0)+IF( L51=TRUE,16,0)+IF( M51=TRUE,32,0)+IF( N51=TRUE,64,0)+IF( O51=TRUE,128,0)+IF(P51=TRUE,256,0)+IF(Q51=TRUE,512,0)+IF(R51=TRUE,1024,0)</f>
+        <f t="shared" ref="B51" si="13">IF( H51=TRUE,1,0)+IF(I51=TRUE,2,0)+IF( J51=TRUE,4,0)+IF( K51=TRUE,8,0)+IF( L51=TRUE,16,0)+IF( M51=TRUE,32,0)+IF( N51=TRUE,64,0)+IF( O51=TRUE,128,0)+IF(P51=TRUE,256,0)+IF(Q51=TRUE,512,0)+IF(R51=TRUE,1024,0)</f>
         <v>11</v>
       </c>
       <c r="C51" s="120" t="s">
@@ -20203,13 +20408,17 @@
       <c r="R51" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (50,11,'อนุมัติเอกสาร','อนุมัติเอกสาร' ,'ApproveUserBar','ผู้อนุมัติ' ,'ApproveUser',1 ,1 ,0,1,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="120">
         <v>51</v>
       </c>
       <c r="B52" s="120">
-        <f t="shared" ref="B52:B54" si="13">IF( H52=TRUE,1,0)+IF(I52=TRUE,2,0)+IF( J52=TRUE,4,0)+IF( K52=TRUE,8,0)+IF( L52=TRUE,16,0)+IF( M52=TRUE,32,0)+IF( N52=TRUE,64,0)+IF( O52=TRUE,128,0)+IF(P52=TRUE,256,0)+IF(Q52=TRUE,512,0)+IF(R52=TRUE,1024,0)</f>
+        <f t="shared" ref="B52:B54" si="14">IF( H52=TRUE,1,0)+IF(I52=TRUE,2,0)+IF( J52=TRUE,4,0)+IF( K52=TRUE,8,0)+IF( L52=TRUE,16,0)+IF( M52=TRUE,32,0)+IF( N52=TRUE,64,0)+IF( O52=TRUE,128,0)+IF(P52=TRUE,256,0)+IF(Q52=TRUE,512,0)+IF(R52=TRUE,1024,0)</f>
         <v>11</v>
       </c>
       <c r="C52" s="120" t="s">
@@ -20260,13 +20469,17 @@
       <c r="R52" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S52" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (51,11,'อนุมัติเอกสาร','อนุมัติเอกสาร' ,'ApproveTXBar','อนุมัติรายการ' ,'ApproveTX',1 ,1 ,0,1,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="120">
         <v>52</v>
       </c>
       <c r="B53" s="120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="C53" s="120" t="s">
@@ -20317,13 +20530,17 @@
       <c r="R53" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (52,31,'CRM','ฝ่ายขาย' ,'CreditGroupBar','กลุ่มวงเงิน' ,'CreditGroup',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="120">
         <v>53</v>
       </c>
       <c r="B54" s="120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>287</v>
       </c>
       <c r="C54" s="120" t="s">
@@ -20374,13 +20591,17 @@
       <c r="R54" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S54" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (53,287,'CRM','ฝ่ายขาย' ,'ReserveBar','ใบสั่งจอง' ,'Reserve',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="120">
         <v>54</v>
       </c>
       <c r="B55" s="120">
-        <f t="shared" ref="B55" si="14">IF( H55=TRUE,1,0)+IF(I55=TRUE,2,0)+IF( J55=TRUE,4,0)+IF( K55=TRUE,8,0)+IF( L55=TRUE,16,0)+IF( M55=TRUE,32,0)+IF( N55=TRUE,64,0)+IF( O55=TRUE,128,0)+IF(P55=TRUE,256,0)+IF(Q55=TRUE,512,0)+IF(R55=TRUE,1024,0)</f>
+        <f t="shared" ref="B55" si="15">IF( H55=TRUE,1,0)+IF(I55=TRUE,2,0)+IF( J55=TRUE,4,0)+IF( K55=TRUE,8,0)+IF( L55=TRUE,16,0)+IF( M55=TRUE,32,0)+IF( N55=TRUE,64,0)+IF( O55=TRUE,128,0)+IF(P55=TRUE,256,0)+IF(Q55=TRUE,512,0)+IF(R55=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C55" s="120" t="s">
@@ -20431,13 +20652,17 @@
       <c r="R55" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (54,287,'CRM','ฝ่ายขาย' ,'AddCreditBar','บันทึกเพิ่มหนี้' ,'AddCredit',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="120">
         <v>55</v>
       </c>
       <c r="B56" s="120">
-        <f t="shared" ref="B56" si="15">IF( H56=TRUE,1,0)+IF(I56=TRUE,2,0)+IF( J56=TRUE,4,0)+IF( K56=TRUE,8,0)+IF( L56=TRUE,16,0)+IF( M56=TRUE,32,0)+IF( N56=TRUE,64,0)+IF( O56=TRUE,128,0)+IF(P56=TRUE,256,0)+IF(Q56=TRUE,512,0)+IF(R56=TRUE,1024,0)</f>
+        <f t="shared" ref="B56" si="16">IF( H56=TRUE,1,0)+IF(I56=TRUE,2,0)+IF( J56=TRUE,4,0)+IF( K56=TRUE,8,0)+IF( L56=TRUE,16,0)+IF( M56=TRUE,32,0)+IF( N56=TRUE,64,0)+IF( O56=TRUE,128,0)+IF(P56=TRUE,256,0)+IF(Q56=TRUE,512,0)+IF(R56=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C56" s="120" t="s">
@@ -20488,13 +20713,17 @@
       <c r="R56" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (55,287,'CRM','ฝ่ายขาย' ,'ReduceCreditBar','บันทึกลดหนี้' ,'ReduceCredit',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="120">
         <v>56</v>
       </c>
       <c r="B57" s="120">
-        <f t="shared" ref="B57:B59" si="16">IF( H57=TRUE,1,0)+IF(I57=TRUE,2,0)+IF( J57=TRUE,4,0)+IF( K57=TRUE,8,0)+IF( L57=TRUE,16,0)+IF( M57=TRUE,32,0)+IF( N57=TRUE,64,0)+IF( O57=TRUE,128,0)+IF(P57=TRUE,256,0)+IF(Q57=TRUE,512,0)+IF(R57=TRUE,1024,0)</f>
+        <f t="shared" ref="B57:B59" si="17">IF( H57=TRUE,1,0)+IF(I57=TRUE,2,0)+IF( J57=TRUE,4,0)+IF( K57=TRUE,8,0)+IF( L57=TRUE,16,0)+IF( M57=TRUE,32,0)+IF( N57=TRUE,64,0)+IF( O57=TRUE,128,0)+IF(P57=TRUE,256,0)+IF(Q57=TRUE,512,0)+IF(R57=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C57" s="120" t="s">
@@ -20545,13 +20774,17 @@
       <c r="R57" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (56,287,'CRM','ฝ่ายขาย' ,'ReceiptBar','ใบเสร็จรับเงิน /ชำระเงิน' ,'Receipt',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="120">
         <v>57</v>
       </c>
       <c r="B58" s="120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="C58" s="120" t="s">
@@ -20602,13 +20835,17 @@
       <c r="R58" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S58" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (57,31,'CRM','ฝ่ายซื้อ' ,'InformPriceBuyBar','ระบบแจ้งราคาซื้อ' ,'InformPriceBuy',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="120">
         <v>58</v>
       </c>
       <c r="B59" s="120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>287</v>
       </c>
       <c r="C59" s="120" t="s">
@@ -20659,13 +20896,17 @@
       <c r="R59" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S59" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (58,287,'CRM','ฝ่ายซื้อ' ,'InvoiceBuyBar','ใบกำกับภาษี(ซื้อ)' ,'InvoiceBuy',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="120">
         <v>59</v>
       </c>
       <c r="B60" s="120">
-        <f t="shared" ref="B60" si="17">IF( H60=TRUE,1,0)+IF(I60=TRUE,2,0)+IF( J60=TRUE,4,0)+IF( K60=TRUE,8,0)+IF( L60=TRUE,16,0)+IF( M60=TRUE,32,0)+IF( N60=TRUE,64,0)+IF( O60=TRUE,128,0)+IF(P60=TRUE,256,0)+IF(Q60=TRUE,512,0)+IF(R60=TRUE,1024,0)</f>
+        <f t="shared" ref="B60" si="18">IF( H60=TRUE,1,0)+IF(I60=TRUE,2,0)+IF( J60=TRUE,4,0)+IF( K60=TRUE,8,0)+IF( L60=TRUE,16,0)+IF( M60=TRUE,32,0)+IF( N60=TRUE,64,0)+IF( O60=TRUE,128,0)+IF(P60=TRUE,256,0)+IF(Q60=TRUE,512,0)+IF(R60=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C60" s="120" t="s">
@@ -20716,13 +20957,17 @@
       <c r="R60" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S60" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (59,287,'CRM','ฝ่ายซื้อ' ,'AssetBar','บันทึกค่าใช้จ่ายอื่นๆ' ,'Asset',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="120">
         <v>60</v>
       </c>
       <c r="B61" s="120">
-        <f t="shared" ref="B61:B65" si="18">IF( H61=TRUE,1,0)+IF(I61=TRUE,2,0)+IF( J61=TRUE,4,0)+IF( K61=TRUE,8,0)+IF( L61=TRUE,16,0)+IF( M61=TRUE,32,0)+IF( N61=TRUE,64,0)+IF( O61=TRUE,128,0)+IF(P61=TRUE,256,0)+IF(Q61=TRUE,512,0)+IF(R61=TRUE,1024,0)</f>
+        <f t="shared" ref="B61:B65" si="19">IF( H61=TRUE,1,0)+IF(I61=TRUE,2,0)+IF( J61=TRUE,4,0)+IF( K61=TRUE,8,0)+IF( L61=TRUE,16,0)+IF( M61=TRUE,32,0)+IF( N61=TRUE,64,0)+IF( O61=TRUE,128,0)+IF(P61=TRUE,256,0)+IF(Q61=TRUE,512,0)+IF(R61=TRUE,1024,0)</f>
         <v>35</v>
       </c>
       <c r="C61" s="120" t="s">
@@ -20773,13 +21018,17 @@
       <c r="R61" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (60,35,'Report','ฝ่ายขาย' ,'ReportTaxSellBar','รายงานภาษี' ,'ReportTaxSell',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="120">
         <v>61</v>
       </c>
       <c r="B62" s="120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>287</v>
       </c>
       <c r="C62" s="120" t="s">
@@ -20830,13 +21079,17 @@
       <c r="R62" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S62" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (61,287,'CRM','ฝ่ายซื้อ' ,'AddCreditBuyBar','บันทึกเพิ่มหนี้' ,'AddCreditBuy',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="120">
         <v>62</v>
       </c>
       <c r="B63" s="120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>287</v>
       </c>
       <c r="C63" s="120" t="s">
@@ -20887,13 +21140,17 @@
       <c r="R63" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S63" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (62,287,'CRM','ฝ่ายซื้อ' ,'ReduceCreditBuyBar','บันทึกลดหนี้' ,'ReduceCreditBuy',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="120">
         <v>63</v>
       </c>
       <c r="B64" s="120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="C64" s="120" t="s">
@@ -20944,13 +21201,17 @@
       <c r="R64" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (63,31,'CRM','ฝ่ายขาย' ,'ShipingRuleBar','เงื่อนไขการขนส่ง' ,'ShipingRule',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="120">
         <v>64</v>
       </c>
       <c r="B65" s="120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="C65" s="120" t="s">
@@ -21001,13 +21262,17 @@
       <c r="R65" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (64,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'TaxTypeBar','ประเภทเงินได้ที่จ่าย' ,'TaxType',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="120">
         <v>65</v>
       </c>
       <c r="B66" s="120">
-        <f t="shared" ref="B66" si="19">IF( H66=TRUE,1,0)+IF(I66=TRUE,2,0)+IF( J66=TRUE,4,0)+IF( K66=TRUE,8,0)+IF( L66=TRUE,16,0)+IF( M66=TRUE,32,0)+IF( N66=TRUE,64,0)+IF( O66=TRUE,128,0)+IF(P66=TRUE,256,0)+IF(Q66=TRUE,512,0)+IF(R66=TRUE,1024,0)</f>
+        <f t="shared" ref="B66" si="20">IF( H66=TRUE,1,0)+IF(I66=TRUE,2,0)+IF( J66=TRUE,4,0)+IF( K66=TRUE,8,0)+IF( L66=TRUE,16,0)+IF( M66=TRUE,32,0)+IF( N66=TRUE,64,0)+IF( O66=TRUE,128,0)+IF(P66=TRUE,256,0)+IF(Q66=TRUE,512,0)+IF(R66=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C66" s="120" t="s">
@@ -21058,13 +21323,17 @@
       <c r="R66" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="120" t="str">
+        <f t="shared" ref="S66:S96" si="21">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A66 &amp; "," &amp; B66 &amp; ",'" &amp; C66 &amp; "','" &amp; D66 &amp; "' ,'" &amp; E66 &amp; "','" &amp; F66 &amp; "' ,'" &amp; G66 &amp; "'," &amp; IF(H66=TRUE,1,0) &amp; " ," &amp; IF(I66=TRUE,1,0) &amp; " ," &amp; IF(J66=TRUE,1,0) &amp; "," &amp; IF(K66=TRUE,1,0) &amp; "," &amp; IF(L66=TRUE,1,0) &amp; "," &amp; IF(M66=TRUE,1,0) &amp; "," &amp; IF(N66=TRUE,1,0) &amp; "," &amp; IF(O66=TRUE,1,0) &amp; "," &amp; IF(P66=TRUE,1,0) &amp; "," &amp; IF(Q66=TRUE,1,0) &amp; "," &amp; IF(R66=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (65,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'CustomerZoneBar','เขตลูกค้า' ,'CustomerZone',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="120">
         <v>66</v>
       </c>
       <c r="B67" s="120">
-        <f t="shared" ref="B67:B68" si="20">IF( H67=TRUE,1,0)+IF(I67=TRUE,2,0)+IF( J67=TRUE,4,0)+IF( K67=TRUE,8,0)+IF( L67=TRUE,16,0)+IF( M67=TRUE,32,0)+IF( N67=TRUE,64,0)+IF( O67=TRUE,128,0)+IF(P67=TRUE,256,0)+IF(Q67=TRUE,512,0)+IF(R67=TRUE,1024,0)</f>
+        <f t="shared" ref="B67:B68" si="22">IF( H67=TRUE,1,0)+IF(I67=TRUE,2,0)+IF( J67=TRUE,4,0)+IF( K67=TRUE,8,0)+IF( L67=TRUE,16,0)+IF( M67=TRUE,32,0)+IF( N67=TRUE,64,0)+IF( O67=TRUE,128,0)+IF(P67=TRUE,256,0)+IF(Q67=TRUE,512,0)+IF(R67=TRUE,1024,0)</f>
         <v>31</v>
       </c>
       <c r="C67" s="120" t="s">
@@ -21115,13 +21384,17 @@
       <c r="R67" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S67" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (66,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'CustomerGroupBar','กลุ่มลูกค้า' ,'CustomerGroup',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="120">
         <v>67</v>
       </c>
       <c r="B68" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>287</v>
       </c>
       <c r="C68" s="120" t="s">
@@ -21172,13 +21445,17 @@
       <c r="R68" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S68" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (67,287,'CRM','ฝ่ายขาย' ,'ClaimBar','รับแจ้งเคลม' ,'Claim',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="120">
         <v>68</v>
       </c>
       <c r="B69" s="120">
-        <f t="shared" ref="B69:B71" si="21">IF( H69=TRUE,1,0)+IF(I69=TRUE,2,0)+IF( J69=TRUE,4,0)+IF( K69=TRUE,8,0)+IF( L69=TRUE,16,0)+IF( M69=TRUE,32,0)+IF( N69=TRUE,64,0)+IF( O69=TRUE,128,0)+IF(P69=TRUE,256,0)+IF(Q69=TRUE,512,0)+IF(R69=TRUE,1024,0)</f>
+        <f t="shared" ref="B69:B71" si="23">IF( H69=TRUE,1,0)+IF(I69=TRUE,2,0)+IF( J69=TRUE,4,0)+IF( K69=TRUE,8,0)+IF( L69=TRUE,16,0)+IF( M69=TRUE,32,0)+IF( N69=TRUE,64,0)+IF( O69=TRUE,128,0)+IF(P69=TRUE,256,0)+IF(Q69=TRUE,512,0)+IF(R69=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C69" s="120" t="s">
@@ -21229,13 +21506,17 @@
       <c r="R69" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S69" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (68,287,'CRM','ฝ่ายซื้อ' ,'ClaimOutBar','แจ้งเคลม Supplier ' ,'ClaimOut',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120">
         <v>69</v>
       </c>
       <c r="B70" s="120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="C70" s="120" t="s">
@@ -21286,13 +21567,17 @@
       <c r="R70" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (69,15,'ข้อมูลเริ่มต้น','Product' ,'UpdateStockBar','ปรับยอดสินค้า' ,'UpdateStock',1 ,1 ,1,1,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="120">
         <v>70</v>
       </c>
       <c r="B71" s="120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>287</v>
       </c>
       <c r="C71" s="120" t="s">
@@ -21343,8 +21628,12 @@
       <c r="R71" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S71" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (70,287,'CRM','ฝ่ายซื้อ' ,'ReceiptBuyBar','ใบเสร็จรับเงิน /ชำระเงิน(ซื้อ)' ,'ReceiptBuy',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="120">
         <v>71</v>
       </c>
@@ -21400,13 +21689,17 @@
       <c r="R72" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S72" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (71,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'BankAccounBar','บัญชีธนาคาร' ,'BankAccount',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120">
         <v>72</v>
       </c>
       <c r="B73" s="120">
-        <f t="shared" ref="B73:B75" si="22">IF( H73=TRUE,1,0)+IF(I73=TRUE,2,0)+IF( J73=TRUE,4,0)+IF( K73=TRUE,8,0)+IF( L73=TRUE,16,0)+IF( M73=TRUE,32,0)+IF( N73=TRUE,64,0)+IF( O73=TRUE,128,0)+IF(P73=TRUE,256,0)+IF(Q73=TRUE,512,0)+IF(R73=TRUE,1024,0)</f>
+        <f t="shared" ref="B73:B75" si="24">IF( H73=TRUE,1,0)+IF(I73=TRUE,2,0)+IF( J73=TRUE,4,0)+IF( K73=TRUE,8,0)+IF( L73=TRUE,16,0)+IF( M73=TRUE,32,0)+IF( N73=TRUE,64,0)+IF( O73=TRUE,128,0)+IF(P73=TRUE,256,0)+IF(Q73=TRUE,512,0)+IF(R73=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C73" s="120" t="s">
@@ -21457,13 +21750,17 @@
       <c r="R73" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S73" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (72,3,'ข้อมูลเริ่มต้น','Product' ,'OrderHisBar','ประวัติการซื้อ-ขายสินค้า' ,'OrderHis',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="120">
         <v>73</v>
       </c>
       <c r="B74" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>287</v>
       </c>
       <c r="C74" s="120" t="s">
@@ -21514,13 +21811,17 @@
       <c r="R74" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S74" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (73,287,'CRM','ฝ่ายขาย' ,'BorrowBar','ยืมสินค้า(ขาย)' ,'Borrow',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="120">
         <v>74</v>
       </c>
       <c r="B75" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>287</v>
       </c>
       <c r="C75" s="120" t="s">
@@ -21571,13 +21872,17 @@
       <c r="R75" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S75" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (74,287,'CRM','ฝ่ายซื้อ' ,'ShipingBuyBar','ใบส่งของ(ซื้อ)' ,'ShipingBuy',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120">
         <v>75</v>
       </c>
       <c r="B76" s="120">
-        <f t="shared" ref="B76:B79" si="23">IF( H76=TRUE,1,0)+IF(I76=TRUE,2,0)+IF( J76=TRUE,4,0)+IF( K76=TRUE,8,0)+IF( L76=TRUE,16,0)+IF( M76=TRUE,32,0)+IF( N76=TRUE,64,0)+IF( O76=TRUE,128,0)+IF(P76=TRUE,256,0)+IF(Q76=TRUE,512,0)+IF(R76=TRUE,1024,0)</f>
+        <f t="shared" ref="B76:B79" si="25">IF( H76=TRUE,1,0)+IF(I76=TRUE,2,0)+IF( J76=TRUE,4,0)+IF( K76=TRUE,8,0)+IF( L76=TRUE,16,0)+IF( M76=TRUE,32,0)+IF( N76=TRUE,64,0)+IF( O76=TRUE,128,0)+IF(P76=TRUE,256,0)+IF(Q76=TRUE,512,0)+IF(R76=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C76" s="120" t="s">
@@ -21628,13 +21933,17 @@
       <c r="R76" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S76" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (75,3,'CRM','เช็ค' ,'RecordChequeBar','บันทึกเช็ค' ,'RecordCheque',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="120">
         <v>76</v>
       </c>
       <c r="B77" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31</v>
       </c>
       <c r="C77" s="120" t="s">
@@ -21685,13 +21994,17 @@
       <c r="R77" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S77" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (76,31,'CRM','ฝ่ายขาย' ,'QuotationRemarkBar','หมายเหตุใบเสนอราคา' ,'QuotationRemark',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="120">
         <v>77</v>
       </c>
       <c r="B78" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>287</v>
       </c>
       <c r="C78" s="120" t="s">
@@ -21742,13 +22055,17 @@
       <c r="R78" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S78" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (77,287,'CRM','ฝ่ายขาย' ,'ReceiptCutBar','ตัดรับชำระ' ,'ReceiptCut',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120">
         <v>78</v>
       </c>
       <c r="B79" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35</v>
       </c>
       <c r="C79" s="120" t="s">
@@ -21799,13 +22116,17 @@
       <c r="R79" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S79" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (78,35,'Report','ฝ่ายขาย' ,'ReportSellAnalyzeBar','รายงานวิเคราะห์ยอดขาย' ,'ReportSellAnalyze',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="120">
         <v>79</v>
       </c>
       <c r="B80" s="120">
-        <f t="shared" ref="B80:B82" si="24">IF( H80=TRUE,1,0)+IF(I80=TRUE,2,0)+IF( J80=TRUE,4,0)+IF( K80=TRUE,8,0)+IF( L80=TRUE,16,0)+IF( M80=TRUE,32,0)+IF( N80=TRUE,64,0)+IF( O80=TRUE,128,0)+IF(P80=TRUE,256,0)+IF(Q80=TRUE,512,0)+IF(R80=TRUE,1024,0)</f>
+        <f t="shared" ref="B80:B82" si="26">IF( H80=TRUE,1,0)+IF(I80=TRUE,2,0)+IF( J80=TRUE,4,0)+IF( K80=TRUE,8,0)+IF( L80=TRUE,16,0)+IF( M80=TRUE,32,0)+IF( N80=TRUE,64,0)+IF( O80=TRUE,128,0)+IF(P80=TRUE,256,0)+IF(Q80=TRUE,512,0)+IF(R80=TRUE,1024,0)</f>
         <v>0</v>
       </c>
       <c r="C80" s="120" t="s">
@@ -21856,13 +22177,17 @@
       <c r="R80" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S80" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (79,0,'CRM','ฝ่ายขาย' ,'TaxNumberBar','ภาษี ณ ที่จ่าย' ,'TaxNumber',0 ,0 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="120">
         <v>80</v>
       </c>
       <c r="B81" s="120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="C81" s="120" t="s">
@@ -21913,13 +22238,17 @@
       <c r="R81" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S81" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (80,11,'ข้อมูลเริ่มต้น','Product' ,'UpdateSNBar','สินค้า S/N' ,'UpdateSN',1 ,1 ,0,1,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="120">
         <v>81</v>
       </c>
       <c r="B82" s="120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="C82" s="120" t="s">
@@ -21970,13 +22299,17 @@
       <c r="R82" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S82" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (81,35,'Report','ฝ่ายขาย' ,'ReportTaxAtSellBar','ภาษีหัก ณ ที่จ่าย' ,'ReportTaxAtSell',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="120">
         <v>82</v>
       </c>
       <c r="B83" s="120">
-        <f t="shared" ref="B83:B85" si="25">IF( H83=TRUE,1,0)+IF(I83=TRUE,2,0)+IF( J83=TRUE,4,0)+IF( K83=TRUE,8,0)+IF( L83=TRUE,16,0)+IF( M83=TRUE,32,0)+IF( N83=TRUE,64,0)+IF( O83=TRUE,128,0)+IF(P83=TRUE,256,0)+IF(Q83=TRUE,512,0)+IF(R83=TRUE,1024,0)</f>
+        <f t="shared" ref="B83:B85" si="27">IF( H83=TRUE,1,0)+IF(I83=TRUE,2,0)+IF( J83=TRUE,4,0)+IF( K83=TRUE,8,0)+IF( L83=TRUE,16,0)+IF( M83=TRUE,32,0)+IF( N83=TRUE,64,0)+IF( O83=TRUE,128,0)+IF(P83=TRUE,256,0)+IF(Q83=TRUE,512,0)+IF(R83=TRUE,1024,0)</f>
         <v>35</v>
       </c>
       <c r="C83" s="120" t="s">
@@ -22027,13 +22360,17 @@
       <c r="R83" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S83" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (82,35,'Report','ฝ่ายขาย' ,'ReportSNBar','พิมพ์บาร์โค้ด' ,'ReportSN',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="120">
         <v>83</v>
       </c>
       <c r="B84" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>287</v>
       </c>
       <c r="C84" s="120" t="s">
@@ -22084,13 +22421,17 @@
       <c r="R84" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S84" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (83,287,'CRM','ฝ่ายขาย' ,'ExposeBar','ทำรายการเบิก' ,'Expose',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120">
         <v>84</v>
       </c>
       <c r="B85" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="C85" s="120" t="s">
@@ -22141,13 +22482,17 @@
       <c r="R85" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S85" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (84,3,'ข้อมูลเริ่มต้น','Product' ,'OrderSNHisBar','ตรวจสอบสินค้า SN' ,'OrderSNHis',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="120">
         <v>85</v>
       </c>
       <c r="B86" s="120">
-        <f t="shared" ref="B86:B87" si="26">IF( H86=TRUE,1,0)+IF(I86=TRUE,2,0)+IF( J86=TRUE,4,0)+IF( K86=TRUE,8,0)+IF( L86=TRUE,16,0)+IF( M86=TRUE,32,0)+IF( N86=TRUE,64,0)+IF( O86=TRUE,128,0)+IF(P86=TRUE,256,0)+IF(Q86=TRUE,512,0)+IF(R86=TRUE,1024,0)</f>
+        <f t="shared" ref="B86:B87" si="28">IF( H86=TRUE,1,0)+IF(I86=TRUE,2,0)+IF( J86=TRUE,4,0)+IF( K86=TRUE,8,0)+IF( L86=TRUE,16,0)+IF( M86=TRUE,32,0)+IF( N86=TRUE,64,0)+IF( O86=TRUE,128,0)+IF(P86=TRUE,256,0)+IF(Q86=TRUE,512,0)+IF(R86=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C86" s="120" t="s">
@@ -22198,13 +22543,17 @@
       <c r="R86" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S86" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (85,3,'CRM','ฝ่ายซื้อ' ,'MakePOBar','สร้างใบสั่งซื้อ' ,'MakePO',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="120">
         <v>86</v>
       </c>
       <c r="B87" s="120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="C87" s="120" t="s">
@@ -22255,13 +22604,17 @@
       <c r="R87" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S87" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (86,3,'ข้อมูลเริ่มต้น','Product' ,'OrderHisExportBar','Export ประวัติการซื้อ-ขายสินค้า' ,'OrderHisExport',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="120">
         <v>87</v>
       </c>
       <c r="B88" s="120">
-        <f t="shared" ref="B88:B90" si="27">IF( H88=TRUE,1,0)+IF(I88=TRUE,2,0)+IF( J88=TRUE,4,0)+IF( K88=TRUE,8,0)+IF( L88=TRUE,16,0)+IF( M88=TRUE,32,0)+IF( N88=TRUE,64,0)+IF( O88=TRUE,128,0)+IF(P88=TRUE,256,0)+IF(Q88=TRUE,512,0)+IF(R88=TRUE,1024,0)</f>
+        <f t="shared" ref="B88:B90" si="29">IF( H88=TRUE,1,0)+IF(I88=TRUE,2,0)+IF( J88=TRUE,4,0)+IF( K88=TRUE,8,0)+IF( L88=TRUE,16,0)+IF( M88=TRUE,32,0)+IF( N88=TRUE,64,0)+IF( O88=TRUE,128,0)+IF(P88=TRUE,256,0)+IF(Q88=TRUE,512,0)+IF(R88=TRUE,1024,0)</f>
         <v>27</v>
       </c>
       <c r="C88" s="120" t="s">
@@ -22312,13 +22665,17 @@
       <c r="R88" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S88" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (87,27,'CRM','ฝ่ายซื้อ' ,'CancelPOBar','ยกเลิกใบสั่งซื้อ' ,'CancelPO',1 ,1 ,0,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="120">
         <v>88</v>
       </c>
       <c r="B89" s="120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="C89" s="120" t="s">
@@ -22369,13 +22726,17 @@
       <c r="R89" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S89" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (88,3,'Admin','Admin' ,'ManageTeamBar','กำหนดทีมขาย/ผู้รับผิดชอบ' ,'ManageTeam',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="120">
         <v>89</v>
       </c>
       <c r="B90" s="120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="C90" s="120" t="s">
@@ -22426,13 +22787,17 @@
       <c r="R90" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S90" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (89,3,'CRM','ฝ่ายขาย' ,'InformPriceProBar','กำหนดราคาสินค้า' ,'InformPricePro',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="120">
         <v>90</v>
       </c>
       <c r="B91" s="120">
-        <f t="shared" ref="B91:B94" si="28">IF( H91=TRUE,1,0)+IF(I91=TRUE,2,0)+IF( J91=TRUE,4,0)+IF( K91=TRUE,8,0)+IF( L91=TRUE,16,0)+IF( M91=TRUE,32,0)+IF( N91=TRUE,64,0)+IF( O91=TRUE,128,0)+IF(P91=TRUE,256,0)+IF(Q91=TRUE,512,0)+IF(R91=TRUE,1024,0)</f>
+        <f t="shared" ref="B91:B94" si="30">IF( H91=TRUE,1,0)+IF(I91=TRUE,2,0)+IF( J91=TRUE,4,0)+IF( K91=TRUE,8,0)+IF( L91=TRUE,16,0)+IF( M91=TRUE,32,0)+IF( N91=TRUE,64,0)+IF( O91=TRUE,128,0)+IF(P91=TRUE,256,0)+IF(Q91=TRUE,512,0)+IF(R91=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C91" s="120" t="s">
@@ -22483,13 +22848,17 @@
       <c r="R91" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S91" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (90,3,'CRM','ฝ่ายขาย' ,'InformPriceProExportBar','กำหนดราคาสินค้า (Export)' ,'InformPriceProExport',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="120">
         <v>91</v>
       </c>
       <c r="B92" s="120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>31</v>
       </c>
       <c r="C92" s="120" t="s">
@@ -22540,13 +22909,17 @@
       <c r="R92" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S92" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (91,31,'CRM','ฝ่ายขาย' ,'CampaignBar','โปรโมชั่น' ,'Campaign',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="120">
         <v>92</v>
       </c>
       <c r="B93" s="120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="C93" s="120" t="s">
@@ -22597,13 +22970,17 @@
       <c r="R93" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S93" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (92,35,'Report','ฝ่ายขาย' ,'ReportDealBar','รายงานการรับ/จ่ายชำระหนี้' ,'ReportDeal',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="120">
         <v>93</v>
       </c>
       <c r="B94" s="120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="C94" s="120" t="s">
@@ -22654,8 +23031,12 @@
       <c r="R94" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S94" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (93,11,'ข้อมูลเริ่มต้น','Product' ,'UpdateSNStatusBar','แก้ไขสถานะ SN' ,'UpdateSNStatus',1 ,1 ,0,1,0,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="120">
         <v>94</v>
       </c>
@@ -22711,13 +23092,17 @@
       <c r="R95" s="121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S95" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (94,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'BankBar','ข้อมูลธนาคาร' ,'Bank',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="120">
         <v>95</v>
       </c>
       <c r="B96" s="120">
-        <f t="shared" ref="B96" si="29">IF( H96=TRUE,1,0)+IF(I96=TRUE,2,0)+IF( J96=TRUE,4,0)+IF( K96=TRUE,8,0)+IF( L96=TRUE,16,0)+IF( M96=TRUE,32,0)+IF( N96=TRUE,64,0)+IF( O96=TRUE,128,0)+IF(P96=TRUE,256,0)+IF(Q96=TRUE,512,0)+IF(R96=TRUE,1024,0)</f>
+        <f t="shared" ref="B96" si="31">IF( H96=TRUE,1,0)+IF(I96=TRUE,2,0)+IF( J96=TRUE,4,0)+IF( K96=TRUE,8,0)+IF( L96=TRUE,16,0)+IF( M96=TRUE,32,0)+IF( N96=TRUE,64,0)+IF( O96=TRUE,128,0)+IF(P96=TRUE,256,0)+IF(Q96=TRUE,512,0)+IF(R96=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C96" s="120" t="s">
@@ -22767,6 +23152,10 @@
       </c>
       <c r="R96" s="121" t="b">
         <v>0</v>
+      </c>
+      <c r="S96" s="120" t="str">
+        <f t="shared" si="21"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (95,3,'CRM','ฝ่ายขาย' ,'OrderSellHisBar','ประวัติการขาย' ,'OrderSellHis',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
@@ -22774,7 +23163,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="120">
-        <f t="shared" ref="B97:B100" si="30">IF( H97=TRUE,1,0)+IF(I97=TRUE,2,0)+IF( J97=TRUE,4,0)+IF( K97=TRUE,8,0)+IF( L97=TRUE,16,0)+IF( M97=TRUE,32,0)+IF( N97=TRUE,64,0)+IF( O97=TRUE,128,0)+IF(P97=TRUE,256,0)+IF(Q97=TRUE,512,0)+IF(R97=TRUE,1024,0)</f>
+        <f t="shared" ref="B97:B100" si="32">IF( H97=TRUE,1,0)+IF(I97=TRUE,2,0)+IF( J97=TRUE,4,0)+IF( K97=TRUE,8,0)+IF( L97=TRUE,16,0)+IF( M97=TRUE,32,0)+IF( N97=TRUE,64,0)+IF( O97=TRUE,128,0)+IF(P97=TRUE,256,0)+IF(Q97=TRUE,512,0)+IF(R97=TRUE,1024,0)</f>
         <v>3</v>
       </c>
       <c r="C97" s="120" t="s">
@@ -22824,6 +23213,10 @@
       </c>
       <c r="R97" s="121" t="b">
         <v>0</v>
+      </c>
+      <c r="S97" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (96,3,'CRM','ฝ่ายขาย' ,'OrderSellHisExpBar','ประวัติการขาย (Export)' ,'OrderSellHisExp',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
@@ -22831,7 +23224,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="C98" s="120" t="s">
@@ -22881,6 +23274,10 @@
       </c>
       <c r="R98" s="121" t="b">
         <v>0</v>
+      </c>
+      <c r="S98" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A98 &amp; "," &amp; B98 &amp; ",'" &amp; C98 &amp; "','" &amp; D98 &amp; "' ,'" &amp; E98 &amp; "','" &amp; F98 &amp; "' ,'" &amp; G98 &amp; "'," &amp; IF(H98=TRUE,1,0) &amp; " ," &amp; IF(I98=TRUE,1,0) &amp; " ," &amp; IF(J98=TRUE,1,0) &amp; "," &amp; IF(K98=TRUE,1,0) &amp; "," &amp; IF(L98=TRUE,1,0) &amp; "," &amp; IF(M98=TRUE,1,0) &amp; "," &amp; IF(N98=TRUE,1,0) &amp; "," &amp; IF(O98=TRUE,1,0) &amp; "," &amp; IF(P98=TRUE,1,0) &amp; "," &amp; IF(Q98=TRUE,1,0) &amp; "," &amp; IF(R98=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (97,3,'ข้อมูลเริ่มต้น','Product' ,'ApproveStockBar','อนุมัติสต๊อก' ,'ApproveStock',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
@@ -22888,7 +23285,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
       <c r="C99" s="120" t="s">
@@ -22939,14 +23336,17 @@
       <c r="R99" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="S99" s="190"/>
+      <c r="S99" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A99 &amp; "," &amp; B99 &amp; ",'" &amp; C99 &amp; "','" &amp; D99 &amp; "' ,'" &amp; E99 &amp; "','" &amp; F99 &amp; "' ,'" &amp; G99 &amp; "'," &amp; IF(H99=TRUE,1,0) &amp; " ," &amp; IF(I99=TRUE,1,0) &amp; " ," &amp; IF(J99=TRUE,1,0) &amp; "," &amp; IF(K99=TRUE,1,0) &amp; "," &amp; IF(L99=TRUE,1,0) &amp; "," &amp; IF(M99=TRUE,1,0) &amp; "," &amp; IF(N99=TRUE,1,0) &amp; "," &amp; IF(O99=TRUE,1,0) &amp; "," &amp; IF(P99=TRUE,1,0) &amp; "," &amp; IF(Q99=TRUE,1,0) &amp; "," &amp; IF(R99=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (98,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'ProvinceBar','จังหวัด' ,'Province',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
+      </c>
     </row>
     <row r="100" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="120">
         <v>99</v>
       </c>
       <c r="B100" s="120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
       <c r="C100" s="120" t="s">
@@ -22997,14 +23397,17 @@
       <c r="R100" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="S100" s="190"/>
+      <c r="S100" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A100 &amp; "," &amp; B100 &amp; ",'" &amp; C100 &amp; "','" &amp; D100 &amp; "' ,'" &amp; E100 &amp; "','" &amp; F100 &amp; "' ,'" &amp; G100 &amp; "'," &amp; IF(H100=TRUE,1,0) &amp; " ," &amp; IF(I100=TRUE,1,0) &amp; " ," &amp; IF(J100=TRUE,1,0) &amp; "," &amp; IF(K100=TRUE,1,0) &amp; "," &amp; IF(L100=TRUE,1,0) &amp; "," &amp; IF(M100=TRUE,1,0) &amp; "," &amp; IF(N100=TRUE,1,0) &amp; "," &amp; IF(O100=TRUE,1,0) &amp; "," &amp; IF(P100=TRUE,1,0) &amp; "," &amp; IF(Q100=TRUE,1,0) &amp; "," &amp; IF(R100=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (99,35,'Report','ฝ่ายขาย' ,'ReportDebtAnalystBar','รายงานวิเคราะห์อายุลูกหนี้/เจ้าหนี้' ,'ReportDebtAnalyst',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
     </row>
     <row r="101" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="120">
         <v>100</v>
       </c>
       <c r="B101" s="120">
-        <f t="shared" ref="B101:B102" si="31">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
+        <f t="shared" ref="B101:B102" si="33">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
         <v>35</v>
       </c>
       <c r="C101" s="120" t="s">
@@ -23055,14 +23458,17 @@
       <c r="R101" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="S101" s="190"/>
+      <c r="S101" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A101 &amp; "," &amp; B101 &amp; ",'" &amp; C101 &amp; "','" &amp; D101 &amp; "' ,'" &amp; E101 &amp; "','" &amp; F101 &amp; "' ,'" &amp; G101 &amp; "'," &amp; IF(H101=TRUE,1,0) &amp; " ," &amp; IF(I101=TRUE,1,0) &amp; " ," &amp; IF(J101=TRUE,1,0) &amp; "," &amp; IF(K101=TRUE,1,0) &amp; "," &amp; IF(L101=TRUE,1,0) &amp; "," &amp; IF(M101=TRUE,1,0) &amp; "," &amp; IF(N101=TRUE,1,0) &amp; "," &amp; IF(O101=TRUE,1,0) &amp; "," &amp; IF(P101=TRUE,1,0) &amp; "," &amp; IF(Q101=TRUE,1,0) &amp; "," &amp; IF(R101=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (100,35,'Report','ฝ่ายขาย' ,'StockReportBar','รายงานมูลค่าสต๊อกคลังสินค้า' ,'StockReport',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
+      </c>
     </row>
     <row r="102" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="120">
         <v>101</v>
       </c>
       <c r="B102" s="120">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>287</v>
       </c>
       <c r="C102" s="120" t="s">
@@ -23112,6 +23518,10 @@
       </c>
       <c r="R102" s="121" t="b">
         <v>0</v>
+      </c>
+      <c r="S102" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A102 &amp; "," &amp; B102 &amp; ",'" &amp; C102 &amp; "','" &amp; D102 &amp; "' ,'" &amp; E102 &amp; "','" &amp; F102 &amp; "' ,'" &amp; G102 &amp; "'," &amp; IF(H102=TRUE,1,0) &amp; " ," &amp; IF(I102=TRUE,1,0) &amp; " ," &amp; IF(J102=TRUE,1,0) &amp; "," &amp; IF(K102=TRUE,1,0) &amp; "," &amp; IF(L102=TRUE,1,0) &amp; "," &amp; IF(M102=TRUE,1,0) &amp; "," &amp; IF(N102=TRUE,1,0) &amp; "," &amp; IF(O102=TRUE,1,0) &amp; "," &amp; IF(P102=TRUE,1,0) &amp; "," &amp; IF(Q102=TRUE,1,0) &amp; "," &amp; IF(R102=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (101,287,'CRM','ฝ่ายขาย' ,'ClaimResultBar','ผลการเคลม Supplier ' ,'ClaimResult',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
@@ -23119,7 +23529,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="120">
-        <f t="shared" ref="B103:B104" si="32">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
+        <f t="shared" ref="B103:B104" si="34">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C103" s="120" t="s">
@@ -23169,6 +23579,10 @@
       </c>
       <c r="R103" s="121" t="b">
         <v>0</v>
+      </c>
+      <c r="S103" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A103 &amp; "," &amp; B103 &amp; ",'" &amp; C103 &amp; "','" &amp; D103 &amp; "' ,'" &amp; E103 &amp; "','" &amp; F103 &amp; "' ,'" &amp; G103 &amp; "'," &amp; IF(H103=TRUE,1,0) &amp; " ," &amp; IF(I103=TRUE,1,0) &amp; " ," &amp; IF(J103=TRUE,1,0) &amp; "," &amp; IF(K103=TRUE,1,0) &amp; "," &amp; IF(L103=TRUE,1,0) &amp; "," &amp; IF(M103=TRUE,1,0) &amp; "," &amp; IF(N103=TRUE,1,0) &amp; "," &amp; IF(O103=TRUE,1,0) &amp; "," &amp; IF(P103=TRUE,1,0) &amp; "," &amp; IF(Q103=TRUE,1,0) &amp; "," &amp; IF(R103=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (102,287,'CRM','ฝ่ายขาย' ,'ClaimReturnBar','เคลม(ส่งคืน)' ,'ClaimReturn',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
@@ -23176,7 +23590,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="120">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>287</v>
       </c>
       <c r="C104" s="120" t="s">
@@ -23226,6 +23640,30 @@
       </c>
       <c r="R104" s="121" t="b">
         <v>0</v>
+      </c>
+      <c r="S104" s="120" t="str">
+        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A104 &amp; "," &amp; B104 &amp; ",'" &amp; C104 &amp; "','" &amp; D104 &amp; "' ,'" &amp; E104 &amp; "','" &amp; F104 &amp; "' ,'" &amp; G104 &amp; "'," &amp; IF(H104=TRUE,1,0) &amp; " ," &amp; IF(I104=TRUE,1,0) &amp; " ," &amp; IF(J104=TRUE,1,0) &amp; "," &amp; IF(K104=TRUE,1,0) &amp; "," &amp; IF(L104=TRUE,1,0) &amp; "," &amp; IF(M104=TRUE,1,0) &amp; "," &amp; IF(N104=TRUE,1,0) &amp; "," &amp; IF(O104=TRUE,1,0) &amp; "," &amp; IF(P104=TRUE,1,0) &amp; "," &amp; IF(Q104=TRUE,1,0) &amp; "," &amp; IF(R104=TRUE,1,0) &amp; ");"</f>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (103,287,'CRM','ฝ่ายขาย' ,'Quotation2Bar','ใบเสนอราคาคู่เทียบ' ,'Quotation2',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C110" s="120" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>1894</v>
       </c>
     </row>
   </sheetData>
@@ -24419,97 +24857,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -29663,6 +30101,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -29673,12 +30117,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30196,16 +30634,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30272,10 +30710,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36071,6 +36509,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36080,11 +36523,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -36562,98 +37000,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42066,11 +42504,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42082,6 +42515,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1897">
   <si>
     <t>No.</t>
   </si>
@@ -6453,6 +6453,12 @@
   </si>
   <si>
     <t>LayoutClaimResult</t>
+  </si>
+  <si>
+    <t>alter table Orders add ClaimRemark  nvarchar(100) ;</t>
+  </si>
+  <si>
+    <t>alter table Orders add ClaimResult  nvarchar(100) ;</t>
   </si>
 </sst>
 </file>
@@ -7448,15 +7454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7464,9 +7461,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7480,6 +7474,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8469,7 +8475,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8497,7 +8503,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9190,20 +9196,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10405,6 +10411,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10415,12 +10427,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12249,10 +12255,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C493"/>
+  <dimension ref="A1:C495"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14890,173 +14896,183 @@
       <c r="C453" s="185"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B454" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C454" s="185"/>
+      <c r="C454" s="151" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B455" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C455" s="185"/>
+      <c r="C455" s="151" t="s">
+        <v>1896</v>
+      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B456" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C456" s="185"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B457" s="151" t="s">
-        <v>1724</v>
+      <c r="B457" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C457" s="185"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B458" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C458" s="185"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B459" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C459" s="185"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B460" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C458" s="185"/>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B459" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C459" s="185"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B460" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C460" s="185"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B461" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C461" s="185"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B462" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C462" s="185"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B463" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C461" s="185"/>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C462" s="185"/>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C463" s="185"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A464" s="151" t="s">
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C465" s="185"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A466" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B464" s="151" t="s">
+      <c r="B466" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B465" s="192" t="s">
+      <c r="C466" s="185"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B467" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C465" s="185"/>
-    </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B466" s="192" t="s">
+      <c r="C467" s="185"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B468" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C466" s="185"/>
-    </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B467" s="192" t="s">
+      <c r="C468" s="185"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B469" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C467" s="185"/>
-    </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C468" s="185"/>
-    </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C469" s="185"/>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C470" s="185"/>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C471" s="185"/>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C472" s="185"/>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B476" s="151" t="s">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C473" s="185"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C474" s="185"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B478" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B477" s="191" t="s">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B479" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B478" s="191" t="s">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B480" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="479" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B479" s="152" t="s">
+    <row r="481" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B481" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B481" s="186" t="s">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B483" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="482" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B482" s="187" t="s">
+    <row r="484" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B484" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B483" s="188" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B485" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B484" s="189" t="s">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B486" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B485" s="191" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B487" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B486" s="151" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B488" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B487" s="186" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B489" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B488" s="191" t="s">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B490" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B491" s="152" t="s">
+    <row r="493" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B493" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B492" s="152" t="s">
+    <row r="494" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B494" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B493" s="152" t="s">
+    <row r="495" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B495" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -17284,10 +17300,10 @@
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="Q106" sqref="Q106"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23215,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" ref="S97:S104" si="33">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (96,3,'CRM','ฝ่ายขาย' ,'OrderSellHisExpBar','ประวัติการขาย (Export)' ,'OrderSellHisExp',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23276,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="S98" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A98 &amp; "," &amp; B98 &amp; ",'" &amp; C98 &amp; "','" &amp; D98 &amp; "' ,'" &amp; E98 &amp; "','" &amp; F98 &amp; "' ,'" &amp; G98 &amp; "'," &amp; IF(H98=TRUE,1,0) &amp; " ," &amp; IF(I98=TRUE,1,0) &amp; " ," &amp; IF(J98=TRUE,1,0) &amp; "," &amp; IF(K98=TRUE,1,0) &amp; "," &amp; IF(L98=TRUE,1,0) &amp; "," &amp; IF(M98=TRUE,1,0) &amp; "," &amp; IF(N98=TRUE,1,0) &amp; "," &amp; IF(O98=TRUE,1,0) &amp; "," &amp; IF(P98=TRUE,1,0) &amp; "," &amp; IF(Q98=TRUE,1,0) &amp; "," &amp; IF(R98=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (97,3,'ข้อมูลเริ่มต้น','Product' ,'ApproveStockBar','อนุมัติสต๊อก' ,'ApproveStock',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23337,7 +23353,7 @@
         <v>0</v>
       </c>
       <c r="S99" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A99 &amp; "," &amp; B99 &amp; ",'" &amp; C99 &amp; "','" &amp; D99 &amp; "' ,'" &amp; E99 &amp; "','" &amp; F99 &amp; "' ,'" &amp; G99 &amp; "'," &amp; IF(H99=TRUE,1,0) &amp; " ," &amp; IF(I99=TRUE,1,0) &amp; " ," &amp; IF(J99=TRUE,1,0) &amp; "," &amp; IF(K99=TRUE,1,0) &amp; "," &amp; IF(L99=TRUE,1,0) &amp; "," &amp; IF(M99=TRUE,1,0) &amp; "," &amp; IF(N99=TRUE,1,0) &amp; "," &amp; IF(O99=TRUE,1,0) &amp; "," &amp; IF(P99=TRUE,1,0) &amp; "," &amp; IF(Q99=TRUE,1,0) &amp; "," &amp; IF(R99=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (98,31,'ข้อมูลเริ่มต้น','ทั่วไป' ,'ProvinceBar','จังหวัด' ,'Province',1 ,1 ,1,1,1,0,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23398,7 +23414,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A100 &amp; "," &amp; B100 &amp; ",'" &amp; C100 &amp; "','" &amp; D100 &amp; "' ,'" &amp; E100 &amp; "','" &amp; F100 &amp; "' ,'" &amp; G100 &amp; "'," &amp; IF(H100=TRUE,1,0) &amp; " ," &amp; IF(I100=TRUE,1,0) &amp; " ," &amp; IF(J100=TRUE,1,0) &amp; "," &amp; IF(K100=TRUE,1,0) &amp; "," &amp; IF(L100=TRUE,1,0) &amp; "," &amp; IF(M100=TRUE,1,0) &amp; "," &amp; IF(N100=TRUE,1,0) &amp; "," &amp; IF(O100=TRUE,1,0) &amp; "," &amp; IF(P100=TRUE,1,0) &amp; "," &amp; IF(Q100=TRUE,1,0) &amp; "," &amp; IF(R100=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (99,35,'Report','ฝ่ายขาย' ,'ReportDebtAnalystBar','รายงานวิเคราะห์อายุลูกหนี้/เจ้าหนี้' ,'ReportDebtAnalyst',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23407,7 +23423,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="120">
-        <f t="shared" ref="B101:B102" si="33">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
+        <f t="shared" ref="B101:B102" si="34">IF( H101=TRUE,1,0)+IF(I101=TRUE,2,0)+IF( J101=TRUE,4,0)+IF( K101=TRUE,8,0)+IF( L101=TRUE,16,0)+IF( M101=TRUE,32,0)+IF( N101=TRUE,64,0)+IF( O101=TRUE,128,0)+IF(P101=TRUE,256,0)+IF(Q101=TRUE,512,0)+IF(R101=TRUE,1024,0)</f>
         <v>35</v>
       </c>
       <c r="C101" s="120" t="s">
@@ -23459,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="S101" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A101 &amp; "," &amp; B101 &amp; ",'" &amp; C101 &amp; "','" &amp; D101 &amp; "' ,'" &amp; E101 &amp; "','" &amp; F101 &amp; "' ,'" &amp; G101 &amp; "'," &amp; IF(H101=TRUE,1,0) &amp; " ," &amp; IF(I101=TRUE,1,0) &amp; " ," &amp; IF(J101=TRUE,1,0) &amp; "," &amp; IF(K101=TRUE,1,0) &amp; "," &amp; IF(L101=TRUE,1,0) &amp; "," &amp; IF(M101=TRUE,1,0) &amp; "," &amp; IF(N101=TRUE,1,0) &amp; "," &amp; IF(O101=TRUE,1,0) &amp; "," &amp; IF(P101=TRUE,1,0) &amp; "," &amp; IF(Q101=TRUE,1,0) &amp; "," &amp; IF(R101=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (100,35,'Report','ฝ่ายขาย' ,'StockReportBar','รายงานมูลค่าสต๊อกคลังสินค้า' ,'StockReport',1 ,1 ,0,0,0,1,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23468,7 +23484,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="120">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>287</v>
       </c>
       <c r="C102" s="120" t="s">
@@ -23520,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="S102" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A102 &amp; "," &amp; B102 &amp; ",'" &amp; C102 &amp; "','" &amp; D102 &amp; "' ,'" &amp; E102 &amp; "','" &amp; F102 &amp; "' ,'" &amp; G102 &amp; "'," &amp; IF(H102=TRUE,1,0) &amp; " ," &amp; IF(I102=TRUE,1,0) &amp; " ," &amp; IF(J102=TRUE,1,0) &amp; "," &amp; IF(K102=TRUE,1,0) &amp; "," &amp; IF(L102=TRUE,1,0) &amp; "," &amp; IF(M102=TRUE,1,0) &amp; "," &amp; IF(N102=TRUE,1,0) &amp; "," &amp; IF(O102=TRUE,1,0) &amp; "," &amp; IF(P102=TRUE,1,0) &amp; "," &amp; IF(Q102=TRUE,1,0) &amp; "," &amp; IF(R102=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (101,287,'CRM','ฝ่ายขาย' ,'ClaimResultBar','ผลการเคลม Supplier ' ,'ClaimResult',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
       </c>
     </row>
@@ -23529,7 +23545,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="120">
-        <f t="shared" ref="B103:B104" si="34">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
+        <f t="shared" ref="B103:B104" si="35">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C103" s="120" t="s">
@@ -23581,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="S103" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A103 &amp; "," &amp; B103 &amp; ",'" &amp; C103 &amp; "','" &amp; D103 &amp; "' ,'" &amp; E103 &amp; "','" &amp; F103 &amp; "' ,'" &amp; G103 &amp; "'," &amp; IF(H103=TRUE,1,0) &amp; " ," &amp; IF(I103=TRUE,1,0) &amp; " ," &amp; IF(J103=TRUE,1,0) &amp; "," &amp; IF(K103=TRUE,1,0) &amp; "," &amp; IF(L103=TRUE,1,0) &amp; "," &amp; IF(M103=TRUE,1,0) &amp; "," &amp; IF(N103=TRUE,1,0) &amp; "," &amp; IF(O103=TRUE,1,0) &amp; "," &amp; IF(P103=TRUE,1,0) &amp; "," &amp; IF(Q103=TRUE,1,0) &amp; "," &amp; IF(R103=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (102,287,'CRM','ฝ่ายขาย' ,'ClaimReturnBar','เคลม(ส่งคืน)' ,'ClaimReturn',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
       </c>
     </row>
@@ -23590,7 +23606,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>287</v>
       </c>
       <c r="C104" s="120" t="s">
@@ -23642,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="S104" s="120" t="str">
-        <f>"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A104 &amp; "," &amp; B104 &amp; ",'" &amp; C104 &amp; "','" &amp; D104 &amp; "' ,'" &amp; E104 &amp; "','" &amp; F104 &amp; "' ,'" &amp; G104 &amp; "'," &amp; IF(H104=TRUE,1,0) &amp; " ," &amp; IF(I104=TRUE,1,0) &amp; " ," &amp; IF(J104=TRUE,1,0) &amp; "," &amp; IF(K104=TRUE,1,0) &amp; "," &amp; IF(L104=TRUE,1,0) &amp; "," &amp; IF(M104=TRUE,1,0) &amp; "," &amp; IF(N104=TRUE,1,0) &amp; "," &amp; IF(O104=TRUE,1,0) &amp; "," &amp; IF(P104=TRUE,1,0) &amp; "," &amp; IF(Q104=TRUE,1,0) &amp; "," &amp; IF(R104=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (103,287,'CRM','ฝ่ายขาย' ,'Quotation2Bar','ใบเสนอราคาคู่เทียบ' ,'Quotation2',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
       </c>
     </row>
@@ -24857,97 +24873,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30101,12 +30117,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30117,6 +30127,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30634,16 +30650,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30710,10 +30726,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36509,11 +36525,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36523,6 +36534,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37000,98 +37016,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42504,6 +42520,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42515,11 +42536,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1901">
   <si>
     <t>No.</t>
   </si>
@@ -6459,6 +6459,18 @@
   </si>
   <si>
     <t>alter table Orders add ClaimResult  nvarchar(100) ;</t>
+  </si>
+  <si>
+    <t>1.0.1.11</t>
+  </si>
+  <si>
+    <t>เพิ่มการตรวจสอบ SN ซ้ำ</t>
+  </si>
+  <si>
+    <t>ใบสั่งจองหากโดนดึงไปทำ PO แล้วต้องไม่สามารถแก้ไขได้</t>
+  </si>
+  <si>
+    <t>รายงานสต๊อก ให้สามารถเลือกวันที่ได้</t>
   </si>
 </sst>
 </file>
@@ -12255,10 +12267,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C495"/>
+  <dimension ref="A1:C497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14896,100 +14908,108 @@
       <c r="C453" s="185"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A454" s="151" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B454" s="151" t="s">
+        <v>1898</v>
+      </c>
       <c r="C454" s="151" t="s">
         <v>1895</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B455" s="151" t="s">
+        <v>1899</v>
+      </c>
       <c r="C455" s="151" t="s">
         <v>1896</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B456" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C456" s="185"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B457" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C457" s="185"/>
+      <c r="B456" s="151" t="s">
+        <v>1900</v>
+      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B458" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C458" s="185"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B459" s="151" t="s">
-        <v>1724</v>
+      <c r="B459" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C459" s="185"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B460" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C460" s="185"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B461" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C461" s="185"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B462" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C460" s="185"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B461" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C461" s="185"/>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B462" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C462" s="185"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B463" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C465" s="185"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A466" s="151" t="s">
+      <c r="C466" s="185"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C467" s="185"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A468" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B466" s="151" t="s">
+      <c r="B468" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C466" s="185"/>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B467" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C467" s="185"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B468" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C468" s="185"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B469" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C469" s="185"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B470" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C470" s="185"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B471" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C469" s="185"/>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C470" s="185"/>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C471" s="185"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.5">
@@ -15001,78 +15021,84 @@
     <row r="474" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C474" s="185"/>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B478" s="151" t="s">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C475" s="185"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C476" s="185"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B480" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B479" s="191" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B481" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B480" s="191" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B482" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B481" s="152" t="s">
+    <row r="483" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B483" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B483" s="186" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B485" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B484" s="187" t="s">
+    <row r="486" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B486" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B485" s="188" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B487" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B486" s="189" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B488" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B487" s="191" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B489" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B488" s="151" t="s">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B490" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B489" s="186" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B491" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B490" s="191" t="s">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B492" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B493" s="152" t="s">
+    <row r="495" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B495" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B494" s="152" t="s">
+    <row r="496" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B496" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B495" s="152" t="s">
+    <row r="497" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B497" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -15889,7 +15915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -7466,6 +7466,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7473,6 +7482,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7486,18 +7498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8487,7 +8487,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8515,7 +8515,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9208,20 +9208,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10423,12 +10423,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10439,6 +10433,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12270,7 +12270,7 @@
   <dimension ref="A1:C497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+      <selection activeCell="C454" sqref="C454:C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -24899,97 +24899,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30143,6 +30143,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30153,12 +30159,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30676,16 +30676,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30752,10 +30752,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36551,6 +36551,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36560,11 +36565,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37042,98 +37042,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42546,11 +42546,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42562,6 +42557,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="1903">
   <si>
     <t>No.</t>
   </si>
@@ -6471,6 +6471,12 @@
   </si>
   <si>
     <t>รายงานสต๊อก ให้สามารถเลือกวันที่ได้</t>
+  </si>
+  <si>
+    <t>alter table Orderslog add ClaimRemark  nvarchar(100) ;</t>
+  </si>
+  <si>
+    <t>alter table Orderslog add ClaimResult  nvarchar(100) ;</t>
   </si>
 </sst>
 </file>
@@ -7466,15 +7472,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7482,9 +7479,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7498,6 +7492,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8487,7 +8493,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8515,7 +8521,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9208,20 +9214,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10423,6 +10429,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10433,12 +10445,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12267,10 +12273,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C497"/>
+  <dimension ref="A1:C498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454:C455"/>
+      <selection activeCell="C456" sqref="C456:C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14930,89 +14936,94 @@
       <c r="B456" s="151" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B458" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C458" s="185"/>
+      <c r="C456" s="151" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C457" s="151" t="s">
+        <v>1902</v>
+      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B459" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C459" s="185"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B460" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C460" s="185"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B461" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C460" s="185"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B461" s="151" t="s">
+      <c r="C461" s="185"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B462" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C461" s="185"/>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B462" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C462" s="185"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B463" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B464" s="151" t="s">
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B465" s="192" t="s">
+      <c r="C465" s="185"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B466" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C465" s="185"/>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C466" s="185"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C467" s="185"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A468" s="151" t="s">
+      <c r="C468" s="185"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A469" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B468" s="151" t="s">
+      <c r="B469" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C468" s="185"/>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B469" s="192" t="s">
-        <v>1728</v>
       </c>
       <c r="C469" s="185"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B470" s="192" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C470" s="185"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B471" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C471" s="185"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B472" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C471" s="185"/>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C472" s="185"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.5">
@@ -15027,78 +15038,81 @@
     <row r="476" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C476" s="185"/>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B480" s="151" t="s">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C477" s="185"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B481" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B481" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B482" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B483" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B483" s="152" t="s">
+    <row r="484" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B484" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B485" s="186" t="s">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B486" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B486" s="187" t="s">
+    <row r="487" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B487" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B487" s="188" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B488" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B488" s="189" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B489" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B489" s="191" t="s">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B490" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B490" s="151" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B491" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B491" s="186" t="s">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B492" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B492" s="191" t="s">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B493" s="191" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="495" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B495" s="152" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="496" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B496" s="152" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B497" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B497" s="152" t="s">
+    <row r="498" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B498" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -24899,97 +24913,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30143,12 +30157,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30159,6 +30167,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30676,16 +30690,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30752,10 +30766,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36551,11 +36565,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36565,6 +36574,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37042,98 +37056,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42546,6 +42560,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42557,11 +42576,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -7472,6 +7472,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7479,6 +7488,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7492,18 +7504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8493,7 +8493,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8521,7 +8521,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9214,20 +9214,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10429,12 +10429,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10445,6 +10439,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12275,8 +12275,8 @@
   </sheetPr>
   <dimension ref="A1:C498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C456" sqref="C456:C457"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C457" sqref="C456:C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -24913,97 +24913,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30157,6 +30157,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30167,12 +30173,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30690,16 +30690,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30766,10 +30766,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36565,6 +36565,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36574,11 +36579,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37056,98 +37056,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42560,11 +42560,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42576,6 +42571,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="1905">
   <si>
     <t>No.</t>
   </si>
@@ -6477,6 +6477,12 @@
   </si>
   <si>
     <t>alter table Orderslog add ClaimResult  nvarchar(100) ;</t>
+  </si>
+  <si>
+    <t>1.0.1.12</t>
+  </si>
+  <si>
+    <t>Make PO Error Tr.</t>
   </si>
 </sst>
 </file>
@@ -7472,15 +7478,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7488,9 +7485,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7504,6 +7498,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8493,7 +8499,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8521,7 +8527,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9214,20 +9220,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10429,6 +10435,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10439,12 +10451,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12273,10 +12279,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C498"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C457" sqref="C456:C457"/>
+      <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14946,90 +14952,92 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B459" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C459" s="185"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B460" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C460" s="185"/>
+      <c r="A459" s="151" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B459" s="151" t="s">
+        <v>1904</v>
+      </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B461" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C461" s="185"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B462" s="151" t="s">
-        <v>1724</v>
+      <c r="B462" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C462" s="185"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B463" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B464" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B465" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C465" s="185"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B466" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C466" s="185"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B467" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C467" s="185"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B468" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C466" s="185"/>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C467" s="185"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C468" s="185"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A469" s="151" t="s">
+      <c r="C469" s="185"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C470" s="185"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A471" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B469" s="151" t="s">
+      <c r="B471" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C469" s="185"/>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B470" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C470" s="185"/>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B471" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C471" s="185"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B472" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C472" s="185"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B473" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C473" s="185"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B474" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C472" s="185"/>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C473" s="185"/>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C474" s="185"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.5">
@@ -15041,78 +15049,84 @@
     <row r="477" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C477" s="185"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B481" s="151" t="s">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C478" s="185"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C479" s="185"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B483" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B482" s="191" t="s">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B484" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B483" s="191" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B485" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B484" s="152" t="s">
+    <row r="486" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B486" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B486" s="186" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B488" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B487" s="187" t="s">
+    <row r="489" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B489" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B488" s="188" t="s">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B490" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B489" s="189" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B491" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B490" s="191" t="s">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B492" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B491" s="151" t="s">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B493" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B492" s="186" t="s">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B494" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B493" s="191" t="s">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B495" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B496" s="152" t="s">
+    <row r="498" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B498" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B497" s="152" t="s">
+    <row r="499" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B499" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B498" s="152" t="s">
+    <row r="500" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B500" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -24913,97 +24927,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30157,12 +30171,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30173,6 +30181,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30690,16 +30704,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30766,10 +30780,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36565,11 +36579,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36579,6 +36588,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37056,98 +37070,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42560,6 +42574,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42571,11 +42590,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="1907">
   <si>
     <t>No.</t>
   </si>
@@ -6483,6 +6483,12 @@
   </si>
   <si>
     <t>Make PO Error Tr.</t>
+  </si>
+  <si>
+    <t>เพิ่มสถานะ Open ที่ PO ,waitng ต้องไม่สามารถแก้ไขได้ (เปิดสิทธ์ให้ 3 คน)</t>
+  </si>
+  <si>
+    <t>1.0.1.13</t>
   </si>
 </sst>
 </file>
@@ -7478,6 +7484,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7485,6 +7500,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7498,18 +7516,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8499,7 +8505,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8527,7 +8533,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9220,20 +9226,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10435,12 +10441,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10451,6 +10451,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12279,10 +12285,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14959,88 +14965,93 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B461" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C461" s="185"/>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A460" s="151" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B460" s="151" t="s">
+        <v>1905</v>
+      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B462" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C462" s="185"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B463" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C463" s="185"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B464" s="151" t="s">
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B465" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C465" s="185"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B466" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C466" s="185"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B467" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C466" s="185"/>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B467" s="151" t="s">
+      <c r="C467" s="185"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B468" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C467" s="185"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B468" s="192" t="s">
+      <c r="C468" s="185"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B469" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C468" s="185"/>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C469" s="185"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C470" s="185"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A471" s="151" t="s">
+      <c r="C471" s="185"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A472" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B471" s="151" t="s">
+      <c r="B472" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C471" s="185"/>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B472" s="192" t="s">
-        <v>1728</v>
       </c>
       <c r="C472" s="185"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B473" s="192" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C473" s="185"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B474" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C474" s="185"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B475" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C474" s="185"/>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C475" s="185"/>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.5">
@@ -15055,78 +15066,81 @@
     <row r="479" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C479" s="185"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B483" s="151" t="s">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C480" s="185"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B484" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B484" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B485" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B486" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B486" s="152" t="s">
+    <row r="487" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B487" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B488" s="186" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B489" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="489" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B489" s="187" t="s">
+    <row r="490" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B490" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B490" s="188" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B491" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B491" s="189" t="s">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B492" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B492" s="191" t="s">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B493" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B493" s="151" t="s">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B494" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B494" s="186" t="s">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B495" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B495" s="191" t="s">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B496" s="191" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="498" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B498" s="152" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="499" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B499" s="152" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B500" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B500" s="152" t="s">
+    <row r="501" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B501" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -24927,97 +24941,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30171,6 +30185,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30181,12 +30201,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30704,16 +30718,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30780,10 +30794,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36579,6 +36593,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36588,11 +36607,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37070,98 +37084,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42574,11 +42588,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42590,6 +42599,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1909">
   <si>
     <t>No.</t>
   </si>
@@ -6489,6 +6489,12 @@
   </si>
   <si>
     <t>1.0.1.13</t>
+  </si>
+  <si>
+    <t>1.0.1.14</t>
+  </si>
+  <si>
+    <t>พิมพ์เอกสารใบเสร็จ(ซื้อ) ไม่ได้</t>
   </si>
 </sst>
 </file>
@@ -7484,15 +7490,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7500,9 +7497,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7516,6 +7510,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8505,7 +8511,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8533,7 +8539,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9226,20 +9232,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10441,6 +10447,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10451,12 +10463,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12285,10 +12291,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A454" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C469" sqref="C469"/>
+      <selection activeCell="B464" sqref="B464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14973,88 +14979,93 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B462" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C462" s="185"/>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A461" s="151" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B461" s="151" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B463" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C463" s="185"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B464" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C464" s="185"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B465" s="151" t="s">
+      <c r="C465" s="185"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B466" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C465" s="185"/>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B466" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C466" s="185"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B467" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C467" s="185"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B468" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C467" s="185"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B468" s="151" t="s">
+      <c r="C468" s="185"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B469" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C468" s="185"/>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B469" s="192" t="s">
+      <c r="C469" s="185"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B470" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C469" s="185"/>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C470" s="185"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C471" s="185"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A472" s="151" t="s">
+      <c r="C472" s="185"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A473" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B472" s="151" t="s">
+      <c r="B473" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C472" s="185"/>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B473" s="192" t="s">
-        <v>1728</v>
       </c>
       <c r="C473" s="185"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B474" s="192" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C474" s="185"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B475" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C475" s="185"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B476" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C475" s="185"/>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C476" s="185"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.5">
@@ -15069,78 +15080,81 @@
     <row r="480" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C480" s="185"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B484" s="151" t="s">
+    <row r="481" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C481" s="185"/>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B485" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B485" s="191" t="s">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B486" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B486" s="191" t="s">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B487" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B487" s="152" t="s">
+    <row r="488" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B488" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B489" s="186" t="s">
+    <row r="490" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B490" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B490" s="187" t="s">
+    <row r="491" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B491" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B491" s="188" t="s">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B492" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B492" s="189" t="s">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B493" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B493" s="191" t="s">
+    <row r="494" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B494" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B494" s="151" t="s">
+    <row r="495" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B495" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B495" s="186" t="s">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B496" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B496" s="191" t="s">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B497" s="191" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="499" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B499" s="152" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="500" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B500" s="152" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B501" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B501" s="152" t="s">
+    <row r="502" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B502" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -24941,97 +24955,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30185,12 +30199,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30201,6 +30209,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30718,16 +30732,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30794,10 +30808,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36593,11 +36607,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36607,6 +36616,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37084,98 +37098,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42588,6 +42602,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42599,11 +42618,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="46" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="45" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="46" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="45" state="hidden" r:id="rId2"/>
     <sheet name="UpdateList" sheetId="43" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="48" r:id="rId4"/>
     <sheet name="Menu" sheetId="42" r:id="rId5"/>
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1923">
   <si>
     <t>No.</t>
   </si>
@@ -6495,6 +6495,48 @@
   </si>
   <si>
     <t>พิมพ์เอกสารใบเสร็จ(ซื้อ) ไม่ได้</t>
+  </si>
+  <si>
+    <t>1.0.1.15</t>
+  </si>
+  <si>
+    <t>ถ้า PO นำสินค้าเข้าระบบ แจ้งเตือนไปยังคนทำใบจอง</t>
+  </si>
+  <si>
+    <t>ทำรายการโดยอ้างอิงรายการจากชื่อสินค้าได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เพิ่มหน้าจอผลการเคลม Supplier </t>
+  </si>
+  <si>
+    <t>เพิ่มหน้าจอเคลม(ส่งคืน)</t>
+  </si>
+  <si>
+    <t>เพิ่มหน้าจอใบเสนอราคาคู่เทียบ</t>
+  </si>
+  <si>
+    <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (101,287,'CRM','ฝ่ายขาย' ,'ClaimResultBar','ผลการเคลม Supplier ' ,'ClaimResult',1 ,1 ,1,1,1,0,0,0,1,0,0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (102,287,'CRM','ฝ่ายขาย' ,'ClaimReturnBar','เคลม(ส่งคืน)' ,'ClaimReturn',1 ,1 ,1,1,1,0,0,0,1,0,0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (103,287,'CRM','ฝ่ายขาย' ,'Quotation2Bar','ใบเสนอราคาคู่เทียบ' ,'Quotation2',1 ,1 ,1,1,1,0,0,0,1,0,0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO [BS].[dbo].[RunningFormat]([MenuID],[System],[Module],[MenuDisplay] ,[Name] ,[FormatFront],[FormatDate],[FormatMidle] ,[RunningCount],[FormatYear],[LastNo],[LocationDTLID],[CreateBy],[CreateTime],[ModifiedBy] ,[ModifiedTime],isreset) VALUES (101 ,'CRM','ฝ่ายขาย','ผลการเคลม Supplier','','','None','-',5,'EN',0,0,1,'2012-07-25 17:41:54.000',1,'2014-03-04 14:40:15.000',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO [BS].[dbo].[RunningFormat]([MenuID],[System],[Module],[MenuDisplay] ,[Name] ,[FormatFront],[FormatDate],[FormatMidle] ,[RunningCount],[FormatYear],[LastNo],[LocationDTLID],[CreateBy],[CreateTime],[ModifiedBy] ,[ModifiedTime],isreset) VALUES (102 ,'CRM','ฝ่ายขาย','เคลม(ส่งคืน)','','','None','-',5,'EN',0,0,1,'2012-07-25 17:41:54.000',1,'2014-03-04 14:40:15.000',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO [BS].[dbo].[RunningFormat]([MenuID],[System],[Module],[MenuDisplay] ,[Name] ,[FormatFront],[FormatDate],[FormatMidle] ,[RunningCount],[FormatYear],[LastNo],[LocationDTLID],[CreateBy],[CreateTime],[ModifiedBy] ,[ModifiedTime],isreset) VALUES (103 ,'CRM','ฝ่ายขาย','ใบเสนอราคาคู่เทียบ','','','None','-',5,'EN',0,0,1,'2012-07-25 17:41:54.000',1,'2014-03-04 14:40:15.000',0);</t>
+  </si>
+  <si>
+    <t>เพิ่มมัดจำที่หน้า PO</t>
+  </si>
+  <si>
+    <t>เพิ่มการบันทึกเช็คที่ฝั่งซื้อ</t>
   </si>
 </sst>
 </file>
@@ -7490,6 +7532,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7497,6 +7548,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7510,18 +7564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7961,7 +8003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -8511,7 +8553,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8539,7 +8581,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9232,20 +9274,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10447,12 +10489,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10463,6 +10499,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11051,7 +11093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
@@ -12291,10 +12333,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C502"/>
+  <dimension ref="A1:C515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B464" sqref="B464"/>
+    <sheetView tabSelected="1" topLeftCell="A458" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463:B469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -14988,173 +15030,242 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B463" s="192" t="s">
+      <c r="A463" s="151" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B463" s="151" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B464" s="151" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B465" s="151" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C465" s="151" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B466" s="151" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C466" s="151" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B467" s="151" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C467" s="151" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B468" s="151" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C468" s="151" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B469" s="151" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C469" s="151" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C470" s="151" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C471" s="151" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B474" s="120"/>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B475" s="120"/>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B476" s="192" t="s">
         <v>1721</v>
       </c>
-      <c r="C463" s="185"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B464" s="192" t="s">
+      <c r="C476" s="185"/>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B477" s="192" t="s">
         <v>1722</v>
       </c>
-      <c r="C464" s="185"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B465" s="192" t="s">
+      <c r="C477" s="185"/>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B478" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C465" s="185"/>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B466" s="151" t="s">
+      <c r="C478" s="185"/>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B479" s="151" t="s">
         <v>1724</v>
       </c>
-      <c r="C466" s="185"/>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B467" s="192" t="s">
+      <c r="C479" s="185"/>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B480" s="192" t="s">
         <v>1733</v>
       </c>
-      <c r="C467" s="185"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B468" s="192" t="s">
+      <c r="C480" s="185"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B481" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C468" s="185"/>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B469" s="151" t="s">
+      <c r="C481" s="185"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B482" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C469" s="185"/>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B470" s="192" t="s">
+      <c r="C482" s="185"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B483" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C470" s="185"/>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C471" s="185"/>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C472" s="185"/>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A473" s="151" t="s">
+      <c r="C483" s="185"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C484" s="185"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C485" s="185"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A486" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B473" s="151" t="s">
+      <c r="B486" s="151" t="s">
         <v>1727</v>
       </c>
-      <c r="C473" s="185"/>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B474" s="192" t="s">
+      <c r="C486" s="185"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B487" s="192" t="s">
         <v>1728</v>
       </c>
-      <c r="C474" s="185"/>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B475" s="192" t="s">
+      <c r="C487" s="185"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B488" s="192" t="s">
         <v>1729</v>
       </c>
-      <c r="C475" s="185"/>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B476" s="192" t="s">
+      <c r="C488" s="185"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B489" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C476" s="185"/>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C477" s="185"/>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C478" s="185"/>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C479" s="185"/>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C480" s="185"/>
-    </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C481" s="185"/>
-    </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B485" s="151" t="s">
+      <c r="C489" s="185"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C490" s="185"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C491" s="185"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C492" s="185"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C493" s="185"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C494" s="185"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B498" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B486" s="191" t="s">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B499" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B487" s="191" t="s">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B500" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="488" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B488" s="152" t="s">
+    <row r="501" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B501" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B490" s="186" t="s">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B503" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="491" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B491" s="187" t="s">
+    <row r="504" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B504" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B492" s="188" t="s">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B505" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B493" s="189" t="s">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B506" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B494" s="191" t="s">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B507" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B495" s="151" t="s">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B508" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B496" s="186" t="s">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B509" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B497" s="191" t="s">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B510" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B500" s="152" t="s">
+    <row r="513" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B513" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B501" s="152" t="s">
+    <row r="514" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B514" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B502" s="152" t="s">
+    <row r="515" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B515" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -17383,9 +17494,9 @@
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24955,97 +25066,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30199,6 +30310,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30209,12 +30326,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30732,16 +30843,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30808,10 +30919,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36607,6 +36718,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36616,11 +36732,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37098,98 +37209,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42602,11 +42713,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42618,6 +42724,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1926">
   <si>
     <t>No.</t>
   </si>
@@ -6537,6 +6537,15 @@
   </si>
   <si>
     <t>เพิ่มการบันทึกเช็คที่ฝั่งซื้อ</t>
+  </si>
+  <si>
+    <t>ใบ PO เพิ่มข้อมูลราคาซื้อต่ำสุด</t>
+  </si>
+  <si>
+    <t>1.0.1.16</t>
+  </si>
+  <si>
+    <t>นำสินค้าเข้าระบบเลือกคลังไม่ได้</t>
   </si>
 </sst>
 </file>
@@ -12335,8 +12344,8 @@
   </sheetPr>
   <dimension ref="A1:C515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463:B469"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15042,7 +15051,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B465" s="151" t="s">
         <v>1912</v>
       </c>
@@ -15050,7 +15059,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B466" s="151" t="s">
         <v>1913</v>
       </c>
@@ -15058,7 +15067,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B467" s="151" t="s">
         <v>1914</v>
       </c>
@@ -15066,7 +15075,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B468" s="151" t="s">
         <v>1921</v>
       </c>
@@ -15074,7 +15083,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B469" s="151" t="s">
         <v>1922</v>
       </c>
@@ -15082,47 +15091,58 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B470" s="151" t="s">
+        <v>1923</v>
+      </c>
       <c r="C470" s="151" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C471" s="151" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A472" s="151" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B472" s="151" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B474" s="120"/>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B475" s="120"/>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B476" s="192" t="s">
         <v>1721</v>
       </c>
       <c r="C476" s="185"/>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B477" s="192" t="s">
         <v>1722</v>
       </c>
       <c r="C477" s="185"/>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B478" s="192" t="s">
         <v>1723</v>
       </c>
       <c r="C478" s="185"/>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B479" s="151" t="s">
         <v>1724</v>
       </c>
       <c r="C479" s="185"/>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B480" s="192" t="s">
         <v>1733</v>
       </c>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="1929">
   <si>
     <t>No.</t>
   </si>
@@ -6546,6 +6546,15 @@
   </si>
   <si>
     <t>นำสินค้าเข้าระบบเลือกคลังไม่ได้</t>
+  </si>
+  <si>
+    <t>1.0.1.17</t>
+  </si>
+  <si>
+    <t>หน้าประวัติการขายเลือกสินค้าไม่ได้</t>
+  </si>
+  <si>
+    <t>PO สถานะไม่เปลี่ยนเมื่อดึงมาทำ Stockin</t>
   </si>
 </sst>
 </file>
@@ -7541,15 +7550,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7557,9 +7557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7573,6 +7570,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8562,7 +8571,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8590,7 +8599,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9283,20 +9292,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10498,6 +10507,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10508,12 +10523,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12342,10 +12351,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C515"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B472" sqref="B472"/>
+    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15113,96 +15122,103 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B474" s="120"/>
+      <c r="A474" s="151" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B474" s="151" t="s">
+        <v>1927</v>
+      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B475" s="120"/>
+      <c r="B475" s="151" t="s">
+        <v>1928</v>
+      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B476" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C476" s="185"/>
+      <c r="B476" s="120"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B477" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C477" s="185"/>
+      <c r="B477" s="120"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B478" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C478" s="185"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B479" s="151" t="s">
-        <v>1724</v>
+      <c r="B479" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C479" s="185"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B480" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C480" s="185"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B481" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C481" s="185"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B482" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C480" s="185"/>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B481" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C481" s="185"/>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B482" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C482" s="185"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B483" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C483" s="185"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B484" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C484" s="185"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B485" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C483" s="185"/>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C484" s="185"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C485" s="185"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A486" s="151" t="s">
+      <c r="C486" s="185"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C487" s="185"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A488" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B486" s="151" t="s">
+      <c r="B488" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C486" s="185"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B487" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C487" s="185"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B488" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C488" s="185"/>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B489" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C489" s="185"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B490" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C490" s="185"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B491" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C489" s="185"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C490" s="185"/>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C491" s="185"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.5">
@@ -15214,78 +15230,84 @@
     <row r="494" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C494" s="185"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B498" s="151" t="s">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C495" s="185"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C496" s="185"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B500" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B499" s="191" t="s">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B501" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B500" s="191" t="s">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B502" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B501" s="152" t="s">
+    <row r="503" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B503" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B503" s="186" t="s">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B505" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="504" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B504" s="187" t="s">
+    <row r="506" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B506" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B505" s="188" t="s">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B507" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B506" s="189" t="s">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B508" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B507" s="191" t="s">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B509" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B508" s="151" t="s">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B510" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B509" s="186" t="s">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B511" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B510" s="191" t="s">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B512" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="513" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B513" s="152" t="s">
+    <row r="515" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B515" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="514" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B514" s="152" t="s">
+    <row r="516" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B516" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B515" s="152" t="s">
+    <row r="517" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B517" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -25086,97 +25108,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30330,12 +30352,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30346,6 +30362,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30863,16 +30885,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30939,10 +30961,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36738,11 +36760,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36752,6 +36769,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37229,98 +37251,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42733,6 +42755,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42744,11 +42771,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1936">
   <si>
     <t>No.</t>
   </si>
@@ -6555,6 +6555,27 @@
   </si>
   <si>
     <t>PO สถานะไม่เปลี่ยนเมื่อดึงมาทำ Stockin</t>
+  </si>
+  <si>
+    <t>ข้อความแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>NotifyBar</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>1.0.1.18</t>
+  </si>
+  <si>
+    <t>ถ้า PO นำสินค้าเข้าระบบ แจ้งเตือนไปยังคนทำใบจอง แสดงเลขที่ใบจองในหน้าแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>เพิ่มเมนูเปิดหน้าแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (104,3,'อนุมัติเอกสาร','อนุมัติเอกสาร' ,'NotifyBar','ข้อความแจ้งเตือน' ,'Notify',1 ,1 ,0,0,0,0,0,0,0,0,0);</t>
   </si>
 </sst>
 </file>
@@ -7550,6 +7571,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7557,6 +7587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7570,18 +7603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8571,7 +8592,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8599,7 +8620,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9292,20 +9313,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10507,12 +10528,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10523,6 +10538,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12351,10 +12372,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C517"/>
+  <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C470" sqref="C470"/>
+    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C477" sqref="C477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15134,97 +15155,104 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B476" s="120"/>
-    </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B477" s="120"/>
+      <c r="A477" s="151" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B477" s="151" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C477" s="151" t="s">
+        <v>1935</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B478" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C478" s="185"/>
+      <c r="B478" s="151" t="s">
+        <v>1934</v>
+      </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B479" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C479" s="185"/>
+      <c r="B479" s="120"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B480" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C480" s="185"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B481" s="151" t="s">
-        <v>1724</v>
+      <c r="B481" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C481" s="185"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B482" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C482" s="185"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B483" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C483" s="185"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B484" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C482" s="185"/>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B483" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C483" s="185"/>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B484" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C484" s="185"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B485" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C485" s="185"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B486" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C486" s="185"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B487" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C485" s="185"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C486" s="185"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C487" s="185"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A488" s="151" t="s">
+      <c r="C488" s="185"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C489" s="185"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A490" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B488" s="151" t="s">
+      <c r="B490" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C488" s="185"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B489" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C489" s="185"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B490" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C490" s="185"/>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B491" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C491" s="185"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B492" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C492" s="185"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B493" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C491" s="185"/>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C492" s="185"/>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C493" s="185"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.5">
@@ -15236,78 +15264,84 @@
     <row r="496" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C496" s="185"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B500" s="151" t="s">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C497" s="185"/>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C498" s="185"/>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B502" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B501" s="191" t="s">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B503" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B502" s="191" t="s">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B504" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="503" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B503" s="152" t="s">
+    <row r="505" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B505" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B505" s="186" t="s">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B507" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="506" spans="2:2" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B506" s="187" t="s">
+    <row r="508" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B508" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B507" s="188" t="s">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B509" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B508" s="189" t="s">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B510" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B509" s="191" t="s">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B511" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B510" s="151" t="s">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B512" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B511" s="186" t="s">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B513" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B512" s="191" t="s">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B514" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B515" s="152" t="s">
+    <row r="517" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B517" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="516" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B516" s="152" t="s">
+    <row r="518" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B518" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B517" s="152" t="s">
+    <row r="519" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B519" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -17535,10 +17569,10 @@
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection pane="bottomLeft" activeCell="S105" sqref="S105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23466,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="120" t="str">
-        <f t="shared" ref="S97:S104" si="33">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" ref="S97:S105" si="33">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (96,3,'CRM','ฝ่ายขาย' ,'OrderSellHisExpBar','ประวัติการขาย (Export)' ,'OrderSellHisExp',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23780,7 +23814,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="120">
-        <f t="shared" ref="B103:B104" si="35">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
+        <f t="shared" ref="B103:B105" si="35">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C103" s="120" t="s">
@@ -23895,6 +23929,67 @@
       <c r="S104" s="120" t="str">
         <f t="shared" si="33"/>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (103,287,'CRM','ฝ่ายขาย' ,'Quotation2Bar','ใบเสนอราคาคู่เทียบ' ,'Quotation2',1 ,1 ,1,1,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="120">
+        <v>104</v>
+      </c>
+      <c r="B105" s="120">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="C105" s="120" t="s">
+        <v>910</v>
+      </c>
+      <c r="D105" s="120" t="s">
+        <v>910</v>
+      </c>
+      <c r="E105" s="120" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F105" s="120" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G105" s="120" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H105" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S105" s="120" t="str">
+        <f t="shared" si="33"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (104,3,'อนุมัติเอกสาร','อนุมัติเอกสาร' ,'NotifyBar','ข้อความแจ้งเตือน' ,'Notify',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -25108,97 +25203,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30352,6 +30447,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30362,12 +30463,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30885,16 +30980,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -30961,10 +31056,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36760,6 +36855,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36769,11 +36869,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37251,98 +37346,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42755,11 +42850,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42771,6 +42861,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1938">
   <si>
     <t>No.</t>
   </si>
@@ -6576,6 +6576,12 @@
   </si>
   <si>
     <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (104,3,'อนุมัติเอกสาร','อนุมัติเอกสาร' ,'NotifyBar','ข้อความแจ้งเตือน' ,'Notify',1 ,1 ,0,0,0,0,0,0,0,0,0);</t>
+  </si>
+  <si>
+    <t>V.1.0.1.19</t>
+  </si>
+  <si>
+    <t>Stockin preview รายการไม่แสดง SN</t>
   </si>
 </sst>
 </file>
@@ -12372,10 +12378,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C519"/>
+  <dimension ref="A1:C521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C477" sqref="C477"/>
+      <selection activeCell="A480" sqref="A480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15171,94 +15177,96 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B479" s="120"/>
-    </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B480" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C480" s="185"/>
+      <c r="A480" s="151" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B480" s="151" t="s">
+        <v>1937</v>
+      </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B481" s="192" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C481" s="185"/>
+      <c r="B481" s="120"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B482" s="192" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C482" s="185"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B483" s="151" t="s">
-        <v>1724</v>
+      <c r="B483" s="192" t="s">
+        <v>1722</v>
       </c>
       <c r="C483" s="185"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B484" s="192" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C484" s="185"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B485" s="151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C485" s="185"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B486" s="192" t="s">
         <v>1733</v>
-      </c>
-      <c r="C484" s="185"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B485" s="192" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C485" s="185"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B486" s="151" t="s">
-        <v>1726</v>
       </c>
       <c r="C486" s="185"/>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B487" s="192" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C487" s="185"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B488" s="151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C488" s="185"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B489" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C487" s="185"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C488" s="185"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C489" s="185"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A490" s="151" t="s">
+      <c r="C490" s="185"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C491" s="185"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A492" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B490" s="151" t="s">
+      <c r="B492" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C490" s="185"/>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B491" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C491" s="185"/>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B492" s="192" t="s">
-        <v>1729</v>
       </c>
       <c r="C492" s="185"/>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B493" s="192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C493" s="185"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B494" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C494" s="185"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B495" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C493" s="185"/>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C494" s="185"/>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C495" s="185"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.5">
@@ -15270,78 +15278,84 @@
     <row r="498" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C498" s="185"/>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B502" s="151" t="s">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C499" s="185"/>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C500" s="185"/>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B504" s="151" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B503" s="191" t="s">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B505" s="191" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B504" s="191" t="s">
+    <row r="506" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B506" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="505" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B505" s="152" t="s">
+    <row r="507" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B507" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B507" s="186" t="s">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B509" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="508" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B508" s="187" t="s">
+    <row r="510" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B510" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B509" s="188" t="s">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B511" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B510" s="189" t="s">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B512" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B511" s="191" t="s">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B513" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B512" s="151" t="s">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B514" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B513" s="186" t="s">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B515" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B514" s="191" t="s">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B516" s="191" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B517" s="152" t="s">
+    <row r="519" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B519" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="518" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B518" s="152" t="s">
+    <row r="520" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B520" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="519" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B519" s="152" t="s">
+    <row r="521" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B521" s="152" t="s">
         <v>1791</v>
       </c>
     </row>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1937">
   <si>
     <t>No.</t>
   </si>
@@ -6576,9 +6576,6 @@
   </si>
   <si>
     <t>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (104,3,'อนุมัติเอกสาร','อนุมัติเอกสาร' ,'NotifyBar','ข้อความแจ้งเตือน' ,'Notify',1 ,1 ,0,0,0,0,0,0,0,0,0);</t>
-  </si>
-  <si>
-    <t>V.1.0.1.19</t>
   </si>
   <si>
     <t>Stockin preview รายการไม่แสดง SN</t>
@@ -7577,15 +7574,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7593,9 +7581,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7609,6 +7594,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8598,7 +8595,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8626,7 +8623,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9319,20 +9316,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10534,6 +10531,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10544,12 +10547,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12378,10 +12375,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C521"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A480" sqref="A480"/>
+    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15177,99 +15174,93 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A480" s="151" t="s">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B479" s="151" t="s">
         <v>1936</v>
       </c>
-      <c r="B480" s="151" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B481" s="120"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B482" s="192" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C482" s="185"/>
+      <c r="B482" s="120"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B483" s="192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C483" s="185"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B484" s="192" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C484" s="185"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B485" s="192" t="s">
         <v>1723</v>
       </c>
-      <c r="C484" s="185"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B485" s="151" t="s">
+      <c r="C485" s="185"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B486" s="151" t="s">
         <v>1724</v>
-      </c>
-      <c r="C485" s="185"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B486" s="192" t="s">
-        <v>1733</v>
       </c>
       <c r="C486" s="185"/>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B487" s="192" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C487" s="185"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B488" s="192" t="s">
         <v>1725</v>
       </c>
-      <c r="C487" s="185"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B488" s="151" t="s">
+      <c r="C488" s="185"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B489" s="151" t="s">
         <v>1726</v>
       </c>
-      <c r="C488" s="185"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B489" s="192" t="s">
+      <c r="C489" s="185"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B490" s="192" t="s">
         <v>1731</v>
       </c>
-      <c r="C489" s="185"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C490" s="185"/>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C491" s="185"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A492" s="151" t="s">
+      <c r="C492" s="185"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A493" s="151" t="s">
         <v>1732</v>
       </c>
-      <c r="B492" s="151" t="s">
+      <c r="B493" s="151" t="s">
         <v>1727</v>
-      </c>
-      <c r="C492" s="185"/>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B493" s="192" t="s">
-        <v>1728</v>
       </c>
       <c r="C493" s="185"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B494" s="192" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C494" s="185"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B495" s="192" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C495" s="185"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B496" s="192" t="s">
         <v>1730</v>
       </c>
-      <c r="C495" s="185"/>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C496" s="185"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.5">
@@ -15284,78 +15275,81 @@
     <row r="500" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C500" s="185"/>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B504" s="151" t="s">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C501" s="185"/>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B505" s="151" t="s">
         <v>1622</v>
-      </c>
-    </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B505" s="191" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B506" s="191" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B507" s="191" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="507" spans="2:3" ht="87" x14ac:dyDescent="0.5">
-      <c r="B507" s="152" t="s">
+    <row r="508" spans="2:3" ht="87" x14ac:dyDescent="0.5">
+      <c r="B508" s="152" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B509" s="186" t="s">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B510" s="186" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="510" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="B510" s="187" t="s">
+    <row r="511" spans="2:3" ht="65.25" x14ac:dyDescent="0.5">
+      <c r="B511" s="187" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B511" s="188" t="s">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B512" s="188" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B512" s="189" t="s">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B513" s="189" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B513" s="191" t="s">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B514" s="191" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B514" s="151" t="s">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B515" s="151" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B515" s="186" t="s">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B516" s="186" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B516" s="191" t="s">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B517" s="191" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="519" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="B519" s="152" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="520" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
       <c r="B520" s="152" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" ht="108.75" x14ac:dyDescent="0.5">
+      <c r="B521" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="521" spans="2:2" ht="87" x14ac:dyDescent="0.5">
-      <c r="B521" s="152" t="s">
+    <row r="522" spans="2:2" ht="87" x14ac:dyDescent="0.5">
+      <c r="B522" s="152" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -25217,97 +25211,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30461,12 +30455,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30477,6 +30465,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30994,16 +30988,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -31070,10 +31064,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36869,11 +36863,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36883,6 +36872,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37360,98 +37354,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42864,6 +42858,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42875,11 +42874,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1939">
   <si>
     <t>No.</t>
   </si>
@@ -6579,6 +6579,12 @@
   </si>
   <si>
     <t>Stockin preview รายการไม่แสดง SN</t>
+  </si>
+  <si>
+    <t>1.0.1.19</t>
+  </si>
+  <si>
+    <t>คีย์สั่งขาย --&gt; สินค้าขาดทำสั่งจอง --&gt; กด เซฟ จอง ---&gt;เมื่อกลับมาดูรายการสินค้าจะหายหมด</t>
   </si>
 </sst>
 </file>
@@ -7574,6 +7580,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7581,6 +7596,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7594,18 +7612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8595,7 +8601,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8623,7 +8629,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="202"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9316,20 +9322,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="205" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10531,12 +10537,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10547,6 +10547,12 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12378,7 +12384,7 @@
   <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A476" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+      <selection activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15177,6 +15183,14 @@
     <row r="479" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B479" s="151" t="s">
         <v>1936</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A481" s="151" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B481" s="151" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.5">
@@ -25211,97 +25225,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="201" t="s">
+      <c r="B2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="198" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="198" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="198" t="s">
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="205" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="205" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="205" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="206"/>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="206"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="207"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="207"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="200"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30455,6 +30469,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30465,12 +30485,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -30988,16 +31002,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -31064,10 +31078,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36863,6 +36877,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36872,11 +36891,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37354,98 +37368,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="201" t="s">
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="201" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="198" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="201" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="198" t="s">
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="201" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="205" t="s">
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="198" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="205" t="s">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="198" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="206"/>
-      <c r="AK2" s="206"/>
-      <c r="AL2" s="207"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="198" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="206"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="207"/>
-      <c r="AQ2" s="205" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="198" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="206"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="198" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="198" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="207"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42858,11 +42872,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42874,6 +42883,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -58,7 +58,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Menu!$A$1:$R$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1941">
   <si>
     <t>No.</t>
   </si>
@@ -6585,6 +6585,12 @@
   </si>
   <si>
     <t>คีย์สั่งขาย --&gt; สินค้าขาดทำสั่งจอง --&gt; กด เซฟ จอง ---&gt;เมื่อกลับมาดูรายการสินค้าจะหายหมด</t>
+  </si>
+  <si>
+    <t>1.0.1.20</t>
+  </si>
+  <si>
+    <t>ทำใบเพิ่มหนี้/ลดหนี้ โดยดึงจากใบกำกับภาษี ใบส่งของ ไม่ต้องปรับสถานะ</t>
   </si>
 </sst>
 </file>
@@ -7580,15 +7586,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7596,9 +7593,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7612,6 +7606,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8601,7 +8607,7 @@
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8629,7 +8635,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9322,20 +9328,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -10537,6 +10543,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10547,12 +10559,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12383,8 +12389,8 @@
   </sheetPr>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B481" sqref="B481"/>
+    <sheetView tabSelected="1" topLeftCell="A479" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -15245,6 +15251,12 @@
       <c r="C490" s="185"/>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A491" s="151" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B491" s="151" t="s">
+        <v>1940</v>
+      </c>
       <c r="C491" s="185"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.5">
@@ -25225,97 +25237,97 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30469,12 +30481,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30485,6 +30491,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -31002,16 +31014,16 @@
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
       <c r="G2" s="209" t="s">
@@ -31078,10 +31090,10 @@
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -36877,11 +36889,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
@@ -36891,6 +36898,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>
@@ -37368,98 +37380,98 @@
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="201" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="201" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="201" t="s">
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="198" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="198" t="s">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="198" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="198" t="s">
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="200"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="207"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="80">
         <v>1</v>
       </c>
@@ -42872,6 +42884,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="AY2:BB2"/>
@@ -42883,11 +42900,6 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E84" location="ลูกค้า!A1" display="ลูกค้า!A1"/>

--- a/_Doc/Feature.xlsx
+++ b/_Doc/Feature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ubproject\_Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\ubproject\_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB152E-D149-43A4-AC9E-BFA64CF5A812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D99A891-01C2-49A9-A258-3F4B0B3D3483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1092" windowWidth="19080" windowHeight="6408" tabRatio="884" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1095" windowWidth="19080" windowHeight="6405" tabRatio="884" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="46" state="hidden" r:id="rId1"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1944">
   <si>
     <t>No.</t>
   </si>
@@ -6452,15 +6452,6 @@
     <t>Quotation2</t>
   </si>
   <si>
-    <t>ClaimRemark</t>
-  </si>
-  <si>
-    <t>LayoutStockType2</t>
-  </si>
-  <si>
-    <t>LayoutClaimResult</t>
-  </si>
-  <si>
     <t>alter table Orders add ClaimRemark  nvarchar(100) ;</t>
   </si>
   <si>
@@ -6606,6 +6597,15 @@
   </si>
   <si>
     <t>ReceiptHis</t>
+  </si>
+  <si>
+    <t>BankAccountRecordBar</t>
+  </si>
+  <si>
+    <t>BankAccountRecord</t>
+  </si>
+  <si>
+    <t>บันทึกยอดธนาคาร</t>
   </si>
 </sst>
 </file>
@@ -7601,15 +7601,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7617,9 +7608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7633,6 +7621,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8116,52 +8116,52 @@
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="96.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="15.6">
+    <row r="3" spans="2:2" ht="15.75">
       <c r="B3" s="169" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.6">
+    <row r="4" spans="2:2" ht="15.75">
       <c r="B4" s="169" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.6">
+    <row r="5" spans="2:2" ht="15.75">
       <c r="B5" s="169" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6">
+    <row r="6" spans="2:2" ht="15.75">
       <c r="B6" s="170" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.6">
+    <row r="7" spans="2:2" ht="15.75">
       <c r="B7" s="170" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.6">
+    <row r="8" spans="2:2" ht="15.75">
       <c r="B8" s="170" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.6">
+    <row r="9" spans="2:2" ht="15.75">
       <c r="B9" s="171" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.6">
+    <row r="10" spans="2:2" ht="15.75">
       <c r="B10" s="171" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.6">
+    <row r="11" spans="2:2" ht="15.75">
       <c r="B11" s="172" t="s">
         <v>1262</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="28.8">
+    <row r="50" spans="2:2" ht="45">
       <c r="B50" s="182" t="s">
         <v>1321</v>
       </c>
@@ -8341,12 +8341,12 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="28.8">
+    <row r="55" spans="2:2" ht="30">
       <c r="B55" s="121" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="28.8">
+    <row r="57" spans="2:2" ht="30">
       <c r="B57" s="121" t="s">
         <v>1328</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="28.8">
+    <row r="70" spans="2:2" ht="30">
       <c r="B70" s="184" t="s">
         <v>1337</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="28.8">
+    <row r="89" spans="2:2" ht="30">
       <c r="B89" s="121" t="s">
         <v>1385</v>
       </c>
@@ -8525,144 +8525,144 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="71"/>
-    <col min="2" max="2" width="31.5546875" style="55" customWidth="1"/>
-    <col min="3" max="16" width="5.88671875" style="55" customWidth="1"/>
-    <col min="258" max="258" width="31.5546875" customWidth="1"/>
-    <col min="259" max="272" width="5.88671875" customWidth="1"/>
-    <col min="514" max="514" width="31.5546875" customWidth="1"/>
-    <col min="515" max="528" width="5.88671875" customWidth="1"/>
-    <col min="770" max="770" width="31.5546875" customWidth="1"/>
-    <col min="771" max="784" width="5.88671875" customWidth="1"/>
-    <col min="1026" max="1026" width="31.5546875" customWidth="1"/>
-    <col min="1027" max="1040" width="5.88671875" customWidth="1"/>
-    <col min="1282" max="1282" width="31.5546875" customWidth="1"/>
-    <col min="1283" max="1296" width="5.88671875" customWidth="1"/>
-    <col min="1538" max="1538" width="31.5546875" customWidth="1"/>
-    <col min="1539" max="1552" width="5.88671875" customWidth="1"/>
-    <col min="1794" max="1794" width="31.5546875" customWidth="1"/>
-    <col min="1795" max="1808" width="5.88671875" customWidth="1"/>
-    <col min="2050" max="2050" width="31.5546875" customWidth="1"/>
-    <col min="2051" max="2064" width="5.88671875" customWidth="1"/>
-    <col min="2306" max="2306" width="31.5546875" customWidth="1"/>
-    <col min="2307" max="2320" width="5.88671875" customWidth="1"/>
-    <col min="2562" max="2562" width="31.5546875" customWidth="1"/>
-    <col min="2563" max="2576" width="5.88671875" customWidth="1"/>
-    <col min="2818" max="2818" width="31.5546875" customWidth="1"/>
-    <col min="2819" max="2832" width="5.88671875" customWidth="1"/>
-    <col min="3074" max="3074" width="31.5546875" customWidth="1"/>
-    <col min="3075" max="3088" width="5.88671875" customWidth="1"/>
-    <col min="3330" max="3330" width="31.5546875" customWidth="1"/>
-    <col min="3331" max="3344" width="5.88671875" customWidth="1"/>
-    <col min="3586" max="3586" width="31.5546875" customWidth="1"/>
-    <col min="3587" max="3600" width="5.88671875" customWidth="1"/>
-    <col min="3842" max="3842" width="31.5546875" customWidth="1"/>
-    <col min="3843" max="3856" width="5.88671875" customWidth="1"/>
-    <col min="4098" max="4098" width="31.5546875" customWidth="1"/>
-    <col min="4099" max="4112" width="5.88671875" customWidth="1"/>
-    <col min="4354" max="4354" width="31.5546875" customWidth="1"/>
-    <col min="4355" max="4368" width="5.88671875" customWidth="1"/>
-    <col min="4610" max="4610" width="31.5546875" customWidth="1"/>
-    <col min="4611" max="4624" width="5.88671875" customWidth="1"/>
-    <col min="4866" max="4866" width="31.5546875" customWidth="1"/>
-    <col min="4867" max="4880" width="5.88671875" customWidth="1"/>
-    <col min="5122" max="5122" width="31.5546875" customWidth="1"/>
-    <col min="5123" max="5136" width="5.88671875" customWidth="1"/>
-    <col min="5378" max="5378" width="31.5546875" customWidth="1"/>
-    <col min="5379" max="5392" width="5.88671875" customWidth="1"/>
-    <col min="5634" max="5634" width="31.5546875" customWidth="1"/>
-    <col min="5635" max="5648" width="5.88671875" customWidth="1"/>
-    <col min="5890" max="5890" width="31.5546875" customWidth="1"/>
-    <col min="5891" max="5904" width="5.88671875" customWidth="1"/>
-    <col min="6146" max="6146" width="31.5546875" customWidth="1"/>
-    <col min="6147" max="6160" width="5.88671875" customWidth="1"/>
-    <col min="6402" max="6402" width="31.5546875" customWidth="1"/>
-    <col min="6403" max="6416" width="5.88671875" customWidth="1"/>
-    <col min="6658" max="6658" width="31.5546875" customWidth="1"/>
-    <col min="6659" max="6672" width="5.88671875" customWidth="1"/>
-    <col min="6914" max="6914" width="31.5546875" customWidth="1"/>
-    <col min="6915" max="6928" width="5.88671875" customWidth="1"/>
-    <col min="7170" max="7170" width="31.5546875" customWidth="1"/>
-    <col min="7171" max="7184" width="5.88671875" customWidth="1"/>
-    <col min="7426" max="7426" width="31.5546875" customWidth="1"/>
-    <col min="7427" max="7440" width="5.88671875" customWidth="1"/>
-    <col min="7682" max="7682" width="31.5546875" customWidth="1"/>
-    <col min="7683" max="7696" width="5.88671875" customWidth="1"/>
-    <col min="7938" max="7938" width="31.5546875" customWidth="1"/>
-    <col min="7939" max="7952" width="5.88671875" customWidth="1"/>
-    <col min="8194" max="8194" width="31.5546875" customWidth="1"/>
-    <col min="8195" max="8208" width="5.88671875" customWidth="1"/>
-    <col min="8450" max="8450" width="31.5546875" customWidth="1"/>
-    <col min="8451" max="8464" width="5.88671875" customWidth="1"/>
-    <col min="8706" max="8706" width="31.5546875" customWidth="1"/>
-    <col min="8707" max="8720" width="5.88671875" customWidth="1"/>
-    <col min="8962" max="8962" width="31.5546875" customWidth="1"/>
-    <col min="8963" max="8976" width="5.88671875" customWidth="1"/>
-    <col min="9218" max="9218" width="31.5546875" customWidth="1"/>
-    <col min="9219" max="9232" width="5.88671875" customWidth="1"/>
-    <col min="9474" max="9474" width="31.5546875" customWidth="1"/>
-    <col min="9475" max="9488" width="5.88671875" customWidth="1"/>
-    <col min="9730" max="9730" width="31.5546875" customWidth="1"/>
-    <col min="9731" max="9744" width="5.88671875" customWidth="1"/>
-    <col min="9986" max="9986" width="31.5546875" customWidth="1"/>
-    <col min="9987" max="10000" width="5.88671875" customWidth="1"/>
-    <col min="10242" max="10242" width="31.5546875" customWidth="1"/>
-    <col min="10243" max="10256" width="5.88671875" customWidth="1"/>
-    <col min="10498" max="10498" width="31.5546875" customWidth="1"/>
-    <col min="10499" max="10512" width="5.88671875" customWidth="1"/>
-    <col min="10754" max="10754" width="31.5546875" customWidth="1"/>
-    <col min="10755" max="10768" width="5.88671875" customWidth="1"/>
-    <col min="11010" max="11010" width="31.5546875" customWidth="1"/>
-    <col min="11011" max="11024" width="5.88671875" customWidth="1"/>
-    <col min="11266" max="11266" width="31.5546875" customWidth="1"/>
-    <col min="11267" max="11280" width="5.88671875" customWidth="1"/>
-    <col min="11522" max="11522" width="31.5546875" customWidth="1"/>
-    <col min="11523" max="11536" width="5.88671875" customWidth="1"/>
-    <col min="11778" max="11778" width="31.5546875" customWidth="1"/>
-    <col min="11779" max="11792" width="5.88671875" customWidth="1"/>
-    <col min="12034" max="12034" width="31.5546875" customWidth="1"/>
-    <col min="12035" max="12048" width="5.88671875" customWidth="1"/>
-    <col min="12290" max="12290" width="31.5546875" customWidth="1"/>
-    <col min="12291" max="12304" width="5.88671875" customWidth="1"/>
-    <col min="12546" max="12546" width="31.5546875" customWidth="1"/>
-    <col min="12547" max="12560" width="5.88671875" customWidth="1"/>
-    <col min="12802" max="12802" width="31.5546875" customWidth="1"/>
-    <col min="12803" max="12816" width="5.88671875" customWidth="1"/>
-    <col min="13058" max="13058" width="31.5546875" customWidth="1"/>
-    <col min="13059" max="13072" width="5.88671875" customWidth="1"/>
-    <col min="13314" max="13314" width="31.5546875" customWidth="1"/>
-    <col min="13315" max="13328" width="5.88671875" customWidth="1"/>
-    <col min="13570" max="13570" width="31.5546875" customWidth="1"/>
-    <col min="13571" max="13584" width="5.88671875" customWidth="1"/>
-    <col min="13826" max="13826" width="31.5546875" customWidth="1"/>
-    <col min="13827" max="13840" width="5.88671875" customWidth="1"/>
-    <col min="14082" max="14082" width="31.5546875" customWidth="1"/>
-    <col min="14083" max="14096" width="5.88671875" customWidth="1"/>
-    <col min="14338" max="14338" width="31.5546875" customWidth="1"/>
-    <col min="14339" max="14352" width="5.88671875" customWidth="1"/>
-    <col min="14594" max="14594" width="31.5546875" customWidth="1"/>
-    <col min="14595" max="14608" width="5.88671875" customWidth="1"/>
-    <col min="14850" max="14850" width="31.5546875" customWidth="1"/>
-    <col min="14851" max="14864" width="5.88671875" customWidth="1"/>
-    <col min="15106" max="15106" width="31.5546875" customWidth="1"/>
-    <col min="15107" max="15120" width="5.88671875" customWidth="1"/>
-    <col min="15362" max="15362" width="31.5546875" customWidth="1"/>
-    <col min="15363" max="15376" width="5.88671875" customWidth="1"/>
-    <col min="15618" max="15618" width="31.5546875" customWidth="1"/>
-    <col min="15619" max="15632" width="5.88671875" customWidth="1"/>
-    <col min="15874" max="15874" width="31.5546875" customWidth="1"/>
-    <col min="15875" max="15888" width="5.88671875" customWidth="1"/>
-    <col min="16130" max="16130" width="31.5546875" customWidth="1"/>
-    <col min="16131" max="16144" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="71"/>
+    <col min="2" max="2" width="31.5703125" style="55" customWidth="1"/>
+    <col min="3" max="16" width="5.85546875" style="55" customWidth="1"/>
+    <col min="258" max="258" width="31.5703125" customWidth="1"/>
+    <col min="259" max="272" width="5.85546875" customWidth="1"/>
+    <col min="514" max="514" width="31.5703125" customWidth="1"/>
+    <col min="515" max="528" width="5.85546875" customWidth="1"/>
+    <col min="770" max="770" width="31.5703125" customWidth="1"/>
+    <col min="771" max="784" width="5.85546875" customWidth="1"/>
+    <col min="1026" max="1026" width="31.5703125" customWidth="1"/>
+    <col min="1027" max="1040" width="5.85546875" customWidth="1"/>
+    <col min="1282" max="1282" width="31.5703125" customWidth="1"/>
+    <col min="1283" max="1296" width="5.85546875" customWidth="1"/>
+    <col min="1538" max="1538" width="31.5703125" customWidth="1"/>
+    <col min="1539" max="1552" width="5.85546875" customWidth="1"/>
+    <col min="1794" max="1794" width="31.5703125" customWidth="1"/>
+    <col min="1795" max="1808" width="5.85546875" customWidth="1"/>
+    <col min="2050" max="2050" width="31.5703125" customWidth="1"/>
+    <col min="2051" max="2064" width="5.85546875" customWidth="1"/>
+    <col min="2306" max="2306" width="31.5703125" customWidth="1"/>
+    <col min="2307" max="2320" width="5.85546875" customWidth="1"/>
+    <col min="2562" max="2562" width="31.5703125" customWidth="1"/>
+    <col min="2563" max="2576" width="5.85546875" customWidth="1"/>
+    <col min="2818" max="2818" width="31.5703125" customWidth="1"/>
+    <col min="2819" max="2832" width="5.85546875" customWidth="1"/>
+    <col min="3074" max="3074" width="31.5703125" customWidth="1"/>
+    <col min="3075" max="3088" width="5.85546875" customWidth="1"/>
+    <col min="3330" max="3330" width="31.5703125" customWidth="1"/>
+    <col min="3331" max="3344" width="5.85546875" customWidth="1"/>
+    <col min="3586" max="3586" width="31.5703125" customWidth="1"/>
+    <col min="3587" max="3600" width="5.85546875" customWidth="1"/>
+    <col min="3842" max="3842" width="31.5703125" customWidth="1"/>
+    <col min="3843" max="3856" width="5.85546875" customWidth="1"/>
+    <col min="4098" max="4098" width="31.5703125" customWidth="1"/>
+    <col min="4099" max="4112" width="5.85546875" customWidth="1"/>
+    <col min="4354" max="4354" width="31.5703125" customWidth="1"/>
+    <col min="4355" max="4368" width="5.85546875" customWidth="1"/>
+    <col min="4610" max="4610" width="31.5703125" customWidth="1"/>
+    <col min="4611" max="4624" width="5.85546875" customWidth="1"/>
+    <col min="4866" max="4866" width="31.5703125" customWidth="1"/>
+    <col min="4867" max="4880" width="5.85546875" customWidth="1"/>
+    <col min="5122" max="5122" width="31.5703125" customWidth="1"/>
+    <col min="5123" max="5136" width="5.85546875" customWidth="1"/>
+    <col min="5378" max="5378" width="31.5703125" customWidth="1"/>
+    <col min="5379" max="5392" width="5.85546875" customWidth="1"/>
+    <col min="5634" max="5634" width="31.5703125" customWidth="1"/>
+    <col min="5635" max="5648" width="5.85546875" customWidth="1"/>
+    <col min="5890" max="5890" width="31.5703125" customWidth="1"/>
+    <col min="5891" max="5904" width="5.85546875" customWidth="1"/>
+    <col min="6146" max="6146" width="31.5703125" customWidth="1"/>
+    <col min="6147" max="6160" width="5.85546875" customWidth="1"/>
+    <col min="6402" max="6402" width="31.5703125" customWidth="1"/>
+    <col min="6403" max="6416" width="5.85546875" customWidth="1"/>
+    <col min="6658" max="6658" width="31.5703125" customWidth="1"/>
+    <col min="6659" max="6672" width="5.85546875" customWidth="1"/>
+    <col min="6914" max="6914" width="31.5703125" customWidth="1"/>
+    <col min="6915" max="6928" width="5.85546875" customWidth="1"/>
+    <col min="7170" max="7170" width="31.5703125" customWidth="1"/>
+    <col min="7171" max="7184" width="5.85546875" customWidth="1"/>
+    <col min="7426" max="7426" width="31.5703125" customWidth="1"/>
+    <col min="7427" max="7440" width="5.85546875" customWidth="1"/>
+    <col min="7682" max="7682" width="31.5703125" customWidth="1"/>
+    <col min="7683" max="7696" width="5.85546875" customWidth="1"/>
+    <col min="7938" max="7938" width="31.5703125" customWidth="1"/>
+    <col min="7939" max="7952" width="5.85546875" customWidth="1"/>
+    <col min="8194" max="8194" width="31.5703125" customWidth="1"/>
+    <col min="8195" max="8208" width="5.85546875" customWidth="1"/>
+    <col min="8450" max="8450" width="31.5703125" customWidth="1"/>
+    <col min="8451" max="8464" width="5.85546875" customWidth="1"/>
+    <col min="8706" max="8706" width="31.5703125" customWidth="1"/>
+    <col min="8707" max="8720" width="5.85546875" customWidth="1"/>
+    <col min="8962" max="8962" width="31.5703125" customWidth="1"/>
+    <col min="8963" max="8976" width="5.85546875" customWidth="1"/>
+    <col min="9218" max="9218" width="31.5703125" customWidth="1"/>
+    <col min="9219" max="9232" width="5.85546875" customWidth="1"/>
+    <col min="9474" max="9474" width="31.5703125" customWidth="1"/>
+    <col min="9475" max="9488" width="5.85546875" customWidth="1"/>
+    <col min="9730" max="9730" width="31.5703125" customWidth="1"/>
+    <col min="9731" max="9744" width="5.85546875" customWidth="1"/>
+    <col min="9986" max="9986" width="31.5703125" customWidth="1"/>
+    <col min="9987" max="10000" width="5.85546875" customWidth="1"/>
+    <col min="10242" max="10242" width="31.5703125" customWidth="1"/>
+    <col min="10243" max="10256" width="5.85546875" customWidth="1"/>
+    <col min="10498" max="10498" width="31.5703125" customWidth="1"/>
+    <col min="10499" max="10512" width="5.85546875" customWidth="1"/>
+    <col min="10754" max="10754" width="31.5703125" customWidth="1"/>
+    <col min="10755" max="10768" width="5.85546875" customWidth="1"/>
+    <col min="11010" max="11010" width="31.5703125" customWidth="1"/>
+    <col min="11011" max="11024" width="5.85546875" customWidth="1"/>
+    <col min="11266" max="11266" width="31.5703125" customWidth="1"/>
+    <col min="11267" max="11280" width="5.85546875" customWidth="1"/>
+    <col min="11522" max="11522" width="31.5703125" customWidth="1"/>
+    <col min="11523" max="11536" width="5.85546875" customWidth="1"/>
+    <col min="11778" max="11778" width="31.5703125" customWidth="1"/>
+    <col min="11779" max="11792" width="5.85546875" customWidth="1"/>
+    <col min="12034" max="12034" width="31.5703125" customWidth="1"/>
+    <col min="12035" max="12048" width="5.85546875" customWidth="1"/>
+    <col min="12290" max="12290" width="31.5703125" customWidth="1"/>
+    <col min="12291" max="12304" width="5.85546875" customWidth="1"/>
+    <col min="12546" max="12546" width="31.5703125" customWidth="1"/>
+    <col min="12547" max="12560" width="5.85546875" customWidth="1"/>
+    <col min="12802" max="12802" width="31.5703125" customWidth="1"/>
+    <col min="12803" max="12816" width="5.85546875" customWidth="1"/>
+    <col min="13058" max="13058" width="31.5703125" customWidth="1"/>
+    <col min="13059" max="13072" width="5.85546875" customWidth="1"/>
+    <col min="13314" max="13314" width="31.5703125" customWidth="1"/>
+    <col min="13315" max="13328" width="5.85546875" customWidth="1"/>
+    <col min="13570" max="13570" width="31.5703125" customWidth="1"/>
+    <col min="13571" max="13584" width="5.85546875" customWidth="1"/>
+    <col min="13826" max="13826" width="31.5703125" customWidth="1"/>
+    <col min="13827" max="13840" width="5.85546875" customWidth="1"/>
+    <col min="14082" max="14082" width="31.5703125" customWidth="1"/>
+    <col min="14083" max="14096" width="5.85546875" customWidth="1"/>
+    <col min="14338" max="14338" width="31.5703125" customWidth="1"/>
+    <col min="14339" max="14352" width="5.85546875" customWidth="1"/>
+    <col min="14594" max="14594" width="31.5703125" customWidth="1"/>
+    <col min="14595" max="14608" width="5.85546875" customWidth="1"/>
+    <col min="14850" max="14850" width="31.5703125" customWidth="1"/>
+    <col min="14851" max="14864" width="5.85546875" customWidth="1"/>
+    <col min="15106" max="15106" width="31.5703125" customWidth="1"/>
+    <col min="15107" max="15120" width="5.85546875" customWidth="1"/>
+    <col min="15362" max="15362" width="31.5703125" customWidth="1"/>
+    <col min="15363" max="15376" width="5.85546875" customWidth="1"/>
+    <col min="15618" max="15618" width="31.5703125" customWidth="1"/>
+    <col min="15619" max="15632" width="5.85546875" customWidth="1"/>
+    <col min="15874" max="15874" width="31.5703125" customWidth="1"/>
+    <col min="15875" max="15888" width="5.85546875" customWidth="1"/>
+    <col min="16130" max="16130" width="31.5703125" customWidth="1"/>
+    <col min="16131" max="16144" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="217" t="s">
@@ -8690,7 +8690,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="216"/>
-      <c r="B2" s="206"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -9371,11 +9371,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="12"/>
-    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9383,20 +9383,20 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="201" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
@@ -10215,102 +10215,102 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="165.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="165.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="21">
+    <row r="2" spans="1:2" ht="21.75">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42">
+    <row r="3" spans="1:2" ht="43.5">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21">
+    <row r="4" spans="1:2" ht="21.75">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21">
+    <row r="5" spans="1:2" ht="21.75">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21">
+    <row r="6" spans="1:2" ht="21.75">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21">
+    <row r="7" spans="1:2" ht="21.75">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21">
+    <row r="8" spans="1:2" ht="21.75">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21">
+    <row r="9" spans="1:2" ht="21.75">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21">
+    <row r="10" spans="1:2" ht="21.75">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="21">
+    <row r="11" spans="1:2" ht="21.75">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21">
+    <row r="12" spans="1:2" ht="21.75">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="21">
+    <row r="13" spans="1:2" ht="21.75">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21">
+    <row r="14" spans="1:2" ht="21.75">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="21">
+    <row r="15" spans="1:2" ht="21.75">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21">
+    <row r="16" spans="1:2" ht="21.75">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="42">
+    <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>129</v>
@@ -10340,264 +10340,270 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="139" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="129" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="129" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="18.600000000000001">
+    <row r="17" spans="2:3" ht="18.75">
       <c r="B17" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="18.600000000000001">
+    <row r="18" spans="2:3" ht="18.75">
       <c r="B18" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="18.600000000000001">
+    <row r="19" spans="2:3" ht="18.75">
       <c r="B19" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="18.600000000000001">
+    <row r="20" spans="2:3" ht="18.75">
       <c r="B20" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="18.600000000000001">
+    <row r="21" spans="2:3" ht="18.75">
       <c r="B21" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="18.600000000000001">
+    <row r="22" spans="2:3" ht="18.75">
       <c r="B22" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="18.600000000000001">
+    <row r="23" spans="2:3" ht="18.75">
       <c r="B23" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="18.600000000000001">
+    <row r="24" spans="2:3" ht="18.75">
       <c r="B24" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="18.600000000000001">
+    <row r="25" spans="2:3" ht="18.75">
       <c r="B25" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="18.600000000000001">
+    <row r="26" spans="2:3" ht="18.75">
       <c r="B26" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="18.600000000000001">
+    <row r="27" spans="2:3" ht="18.75">
       <c r="B27" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="18.600000000000001">
+    <row r="28" spans="2:3" ht="18.75">
       <c r="B28" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="18.600000000000001">
+    <row r="29" spans="2:3" ht="18.75">
       <c r="B29" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="18.600000000000001">
+    <row r="30" spans="2:3" ht="18.75">
       <c r="B30" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="18.600000000000001">
+    <row r="31" spans="2:3" ht="18.75">
       <c r="B31" s="218" t="s">
         <v>162</v>
       </c>
       <c r="C31" s="218"/>
     </row>
-    <row r="32" spans="2:3" ht="18.600000000000001">
+    <row r="32" spans="2:3" ht="18.75">
       <c r="B32" s="218" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="218"/>
     </row>
-    <row r="33" spans="2:3" ht="18.600000000000001">
+    <row r="33" spans="2:3" ht="18.75">
       <c r="B33" s="218" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="218"/>
     </row>
-    <row r="34" spans="2:3" ht="18.600000000000001">
+    <row r="34" spans="2:3" ht="18.75">
       <c r="B34" s="218" t="s">
         <v>165</v>
       </c>
       <c r="C34" s="218"/>
     </row>
-    <row r="35" spans="2:3" ht="18.600000000000001">
+    <row r="35" spans="2:3" ht="18.75">
       <c r="B35" s="218" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="218"/>
     </row>
-    <row r="36" spans="2:3" ht="18.600000000000001">
+    <row r="36" spans="2:3" ht="18.75">
       <c r="B36" s="218" t="s">
         <v>167</v>
       </c>
       <c r="C36" s="218"/>
     </row>
-    <row r="37" spans="2:3" ht="18.600000000000001">
+    <row r="37" spans="2:3" ht="18.75">
       <c r="B37" s="218" t="s">
         <v>168</v>
       </c>
       <c r="C37" s="218"/>
     </row>
-    <row r="38" spans="2:3" ht="18.600000000000001">
+    <row r="38" spans="2:3" ht="18.75">
       <c r="B38" s="218" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="218"/>
     </row>
-    <row r="39" spans="2:3" ht="18.600000000000001">
+    <row r="39" spans="2:3" ht="18.75">
       <c r="B39" s="218" t="s">
         <v>170</v>
       </c>
       <c r="C39" s="218"/>
     </row>
-    <row r="40" spans="2:3" ht="18.600000000000001">
+    <row r="40" spans="2:3" ht="18.75">
       <c r="B40" s="218" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="218"/>
     </row>
-    <row r="41" spans="2:3" ht="18.600000000000001">
+    <row r="41" spans="2:3" ht="18.75">
       <c r="B41" s="218" t="s">
         <v>172</v>
       </c>
       <c r="C41" s="218"/>
     </row>
-    <row r="42" spans="2:3" ht="18.600000000000001">
+    <row r="42" spans="2:3" ht="18.75">
       <c r="B42" s="218" t="s">
         <v>173</v>
       </c>
       <c r="C42" s="218"/>
     </row>
-    <row r="43" spans="2:3" ht="18.600000000000001">
+    <row r="43" spans="2:3" ht="18.75">
       <c r="B43" s="218" t="s">
         <v>174</v>
       </c>
       <c r="C43" s="218"/>
     </row>
-    <row r="44" spans="2:3" ht="18.600000000000001">
+    <row r="44" spans="2:3" ht="18.75">
       <c r="B44" s="218" t="s">
         <v>175</v>
       </c>
       <c r="C44" s="218"/>
     </row>
-    <row r="45" spans="2:3" ht="18.600000000000001">
+    <row r="45" spans="2:3" ht="18.75">
       <c r="B45" s="218" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="218"/>
     </row>
-    <row r="46" spans="2:3" ht="18.600000000000001">
+    <row r="46" spans="2:3" ht="18.75">
       <c r="B46" s="218" t="s">
         <v>177</v>
       </c>
       <c r="C46" s="218"/>
     </row>
-    <row r="47" spans="2:3" ht="18.600000000000001">
+    <row r="47" spans="2:3" ht="18.75">
       <c r="B47" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="18.600000000000001">
+    <row r="48" spans="2:3" ht="18.75">
       <c r="B48" s="20" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -10608,12 +10614,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10631,87 +10631,87 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="92.5546875" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="141" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="141" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="141" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>191</v>
       </c>
@@ -10733,14 +10733,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="124"/>
-    <col min="2" max="2" width="68.6640625" style="121" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="124"/>
+    <col min="2" max="2" width="68.7109375" style="121" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="37.200000000000003">
+    <row r="2" spans="1:3" ht="37.5">
       <c r="B2" s="130" t="s">
         <v>816</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.600000000000001">
+    <row r="3" spans="1:3" ht="18.75">
       <c r="B3" s="129" t="s">
         <v>203</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.600000000000001">
+    <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="124" t="s">
         <v>804</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.600000000000001">
+    <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="124" t="s">
         <v>803</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.600000000000001">
+    <row r="6" spans="1:3" ht="18.75">
       <c r="B6" s="128" t="s">
         <v>206</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.600000000000001">
+    <row r="7" spans="1:3" ht="18.75">
       <c r="B7" s="128" t="s">
         <v>815</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.600000000000001">
+    <row r="8" spans="1:3" ht="18.75">
       <c r="B8" s="129" t="s">
         <v>207</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.600000000000001">
+    <row r="9" spans="1:3" ht="18.75">
       <c r="B9" s="129" t="s">
         <v>208</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.600000000000001">
+    <row r="10" spans="1:3" ht="18.75">
       <c r="B10" s="122" t="s">
         <v>209</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.600000000000001">
+    <row r="11" spans="1:3" ht="18.75">
       <c r="B11" s="123" t="s">
         <v>210</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.600000000000001">
+    <row r="12" spans="1:3" ht="18.75">
       <c r="B12" s="122" t="s">
         <v>211</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.600000000000001">
+    <row r="13" spans="1:3" ht="18.75">
       <c r="B13" s="122" t="s">
         <v>212</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.600000000000001">
+    <row r="14" spans="1:3" ht="18.75">
       <c r="B14" s="122" t="s">
         <v>213</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.600000000000001">
+    <row r="15" spans="1:3" ht="18.75">
       <c r="B15" s="122" t="s">
         <v>214</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.600000000000001">
+    <row r="16" spans="1:3" ht="18.75">
       <c r="B16" s="122" t="s">
         <v>215</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="18.600000000000001">
+    <row r="17" spans="2:3" ht="18.75">
       <c r="B17" s="129" t="s">
         <v>216</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="18.600000000000001">
+    <row r="18" spans="2:3" ht="18.75">
       <c r="B18" s="122" t="s">
         <v>217</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="18.600000000000001">
+    <row r="19" spans="2:3" ht="18.75">
       <c r="B19" s="122" t="s">
         <v>218</v>
       </c>
@@ -10890,32 +10890,32 @@
         <v>798</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="18.600000000000001">
+    <row r="20" spans="2:3" ht="18.75">
       <c r="B20" s="122" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="37.200000000000003">
+    <row r="21" spans="2:3" ht="37.5">
       <c r="B21" s="122" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="18.600000000000001">
+    <row r="22" spans="2:3" ht="18.75">
       <c r="B22" s="122" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="18.600000000000001">
+    <row r="23" spans="2:3" ht="18.75">
       <c r="B23" s="122" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="18.600000000000001">
+    <row r="24" spans="2:3" ht="18.75">
       <c r="B24" s="122" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="18.600000000000001">
+    <row r="25" spans="2:3" ht="18.75">
       <c r="B25" s="122" t="s">
         <v>224</v>
       </c>
@@ -10950,52 +10950,52 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="130.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>201</v>
       </c>
@@ -11016,17 +11016,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="115.44140625" customWidth="1"/>
+    <col min="2" max="2" width="115.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>227</v>
       </c>
@@ -11047,72 +11047,72 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="115.109375" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>241</v>
       </c>
@@ -11133,62 +11133,62 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>252</v>
       </c>
@@ -11206,9 +11206,9 @@
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="151.6640625" customWidth="1"/>
+    <col min="1" max="1" width="151.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11231,7 +11231,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.6">
+    <row r="5" spans="1:1" ht="28.5">
       <c r="A5" s="156" t="s">
         <v>1033</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="27.6">
+    <row r="16" spans="1:1" ht="28.5">
       <c r="A16" s="156" t="s">
         <v>1041</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="28.5">
       <c r="A21" s="160" t="s">
         <v>1086</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="28.8">
+    <row r="70" spans="1:1" ht="30">
       <c r="A70" s="165" t="s">
         <v>1198</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="100.8">
+    <row r="120" spans="1:1" ht="105">
       <c r="A120" s="121" t="s">
         <v>1588</v>
       </c>
@@ -11729,82 +11729,82 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="81.88671875" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="143" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>251</v>
       </c>
@@ -11826,137 +11826,137 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18.600000000000001">
+    <row r="21" spans="2:2" ht="18.75">
       <c r="B21" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18.600000000000001">
+    <row r="22" spans="2:2" ht="18.75">
       <c r="B22" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18.600000000000001">
+    <row r="23" spans="2:2" ht="18.75">
       <c r="B23" s="19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18.600000000000001">
+    <row r="24" spans="2:2" ht="18.75">
       <c r="B24" s="19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18.600000000000001">
+    <row r="25" spans="2:2" ht="18.75">
       <c r="B25" s="19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18.600000000000001">
+    <row r="26" spans="2:2" ht="18.75">
       <c r="B26" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="18.600000000000001">
+    <row r="27" spans="2:2" ht="18.75">
       <c r="B27" s="19" t="s">
         <v>293</v>
       </c>
@@ -11977,62 +11977,62 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="79.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>305</v>
       </c>
@@ -12051,107 +12051,107 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.399999999999999">
+    <row r="1" spans="2:2" ht="18">
       <c r="B1" s="22" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="17.399999999999999">
+    <row r="11" spans="2:2" ht="18">
       <c r="B11" s="22" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="19" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18.600000000000001">
+    <row r="21" spans="2:2" ht="18.75">
       <c r="B21" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18.600000000000001">
+    <row r="22" spans="2:2" ht="18.75">
       <c r="B22" s="19" t="s">
         <v>431</v>
       </c>
@@ -12172,32 +12172,32 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="69.88671875" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>319</v>
       </c>
@@ -12218,27 +12218,27 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>323</v>
       </c>
@@ -12259,27 +12259,27 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>328</v>
       </c>
@@ -12300,22 +12300,22 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>331</v>
       </c>
@@ -12336,47 +12336,47 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="104.33203125" customWidth="1"/>
+    <col min="2" max="2" width="104.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>898</v>
       </c>
@@ -12397,37 +12397,37 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="81.44140625" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>344</v>
       </c>
@@ -12448,12 +12448,12 @@
       <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="151"/>
-    <col min="2" max="2" width="68.109375" style="151" customWidth="1"/>
-    <col min="3" max="3" width="74.5546875" style="151" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="151"/>
+    <col min="1" max="1" width="9.140625" style="151"/>
+    <col min="2" max="2" width="68.140625" style="151" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="151" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12497,7 +12497,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="43.5">
       <c r="B7" s="152" t="s">
         <v>999</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="42">
+    <row r="25" spans="1:3" ht="43.5">
       <c r="B25" s="152" t="s">
         <v>1021</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="126">
+    <row r="58" spans="1:3" ht="130.5">
       <c r="A58" s="151" t="s">
         <v>1104</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="126">
+    <row r="59" spans="1:3" ht="130.5">
       <c r="B59" s="151" t="s">
         <v>1103</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="42">
+    <row r="121" spans="1:3" ht="43.5">
       <c r="B121" s="151" t="s">
         <v>1213</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="42">
+    <row r="129" spans="1:3" ht="43.5">
       <c r="B129" s="152" t="s">
         <v>1237</v>
       </c>
@@ -13236,12 +13236,12 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" ht="43.5">
       <c r="B136" s="152" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="42">
+    <row r="137" spans="1:3" ht="43.5">
       <c r="B137" s="152" t="s">
         <v>1247</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="168">
+    <row r="141" spans="1:3" ht="174">
       <c r="B141" s="120" t="s">
         <v>1286</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="84">
+    <row r="294" spans="1:3" ht="87">
       <c r="B294" s="151" t="s">
         <v>1604</v>
       </c>
@@ -14339,12 +14339,12 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="84">
+    <row r="337" spans="1:3" ht="87">
       <c r="C337" s="152" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="105">
+    <row r="338" spans="1:3" ht="108.75">
       <c r="C338" s="152" t="s">
         <v>1672</v>
       </c>
@@ -15084,119 +15084,119 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="151" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B454" s="151" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="C454" s="151" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="B455" s="151" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="C455" s="151" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="B456" s="151" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C456" s="151" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="C457" s="151" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="151" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B459" s="151" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="151" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B460" s="151" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="151" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B461" s="151" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="151" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B463" s="151" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="B464" s="151" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="B465" s="151" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C465" s="151" t="s">
         <v>1912</v>
-      </c>
-      <c r="C465" s="151" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="B466" s="151" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C466" s="151" t="s">
         <v>1913</v>
-      </c>
-      <c r="C466" s="151" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="B467" s="151" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C467" s="151" t="s">
         <v>1914</v>
-      </c>
-      <c r="C467" s="151" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="B468" s="151" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="C468" s="151" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="B469" s="151" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C469" s="151" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="B470" s="151" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="C470" s="151" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -15206,52 +15206,52 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="151" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="B472" s="151" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="151" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="B474" s="151" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="B475" s="151" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="151" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B477" s="151" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C477" s="151" t="s">
         <v>1932</v>
-      </c>
-      <c r="B477" s="151" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C477" s="151" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="B478" s="151" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="B479" s="151" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="151" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="B481" s="151" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -15307,10 +15307,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="151" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B491" s="151" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C491" s="185"/>
     </row>
@@ -15374,7 +15374,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="508" spans="2:3" ht="63">
+    <row r="508" spans="2:3" ht="87">
       <c r="B508" s="152" t="s">
         <v>1624</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="511" spans="2:3" ht="63">
+    <row r="511" spans="2:3" ht="65.25">
       <c r="B511" s="187" t="s">
         <v>1640</v>
       </c>
@@ -15419,17 +15419,17 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="520" spans="2:2" ht="105">
+    <row r="520" spans="2:2" ht="108.75">
       <c r="B520" s="152" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="521" spans="2:2" ht="105">
+    <row r="521" spans="2:2" ht="108.75">
       <c r="B521" s="152" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="522" spans="2:2" ht="84">
+    <row r="522" spans="2:2" ht="87">
       <c r="B522" s="152" t="s">
         <v>1791</v>
       </c>
@@ -15455,82 +15455,82 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>359</v>
       </c>
@@ -15551,102 +15551,102 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="141" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="142" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="141" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="142" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="141" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="142" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>379</v>
       </c>
@@ -15668,27 +15668,27 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>384</v>
       </c>
@@ -15709,132 +15709,132 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="19" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18.600000000000001">
+    <row r="21" spans="2:2" ht="18.75">
       <c r="B21" s="19" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18.600000000000001">
+    <row r="22" spans="2:2" ht="18.75">
       <c r="B22" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18.600000000000001">
+    <row r="23" spans="2:2" ht="18.75">
       <c r="B23" s="19" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18.600000000000001">
+    <row r="24" spans="2:2" ht="18.75">
       <c r="B24" s="19" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18.600000000000001">
+    <row r="25" spans="2:2" ht="18.75">
       <c r="B25" s="19" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18.600000000000001">
+    <row r="26" spans="2:2" ht="18.75">
       <c r="B26" s="19" t="s">
         <v>409</v>
       </c>
@@ -15855,57 +15855,57 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>420</v>
       </c>
@@ -15926,27 +15926,27 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="60.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>436</v>
       </c>
@@ -15965,27 +15965,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999">
+    <row r="2" spans="2:2" ht="18">
       <c r="B2" s="22" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>435</v>
       </c>
@@ -16004,82 +16004,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="67.109375" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.399999999999999">
+    <row r="7" spans="2:2" ht="18">
       <c r="B7" s="22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>453</v>
       </c>
@@ -16098,52 +16098,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="77.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>453</v>
       </c>
@@ -16162,77 +16162,77 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="71.5546875" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="143" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>466</v>
       </c>
@@ -16251,10 +16251,10 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="156.44140625" style="121" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="121"/>
+    <col min="1" max="1" width="156.42578125" style="121" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="121" t="s">
         <v>1863</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="121" t="s">
         <v>1865</v>
       </c>
@@ -16460,187 +16460,187 @@
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="112" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="142" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="19" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18.600000000000001">
+    <row r="21" spans="2:2" ht="18.75">
       <c r="B21" s="19" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18.600000000000001">
+    <row r="22" spans="2:2" ht="18.75">
       <c r="B22" s="19" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18.600000000000001">
+    <row r="23" spans="2:2" ht="18.75">
       <c r="B23" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18.600000000000001">
+    <row r="24" spans="2:2" ht="18.75">
       <c r="B24" s="19" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18.600000000000001">
+    <row r="25" spans="2:2" ht="18.75">
       <c r="B25" s="19" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18.600000000000001">
+    <row r="26" spans="2:2" ht="18.75">
       <c r="B26" s="19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="18.600000000000001">
+    <row r="27" spans="2:2" ht="18.75">
       <c r="B27" s="19" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="18.600000000000001">
+    <row r="28" spans="2:2" ht="18.75">
       <c r="B28" s="19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="18.600000000000001">
+    <row r="29" spans="2:2" ht="18.75">
       <c r="B29" s="19" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="18.600000000000001">
+    <row r="30" spans="2:2" ht="18.75">
       <c r="B30" s="19" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="18.600000000000001">
+    <row r="31" spans="2:2" ht="18.75">
       <c r="B31" s="19" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.600000000000001">
+    <row r="33" spans="1:2" ht="18.75">
       <c r="B33" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.600000000000001">
+    <row r="34" spans="1:2" ht="18.75">
       <c r="B34" s="147" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.600000000000001">
+    <row r="35" spans="1:2" ht="18.75">
       <c r="B35" s="19" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.600000000000001">
+    <row r="36" spans="1:2" ht="18.75">
       <c r="B36" s="19" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.600000000000001">
+    <row r="37" spans="1:2" ht="18.75">
       <c r="B37" s="19" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.600000000000001">
+    <row r="38" spans="1:2" ht="18.75">
       <c r="B38" s="146" t="s">
         <v>611</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.600000000000001">
+    <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="219" t="s">
         <v>927</v>
       </c>
@@ -16673,39 +16673,39 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.600000000000001">
+    <row r="43" spans="1:2" ht="18.75">
       <c r="A43" s="219"/>
       <c r="B43" s="19" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.600000000000001">
+    <row r="44" spans="1:2" ht="18.75">
       <c r="A44" s="219"/>
       <c r="B44" s="19" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.600000000000001">
+    <row r="45" spans="1:2" ht="18.75">
       <c r="B45" s="19" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.600000000000001">
+    <row r="46" spans="1:2" ht="18.75">
       <c r="B46" s="19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.600000000000001">
+    <row r="47" spans="1:2" ht="18.75">
       <c r="B47" s="19" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.600000000000001">
+    <row r="48" spans="1:2" ht="18.75">
       <c r="B48" s="19" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="18.600000000000001">
+    <row r="49" spans="2:2" ht="18.75">
       <c r="B49" s="19" t="s">
         <v>622</v>
       </c>
@@ -16730,252 +16730,252 @@
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="19" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18.600000000000001">
+    <row r="21" spans="2:2" ht="18.75">
       <c r="B21" s="19" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18.600000000000001">
+    <row r="22" spans="2:2" ht="18.75">
       <c r="B22" s="19" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18.600000000000001">
+    <row r="23" spans="2:2" ht="18.75">
       <c r="B23" s="19" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18.600000000000001">
+    <row r="24" spans="2:2" ht="18.75">
       <c r="B24" s="19" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18.600000000000001">
+    <row r="25" spans="2:2" ht="18.75">
       <c r="B25" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18.600000000000001">
+    <row r="26" spans="2:2" ht="18.75">
       <c r="B26" s="19" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="18.600000000000001">
+    <row r="27" spans="2:2" ht="18.75">
       <c r="B27" s="19" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="18.600000000000001">
+    <row r="28" spans="2:2" ht="18.75">
       <c r="B28" s="19" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="18.600000000000001">
+    <row r="29" spans="2:2" ht="18.75">
       <c r="B29" s="19" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="18.600000000000001">
+    <row r="30" spans="2:2" ht="18.75">
       <c r="B30" s="19" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="18.600000000000001">
+    <row r="31" spans="2:2" ht="18.75">
       <c r="B31" s="19" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="18.600000000000001">
+    <row r="32" spans="2:2" ht="18.75">
       <c r="B32" s="19" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="18.600000000000001">
+    <row r="35" spans="2:2" ht="18.75">
       <c r="B35" s="19" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18.600000000000001">
+    <row r="36" spans="2:2" ht="18.75">
       <c r="B36" s="19" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18.600000000000001">
+    <row r="37" spans="2:2" ht="18.75">
       <c r="B37" s="19" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18.600000000000001">
+    <row r="38" spans="2:2" ht="18.75">
       <c r="B38" s="19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18.600000000000001">
+    <row r="39" spans="2:2" ht="18.75">
       <c r="B39" s="19" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18.600000000000001">
+    <row r="40" spans="2:2" ht="18.75">
       <c r="B40" s="19" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18.600000000000001">
+    <row r="41" spans="2:2" ht="18.75">
       <c r="B41" s="19" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="18.600000000000001">
+    <row r="42" spans="2:2" ht="18.75">
       <c r="B42" s="19" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="18.600000000000001">
+    <row r="43" spans="2:2" ht="18.75">
       <c r="B43" s="19" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="18.600000000000001">
+    <row r="44" spans="2:2" ht="18.75">
       <c r="B44" s="19" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="18.600000000000001">
+    <row r="45" spans="2:2" ht="18.75">
       <c r="B45" s="19" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18.600000000000001">
+    <row r="46" spans="2:2" ht="18.75">
       <c r="B46" s="19" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="18.600000000000001">
+    <row r="47" spans="2:2" ht="18.75">
       <c r="B47" s="19" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="18.600000000000001">
+    <row r="48" spans="2:2" ht="18.75">
       <c r="B48" s="19" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="18.600000000000001">
+    <row r="49" spans="2:2" ht="18.75">
       <c r="B49" s="19" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="18.600000000000001">
+    <row r="50" spans="2:2" ht="18.75">
       <c r="B50" s="19" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="18.600000000000001">
+    <row r="51" spans="2:2" ht="18.75">
       <c r="B51" s="19" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="18.600000000000001">
+    <row r="52" spans="2:2" ht="18.75">
       <c r="B52" s="19" t="s">
         <v>605</v>
       </c>
@@ -16994,179 +16994,179 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="18.600000000000001">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="17.399999999999999">
+    <row r="20" spans="2:2" ht="18">
       <c r="B20" s="22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18.600000000000001">
+    <row r="21" spans="2:2" ht="18.75">
       <c r="B21" s="19" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18.600000000000001">
+    <row r="22" spans="2:2" ht="18.75">
       <c r="B22" s="19" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="18.600000000000001">
+    <row r="23" spans="2:2" ht="18.75">
       <c r="B23" s="19" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18.600000000000001">
+    <row r="24" spans="2:2" ht="18.75">
       <c r="B24" s="19" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18.600000000000001">
+    <row r="25" spans="2:2" ht="18.75">
       <c r="B25" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="18.600000000000001">
+    <row r="26" spans="2:2" ht="18.75">
       <c r="B26" s="19" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="18.600000000000001">
+    <row r="27" spans="2:2" ht="18.75">
       <c r="B27" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="18.600000000000001">
+    <row r="28" spans="2:2" ht="18.75">
       <c r="B28" s="19" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="18.600000000000001">
+    <row r="29" spans="2:2" ht="18.75">
       <c r="B29" s="19" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="18.600000000000001">
+    <row r="30" spans="2:2" ht="18.75">
       <c r="B30" s="19" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="18.600000000000001">
+    <row r="31" spans="2:2" ht="18.75">
       <c r="B31" s="19" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="18.600000000000001">
+    <row r="32" spans="2:2" ht="18.75">
       <c r="B32" s="19" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="18.600000000000001">
+    <row r="33" spans="2:2" ht="18.75">
       <c r="B33" s="19" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="18.600000000000001">
+    <row r="34" spans="2:2" ht="18.75">
       <c r="B34" s="19" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="18.600000000000001">
+    <row r="35" spans="2:2" ht="18.75">
       <c r="B35" s="19" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18.600000000000001">
+    <row r="36" spans="2:2" ht="18.75">
       <c r="B36" s="19" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18.600000000000001">
+    <row r="37" spans="2:2" ht="18.75">
       <c r="B37" s="19" t="s">
         <v>567</v>
       </c>
@@ -17185,102 +17185,102 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="90.5546875" customWidth="1"/>
+    <col min="2" max="2" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999">
+    <row r="2" spans="2:2" ht="18">
       <c r="B2" s="22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18.600000000000001">
+    <row r="17" spans="2:2" ht="18.75">
       <c r="B17" s="19" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18.600000000000001">
+    <row r="18" spans="2:2" ht="18.75">
       <c r="B18" s="19" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18.600000000000001">
+    <row r="19" spans="2:2" ht="18.75">
       <c r="B19" s="19" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18.600000000000001">
+    <row r="20" spans="2:2" ht="18.75">
       <c r="B20" s="19" t="s">
         <v>586</v>
       </c>
@@ -17299,52 +17299,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="76.5546875" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999">
+    <row r="2" spans="2:2" ht="18">
       <c r="B2" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.399999999999999">
+    <row r="3" spans="2:2" ht="18">
       <c r="B3" s="22" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>630</v>
       </c>
@@ -17363,19 +17363,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999">
+    <row r="2" spans="2:2" ht="18">
       <c r="B2" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>633</v>
       </c>
@@ -17394,82 +17394,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999">
+    <row r="2" spans="2:2" ht="18">
       <c r="B2" s="23" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.600000000000001">
+    <row r="3" spans="2:2" ht="18.75">
       <c r="B3" s="19" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18.600000000000001">
+    <row r="4" spans="2:2" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18.600000000000001">
+    <row r="5" spans="2:2" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.600000000000001">
+    <row r="6" spans="2:2" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.600000000000001">
+    <row r="7" spans="2:2" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.600000000000001">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" s="19" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.600000000000001">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" s="19" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18.600000000000001">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" s="19" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.600000000000001">
+    <row r="11" spans="2:2" ht="18.75">
       <c r="B11" s="19" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18.600000000000001">
+    <row r="12" spans="2:2" ht="18.75">
       <c r="B12" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.600000000000001">
+    <row r="13" spans="2:2" ht="18.75">
       <c r="B13" s="19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18.600000000000001">
+    <row r="14" spans="2:2" ht="18.75">
       <c r="B14" s="19" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18.600000000000001">
+    <row r="15" spans="2:2" ht="18.75">
       <c r="B15" s="19" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18.600000000000001">
+    <row r="16" spans="2:2" ht="18.75">
       <c r="B16" s="19" t="s">
         <v>648</v>
       </c>
@@ -17487,15 +17487,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="120" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="120" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="120"/>
-    <col min="10" max="11" width="9.109375" style="120"/>
+    <col min="1" max="1" width="3.28515625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="120" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="120"/>
+    <col min="10" max="11" width="9.140625" style="120"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="120" customFormat="1">
@@ -17656,32 +17656,32 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="7" style="120" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
     <col min="7" max="7" width="25" style="120" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -23589,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="120" t="str">
-        <f t="shared" ref="S97:S106" si="33">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
+        <f t="shared" ref="S97:S107" si="33">"INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (" &amp; A97 &amp; "," &amp; B97 &amp; ",'" &amp; C97 &amp; "','" &amp; D97 &amp; "' ,'" &amp; E97 &amp; "','" &amp; F97 &amp; "' ,'" &amp; G97 &amp; "'," &amp; IF(H97=TRUE,1,0) &amp; " ," &amp; IF(I97=TRUE,1,0) &amp; " ," &amp; IF(J97=TRUE,1,0) &amp; "," &amp; IF(K97=TRUE,1,0) &amp; "," &amp; IF(L97=TRUE,1,0) &amp; "," &amp; IF(M97=TRUE,1,0) &amp; "," &amp; IF(N97=TRUE,1,0) &amp; "," &amp; IF(O97=TRUE,1,0) &amp; "," &amp; IF(P97=TRUE,1,0) &amp; "," &amp; IF(Q97=TRUE,1,0) &amp; "," &amp; IF(R97=TRUE,1,0) &amp; ");"</f>
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (96,3,'CRM','ฝ่ายขาย' ,'OrderSellHisExpBar','ประวัติการขาย (Export)' ,'OrderSellHisExp',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
@@ -23903,7 +23903,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="120">
-        <f t="shared" ref="B103:B106" si="35">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
+        <f t="shared" ref="B103:B107" si="35">IF( H103=TRUE,1,0)+IF(I103=TRUE,2,0)+IF( J103=TRUE,4,0)+IF( K103=TRUE,8,0)+IF( L103=TRUE,16,0)+IF( M103=TRUE,32,0)+IF( N103=TRUE,64,0)+IF( O103=TRUE,128,0)+IF(P103=TRUE,256,0)+IF(Q103=TRUE,512,0)+IF(R103=TRUE,1024,0)</f>
         <v>287</v>
       </c>
       <c r="C103" s="120" t="s">
@@ -24035,13 +24035,13 @@
         <v>910</v>
       </c>
       <c r="E105" s="120" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="F105" s="120" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="G105" s="120" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="H105" s="121" t="b">
         <v>1</v>
@@ -24096,13 +24096,13 @@
         <v>779</v>
       </c>
       <c r="E106" s="120" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="F106" s="120" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="G106" s="120" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="H106" s="121" t="b">
         <v>1</v>
@@ -24142,25 +24142,69 @@
         <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (105,3,'CRM','ฝ่ายขาย' ,'ReceiptHisBar','ประวัติการรับชำระ' ,'ReceiptHis',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
-      <c r="C108" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
-      <c r="C109" t="s">
-        <v>1893</v>
+    <row r="107" spans="1:19" s="120" customFormat="1">
+      <c r="A107" s="120">
+        <v>106</v>
+      </c>
+      <c r="B107" s="120">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="C107" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="120" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E107" s="120" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F107" s="120" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G107" s="120" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H107" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" s="121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S107" s="120" t="str">
+        <f t="shared" si="33"/>
+        <v>INSERT INTO  [Menu]([MenuID],[ShowMode],[System],[Module],[MenuName],[MenuDisplay],[TableName],[IsVisible],[IsEnable],[IsAdd],[IsEdit],[IsDelete],[IsPrint],[IsImport],[IsCreateQuick],[IsCopy],[IsAssign],[IsConvert]) VALUES (106,3,'CRM','เช็ค' ,'BankAccountRecordBar','บันทึกยอดธนาคาร' ,'BankAccountRecord',1 ,1 ,0,0,0,0,0,0,0,0,0);</v>
       </c>
     </row>
     <row r="110" spans="1:19">
-      <c r="C110" s="120" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
-      <c r="C111" t="s">
-        <v>1894</v>
-      </c>
+      <c r="C110" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24176,456 +24220,456 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="7" width="14.88671875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="36.44140625" customWidth="1"/>
-    <col min="259" max="259" width="4.5546875" customWidth="1"/>
-    <col min="260" max="260" width="26.109375" customWidth="1"/>
-    <col min="261" max="261" width="13.6640625" customWidth="1"/>
-    <col min="262" max="262" width="7.33203125" customWidth="1"/>
-    <col min="263" max="263" width="14.88671875" customWidth="1"/>
-    <col min="264" max="264" width="22.6640625" customWidth="1"/>
-    <col min="265" max="265" width="36.44140625" customWidth="1"/>
-    <col min="515" max="515" width="4.5546875" customWidth="1"/>
-    <col min="516" max="516" width="26.109375" customWidth="1"/>
-    <col min="517" max="517" width="13.6640625" customWidth="1"/>
-    <col min="518" max="518" width="7.33203125" customWidth="1"/>
-    <col min="519" max="519" width="14.88671875" customWidth="1"/>
-    <col min="520" max="520" width="22.6640625" customWidth="1"/>
-    <col min="521" max="521" width="36.44140625" customWidth="1"/>
-    <col min="771" max="771" width="4.5546875" customWidth="1"/>
-    <col min="772" max="772" width="26.109375" customWidth="1"/>
-    <col min="773" max="773" width="13.6640625" customWidth="1"/>
-    <col min="774" max="774" width="7.33203125" customWidth="1"/>
-    <col min="775" max="775" width="14.88671875" customWidth="1"/>
-    <col min="776" max="776" width="22.6640625" customWidth="1"/>
-    <col min="777" max="777" width="36.44140625" customWidth="1"/>
-    <col min="1027" max="1027" width="4.5546875" customWidth="1"/>
-    <col min="1028" max="1028" width="26.109375" customWidth="1"/>
-    <col min="1029" max="1029" width="13.6640625" customWidth="1"/>
-    <col min="1030" max="1030" width="7.33203125" customWidth="1"/>
-    <col min="1031" max="1031" width="14.88671875" customWidth="1"/>
-    <col min="1032" max="1032" width="22.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="36.44140625" customWidth="1"/>
-    <col min="1283" max="1283" width="4.5546875" customWidth="1"/>
-    <col min="1284" max="1284" width="26.109375" customWidth="1"/>
-    <col min="1285" max="1285" width="13.6640625" customWidth="1"/>
-    <col min="1286" max="1286" width="7.33203125" customWidth="1"/>
-    <col min="1287" max="1287" width="14.88671875" customWidth="1"/>
-    <col min="1288" max="1288" width="22.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="36.44140625" customWidth="1"/>
-    <col min="1539" max="1539" width="4.5546875" customWidth="1"/>
-    <col min="1540" max="1540" width="26.109375" customWidth="1"/>
-    <col min="1541" max="1541" width="13.6640625" customWidth="1"/>
-    <col min="1542" max="1542" width="7.33203125" customWidth="1"/>
-    <col min="1543" max="1543" width="14.88671875" customWidth="1"/>
-    <col min="1544" max="1544" width="22.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="36.44140625" customWidth="1"/>
-    <col min="1795" max="1795" width="4.5546875" customWidth="1"/>
-    <col min="1796" max="1796" width="26.109375" customWidth="1"/>
-    <col min="1797" max="1797" width="13.6640625" customWidth="1"/>
-    <col min="1798" max="1798" width="7.33203125" customWidth="1"/>
-    <col min="1799" max="1799" width="14.88671875" customWidth="1"/>
-    <col min="1800" max="1800" width="22.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="36.44140625" customWidth="1"/>
-    <col min="2051" max="2051" width="4.5546875" customWidth="1"/>
-    <col min="2052" max="2052" width="26.109375" customWidth="1"/>
-    <col min="2053" max="2053" width="13.6640625" customWidth="1"/>
-    <col min="2054" max="2054" width="7.33203125" customWidth="1"/>
-    <col min="2055" max="2055" width="14.88671875" customWidth="1"/>
-    <col min="2056" max="2056" width="22.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="36.44140625" customWidth="1"/>
-    <col min="2307" max="2307" width="4.5546875" customWidth="1"/>
-    <col min="2308" max="2308" width="26.109375" customWidth="1"/>
-    <col min="2309" max="2309" width="13.6640625" customWidth="1"/>
-    <col min="2310" max="2310" width="7.33203125" customWidth="1"/>
-    <col min="2311" max="2311" width="14.88671875" customWidth="1"/>
-    <col min="2312" max="2312" width="22.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="36.44140625" customWidth="1"/>
-    <col min="2563" max="2563" width="4.5546875" customWidth="1"/>
-    <col min="2564" max="2564" width="26.109375" customWidth="1"/>
-    <col min="2565" max="2565" width="13.6640625" customWidth="1"/>
-    <col min="2566" max="2566" width="7.33203125" customWidth="1"/>
-    <col min="2567" max="2567" width="14.88671875" customWidth="1"/>
-    <col min="2568" max="2568" width="22.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="36.44140625" customWidth="1"/>
-    <col min="2819" max="2819" width="4.5546875" customWidth="1"/>
-    <col min="2820" max="2820" width="26.109375" customWidth="1"/>
-    <col min="2821" max="2821" width="13.6640625" customWidth="1"/>
-    <col min="2822" max="2822" width="7.33203125" customWidth="1"/>
-    <col min="2823" max="2823" width="14.88671875" customWidth="1"/>
-    <col min="2824" max="2824" width="22.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="36.44140625" customWidth="1"/>
-    <col min="3075" max="3075" width="4.5546875" customWidth="1"/>
-    <col min="3076" max="3076" width="26.109375" customWidth="1"/>
-    <col min="3077" max="3077" width="13.6640625" customWidth="1"/>
-    <col min="3078" max="3078" width="7.33203125" customWidth="1"/>
-    <col min="3079" max="3079" width="14.88671875" customWidth="1"/>
-    <col min="3080" max="3080" width="22.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="36.44140625" customWidth="1"/>
-    <col min="3331" max="3331" width="4.5546875" customWidth="1"/>
-    <col min="3332" max="3332" width="26.109375" customWidth="1"/>
-    <col min="3333" max="3333" width="13.6640625" customWidth="1"/>
-    <col min="3334" max="3334" width="7.33203125" customWidth="1"/>
-    <col min="3335" max="3335" width="14.88671875" customWidth="1"/>
-    <col min="3336" max="3336" width="22.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="36.44140625" customWidth="1"/>
-    <col min="3587" max="3587" width="4.5546875" customWidth="1"/>
-    <col min="3588" max="3588" width="26.109375" customWidth="1"/>
-    <col min="3589" max="3589" width="13.6640625" customWidth="1"/>
-    <col min="3590" max="3590" width="7.33203125" customWidth="1"/>
-    <col min="3591" max="3591" width="14.88671875" customWidth="1"/>
-    <col min="3592" max="3592" width="22.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="36.44140625" customWidth="1"/>
-    <col min="3843" max="3843" width="4.5546875" customWidth="1"/>
-    <col min="3844" max="3844" width="26.109375" customWidth="1"/>
-    <col min="3845" max="3845" width="13.6640625" customWidth="1"/>
-    <col min="3846" max="3846" width="7.33203125" customWidth="1"/>
-    <col min="3847" max="3847" width="14.88671875" customWidth="1"/>
-    <col min="3848" max="3848" width="22.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="36.44140625" customWidth="1"/>
-    <col min="4099" max="4099" width="4.5546875" customWidth="1"/>
-    <col min="4100" max="4100" width="26.109375" customWidth="1"/>
-    <col min="4101" max="4101" width="13.6640625" customWidth="1"/>
-    <col min="4102" max="4102" width="7.33203125" customWidth="1"/>
-    <col min="4103" max="4103" width="14.88671875" customWidth="1"/>
-    <col min="4104" max="4104" width="22.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="36.44140625" customWidth="1"/>
-    <col min="4355" max="4355" width="4.5546875" customWidth="1"/>
-    <col min="4356" max="4356" width="26.109375" customWidth="1"/>
-    <col min="4357" max="4357" width="13.6640625" customWidth="1"/>
-    <col min="4358" max="4358" width="7.33203125" customWidth="1"/>
-    <col min="4359" max="4359" width="14.88671875" customWidth="1"/>
-    <col min="4360" max="4360" width="22.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="36.44140625" customWidth="1"/>
-    <col min="4611" max="4611" width="4.5546875" customWidth="1"/>
-    <col min="4612" max="4612" width="26.109375" customWidth="1"/>
-    <col min="4613" max="4613" width="13.6640625" customWidth="1"/>
-    <col min="4614" max="4614" width="7.33203125" customWidth="1"/>
-    <col min="4615" max="4615" width="14.88671875" customWidth="1"/>
-    <col min="4616" max="4616" width="22.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="36.44140625" customWidth="1"/>
-    <col min="4867" max="4867" width="4.5546875" customWidth="1"/>
-    <col min="4868" max="4868" width="26.109375" customWidth="1"/>
-    <col min="4869" max="4869" width="13.6640625" customWidth="1"/>
-    <col min="4870" max="4870" width="7.33203125" customWidth="1"/>
-    <col min="4871" max="4871" width="14.88671875" customWidth="1"/>
-    <col min="4872" max="4872" width="22.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="36.44140625" customWidth="1"/>
-    <col min="5123" max="5123" width="4.5546875" customWidth="1"/>
-    <col min="5124" max="5124" width="26.109375" customWidth="1"/>
-    <col min="5125" max="5125" width="13.6640625" customWidth="1"/>
-    <col min="5126" max="5126" width="7.33203125" customWidth="1"/>
-    <col min="5127" max="5127" width="14.88671875" customWidth="1"/>
-    <col min="5128" max="5128" width="22.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="36.44140625" customWidth="1"/>
-    <col min="5379" max="5379" width="4.5546875" customWidth="1"/>
-    <col min="5380" max="5380" width="26.109375" customWidth="1"/>
-    <col min="5381" max="5381" width="13.6640625" customWidth="1"/>
-    <col min="5382" max="5382" width="7.33203125" customWidth="1"/>
-    <col min="5383" max="5383" width="14.88671875" customWidth="1"/>
-    <col min="5384" max="5384" width="22.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="36.44140625" customWidth="1"/>
-    <col min="5635" max="5635" width="4.5546875" customWidth="1"/>
-    <col min="5636" max="5636" width="26.109375" customWidth="1"/>
-    <col min="5637" max="5637" width="13.6640625" customWidth="1"/>
-    <col min="5638" max="5638" width="7.33203125" customWidth="1"/>
-    <col min="5639" max="5639" width="14.88671875" customWidth="1"/>
-    <col min="5640" max="5640" width="22.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="36.44140625" customWidth="1"/>
-    <col min="5891" max="5891" width="4.5546875" customWidth="1"/>
-    <col min="5892" max="5892" width="26.109375" customWidth="1"/>
-    <col min="5893" max="5893" width="13.6640625" customWidth="1"/>
-    <col min="5894" max="5894" width="7.33203125" customWidth="1"/>
-    <col min="5895" max="5895" width="14.88671875" customWidth="1"/>
-    <col min="5896" max="5896" width="22.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="36.44140625" customWidth="1"/>
-    <col min="6147" max="6147" width="4.5546875" customWidth="1"/>
-    <col min="6148" max="6148" width="26.109375" customWidth="1"/>
-    <col min="6149" max="6149" width="13.6640625" customWidth="1"/>
-    <col min="6150" max="6150" width="7.33203125" customWidth="1"/>
-    <col min="6151" max="6151" width="14.88671875" customWidth="1"/>
-    <col min="6152" max="6152" width="22.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="36.44140625" customWidth="1"/>
-    <col min="6403" max="6403" width="4.5546875" customWidth="1"/>
-    <col min="6404" max="6404" width="26.109375" customWidth="1"/>
-    <col min="6405" max="6405" width="13.6640625" customWidth="1"/>
-    <col min="6406" max="6406" width="7.33203125" customWidth="1"/>
-    <col min="6407" max="6407" width="14.88671875" customWidth="1"/>
-    <col min="6408" max="6408" width="22.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="36.44140625" customWidth="1"/>
-    <col min="6659" max="6659" width="4.5546875" customWidth="1"/>
-    <col min="6660" max="6660" width="26.109375" customWidth="1"/>
-    <col min="6661" max="6661" width="13.6640625" customWidth="1"/>
-    <col min="6662" max="6662" width="7.33203125" customWidth="1"/>
-    <col min="6663" max="6663" width="14.88671875" customWidth="1"/>
-    <col min="6664" max="6664" width="22.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="36.44140625" customWidth="1"/>
-    <col min="6915" max="6915" width="4.5546875" customWidth="1"/>
-    <col min="6916" max="6916" width="26.109375" customWidth="1"/>
-    <col min="6917" max="6917" width="13.6640625" customWidth="1"/>
-    <col min="6918" max="6918" width="7.33203125" customWidth="1"/>
-    <col min="6919" max="6919" width="14.88671875" customWidth="1"/>
-    <col min="6920" max="6920" width="22.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="36.44140625" customWidth="1"/>
-    <col min="7171" max="7171" width="4.5546875" customWidth="1"/>
-    <col min="7172" max="7172" width="26.109375" customWidth="1"/>
-    <col min="7173" max="7173" width="13.6640625" customWidth="1"/>
-    <col min="7174" max="7174" width="7.33203125" customWidth="1"/>
-    <col min="7175" max="7175" width="14.88671875" customWidth="1"/>
-    <col min="7176" max="7176" width="22.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="36.44140625" customWidth="1"/>
-    <col min="7427" max="7427" width="4.5546875" customWidth="1"/>
-    <col min="7428" max="7428" width="26.109375" customWidth="1"/>
-    <col min="7429" max="7429" width="13.6640625" customWidth="1"/>
-    <col min="7430" max="7430" width="7.33203125" customWidth="1"/>
-    <col min="7431" max="7431" width="14.88671875" customWidth="1"/>
-    <col min="7432" max="7432" width="22.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="36.44140625" customWidth="1"/>
-    <col min="7683" max="7683" width="4.5546875" customWidth="1"/>
-    <col min="7684" max="7684" width="26.109375" customWidth="1"/>
-    <col min="7685" max="7685" width="13.6640625" customWidth="1"/>
-    <col min="7686" max="7686" width="7.33203125" customWidth="1"/>
-    <col min="7687" max="7687" width="14.88671875" customWidth="1"/>
-    <col min="7688" max="7688" width="22.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="36.44140625" customWidth="1"/>
-    <col min="7939" max="7939" width="4.5546875" customWidth="1"/>
-    <col min="7940" max="7940" width="26.109375" customWidth="1"/>
-    <col min="7941" max="7941" width="13.6640625" customWidth="1"/>
-    <col min="7942" max="7942" width="7.33203125" customWidth="1"/>
-    <col min="7943" max="7943" width="14.88671875" customWidth="1"/>
-    <col min="7944" max="7944" width="22.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="36.44140625" customWidth="1"/>
-    <col min="8195" max="8195" width="4.5546875" customWidth="1"/>
-    <col min="8196" max="8196" width="26.109375" customWidth="1"/>
-    <col min="8197" max="8197" width="13.6640625" customWidth="1"/>
-    <col min="8198" max="8198" width="7.33203125" customWidth="1"/>
-    <col min="8199" max="8199" width="14.88671875" customWidth="1"/>
-    <col min="8200" max="8200" width="22.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="36.44140625" customWidth="1"/>
-    <col min="8451" max="8451" width="4.5546875" customWidth="1"/>
-    <col min="8452" max="8452" width="26.109375" customWidth="1"/>
-    <col min="8453" max="8453" width="13.6640625" customWidth="1"/>
-    <col min="8454" max="8454" width="7.33203125" customWidth="1"/>
-    <col min="8455" max="8455" width="14.88671875" customWidth="1"/>
-    <col min="8456" max="8456" width="22.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="36.44140625" customWidth="1"/>
-    <col min="8707" max="8707" width="4.5546875" customWidth="1"/>
-    <col min="8708" max="8708" width="26.109375" customWidth="1"/>
-    <col min="8709" max="8709" width="13.6640625" customWidth="1"/>
-    <col min="8710" max="8710" width="7.33203125" customWidth="1"/>
-    <col min="8711" max="8711" width="14.88671875" customWidth="1"/>
-    <col min="8712" max="8712" width="22.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="36.44140625" customWidth="1"/>
-    <col min="8963" max="8963" width="4.5546875" customWidth="1"/>
-    <col min="8964" max="8964" width="26.109375" customWidth="1"/>
-    <col min="8965" max="8965" width="13.6640625" customWidth="1"/>
-    <col min="8966" max="8966" width="7.33203125" customWidth="1"/>
-    <col min="8967" max="8967" width="14.88671875" customWidth="1"/>
-    <col min="8968" max="8968" width="22.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="36.44140625" customWidth="1"/>
-    <col min="9219" max="9219" width="4.5546875" customWidth="1"/>
-    <col min="9220" max="9220" width="26.109375" customWidth="1"/>
-    <col min="9221" max="9221" width="13.6640625" customWidth="1"/>
-    <col min="9222" max="9222" width="7.33203125" customWidth="1"/>
-    <col min="9223" max="9223" width="14.88671875" customWidth="1"/>
-    <col min="9224" max="9224" width="22.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="36.44140625" customWidth="1"/>
-    <col min="9475" max="9475" width="4.5546875" customWidth="1"/>
-    <col min="9476" max="9476" width="26.109375" customWidth="1"/>
-    <col min="9477" max="9477" width="13.6640625" customWidth="1"/>
-    <col min="9478" max="9478" width="7.33203125" customWidth="1"/>
-    <col min="9479" max="9479" width="14.88671875" customWidth="1"/>
-    <col min="9480" max="9480" width="22.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="36.44140625" customWidth="1"/>
-    <col min="9731" max="9731" width="4.5546875" customWidth="1"/>
-    <col min="9732" max="9732" width="26.109375" customWidth="1"/>
-    <col min="9733" max="9733" width="13.6640625" customWidth="1"/>
-    <col min="9734" max="9734" width="7.33203125" customWidth="1"/>
-    <col min="9735" max="9735" width="14.88671875" customWidth="1"/>
-    <col min="9736" max="9736" width="22.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="36.44140625" customWidth="1"/>
-    <col min="9987" max="9987" width="4.5546875" customWidth="1"/>
-    <col min="9988" max="9988" width="26.109375" customWidth="1"/>
-    <col min="9989" max="9989" width="13.6640625" customWidth="1"/>
-    <col min="9990" max="9990" width="7.33203125" customWidth="1"/>
-    <col min="9991" max="9991" width="14.88671875" customWidth="1"/>
-    <col min="9992" max="9992" width="22.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="36.44140625" customWidth="1"/>
-    <col min="10243" max="10243" width="4.5546875" customWidth="1"/>
-    <col min="10244" max="10244" width="26.109375" customWidth="1"/>
-    <col min="10245" max="10245" width="13.6640625" customWidth="1"/>
-    <col min="10246" max="10246" width="7.33203125" customWidth="1"/>
-    <col min="10247" max="10247" width="14.88671875" customWidth="1"/>
-    <col min="10248" max="10248" width="22.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="36.44140625" customWidth="1"/>
-    <col min="10499" max="10499" width="4.5546875" customWidth="1"/>
-    <col min="10500" max="10500" width="26.109375" customWidth="1"/>
-    <col min="10501" max="10501" width="13.6640625" customWidth="1"/>
-    <col min="10502" max="10502" width="7.33203125" customWidth="1"/>
-    <col min="10503" max="10503" width="14.88671875" customWidth="1"/>
-    <col min="10504" max="10504" width="22.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="36.44140625" customWidth="1"/>
-    <col min="10755" max="10755" width="4.5546875" customWidth="1"/>
-    <col min="10756" max="10756" width="26.109375" customWidth="1"/>
-    <col min="10757" max="10757" width="13.6640625" customWidth="1"/>
-    <col min="10758" max="10758" width="7.33203125" customWidth="1"/>
-    <col min="10759" max="10759" width="14.88671875" customWidth="1"/>
-    <col min="10760" max="10760" width="22.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="36.44140625" customWidth="1"/>
-    <col min="11011" max="11011" width="4.5546875" customWidth="1"/>
-    <col min="11012" max="11012" width="26.109375" customWidth="1"/>
-    <col min="11013" max="11013" width="13.6640625" customWidth="1"/>
-    <col min="11014" max="11014" width="7.33203125" customWidth="1"/>
-    <col min="11015" max="11015" width="14.88671875" customWidth="1"/>
-    <col min="11016" max="11016" width="22.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="36.44140625" customWidth="1"/>
-    <col min="11267" max="11267" width="4.5546875" customWidth="1"/>
-    <col min="11268" max="11268" width="26.109375" customWidth="1"/>
-    <col min="11269" max="11269" width="13.6640625" customWidth="1"/>
-    <col min="11270" max="11270" width="7.33203125" customWidth="1"/>
-    <col min="11271" max="11271" width="14.88671875" customWidth="1"/>
-    <col min="11272" max="11272" width="22.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="36.44140625" customWidth="1"/>
-    <col min="11523" max="11523" width="4.5546875" customWidth="1"/>
-    <col min="11524" max="11524" width="26.109375" customWidth="1"/>
-    <col min="11525" max="11525" width="13.6640625" customWidth="1"/>
-    <col min="11526" max="11526" width="7.33203125" customWidth="1"/>
-    <col min="11527" max="11527" width="14.88671875" customWidth="1"/>
-    <col min="11528" max="11528" width="22.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="36.44140625" customWidth="1"/>
-    <col min="11779" max="11779" width="4.5546875" customWidth="1"/>
-    <col min="11780" max="11780" width="26.109375" customWidth="1"/>
-    <col min="11781" max="11781" width="13.6640625" customWidth="1"/>
-    <col min="11782" max="11782" width="7.33203125" customWidth="1"/>
-    <col min="11783" max="11783" width="14.88671875" customWidth="1"/>
-    <col min="11784" max="11784" width="22.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="36.44140625" customWidth="1"/>
-    <col min="12035" max="12035" width="4.5546875" customWidth="1"/>
-    <col min="12036" max="12036" width="26.109375" customWidth="1"/>
-    <col min="12037" max="12037" width="13.6640625" customWidth="1"/>
-    <col min="12038" max="12038" width="7.33203125" customWidth="1"/>
-    <col min="12039" max="12039" width="14.88671875" customWidth="1"/>
-    <col min="12040" max="12040" width="22.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="36.44140625" customWidth="1"/>
-    <col min="12291" max="12291" width="4.5546875" customWidth="1"/>
-    <col min="12292" max="12292" width="26.109375" customWidth="1"/>
-    <col min="12293" max="12293" width="13.6640625" customWidth="1"/>
-    <col min="12294" max="12294" width="7.33203125" customWidth="1"/>
-    <col min="12295" max="12295" width="14.88671875" customWidth="1"/>
-    <col min="12296" max="12296" width="22.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="36.44140625" customWidth="1"/>
-    <col min="12547" max="12547" width="4.5546875" customWidth="1"/>
-    <col min="12548" max="12548" width="26.109375" customWidth="1"/>
-    <col min="12549" max="12549" width="13.6640625" customWidth="1"/>
-    <col min="12550" max="12550" width="7.33203125" customWidth="1"/>
-    <col min="12551" max="12551" width="14.88671875" customWidth="1"/>
-    <col min="12552" max="12552" width="22.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="36.44140625" customWidth="1"/>
-    <col min="12803" max="12803" width="4.5546875" customWidth="1"/>
-    <col min="12804" max="12804" width="26.109375" customWidth="1"/>
-    <col min="12805" max="12805" width="13.6640625" customWidth="1"/>
-    <col min="12806" max="12806" width="7.33203125" customWidth="1"/>
-    <col min="12807" max="12807" width="14.88671875" customWidth="1"/>
-    <col min="12808" max="12808" width="22.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="36.44140625" customWidth="1"/>
-    <col min="13059" max="13059" width="4.5546875" customWidth="1"/>
-    <col min="13060" max="13060" width="26.109375" customWidth="1"/>
-    <col min="13061" max="13061" width="13.6640625" customWidth="1"/>
-    <col min="13062" max="13062" width="7.33203125" customWidth="1"/>
-    <col min="13063" max="13063" width="14.88671875" customWidth="1"/>
-    <col min="13064" max="13064" width="22.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="36.44140625" customWidth="1"/>
-    <col min="13315" max="13315" width="4.5546875" customWidth="1"/>
-    <col min="13316" max="13316" width="26.109375" customWidth="1"/>
-    <col min="13317" max="13317" width="13.6640625" customWidth="1"/>
-    <col min="13318" max="13318" width="7.33203125" customWidth="1"/>
-    <col min="13319" max="13319" width="14.88671875" customWidth="1"/>
-    <col min="13320" max="13320" width="22.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="36.44140625" customWidth="1"/>
-    <col min="13571" max="13571" width="4.5546875" customWidth="1"/>
-    <col min="13572" max="13572" width="26.109375" customWidth="1"/>
-    <col min="13573" max="13573" width="13.6640625" customWidth="1"/>
-    <col min="13574" max="13574" width="7.33203125" customWidth="1"/>
-    <col min="13575" max="13575" width="14.88671875" customWidth="1"/>
-    <col min="13576" max="13576" width="22.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="36.44140625" customWidth="1"/>
-    <col min="13827" max="13827" width="4.5546875" customWidth="1"/>
-    <col min="13828" max="13828" width="26.109375" customWidth="1"/>
-    <col min="13829" max="13829" width="13.6640625" customWidth="1"/>
-    <col min="13830" max="13830" width="7.33203125" customWidth="1"/>
-    <col min="13831" max="13831" width="14.88671875" customWidth="1"/>
-    <col min="13832" max="13832" width="22.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="36.44140625" customWidth="1"/>
-    <col min="14083" max="14083" width="4.5546875" customWidth="1"/>
-    <col min="14084" max="14084" width="26.109375" customWidth="1"/>
-    <col min="14085" max="14085" width="13.6640625" customWidth="1"/>
-    <col min="14086" max="14086" width="7.33203125" customWidth="1"/>
-    <col min="14087" max="14087" width="14.88671875" customWidth="1"/>
-    <col min="14088" max="14088" width="22.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="36.44140625" customWidth="1"/>
-    <col min="14339" max="14339" width="4.5546875" customWidth="1"/>
-    <col min="14340" max="14340" width="26.109375" customWidth="1"/>
-    <col min="14341" max="14341" width="13.6640625" customWidth="1"/>
-    <col min="14342" max="14342" width="7.33203125" customWidth="1"/>
-    <col min="14343" max="14343" width="14.88671875" customWidth="1"/>
-    <col min="14344" max="14344" width="22.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="36.44140625" customWidth="1"/>
-    <col min="14595" max="14595" width="4.5546875" customWidth="1"/>
-    <col min="14596" max="14596" width="26.109375" customWidth="1"/>
-    <col min="14597" max="14597" width="13.6640625" customWidth="1"/>
-    <col min="14598" max="14598" width="7.33203125" customWidth="1"/>
-    <col min="14599" max="14599" width="14.88671875" customWidth="1"/>
-    <col min="14600" max="14600" width="22.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="36.44140625" customWidth="1"/>
-    <col min="14851" max="14851" width="4.5546875" customWidth="1"/>
-    <col min="14852" max="14852" width="26.109375" customWidth="1"/>
-    <col min="14853" max="14853" width="13.6640625" customWidth="1"/>
-    <col min="14854" max="14854" width="7.33203125" customWidth="1"/>
-    <col min="14855" max="14855" width="14.88671875" customWidth="1"/>
-    <col min="14856" max="14856" width="22.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="36.44140625" customWidth="1"/>
-    <col min="15107" max="15107" width="4.5546875" customWidth="1"/>
-    <col min="15108" max="15108" width="26.109375" customWidth="1"/>
-    <col min="15109" max="15109" width="13.6640625" customWidth="1"/>
-    <col min="15110" max="15110" width="7.33203125" customWidth="1"/>
-    <col min="15111" max="15111" width="14.88671875" customWidth="1"/>
-    <col min="15112" max="15112" width="22.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="36.44140625" customWidth="1"/>
-    <col min="15363" max="15363" width="4.5546875" customWidth="1"/>
-    <col min="15364" max="15364" width="26.109375" customWidth="1"/>
-    <col min="15365" max="15365" width="13.6640625" customWidth="1"/>
-    <col min="15366" max="15366" width="7.33203125" customWidth="1"/>
-    <col min="15367" max="15367" width="14.88671875" customWidth="1"/>
-    <col min="15368" max="15368" width="22.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="36.44140625" customWidth="1"/>
-    <col min="15619" max="15619" width="4.5546875" customWidth="1"/>
-    <col min="15620" max="15620" width="26.109375" customWidth="1"/>
-    <col min="15621" max="15621" width="13.6640625" customWidth="1"/>
-    <col min="15622" max="15622" width="7.33203125" customWidth="1"/>
-    <col min="15623" max="15623" width="14.88671875" customWidth="1"/>
-    <col min="15624" max="15624" width="22.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="36.44140625" customWidth="1"/>
-    <col min="15875" max="15875" width="4.5546875" customWidth="1"/>
-    <col min="15876" max="15876" width="26.109375" customWidth="1"/>
-    <col min="15877" max="15877" width="13.6640625" customWidth="1"/>
-    <col min="15878" max="15878" width="7.33203125" customWidth="1"/>
-    <col min="15879" max="15879" width="14.88671875" customWidth="1"/>
-    <col min="15880" max="15880" width="22.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="36.44140625" customWidth="1"/>
-    <col min="16131" max="16131" width="4.5546875" customWidth="1"/>
-    <col min="16132" max="16132" width="26.109375" customWidth="1"/>
-    <col min="16133" max="16133" width="13.6640625" customWidth="1"/>
-    <col min="16134" max="16134" width="7.33203125" customWidth="1"/>
-    <col min="16135" max="16135" width="14.88671875" customWidth="1"/>
-    <col min="16136" max="16136" width="22.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="259" max="259" width="4.5703125" customWidth="1"/>
+    <col min="260" max="260" width="26.140625" customWidth="1"/>
+    <col min="261" max="261" width="13.7109375" customWidth="1"/>
+    <col min="262" max="262" width="7.28515625" customWidth="1"/>
+    <col min="263" max="263" width="14.85546875" customWidth="1"/>
+    <col min="264" max="264" width="22.7109375" customWidth="1"/>
+    <col min="265" max="265" width="36.42578125" customWidth="1"/>
+    <col min="515" max="515" width="4.5703125" customWidth="1"/>
+    <col min="516" max="516" width="26.140625" customWidth="1"/>
+    <col min="517" max="517" width="13.7109375" customWidth="1"/>
+    <col min="518" max="518" width="7.28515625" customWidth="1"/>
+    <col min="519" max="519" width="14.85546875" customWidth="1"/>
+    <col min="520" max="520" width="22.7109375" customWidth="1"/>
+    <col min="521" max="521" width="36.42578125" customWidth="1"/>
+    <col min="771" max="771" width="4.5703125" customWidth="1"/>
+    <col min="772" max="772" width="26.140625" customWidth="1"/>
+    <col min="773" max="773" width="13.7109375" customWidth="1"/>
+    <col min="774" max="774" width="7.28515625" customWidth="1"/>
+    <col min="775" max="775" width="14.85546875" customWidth="1"/>
+    <col min="776" max="776" width="22.7109375" customWidth="1"/>
+    <col min="777" max="777" width="36.42578125" customWidth="1"/>
+    <col min="1027" max="1027" width="4.5703125" customWidth="1"/>
+    <col min="1028" max="1028" width="26.140625" customWidth="1"/>
+    <col min="1029" max="1029" width="13.7109375" customWidth="1"/>
+    <col min="1030" max="1030" width="7.28515625" customWidth="1"/>
+    <col min="1031" max="1031" width="14.85546875" customWidth="1"/>
+    <col min="1032" max="1032" width="22.7109375" customWidth="1"/>
+    <col min="1033" max="1033" width="36.42578125" customWidth="1"/>
+    <col min="1283" max="1283" width="4.5703125" customWidth="1"/>
+    <col min="1284" max="1284" width="26.140625" customWidth="1"/>
+    <col min="1285" max="1285" width="13.7109375" customWidth="1"/>
+    <col min="1286" max="1286" width="7.28515625" customWidth="1"/>
+    <col min="1287" max="1287" width="14.85546875" customWidth="1"/>
+    <col min="1288" max="1288" width="22.7109375" customWidth="1"/>
+    <col min="1289" max="1289" width="36.42578125" customWidth="1"/>
+    <col min="1539" max="1539" width="4.5703125" customWidth="1"/>
+    <col min="1540" max="1540" width="26.140625" customWidth="1"/>
+    <col min="1541" max="1541" width="13.7109375" customWidth="1"/>
+    <col min="1542" max="1542" width="7.28515625" customWidth="1"/>
+    <col min="1543" max="1543" width="14.85546875" customWidth="1"/>
+    <col min="1544" max="1544" width="22.7109375" customWidth="1"/>
+    <col min="1545" max="1545" width="36.42578125" customWidth="1"/>
+    <col min="1795" max="1795" width="4.5703125" customWidth="1"/>
+    <col min="1796" max="1796" width="26.140625" customWidth="1"/>
+    <col min="1797" max="1797" width="13.7109375" customWidth="1"/>
+    <col min="1798" max="1798" width="7.28515625" customWidth="1"/>
+    <col min="1799" max="1799" width="14.85546875" customWidth="1"/>
+    <col min="1800" max="1800" width="22.7109375" customWidth="1"/>
+    <col min="1801" max="1801" width="36.42578125" customWidth="1"/>
+    <col min="2051" max="2051" width="4.5703125" customWidth="1"/>
+    <col min="2052" max="2052" width="26.140625" customWidth="1"/>
+    <col min="2053" max="2053" width="13.7109375" customWidth="1"/>
+    <col min="2054" max="2054" width="7.28515625" customWidth="1"/>
+    <col min="2055" max="2055" width="14.85546875" customWidth="1"/>
+    <col min="2056" max="2056" width="22.7109375" customWidth="1"/>
+    <col min="2057" max="2057" width="36.42578125" customWidth="1"/>
+    <col min="2307" max="2307" width="4.5703125" customWidth="1"/>
+    <col min="2308" max="2308" width="26.140625" customWidth="1"/>
+    <col min="2309" max="2309" width="13.7109375" customWidth="1"/>
+    <col min="2310" max="2310" width="7.28515625" customWidth="1"/>
+    <col min="2311" max="2311" width="14.85546875" customWidth="1"/>
+    <col min="2312" max="2312" width="22.7109375" customWidth="1"/>
+    <col min="2313" max="2313" width="36.42578125" customWidth="1"/>
+    <col min="2563" max="2563" width="4.5703125" customWidth="1"/>
+    <col min="2564" max="2564" width="26.140625" customWidth="1"/>
+    <col min="2565" max="2565" width="13.7109375" customWidth="1"/>
+    <col min="2566" max="2566" width="7.28515625" customWidth="1"/>
+    <col min="2567" max="2567" width="14.85546875" customWidth="1"/>
+    <col min="2568" max="2568" width="22.7109375" customWidth="1"/>
+    <col min="2569" max="2569" width="36.42578125" customWidth="1"/>
+    <col min="2819" max="2819" width="4.5703125" customWidth="1"/>
+    <col min="2820" max="2820" width="26.140625" customWidth="1"/>
+    <col min="2821" max="2821" width="13.7109375" customWidth="1"/>
+    <col min="2822" max="2822" width="7.28515625" customWidth="1"/>
+    <col min="2823" max="2823" width="14.85546875" customWidth="1"/>
+    <col min="2824" max="2824" width="22.7109375" customWidth="1"/>
+    <col min="2825" max="2825" width="36.42578125" customWidth="1"/>
+    <col min="3075" max="3075" width="4.5703125" customWidth="1"/>
+    <col min="3076" max="3076" width="26.140625" customWidth="1"/>
+    <col min="3077" max="3077" width="13.7109375" customWidth="1"/>
+    <col min="3078" max="3078" width="7.28515625" customWidth="1"/>
+    <col min="3079" max="3079" width="14.85546875" customWidth="1"/>
+    <col min="3080" max="3080" width="22.7109375" customWidth="1"/>
+    <col min="3081" max="3081" width="36.42578125" customWidth="1"/>
+    <col min="3331" max="3331" width="4.5703125" customWidth="1"/>
+    <col min="3332" max="3332" width="26.140625" customWidth="1"/>
+    <col min="3333" max="3333" width="13.7109375" customWidth="1"/>
+    <col min="3334" max="3334" width="7.28515625" customWidth="1"/>
+    <col min="3335" max="3335" width="14.85546875" customWidth="1"/>
+    <col min="3336" max="3336" width="22.7109375" customWidth="1"/>
+    <col min="3337" max="3337" width="36.42578125" customWidth="1"/>
+    <col min="3587" max="3587" width="4.5703125" customWidth="1"/>
+    <col min="3588" max="3588" width="26.140625" customWidth="1"/>
+    <col min="3589" max="3589" width="13.7109375" customWidth="1"/>
+    <col min="3590" max="3590" width="7.28515625" customWidth="1"/>
+    <col min="3591" max="3591" width="14.85546875" customWidth="1"/>
+    <col min="3592" max="3592" width="22.7109375" customWidth="1"/>
+    <col min="3593" max="3593" width="36.42578125" customWidth="1"/>
+    <col min="3843" max="3843" width="4.5703125" customWidth="1"/>
+    <col min="3844" max="3844" width="26.140625" customWidth="1"/>
+    <col min="3845" max="3845" width="13.7109375" customWidth="1"/>
+    <col min="3846" max="3846" width="7.28515625" customWidth="1"/>
+    <col min="3847" max="3847" width="14.85546875" customWidth="1"/>
+    <col min="3848" max="3848" width="22.7109375" customWidth="1"/>
+    <col min="3849" max="3849" width="36.42578125" customWidth="1"/>
+    <col min="4099" max="4099" width="4.5703125" customWidth="1"/>
+    <col min="4100" max="4100" width="26.140625" customWidth="1"/>
+    <col min="4101" max="4101" width="13.7109375" customWidth="1"/>
+    <col min="4102" max="4102" width="7.28515625" customWidth="1"/>
+    <col min="4103" max="4103" width="14.85546875" customWidth="1"/>
+    <col min="4104" max="4104" width="22.7109375" customWidth="1"/>
+    <col min="4105" max="4105" width="36.42578125" customWidth="1"/>
+    <col min="4355" max="4355" width="4.5703125" customWidth="1"/>
+    <col min="4356" max="4356" width="26.140625" customWidth="1"/>
+    <col min="4357" max="4357" width="13.7109375" customWidth="1"/>
+    <col min="4358" max="4358" width="7.28515625" customWidth="1"/>
+    <col min="4359" max="4359" width="14.85546875" customWidth="1"/>
+    <col min="4360" max="4360" width="22.7109375" customWidth="1"/>
+    <col min="4361" max="4361" width="36.42578125" customWidth="1"/>
+    <col min="4611" max="4611" width="4.5703125" customWidth="1"/>
+    <col min="4612" max="4612" width="26.140625" customWidth="1"/>
+    <col min="4613" max="4613" width="13.7109375" customWidth="1"/>
+    <col min="4614" max="4614" width="7.28515625" customWidth="1"/>
+    <col min="4615" max="4615" width="14.85546875" customWidth="1"/>
+    <col min="4616" max="4616" width="22.7109375" customWidth="1"/>
+    <col min="4617" max="4617" width="36.42578125" customWidth="1"/>
+    <col min="4867" max="4867" width="4.5703125" customWidth="1"/>
+    <col min="4868" max="4868" width="26.140625" customWidth="1"/>
+    <col min="4869" max="4869" width="13.7109375" customWidth="1"/>
+    <col min="4870" max="4870" width="7.28515625" customWidth="1"/>
+    <col min="4871" max="4871" width="14.85546875" customWidth="1"/>
+    <col min="4872" max="4872" width="22.7109375" customWidth="1"/>
+    <col min="4873" max="4873" width="36.42578125" customWidth="1"/>
+    <col min="5123" max="5123" width="4.5703125" customWidth="1"/>
+    <col min="5124" max="5124" width="26.140625" customWidth="1"/>
+    <col min="5125" max="5125" width="13.7109375" customWidth="1"/>
+    <col min="5126" max="5126" width="7.28515625" customWidth="1"/>
+    <col min="5127" max="5127" width="14.85546875" customWidth="1"/>
+    <col min="5128" max="5128" width="22.7109375" customWidth="1"/>
+    <col min="5129" max="5129" width="36.42578125" customWidth="1"/>
+    <col min="5379" max="5379" width="4.5703125" customWidth="1"/>
+    <col min="5380" max="5380" width="26.140625" customWidth="1"/>
+    <col min="5381" max="5381" width="13.7109375" customWidth="1"/>
+    <col min="5382" max="5382" width="7.28515625" customWidth="1"/>
+    <col min="5383" max="5383" width="14.85546875" customWidth="1"/>
+    <col min="5384" max="5384" width="22.7109375" customWidth="1"/>
+    <col min="5385" max="5385" width="36.42578125" customWidth="1"/>
+    <col min="5635" max="5635" width="4.5703125" customWidth="1"/>
+    <col min="5636" max="5636" width="26.140625" customWidth="1"/>
+    <col min="5637" max="5637" width="13.7109375" customWidth="1"/>
+    <col min="5638" max="5638" width="7.28515625" customWidth="1"/>
+    <col min="5639" max="5639" width="14.85546875" customWidth="1"/>
+    <col min="5640" max="5640" width="22.7109375" customWidth="1"/>
+    <col min="5641" max="5641" width="36.42578125" customWidth="1"/>
+    <col min="5891" max="5891" width="4.5703125" customWidth="1"/>
+    <col min="5892" max="5892" width="26.140625" customWidth="1"/>
+    <col min="5893" max="5893" width="13.7109375" customWidth="1"/>
+    <col min="5894" max="5894" width="7.28515625" customWidth="1"/>
+    <col min="5895" max="5895" width="14.85546875" customWidth="1"/>
+    <col min="5896" max="5896" width="22.7109375" customWidth="1"/>
+    <col min="5897" max="5897" width="36.42578125" customWidth="1"/>
+    <col min="6147" max="6147" width="4.5703125" customWidth="1"/>
+    <col min="6148" max="6148" width="26.140625" customWidth="1"/>
+    <col min="6149" max="6149" width="13.7109375" customWidth="1"/>
+    <col min="6150" max="6150" width="7.28515625" customWidth="1"/>
+    <col min="6151" max="6151" width="14.85546875" customWidth="1"/>
+    <col min="6152" max="6152" width="22.7109375" customWidth="1"/>
+    <col min="6153" max="6153" width="36.42578125" customWidth="1"/>
+    <col min="6403" max="6403" width="4.5703125" customWidth="1"/>
+    <col min="6404" max="6404" width="26.140625" customWidth="1"/>
+    <col min="6405" max="6405" width="13.7109375" customWidth="1"/>
+    <col min="6406" max="6406" width="7.28515625" customWidth="1"/>
+    <col min="6407" max="6407" width="14.85546875" customWidth="1"/>
+    <col min="6408" max="6408" width="22.7109375" customWidth="1"/>
+    <col min="6409" max="6409" width="36.42578125" customWidth="1"/>
+    <col min="6659" max="6659" width="4.5703125" customWidth="1"/>
+    <col min="6660" max="6660" width="26.140625" customWidth="1"/>
+    <col min="6661" max="6661" width="13.7109375" customWidth="1"/>
+    <col min="6662" max="6662" width="7.28515625" customWidth="1"/>
+    <col min="6663" max="6663" width="14.85546875" customWidth="1"/>
+    <col min="6664" max="6664" width="22.7109375" customWidth="1"/>
+    <col min="6665" max="6665" width="36.42578125" customWidth="1"/>
+    <col min="6915" max="6915" width="4.5703125" customWidth="1"/>
+    <col min="6916" max="6916" width="26.140625" customWidth="1"/>
+    <col min="6917" max="6917" width="13.7109375" customWidth="1"/>
+    <col min="6918" max="6918" width="7.28515625" customWidth="1"/>
+    <col min="6919" max="6919" width="14.85546875" customWidth="1"/>
+    <col min="6920" max="6920" width="22.7109375" customWidth="1"/>
+    <col min="6921" max="6921" width="36.42578125" customWidth="1"/>
+    <col min="7171" max="7171" width="4.5703125" customWidth="1"/>
+    <col min="7172" max="7172" width="26.140625" customWidth="1"/>
+    <col min="7173" max="7173" width="13.7109375" customWidth="1"/>
+    <col min="7174" max="7174" width="7.28515625" customWidth="1"/>
+    <col min="7175" max="7175" width="14.85546875" customWidth="1"/>
+    <col min="7176" max="7176" width="22.7109375" customWidth="1"/>
+    <col min="7177" max="7177" width="36.42578125" customWidth="1"/>
+    <col min="7427" max="7427" width="4.5703125" customWidth="1"/>
+    <col min="7428" max="7428" width="26.140625" customWidth="1"/>
+    <col min="7429" max="7429" width="13.7109375" customWidth="1"/>
+    <col min="7430" max="7430" width="7.28515625" customWidth="1"/>
+    <col min="7431" max="7431" width="14.85546875" customWidth="1"/>
+    <col min="7432" max="7432" width="22.7109375" customWidth="1"/>
+    <col min="7433" max="7433" width="36.42578125" customWidth="1"/>
+    <col min="7683" max="7683" width="4.5703125" customWidth="1"/>
+    <col min="7684" max="7684" width="26.140625" customWidth="1"/>
+    <col min="7685" max="7685" width="13.7109375" customWidth="1"/>
+    <col min="7686" max="7686" width="7.28515625" customWidth="1"/>
+    <col min="7687" max="7687" width="14.85546875" customWidth="1"/>
+    <col min="7688" max="7688" width="22.7109375" customWidth="1"/>
+    <col min="7689" max="7689" width="36.42578125" customWidth="1"/>
+    <col min="7939" max="7939" width="4.5703125" customWidth="1"/>
+    <col min="7940" max="7940" width="26.140625" customWidth="1"/>
+    <col min="7941" max="7941" width="13.7109375" customWidth="1"/>
+    <col min="7942" max="7942" width="7.28515625" customWidth="1"/>
+    <col min="7943" max="7943" width="14.85546875" customWidth="1"/>
+    <col min="7944" max="7944" width="22.7109375" customWidth="1"/>
+    <col min="7945" max="7945" width="36.42578125" customWidth="1"/>
+    <col min="8195" max="8195" width="4.5703125" customWidth="1"/>
+    <col min="8196" max="8196" width="26.140625" customWidth="1"/>
+    <col min="8197" max="8197" width="13.7109375" customWidth="1"/>
+    <col min="8198" max="8198" width="7.28515625" customWidth="1"/>
+    <col min="8199" max="8199" width="14.85546875" customWidth="1"/>
+    <col min="8200" max="8200" width="22.7109375" customWidth="1"/>
+    <col min="8201" max="8201" width="36.42578125" customWidth="1"/>
+    <col min="8451" max="8451" width="4.5703125" customWidth="1"/>
+    <col min="8452" max="8452" width="26.140625" customWidth="1"/>
+    <col min="8453" max="8453" width="13.7109375" customWidth="1"/>
+    <col min="8454" max="8454" width="7.28515625" customWidth="1"/>
+    <col min="8455" max="8455" width="14.85546875" customWidth="1"/>
+    <col min="8456" max="8456" width="22.7109375" customWidth="1"/>
+    <col min="8457" max="8457" width="36.42578125" customWidth="1"/>
+    <col min="8707" max="8707" width="4.5703125" customWidth="1"/>
+    <col min="8708" max="8708" width="26.140625" customWidth="1"/>
+    <col min="8709" max="8709" width="13.7109375" customWidth="1"/>
+    <col min="8710" max="8710" width="7.28515625" customWidth="1"/>
+    <col min="8711" max="8711" width="14.85546875" customWidth="1"/>
+    <col min="8712" max="8712" width="22.7109375" customWidth="1"/>
+    <col min="8713" max="8713" width="36.42578125" customWidth="1"/>
+    <col min="8963" max="8963" width="4.5703125" customWidth="1"/>
+    <col min="8964" max="8964" width="26.140625" customWidth="1"/>
+    <col min="8965" max="8965" width="13.7109375" customWidth="1"/>
+    <col min="8966" max="8966" width="7.28515625" customWidth="1"/>
+    <col min="8967" max="8967" width="14.85546875" customWidth="1"/>
+    <col min="8968" max="8968" width="22.7109375" customWidth="1"/>
+    <col min="8969" max="8969" width="36.42578125" customWidth="1"/>
+    <col min="9219" max="9219" width="4.5703125" customWidth="1"/>
+    <col min="9220" max="9220" width="26.140625" customWidth="1"/>
+    <col min="9221" max="9221" width="13.7109375" customWidth="1"/>
+    <col min="9222" max="9222" width="7.28515625" customWidth="1"/>
+    <col min="9223" max="9223" width="14.85546875" customWidth="1"/>
+    <col min="9224" max="9224" width="22.7109375" customWidth="1"/>
+    <col min="9225" max="9225" width="36.42578125" customWidth="1"/>
+    <col min="9475" max="9475" width="4.5703125" customWidth="1"/>
+    <col min="9476" max="9476" width="26.140625" customWidth="1"/>
+    <col min="9477" max="9477" width="13.7109375" customWidth="1"/>
+    <col min="9478" max="9478" width="7.28515625" customWidth="1"/>
+    <col min="9479" max="9479" width="14.85546875" customWidth="1"/>
+    <col min="9480" max="9480" width="22.7109375" customWidth="1"/>
+    <col min="9481" max="9481" width="36.42578125" customWidth="1"/>
+    <col min="9731" max="9731" width="4.5703125" customWidth="1"/>
+    <col min="9732" max="9732" width="26.140625" customWidth="1"/>
+    <col min="9733" max="9733" width="13.7109375" customWidth="1"/>
+    <col min="9734" max="9734" width="7.28515625" customWidth="1"/>
+    <col min="9735" max="9735" width="14.85546875" customWidth="1"/>
+    <col min="9736" max="9736" width="22.7109375" customWidth="1"/>
+    <col min="9737" max="9737" width="36.42578125" customWidth="1"/>
+    <col min="9987" max="9987" width="4.5703125" customWidth="1"/>
+    <col min="9988" max="9988" width="26.140625" customWidth="1"/>
+    <col min="9989" max="9989" width="13.7109375" customWidth="1"/>
+    <col min="9990" max="9990" width="7.28515625" customWidth="1"/>
+    <col min="9991" max="9991" width="14.85546875" customWidth="1"/>
+    <col min="9992" max="9992" width="22.7109375" customWidth="1"/>
+    <col min="9993" max="9993" width="36.42578125" customWidth="1"/>
+    <col min="10243" max="10243" width="4.5703125" customWidth="1"/>
+    <col min="10244" max="10244" width="26.140625" customWidth="1"/>
+    <col min="10245" max="10245" width="13.7109375" customWidth="1"/>
+    <col min="10246" max="10246" width="7.28515625" customWidth="1"/>
+    <col min="10247" max="10247" width="14.85546875" customWidth="1"/>
+    <col min="10248" max="10248" width="22.7109375" customWidth="1"/>
+    <col min="10249" max="10249" width="36.42578125" customWidth="1"/>
+    <col min="10499" max="10499" width="4.5703125" customWidth="1"/>
+    <col min="10500" max="10500" width="26.140625" customWidth="1"/>
+    <col min="10501" max="10501" width="13.7109375" customWidth="1"/>
+    <col min="10502" max="10502" width="7.28515625" customWidth="1"/>
+    <col min="10503" max="10503" width="14.85546875" customWidth="1"/>
+    <col min="10504" max="10504" width="22.7109375" customWidth="1"/>
+    <col min="10505" max="10505" width="36.42578125" customWidth="1"/>
+    <col min="10755" max="10755" width="4.5703125" customWidth="1"/>
+    <col min="10756" max="10756" width="26.140625" customWidth="1"/>
+    <col min="10757" max="10757" width="13.7109375" customWidth="1"/>
+    <col min="10758" max="10758" width="7.28515625" customWidth="1"/>
+    <col min="10759" max="10759" width="14.85546875" customWidth="1"/>
+    <col min="10760" max="10760" width="22.7109375" customWidth="1"/>
+    <col min="10761" max="10761" width="36.42578125" customWidth="1"/>
+    <col min="11011" max="11011" width="4.5703125" customWidth="1"/>
+    <col min="11012" max="11012" width="26.140625" customWidth="1"/>
+    <col min="11013" max="11013" width="13.7109375" customWidth="1"/>
+    <col min="11014" max="11014" width="7.28515625" customWidth="1"/>
+    <col min="11015" max="11015" width="14.85546875" customWidth="1"/>
+    <col min="11016" max="11016" width="22.7109375" customWidth="1"/>
+    <col min="11017" max="11017" width="36.42578125" customWidth="1"/>
+    <col min="11267" max="11267" width="4.5703125" customWidth="1"/>
+    <col min="11268" max="11268" width="26.140625" customWidth="1"/>
+    <col min="11269" max="11269" width="13.7109375" customWidth="1"/>
+    <col min="11270" max="11270" width="7.28515625" customWidth="1"/>
+    <col min="11271" max="11271" width="14.85546875" customWidth="1"/>
+    <col min="11272" max="11272" width="22.7109375" customWidth="1"/>
+    <col min="11273" max="11273" width="36.42578125" customWidth="1"/>
+    <col min="11523" max="11523" width="4.5703125" customWidth="1"/>
+    <col min="11524" max="11524" width="26.140625" customWidth="1"/>
+    <col min="11525" max="11525" width="13.7109375" customWidth="1"/>
+    <col min="11526" max="11526" width="7.28515625" customWidth="1"/>
+    <col min="11527" max="11527" width="14.85546875" customWidth="1"/>
+    <col min="11528" max="11528" width="22.7109375" customWidth="1"/>
+    <col min="11529" max="11529" width="36.42578125" customWidth="1"/>
+    <col min="11779" max="11779" width="4.5703125" customWidth="1"/>
+    <col min="11780" max="11780" width="26.140625" customWidth="1"/>
+    <col min="11781" max="11781" width="13.7109375" customWidth="1"/>
+    <col min="11782" max="11782" width="7.28515625" customWidth="1"/>
+    <col min="11783" max="11783" width="14.85546875" customWidth="1"/>
+    <col min="11784" max="11784" width="22.7109375" customWidth="1"/>
+    <col min="11785" max="11785" width="36.42578125" customWidth="1"/>
+    <col min="12035" max="12035" width="4.5703125" customWidth="1"/>
+    <col min="12036" max="12036" width="26.140625" customWidth="1"/>
+    <col min="12037" max="12037" width="13.7109375" customWidth="1"/>
+    <col min="12038" max="12038" width="7.28515625" customWidth="1"/>
+    <col min="12039" max="12039" width="14.85546875" customWidth="1"/>
+    <col min="12040" max="12040" width="22.7109375" customWidth="1"/>
+    <col min="12041" max="12041" width="36.42578125" customWidth="1"/>
+    <col min="12291" max="12291" width="4.5703125" customWidth="1"/>
+    <col min="12292" max="12292" width="26.140625" customWidth="1"/>
+    <col min="12293" max="12293" width="13.7109375" customWidth="1"/>
+    <col min="12294" max="12294" width="7.28515625" customWidth="1"/>
+    <col min="12295" max="12295" width="14.85546875" customWidth="1"/>
+    <col min="12296" max="12296" width="22.7109375" customWidth="1"/>
+    <col min="12297" max="12297" width="36.42578125" customWidth="1"/>
+    <col min="12547" max="12547" width="4.5703125" customWidth="1"/>
+    <col min="12548" max="12548" width="26.140625" customWidth="1"/>
+    <col min="12549" max="12549" width="13.7109375" customWidth="1"/>
+    <col min="12550" max="12550" width="7.28515625" customWidth="1"/>
+    <col min="12551" max="12551" width="14.85546875" customWidth="1"/>
+    <col min="12552" max="12552" width="22.7109375" customWidth="1"/>
+    <col min="12553" max="12553" width="36.42578125" customWidth="1"/>
+    <col min="12803" max="12803" width="4.5703125" customWidth="1"/>
+    <col min="12804" max="12804" width="26.140625" customWidth="1"/>
+    <col min="12805" max="12805" width="13.7109375" customWidth="1"/>
+    <col min="12806" max="12806" width="7.28515625" customWidth="1"/>
+    <col min="12807" max="12807" width="14.85546875" customWidth="1"/>
+    <col min="12808" max="12808" width="22.7109375" customWidth="1"/>
+    <col min="12809" max="12809" width="36.42578125" customWidth="1"/>
+    <col min="13059" max="13059" width="4.5703125" customWidth="1"/>
+    <col min="13060" max="13060" width="26.140625" customWidth="1"/>
+    <col min="13061" max="13061" width="13.7109375" customWidth="1"/>
+    <col min="13062" max="13062" width="7.28515625" customWidth="1"/>
+    <col min="13063" max="13063" width="14.85546875" customWidth="1"/>
+    <col min="13064" max="13064" width="22.7109375" customWidth="1"/>
+    <col min="13065" max="13065" width="36.42578125" customWidth="1"/>
+    <col min="13315" max="13315" width="4.5703125" customWidth="1"/>
+    <col min="13316" max="13316" width="26.140625" customWidth="1"/>
+    <col min="13317" max="13317" width="13.7109375" customWidth="1"/>
+    <col min="13318" max="13318" width="7.28515625" customWidth="1"/>
+    <col min="13319" max="13319" width="14.85546875" customWidth="1"/>
+    <col min="13320" max="13320" width="22.7109375" customWidth="1"/>
+    <col min="13321" max="13321" width="36.42578125" customWidth="1"/>
+    <col min="13571" max="13571" width="4.5703125" customWidth="1"/>
+    <col min="13572" max="13572" width="26.140625" customWidth="1"/>
+    <col min="13573" max="13573" width="13.7109375" customWidth="1"/>
+    <col min="13574" max="13574" width="7.28515625" customWidth="1"/>
+    <col min="13575" max="13575" width="14.85546875" customWidth="1"/>
+    <col min="13576" max="13576" width="22.7109375" customWidth="1"/>
+    <col min="13577" max="13577" width="36.42578125" customWidth="1"/>
+    <col min="13827" max="13827" width="4.5703125" customWidth="1"/>
+    <col min="13828" max="13828" width="26.140625" customWidth="1"/>
+    <col min="13829" max="13829" width="13.7109375" customWidth="1"/>
+    <col min="13830" max="13830" width="7.28515625" customWidth="1"/>
+    <col min="13831" max="13831" width="14.85546875" customWidth="1"/>
+    <col min="13832" max="13832" width="22.7109375" customWidth="1"/>
+    <col min="13833" max="13833" width="36.42578125" customWidth="1"/>
+    <col min="14083" max="14083" width="4.5703125" customWidth="1"/>
+    <col min="14084" max="14084" width="26.140625" customWidth="1"/>
+    <col min="14085" max="14085" width="13.7109375" customWidth="1"/>
+    <col min="14086" max="14086" width="7.28515625" customWidth="1"/>
+    <col min="14087" max="14087" width="14.85546875" customWidth="1"/>
+    <col min="14088" max="14088" width="22.7109375" customWidth="1"/>
+    <col min="14089" max="14089" width="36.42578125" customWidth="1"/>
+    <col min="14339" max="14339" width="4.5703125" customWidth="1"/>
+    <col min="14340" max="14340" width="26.140625" customWidth="1"/>
+    <col min="14341" max="14341" width="13.7109375" customWidth="1"/>
+    <col min="14342" max="14342" width="7.28515625" customWidth="1"/>
+    <col min="14343" max="14343" width="14.85546875" customWidth="1"/>
+    <col min="14344" max="14344" width="22.7109375" customWidth="1"/>
+    <col min="14345" max="14345" width="36.42578125" customWidth="1"/>
+    <col min="14595" max="14595" width="4.5703125" customWidth="1"/>
+    <col min="14596" max="14596" width="26.140625" customWidth="1"/>
+    <col min="14597" max="14597" width="13.7109375" customWidth="1"/>
+    <col min="14598" max="14598" width="7.28515625" customWidth="1"/>
+    <col min="14599" max="14599" width="14.85546875" customWidth="1"/>
+    <col min="14600" max="14600" width="22.7109375" customWidth="1"/>
+    <col min="14601" max="14601" width="36.42578125" customWidth="1"/>
+    <col min="14851" max="14851" width="4.5703125" customWidth="1"/>
+    <col min="14852" max="14852" width="26.140625" customWidth="1"/>
+    <col min="14853" max="14853" width="13.7109375" customWidth="1"/>
+    <col min="14854" max="14854" width="7.28515625" customWidth="1"/>
+    <col min="14855" max="14855" width="14.85546875" customWidth="1"/>
+    <col min="14856" max="14856" width="22.7109375" customWidth="1"/>
+    <col min="14857" max="14857" width="36.42578125" customWidth="1"/>
+    <col min="15107" max="15107" width="4.5703125" customWidth="1"/>
+    <col min="15108" max="15108" width="26.140625" customWidth="1"/>
+    <col min="15109" max="15109" width="13.7109375" customWidth="1"/>
+    <col min="15110" max="15110" width="7.28515625" customWidth="1"/>
+    <col min="15111" max="15111" width="14.85546875" customWidth="1"/>
+    <col min="15112" max="15112" width="22.7109375" customWidth="1"/>
+    <col min="15113" max="15113" width="36.42578125" customWidth="1"/>
+    <col min="15363" max="15363" width="4.5703125" customWidth="1"/>
+    <col min="15364" max="15364" width="26.140625" customWidth="1"/>
+    <col min="15365" max="15365" width="13.7109375" customWidth="1"/>
+    <col min="15366" max="15366" width="7.28515625" customWidth="1"/>
+    <col min="15367" max="15367" width="14.85546875" customWidth="1"/>
+    <col min="15368" max="15368" width="22.7109375" customWidth="1"/>
+    <col min="15369" max="15369" width="36.42578125" customWidth="1"/>
+    <col min="15619" max="15619" width="4.5703125" customWidth="1"/>
+    <col min="15620" max="15620" width="26.140625" customWidth="1"/>
+    <col min="15621" max="15621" width="13.7109375" customWidth="1"/>
+    <col min="15622" max="15622" width="7.28515625" customWidth="1"/>
+    <col min="15623" max="15623" width="14.85546875" customWidth="1"/>
+    <col min="15624" max="15624" width="22.7109375" customWidth="1"/>
+    <col min="15625" max="15625" width="36.42578125" customWidth="1"/>
+    <col min="15875" max="15875" width="4.5703125" customWidth="1"/>
+    <col min="15876" max="15876" width="26.140625" customWidth="1"/>
+    <col min="15877" max="15877" width="13.7109375" customWidth="1"/>
+    <col min="15878" max="15878" width="7.28515625" customWidth="1"/>
+    <col min="15879" max="15879" width="14.85546875" customWidth="1"/>
+    <col min="15880" max="15880" width="22.7109375" customWidth="1"/>
+    <col min="15881" max="15881" width="36.42578125" customWidth="1"/>
+    <col min="16131" max="16131" width="4.5703125" customWidth="1"/>
+    <col min="16132" max="16132" width="26.140625" customWidth="1"/>
+    <col min="16133" max="16133" width="13.7109375" customWidth="1"/>
+    <col min="16134" max="16134" width="7.28515625" customWidth="1"/>
+    <col min="16135" max="16135" width="14.85546875" customWidth="1"/>
+    <col min="16136" max="16136" width="22.7109375" customWidth="1"/>
+    <col min="16137" max="16137" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
@@ -25035,266 +25079,266 @@
       <selection pane="bottomRight" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="53" width="2.33203125" customWidth="1"/>
-    <col min="259" max="259" width="2.109375" customWidth="1"/>
-    <col min="260" max="260" width="4.44140625" customWidth="1"/>
-    <col min="261" max="261" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="262" max="305" width="2.88671875" customWidth="1"/>
-    <col min="515" max="515" width="2.109375" customWidth="1"/>
-    <col min="516" max="516" width="4.44140625" customWidth="1"/>
-    <col min="517" max="517" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="518" max="561" width="2.88671875" customWidth="1"/>
-    <col min="771" max="771" width="2.109375" customWidth="1"/>
-    <col min="772" max="772" width="4.44140625" customWidth="1"/>
-    <col min="773" max="773" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="774" max="817" width="2.88671875" customWidth="1"/>
-    <col min="1027" max="1027" width="2.109375" customWidth="1"/>
-    <col min="1028" max="1028" width="4.44140625" customWidth="1"/>
-    <col min="1029" max="1029" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1073" width="2.88671875" customWidth="1"/>
-    <col min="1283" max="1283" width="2.109375" customWidth="1"/>
-    <col min="1284" max="1284" width="4.44140625" customWidth="1"/>
-    <col min="1285" max="1285" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1329" width="2.88671875" customWidth="1"/>
-    <col min="1539" max="1539" width="2.109375" customWidth="1"/>
-    <col min="1540" max="1540" width="4.44140625" customWidth="1"/>
-    <col min="1541" max="1541" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1585" width="2.88671875" customWidth="1"/>
-    <col min="1795" max="1795" width="2.109375" customWidth="1"/>
-    <col min="1796" max="1796" width="4.44140625" customWidth="1"/>
-    <col min="1797" max="1797" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1841" width="2.88671875" customWidth="1"/>
-    <col min="2051" max="2051" width="2.109375" customWidth="1"/>
-    <col min="2052" max="2052" width="4.44140625" customWidth="1"/>
-    <col min="2053" max="2053" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2097" width="2.88671875" customWidth="1"/>
-    <col min="2307" max="2307" width="2.109375" customWidth="1"/>
-    <col min="2308" max="2308" width="4.44140625" customWidth="1"/>
-    <col min="2309" max="2309" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2353" width="2.88671875" customWidth="1"/>
-    <col min="2563" max="2563" width="2.109375" customWidth="1"/>
-    <col min="2564" max="2564" width="4.44140625" customWidth="1"/>
-    <col min="2565" max="2565" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2609" width="2.88671875" customWidth="1"/>
-    <col min="2819" max="2819" width="2.109375" customWidth="1"/>
-    <col min="2820" max="2820" width="4.44140625" customWidth="1"/>
-    <col min="2821" max="2821" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2865" width="2.88671875" customWidth="1"/>
-    <col min="3075" max="3075" width="2.109375" customWidth="1"/>
-    <col min="3076" max="3076" width="4.44140625" customWidth="1"/>
-    <col min="3077" max="3077" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3121" width="2.88671875" customWidth="1"/>
-    <col min="3331" max="3331" width="2.109375" customWidth="1"/>
-    <col min="3332" max="3332" width="4.44140625" customWidth="1"/>
-    <col min="3333" max="3333" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3377" width="2.88671875" customWidth="1"/>
-    <col min="3587" max="3587" width="2.109375" customWidth="1"/>
-    <col min="3588" max="3588" width="4.44140625" customWidth="1"/>
-    <col min="3589" max="3589" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3633" width="2.88671875" customWidth="1"/>
-    <col min="3843" max="3843" width="2.109375" customWidth="1"/>
-    <col min="3844" max="3844" width="4.44140625" customWidth="1"/>
-    <col min="3845" max="3845" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3889" width="2.88671875" customWidth="1"/>
-    <col min="4099" max="4099" width="2.109375" customWidth="1"/>
-    <col min="4100" max="4100" width="4.44140625" customWidth="1"/>
-    <col min="4101" max="4101" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4145" width="2.88671875" customWidth="1"/>
-    <col min="4355" max="4355" width="2.109375" customWidth="1"/>
-    <col min="4356" max="4356" width="4.44140625" customWidth="1"/>
-    <col min="4357" max="4357" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4401" width="2.88671875" customWidth="1"/>
-    <col min="4611" max="4611" width="2.109375" customWidth="1"/>
-    <col min="4612" max="4612" width="4.44140625" customWidth="1"/>
-    <col min="4613" max="4613" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4657" width="2.88671875" customWidth="1"/>
-    <col min="4867" max="4867" width="2.109375" customWidth="1"/>
-    <col min="4868" max="4868" width="4.44140625" customWidth="1"/>
-    <col min="4869" max="4869" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4913" width="2.88671875" customWidth="1"/>
-    <col min="5123" max="5123" width="2.109375" customWidth="1"/>
-    <col min="5124" max="5124" width="4.44140625" customWidth="1"/>
-    <col min="5125" max="5125" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5169" width="2.88671875" customWidth="1"/>
-    <col min="5379" max="5379" width="2.109375" customWidth="1"/>
-    <col min="5380" max="5380" width="4.44140625" customWidth="1"/>
-    <col min="5381" max="5381" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5425" width="2.88671875" customWidth="1"/>
-    <col min="5635" max="5635" width="2.109375" customWidth="1"/>
-    <col min="5636" max="5636" width="4.44140625" customWidth="1"/>
-    <col min="5637" max="5637" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5681" width="2.88671875" customWidth="1"/>
-    <col min="5891" max="5891" width="2.109375" customWidth="1"/>
-    <col min="5892" max="5892" width="4.44140625" customWidth="1"/>
-    <col min="5893" max="5893" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5937" width="2.88671875" customWidth="1"/>
-    <col min="6147" max="6147" width="2.109375" customWidth="1"/>
-    <col min="6148" max="6148" width="4.44140625" customWidth="1"/>
-    <col min="6149" max="6149" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6193" width="2.88671875" customWidth="1"/>
-    <col min="6403" max="6403" width="2.109375" customWidth="1"/>
-    <col min="6404" max="6404" width="4.44140625" customWidth="1"/>
-    <col min="6405" max="6405" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6449" width="2.88671875" customWidth="1"/>
-    <col min="6659" max="6659" width="2.109375" customWidth="1"/>
-    <col min="6660" max="6660" width="4.44140625" customWidth="1"/>
-    <col min="6661" max="6661" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6705" width="2.88671875" customWidth="1"/>
-    <col min="6915" max="6915" width="2.109375" customWidth="1"/>
-    <col min="6916" max="6916" width="4.44140625" customWidth="1"/>
-    <col min="6917" max="6917" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6961" width="2.88671875" customWidth="1"/>
-    <col min="7171" max="7171" width="2.109375" customWidth="1"/>
-    <col min="7172" max="7172" width="4.44140625" customWidth="1"/>
-    <col min="7173" max="7173" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7217" width="2.88671875" customWidth="1"/>
-    <col min="7427" max="7427" width="2.109375" customWidth="1"/>
-    <col min="7428" max="7428" width="4.44140625" customWidth="1"/>
-    <col min="7429" max="7429" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7473" width="2.88671875" customWidth="1"/>
-    <col min="7683" max="7683" width="2.109375" customWidth="1"/>
-    <col min="7684" max="7684" width="4.44140625" customWidth="1"/>
-    <col min="7685" max="7685" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7729" width="2.88671875" customWidth="1"/>
-    <col min="7939" max="7939" width="2.109375" customWidth="1"/>
-    <col min="7940" max="7940" width="4.44140625" customWidth="1"/>
-    <col min="7941" max="7941" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7985" width="2.88671875" customWidth="1"/>
-    <col min="8195" max="8195" width="2.109375" customWidth="1"/>
-    <col min="8196" max="8196" width="4.44140625" customWidth="1"/>
-    <col min="8197" max="8197" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8241" width="2.88671875" customWidth="1"/>
-    <col min="8451" max="8451" width="2.109375" customWidth="1"/>
-    <col min="8452" max="8452" width="4.44140625" customWidth="1"/>
-    <col min="8453" max="8453" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8497" width="2.88671875" customWidth="1"/>
-    <col min="8707" max="8707" width="2.109375" customWidth="1"/>
-    <col min="8708" max="8708" width="4.44140625" customWidth="1"/>
-    <col min="8709" max="8709" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8753" width="2.88671875" customWidth="1"/>
-    <col min="8963" max="8963" width="2.109375" customWidth="1"/>
-    <col min="8964" max="8964" width="4.44140625" customWidth="1"/>
-    <col min="8965" max="8965" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9009" width="2.88671875" customWidth="1"/>
-    <col min="9219" max="9219" width="2.109375" customWidth="1"/>
-    <col min="9220" max="9220" width="4.44140625" customWidth="1"/>
-    <col min="9221" max="9221" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9265" width="2.88671875" customWidth="1"/>
-    <col min="9475" max="9475" width="2.109375" customWidth="1"/>
-    <col min="9476" max="9476" width="4.44140625" customWidth="1"/>
-    <col min="9477" max="9477" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9521" width="2.88671875" customWidth="1"/>
-    <col min="9731" max="9731" width="2.109375" customWidth="1"/>
-    <col min="9732" max="9732" width="4.44140625" customWidth="1"/>
-    <col min="9733" max="9733" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9777" width="2.88671875" customWidth="1"/>
-    <col min="9987" max="9987" width="2.109375" customWidth="1"/>
-    <col min="9988" max="9988" width="4.44140625" customWidth="1"/>
-    <col min="9989" max="9989" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10033" width="2.88671875" customWidth="1"/>
-    <col min="10243" max="10243" width="2.109375" customWidth="1"/>
-    <col min="10244" max="10244" width="4.44140625" customWidth="1"/>
-    <col min="10245" max="10245" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10289" width="2.88671875" customWidth="1"/>
-    <col min="10499" max="10499" width="2.109375" customWidth="1"/>
-    <col min="10500" max="10500" width="4.44140625" customWidth="1"/>
-    <col min="10501" max="10501" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10545" width="2.88671875" customWidth="1"/>
-    <col min="10755" max="10755" width="2.109375" customWidth="1"/>
-    <col min="10756" max="10756" width="4.44140625" customWidth="1"/>
-    <col min="10757" max="10757" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10801" width="2.88671875" customWidth="1"/>
-    <col min="11011" max="11011" width="2.109375" customWidth="1"/>
-    <col min="11012" max="11012" width="4.44140625" customWidth="1"/>
-    <col min="11013" max="11013" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11057" width="2.88671875" customWidth="1"/>
-    <col min="11267" max="11267" width="2.109375" customWidth="1"/>
-    <col min="11268" max="11268" width="4.44140625" customWidth="1"/>
-    <col min="11269" max="11269" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11313" width="2.88671875" customWidth="1"/>
-    <col min="11523" max="11523" width="2.109375" customWidth="1"/>
-    <col min="11524" max="11524" width="4.44140625" customWidth="1"/>
-    <col min="11525" max="11525" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11569" width="2.88671875" customWidth="1"/>
-    <col min="11779" max="11779" width="2.109375" customWidth="1"/>
-    <col min="11780" max="11780" width="4.44140625" customWidth="1"/>
-    <col min="11781" max="11781" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11825" width="2.88671875" customWidth="1"/>
-    <col min="12035" max="12035" width="2.109375" customWidth="1"/>
-    <col min="12036" max="12036" width="4.44140625" customWidth="1"/>
-    <col min="12037" max="12037" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12081" width="2.88671875" customWidth="1"/>
-    <col min="12291" max="12291" width="2.109375" customWidth="1"/>
-    <col min="12292" max="12292" width="4.44140625" customWidth="1"/>
-    <col min="12293" max="12293" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12337" width="2.88671875" customWidth="1"/>
-    <col min="12547" max="12547" width="2.109375" customWidth="1"/>
-    <col min="12548" max="12548" width="4.44140625" customWidth="1"/>
-    <col min="12549" max="12549" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12593" width="2.88671875" customWidth="1"/>
-    <col min="12803" max="12803" width="2.109375" customWidth="1"/>
-    <col min="12804" max="12804" width="4.44140625" customWidth="1"/>
-    <col min="12805" max="12805" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12849" width="2.88671875" customWidth="1"/>
-    <col min="13059" max="13059" width="2.109375" customWidth="1"/>
-    <col min="13060" max="13060" width="4.44140625" customWidth="1"/>
-    <col min="13061" max="13061" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13105" width="2.88671875" customWidth="1"/>
-    <col min="13315" max="13315" width="2.109375" customWidth="1"/>
-    <col min="13316" max="13316" width="4.44140625" customWidth="1"/>
-    <col min="13317" max="13317" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13361" width="2.88671875" customWidth="1"/>
-    <col min="13571" max="13571" width="2.109375" customWidth="1"/>
-    <col min="13572" max="13572" width="4.44140625" customWidth="1"/>
-    <col min="13573" max="13573" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13617" width="2.88671875" customWidth="1"/>
-    <col min="13827" max="13827" width="2.109375" customWidth="1"/>
-    <col min="13828" max="13828" width="4.44140625" customWidth="1"/>
-    <col min="13829" max="13829" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13873" width="2.88671875" customWidth="1"/>
-    <col min="14083" max="14083" width="2.109375" customWidth="1"/>
-    <col min="14084" max="14084" width="4.44140625" customWidth="1"/>
-    <col min="14085" max="14085" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14129" width="2.88671875" customWidth="1"/>
-    <col min="14339" max="14339" width="2.109375" customWidth="1"/>
-    <col min="14340" max="14340" width="4.44140625" customWidth="1"/>
-    <col min="14341" max="14341" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14385" width="2.88671875" customWidth="1"/>
-    <col min="14595" max="14595" width="2.109375" customWidth="1"/>
-    <col min="14596" max="14596" width="4.44140625" customWidth="1"/>
-    <col min="14597" max="14597" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14641" width="2.88671875" customWidth="1"/>
-    <col min="14851" max="14851" width="2.109375" customWidth="1"/>
-    <col min="14852" max="14852" width="4.44140625" customWidth="1"/>
-    <col min="14853" max="14853" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14897" width="2.88671875" customWidth="1"/>
-    <col min="15107" max="15107" width="2.109375" customWidth="1"/>
-    <col min="15108" max="15108" width="4.44140625" customWidth="1"/>
-    <col min="15109" max="15109" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15153" width="2.88671875" customWidth="1"/>
-    <col min="15363" max="15363" width="2.109375" customWidth="1"/>
-    <col min="15364" max="15364" width="4.44140625" customWidth="1"/>
-    <col min="15365" max="15365" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15409" width="2.88671875" customWidth="1"/>
-    <col min="15619" max="15619" width="2.109375" customWidth="1"/>
-    <col min="15620" max="15620" width="4.44140625" customWidth="1"/>
-    <col min="15621" max="15621" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15665" width="2.88671875" customWidth="1"/>
-    <col min="15875" max="15875" width="2.109375" customWidth="1"/>
-    <col min="15876" max="15876" width="4.44140625" customWidth="1"/>
-    <col min="15877" max="15877" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15921" width="2.88671875" customWidth="1"/>
-    <col min="16131" max="16131" width="2.109375" customWidth="1"/>
-    <col min="16132" max="16132" width="4.44140625" customWidth="1"/>
-    <col min="16133" max="16133" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16177" width="2.88671875" customWidth="1"/>
+    <col min="6" max="53" width="2.28515625" customWidth="1"/>
+    <col min="259" max="259" width="2.140625" customWidth="1"/>
+    <col min="260" max="260" width="4.42578125" customWidth="1"/>
+    <col min="261" max="261" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="262" max="305" width="2.85546875" customWidth="1"/>
+    <col min="515" max="515" width="2.140625" customWidth="1"/>
+    <col min="516" max="516" width="4.42578125" customWidth="1"/>
+    <col min="517" max="517" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="518" max="561" width="2.85546875" customWidth="1"/>
+    <col min="771" max="771" width="2.140625" customWidth="1"/>
+    <col min="772" max="772" width="4.42578125" customWidth="1"/>
+    <col min="773" max="773" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="774" max="817" width="2.85546875" customWidth="1"/>
+    <col min="1027" max="1027" width="2.140625" customWidth="1"/>
+    <col min="1028" max="1028" width="4.42578125" customWidth="1"/>
+    <col min="1029" max="1029" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1073" width="2.85546875" customWidth="1"/>
+    <col min="1283" max="1283" width="2.140625" customWidth="1"/>
+    <col min="1284" max="1284" width="4.42578125" customWidth="1"/>
+    <col min="1285" max="1285" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1329" width="2.85546875" customWidth="1"/>
+    <col min="1539" max="1539" width="2.140625" customWidth="1"/>
+    <col min="1540" max="1540" width="4.42578125" customWidth="1"/>
+    <col min="1541" max="1541" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1585" width="2.85546875" customWidth="1"/>
+    <col min="1795" max="1795" width="2.140625" customWidth="1"/>
+    <col min="1796" max="1796" width="4.42578125" customWidth="1"/>
+    <col min="1797" max="1797" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1841" width="2.85546875" customWidth="1"/>
+    <col min="2051" max="2051" width="2.140625" customWidth="1"/>
+    <col min="2052" max="2052" width="4.42578125" customWidth="1"/>
+    <col min="2053" max="2053" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2097" width="2.85546875" customWidth="1"/>
+    <col min="2307" max="2307" width="2.140625" customWidth="1"/>
+    <col min="2308" max="2308" width="4.42578125" customWidth="1"/>
+    <col min="2309" max="2309" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2353" width="2.85546875" customWidth="1"/>
+    <col min="2563" max="2563" width="2.140625" customWidth="1"/>
+    <col min="2564" max="2564" width="4.42578125" customWidth="1"/>
+    <col min="2565" max="2565" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2609" width="2.85546875" customWidth="1"/>
+    <col min="2819" max="2819" width="2.140625" customWidth="1"/>
+    <col min="2820" max="2820" width="4.42578125" customWidth="1"/>
+    <col min="2821" max="2821" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2865" width="2.85546875" customWidth="1"/>
+    <col min="3075" max="3075" width="2.140625" customWidth="1"/>
+    <col min="3076" max="3076" width="4.42578125" customWidth="1"/>
+    <col min="3077" max="3077" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3121" width="2.85546875" customWidth="1"/>
+    <col min="3331" max="3331" width="2.140625" customWidth="1"/>
+    <col min="3332" max="3332" width="4.42578125" customWidth="1"/>
+    <col min="3333" max="3333" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3377" width="2.85546875" customWidth="1"/>
+    <col min="3587" max="3587" width="2.140625" customWidth="1"/>
+    <col min="3588" max="3588" width="4.42578125" customWidth="1"/>
+    <col min="3589" max="3589" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3633" width="2.85546875" customWidth="1"/>
+    <col min="3843" max="3843" width="2.140625" customWidth="1"/>
+    <col min="3844" max="3844" width="4.42578125" customWidth="1"/>
+    <col min="3845" max="3845" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3889" width="2.85546875" customWidth="1"/>
+    <col min="4099" max="4099" width="2.140625" customWidth="1"/>
+    <col min="4100" max="4100" width="4.42578125" customWidth="1"/>
+    <col min="4101" max="4101" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4145" width="2.85546875" customWidth="1"/>
+    <col min="4355" max="4355" width="2.140625" customWidth="1"/>
+    <col min="4356" max="4356" width="4.42578125" customWidth="1"/>
+    <col min="4357" max="4357" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4401" width="2.85546875" customWidth="1"/>
+    <col min="4611" max="4611" width="2.140625" customWidth="1"/>
+    <col min="4612" max="4612" width="4.42578125" customWidth="1"/>
+    <col min="4613" max="4613" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4657" width="2.85546875" customWidth="1"/>
+    <col min="4867" max="4867" width="2.140625" customWidth="1"/>
+    <col min="4868" max="4868" width="4.42578125" customWidth="1"/>
+    <col min="4869" max="4869" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4913" width="2.85546875" customWidth="1"/>
+    <col min="5123" max="5123" width="2.140625" customWidth="1"/>
+    <col min="5124" max="5124" width="4.42578125" customWidth="1"/>
+    <col min="5125" max="5125" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5169" width="2.85546875" customWidth="1"/>
+    <col min="5379" max="5379" width="2.140625" customWidth="1"/>
+    <col min="5380" max="5380" width="4.42578125" customWidth="1"/>
+    <col min="5381" max="5381" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5425" width="2.85546875" customWidth="1"/>
+    <col min="5635" max="5635" width="2.140625" customWidth="1"/>
+    <col min="5636" max="5636" width="4.42578125" customWidth="1"/>
+    <col min="5637" max="5637" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5681" width="2.85546875" customWidth="1"/>
+    <col min="5891" max="5891" width="2.140625" customWidth="1"/>
+    <col min="5892" max="5892" width="4.42578125" customWidth="1"/>
+    <col min="5893" max="5893" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5937" width="2.85546875" customWidth="1"/>
+    <col min="6147" max="6147" width="2.140625" customWidth="1"/>
+    <col min="6148" max="6148" width="4.42578125" customWidth="1"/>
+    <col min="6149" max="6149" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6193" width="2.85546875" customWidth="1"/>
+    <col min="6403" max="6403" width="2.140625" customWidth="1"/>
+    <col min="6404" max="6404" width="4.42578125" customWidth="1"/>
+    <col min="6405" max="6405" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6449" width="2.85546875" customWidth="1"/>
+    <col min="6659" max="6659" width="2.140625" customWidth="1"/>
+    <col min="6660" max="6660" width="4.42578125" customWidth="1"/>
+    <col min="6661" max="6661" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6705" width="2.85546875" customWidth="1"/>
+    <col min="6915" max="6915" width="2.140625" customWidth="1"/>
+    <col min="6916" max="6916" width="4.42578125" customWidth="1"/>
+    <col min="6917" max="6917" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6961" width="2.85546875" customWidth="1"/>
+    <col min="7171" max="7171" width="2.140625" customWidth="1"/>
+    <col min="7172" max="7172" width="4.42578125" customWidth="1"/>
+    <col min="7173" max="7173" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7217" width="2.85546875" customWidth="1"/>
+    <col min="7427" max="7427" width="2.140625" customWidth="1"/>
+    <col min="7428" max="7428" width="4.42578125" customWidth="1"/>
+    <col min="7429" max="7429" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7473" width="2.85546875" customWidth="1"/>
+    <col min="7683" max="7683" width="2.140625" customWidth="1"/>
+    <col min="7684" max="7684" width="4.42578125" customWidth="1"/>
+    <col min="7685" max="7685" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7729" width="2.85546875" customWidth="1"/>
+    <col min="7939" max="7939" width="2.140625" customWidth="1"/>
+    <col min="7940" max="7940" width="4.42578125" customWidth="1"/>
+    <col min="7941" max="7941" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7985" width="2.85546875" customWidth="1"/>
+    <col min="8195" max="8195" width="2.140625" customWidth="1"/>
+    <col min="8196" max="8196" width="4.42578125" customWidth="1"/>
+    <col min="8197" max="8197" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8241" width="2.85546875" customWidth="1"/>
+    <col min="8451" max="8451" width="2.140625" customWidth="1"/>
+    <col min="8452" max="8452" width="4.42578125" customWidth="1"/>
+    <col min="8453" max="8453" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8497" width="2.85546875" customWidth="1"/>
+    <col min="8707" max="8707" width="2.140625" customWidth="1"/>
+    <col min="8708" max="8708" width="4.42578125" customWidth="1"/>
+    <col min="8709" max="8709" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8753" width="2.85546875" customWidth="1"/>
+    <col min="8963" max="8963" width="2.140625" customWidth="1"/>
+    <col min="8964" max="8964" width="4.42578125" customWidth="1"/>
+    <col min="8965" max="8965" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9009" width="2.85546875" customWidth="1"/>
+    <col min="9219" max="9219" width="2.140625" customWidth="1"/>
+    <col min="9220" max="9220" width="4.42578125" customWidth="1"/>
+    <col min="9221" max="9221" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9265" width="2.85546875" customWidth="1"/>
+    <col min="9475" max="9475" width="2.140625" customWidth="1"/>
+    <col min="9476" max="9476" width="4.42578125" customWidth="1"/>
+    <col min="9477" max="9477" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9521" width="2.85546875" customWidth="1"/>
+    <col min="9731" max="9731" width="2.140625" customWidth="1"/>
+    <col min="9732" max="9732" width="4.42578125" customWidth="1"/>
+    <col min="9733" max="9733" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9777" width="2.85546875" customWidth="1"/>
+    <col min="9987" max="9987" width="2.140625" customWidth="1"/>
+    <col min="9988" max="9988" width="4.42578125" customWidth="1"/>
+    <col min="9989" max="9989" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10033" width="2.85546875" customWidth="1"/>
+    <col min="10243" max="10243" width="2.140625" customWidth="1"/>
+    <col min="10244" max="10244" width="4.42578125" customWidth="1"/>
+    <col min="10245" max="10245" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10289" width="2.85546875" customWidth="1"/>
+    <col min="10499" max="10499" width="2.140625" customWidth="1"/>
+    <col min="10500" max="10500" width="4.42578125" customWidth="1"/>
+    <col min="10501" max="10501" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10545" width="2.85546875" customWidth="1"/>
+    <col min="10755" max="10755" width="2.140625" customWidth="1"/>
+    <col min="10756" max="10756" width="4.42578125" customWidth="1"/>
+    <col min="10757" max="10757" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10801" width="2.85546875" customWidth="1"/>
+    <col min="11011" max="11011" width="2.140625" customWidth="1"/>
+    <col min="11012" max="11012" width="4.42578125" customWidth="1"/>
+    <col min="11013" max="11013" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11057" width="2.85546875" customWidth="1"/>
+    <col min="11267" max="11267" width="2.140625" customWidth="1"/>
+    <col min="11268" max="11268" width="4.42578125" customWidth="1"/>
+    <col min="11269" max="11269" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11313" width="2.85546875" customWidth="1"/>
+    <col min="11523" max="11523" width="2.140625" customWidth="1"/>
+    <col min="11524" max="11524" width="4.42578125" customWidth="1"/>
+    <col min="11525" max="11525" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11569" width="2.85546875" customWidth="1"/>
+    <col min="11779" max="11779" width="2.140625" customWidth="1"/>
+    <col min="11780" max="11780" width="4.42578125" customWidth="1"/>
+    <col min="11781" max="11781" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11825" width="2.85546875" customWidth="1"/>
+    <col min="12035" max="12035" width="2.140625" customWidth="1"/>
+    <col min="12036" max="12036" width="4.42578125" customWidth="1"/>
+    <col min="12037" max="12037" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12081" width="2.85546875" customWidth="1"/>
+    <col min="12291" max="12291" width="2.140625" customWidth="1"/>
+    <col min="12292" max="12292" width="4.42578125" customWidth="1"/>
+    <col min="12293" max="12293" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12337" width="2.85546875" customWidth="1"/>
+    <col min="12547" max="12547" width="2.140625" customWidth="1"/>
+    <col min="12548" max="12548" width="4.42578125" customWidth="1"/>
+    <col min="12549" max="12549" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12593" width="2.85546875" customWidth="1"/>
+    <col min="12803" max="12803" width="2.140625" customWidth="1"/>
+    <col min="12804" max="12804" width="4.42578125" customWidth="1"/>
+    <col min="12805" max="12805" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12849" width="2.85546875" customWidth="1"/>
+    <col min="13059" max="13059" width="2.140625" customWidth="1"/>
+    <col min="13060" max="13060" width="4.42578125" customWidth="1"/>
+    <col min="13061" max="13061" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13105" width="2.85546875" customWidth="1"/>
+    <col min="13315" max="13315" width="2.140625" customWidth="1"/>
+    <col min="13316" max="13316" width="4.42578125" customWidth="1"/>
+    <col min="13317" max="13317" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13361" width="2.85546875" customWidth="1"/>
+    <col min="13571" max="13571" width="2.140625" customWidth="1"/>
+    <col min="13572" max="13572" width="4.42578125" customWidth="1"/>
+    <col min="13573" max="13573" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13617" width="2.85546875" customWidth="1"/>
+    <col min="13827" max="13827" width="2.140625" customWidth="1"/>
+    <col min="13828" max="13828" width="4.42578125" customWidth="1"/>
+    <col min="13829" max="13829" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13873" width="2.85546875" customWidth="1"/>
+    <col min="14083" max="14083" width="2.140625" customWidth="1"/>
+    <col min="14084" max="14084" width="4.42578125" customWidth="1"/>
+    <col min="14085" max="14085" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14129" width="2.85546875" customWidth="1"/>
+    <col min="14339" max="14339" width="2.140625" customWidth="1"/>
+    <col min="14340" max="14340" width="4.42578125" customWidth="1"/>
+    <col min="14341" max="14341" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14385" width="2.85546875" customWidth="1"/>
+    <col min="14595" max="14595" width="2.140625" customWidth="1"/>
+    <col min="14596" max="14596" width="4.42578125" customWidth="1"/>
+    <col min="14597" max="14597" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14641" width="2.85546875" customWidth="1"/>
+    <col min="14851" max="14851" width="2.140625" customWidth="1"/>
+    <col min="14852" max="14852" width="4.42578125" customWidth="1"/>
+    <col min="14853" max="14853" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14897" width="2.85546875" customWidth="1"/>
+    <col min="15107" max="15107" width="2.140625" customWidth="1"/>
+    <col min="15108" max="15108" width="4.42578125" customWidth="1"/>
+    <col min="15109" max="15109" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15153" width="2.85546875" customWidth="1"/>
+    <col min="15363" max="15363" width="2.140625" customWidth="1"/>
+    <col min="15364" max="15364" width="4.42578125" customWidth="1"/>
+    <col min="15365" max="15365" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15409" width="2.85546875" customWidth="1"/>
+    <col min="15619" max="15619" width="2.140625" customWidth="1"/>
+    <col min="15620" max="15620" width="4.42578125" customWidth="1"/>
+    <col min="15621" max="15621" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15665" width="2.85546875" customWidth="1"/>
+    <col min="15875" max="15875" width="2.140625" customWidth="1"/>
+    <col min="15876" max="15876" width="4.42578125" customWidth="1"/>
+    <col min="15877" max="15877" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15921" width="2.85546875" customWidth="1"/>
+    <col min="16131" max="16131" width="2.140625" customWidth="1"/>
+    <col min="16132" max="16132" width="4.42578125" customWidth="1"/>
+    <col min="16133" max="16133" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16177" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -25353,97 +25397,97 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="205" t="s">
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="203" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="198" t="s">
         <v>651</v>
       </c>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="201" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="198" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="198" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="201" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="198" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="201" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="198" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="205" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="205" t="s">
         <v>657</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="205" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="205" t="s">
         <v>660</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="198" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="198" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="205" t="s">
         <v>729</v>
       </c>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="200"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="6"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="80">
         <v>1</v>
       </c>
@@ -30597,12 +30641,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
@@ -30613,6 +30651,12 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D84" location="ลูกค้า!A1" display="ลูกค้า!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -30673,332 +30717,332 @@
       <selection pane="bottomRight" activeCell="AY4" sqref="AY4:BC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="120" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="120" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="120" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="120" bestFit="1" customWidth="1"/>
-    <col min="8" max="46" width="2.33203125" style="120" customWidth="1"/>
-    <col min="47" max="235" width="9.109375" style="120"/>
-    <col min="236" max="236" width="2.109375" style="120" customWidth="1"/>
-    <col min="237" max="237" width="4.44140625" style="120" customWidth="1"/>
-    <col min="238" max="238" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="239" max="282" width="2.88671875" style="120" customWidth="1"/>
-    <col min="283" max="491" width="9.109375" style="120"/>
-    <col min="492" max="492" width="2.109375" style="120" customWidth="1"/>
-    <col min="493" max="493" width="4.44140625" style="120" customWidth="1"/>
-    <col min="494" max="494" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="495" max="538" width="2.88671875" style="120" customWidth="1"/>
-    <col min="539" max="747" width="9.109375" style="120"/>
-    <col min="748" max="748" width="2.109375" style="120" customWidth="1"/>
-    <col min="749" max="749" width="4.44140625" style="120" customWidth="1"/>
-    <col min="750" max="750" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="751" max="794" width="2.88671875" style="120" customWidth="1"/>
-    <col min="795" max="1003" width="9.109375" style="120"/>
-    <col min="1004" max="1004" width="2.109375" style="120" customWidth="1"/>
-    <col min="1005" max="1005" width="4.44140625" style="120" customWidth="1"/>
-    <col min="1006" max="1006" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="1007" max="1050" width="2.88671875" style="120" customWidth="1"/>
-    <col min="1051" max="1259" width="9.109375" style="120"/>
-    <col min="1260" max="1260" width="2.109375" style="120" customWidth="1"/>
-    <col min="1261" max="1261" width="4.44140625" style="120" customWidth="1"/>
-    <col min="1262" max="1262" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="1263" max="1306" width="2.88671875" style="120" customWidth="1"/>
-    <col min="1307" max="1515" width="9.109375" style="120"/>
-    <col min="1516" max="1516" width="2.109375" style="120" customWidth="1"/>
-    <col min="1517" max="1517" width="4.44140625" style="120" customWidth="1"/>
-    <col min="1518" max="1518" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="1519" max="1562" width="2.88671875" style="120" customWidth="1"/>
-    <col min="1563" max="1771" width="9.109375" style="120"/>
-    <col min="1772" max="1772" width="2.109375" style="120" customWidth="1"/>
-    <col min="1773" max="1773" width="4.44140625" style="120" customWidth="1"/>
-    <col min="1774" max="1774" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="1775" max="1818" width="2.88671875" style="120" customWidth="1"/>
-    <col min="1819" max="2027" width="9.109375" style="120"/>
-    <col min="2028" max="2028" width="2.109375" style="120" customWidth="1"/>
-    <col min="2029" max="2029" width="4.44140625" style="120" customWidth="1"/>
-    <col min="2030" max="2030" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="2031" max="2074" width="2.88671875" style="120" customWidth="1"/>
-    <col min="2075" max="2283" width="9.109375" style="120"/>
-    <col min="2284" max="2284" width="2.109375" style="120" customWidth="1"/>
-    <col min="2285" max="2285" width="4.44140625" style="120" customWidth="1"/>
-    <col min="2286" max="2286" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="2287" max="2330" width="2.88671875" style="120" customWidth="1"/>
-    <col min="2331" max="2539" width="9.109375" style="120"/>
-    <col min="2540" max="2540" width="2.109375" style="120" customWidth="1"/>
-    <col min="2541" max="2541" width="4.44140625" style="120" customWidth="1"/>
-    <col min="2542" max="2542" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="2543" max="2586" width="2.88671875" style="120" customWidth="1"/>
-    <col min="2587" max="2795" width="9.109375" style="120"/>
-    <col min="2796" max="2796" width="2.109375" style="120" customWidth="1"/>
-    <col min="2797" max="2797" width="4.44140625" style="120" customWidth="1"/>
-    <col min="2798" max="2798" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="2799" max="2842" width="2.88671875" style="120" customWidth="1"/>
-    <col min="2843" max="3051" width="9.109375" style="120"/>
-    <col min="3052" max="3052" width="2.109375" style="120" customWidth="1"/>
-    <col min="3053" max="3053" width="4.44140625" style="120" customWidth="1"/>
-    <col min="3054" max="3054" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="3055" max="3098" width="2.88671875" style="120" customWidth="1"/>
-    <col min="3099" max="3307" width="9.109375" style="120"/>
-    <col min="3308" max="3308" width="2.109375" style="120" customWidth="1"/>
-    <col min="3309" max="3309" width="4.44140625" style="120" customWidth="1"/>
-    <col min="3310" max="3310" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="3311" max="3354" width="2.88671875" style="120" customWidth="1"/>
-    <col min="3355" max="3563" width="9.109375" style="120"/>
-    <col min="3564" max="3564" width="2.109375" style="120" customWidth="1"/>
-    <col min="3565" max="3565" width="4.44140625" style="120" customWidth="1"/>
-    <col min="3566" max="3566" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="3567" max="3610" width="2.88671875" style="120" customWidth="1"/>
-    <col min="3611" max="3819" width="9.109375" style="120"/>
-    <col min="3820" max="3820" width="2.109375" style="120" customWidth="1"/>
-    <col min="3821" max="3821" width="4.44140625" style="120" customWidth="1"/>
-    <col min="3822" max="3822" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="3823" max="3866" width="2.88671875" style="120" customWidth="1"/>
-    <col min="3867" max="4075" width="9.109375" style="120"/>
-    <col min="4076" max="4076" width="2.109375" style="120" customWidth="1"/>
-    <col min="4077" max="4077" width="4.44140625" style="120" customWidth="1"/>
-    <col min="4078" max="4078" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="4079" max="4122" width="2.88671875" style="120" customWidth="1"/>
-    <col min="4123" max="4331" width="9.109375" style="120"/>
-    <col min="4332" max="4332" width="2.109375" style="120" customWidth="1"/>
-    <col min="4333" max="4333" width="4.44140625" style="120" customWidth="1"/>
-    <col min="4334" max="4334" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="4335" max="4378" width="2.88671875" style="120" customWidth="1"/>
-    <col min="4379" max="4587" width="9.109375" style="120"/>
-    <col min="4588" max="4588" width="2.109375" style="120" customWidth="1"/>
-    <col min="4589" max="4589" width="4.44140625" style="120" customWidth="1"/>
-    <col min="4590" max="4590" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="4591" max="4634" width="2.88671875" style="120" customWidth="1"/>
-    <col min="4635" max="4843" width="9.109375" style="120"/>
-    <col min="4844" max="4844" width="2.109375" style="120" customWidth="1"/>
-    <col min="4845" max="4845" width="4.44140625" style="120" customWidth="1"/>
-    <col min="4846" max="4846" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="4847" max="4890" width="2.88671875" style="120" customWidth="1"/>
-    <col min="4891" max="5099" width="9.109375" style="120"/>
-    <col min="5100" max="5100" width="2.109375" style="120" customWidth="1"/>
-    <col min="5101" max="5101" width="4.44140625" style="120" customWidth="1"/>
-    <col min="5102" max="5102" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5103" max="5146" width="2.88671875" style="120" customWidth="1"/>
-    <col min="5147" max="5355" width="9.109375" style="120"/>
-    <col min="5356" max="5356" width="2.109375" style="120" customWidth="1"/>
-    <col min="5357" max="5357" width="4.44140625" style="120" customWidth="1"/>
-    <col min="5358" max="5358" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5359" max="5402" width="2.88671875" style="120" customWidth="1"/>
-    <col min="5403" max="5611" width="9.109375" style="120"/>
-    <col min="5612" max="5612" width="2.109375" style="120" customWidth="1"/>
-    <col min="5613" max="5613" width="4.44140625" style="120" customWidth="1"/>
-    <col min="5614" max="5614" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5615" max="5658" width="2.88671875" style="120" customWidth="1"/>
-    <col min="5659" max="5867" width="9.109375" style="120"/>
-    <col min="5868" max="5868" width="2.109375" style="120" customWidth="1"/>
-    <col min="5869" max="5869" width="4.44140625" style="120" customWidth="1"/>
-    <col min="5870" max="5870" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="5871" max="5914" width="2.88671875" style="120" customWidth="1"/>
-    <col min="5915" max="6123" width="9.109375" style="120"/>
-    <col min="6124" max="6124" width="2.109375" style="120" customWidth="1"/>
-    <col min="6125" max="6125" width="4.44140625" style="120" customWidth="1"/>
-    <col min="6126" max="6126" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="6127" max="6170" width="2.88671875" style="120" customWidth="1"/>
-    <col min="6171" max="6379" width="9.109375" style="120"/>
-    <col min="6380" max="6380" width="2.109375" style="120" customWidth="1"/>
-    <col min="6381" max="6381" width="4.44140625" style="120" customWidth="1"/>
-    <col min="6382" max="6382" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="6383" max="6426" width="2.88671875" style="120" customWidth="1"/>
-    <col min="6427" max="6635" width="9.109375" style="120"/>
-    <col min="6636" max="6636" width="2.109375" style="120" customWidth="1"/>
-    <col min="6637" max="6637" width="4.44140625" style="120" customWidth="1"/>
-    <col min="6638" max="6638" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="6639" max="6682" width="2.88671875" style="120" customWidth="1"/>
-    <col min="6683" max="6891" width="9.109375" style="120"/>
-    <col min="6892" max="6892" width="2.109375" style="120" customWidth="1"/>
-    <col min="6893" max="6893" width="4.44140625" style="120" customWidth="1"/>
-    <col min="6894" max="6894" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="6895" max="6938" width="2.88671875" style="120" customWidth="1"/>
-    <col min="6939" max="7147" width="9.109375" style="120"/>
-    <col min="7148" max="7148" width="2.109375" style="120" customWidth="1"/>
-    <col min="7149" max="7149" width="4.44140625" style="120" customWidth="1"/>
-    <col min="7150" max="7150" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="7151" max="7194" width="2.88671875" style="120" customWidth="1"/>
-    <col min="7195" max="7403" width="9.109375" style="120"/>
-    <col min="7404" max="7404" width="2.109375" style="120" customWidth="1"/>
-    <col min="7405" max="7405" width="4.44140625" style="120" customWidth="1"/>
-    <col min="7406" max="7406" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="7407" max="7450" width="2.88671875" style="120" customWidth="1"/>
-    <col min="7451" max="7659" width="9.109375" style="120"/>
-    <col min="7660" max="7660" width="2.109375" style="120" customWidth="1"/>
-    <col min="7661" max="7661" width="4.44140625" style="120" customWidth="1"/>
-    <col min="7662" max="7662" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="7663" max="7706" width="2.88671875" style="120" customWidth="1"/>
-    <col min="7707" max="7915" width="9.109375" style="120"/>
-    <col min="7916" max="7916" width="2.109375" style="120" customWidth="1"/>
-    <col min="7917" max="7917" width="4.44140625" style="120" customWidth="1"/>
-    <col min="7918" max="7918" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="7919" max="7962" width="2.88671875" style="120" customWidth="1"/>
-    <col min="7963" max="8171" width="9.109375" style="120"/>
-    <col min="8172" max="8172" width="2.109375" style="120" customWidth="1"/>
-    <col min="8173" max="8173" width="4.44140625" style="120" customWidth="1"/>
-    <col min="8174" max="8174" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="8175" max="8218" width="2.88671875" style="120" customWidth="1"/>
-    <col min="8219" max="8427" width="9.109375" style="120"/>
-    <col min="8428" max="8428" width="2.109375" style="120" customWidth="1"/>
-    <col min="8429" max="8429" width="4.44140625" style="120" customWidth="1"/>
-    <col min="8430" max="8430" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="8431" max="8474" width="2.88671875" style="120" customWidth="1"/>
-    <col min="8475" max="8683" width="9.109375" style="120"/>
-    <col min="8684" max="8684" width="2.109375" style="120" customWidth="1"/>
-    <col min="8685" max="8685" width="4.44140625" style="120" customWidth="1"/>
-    <col min="8686" max="8686" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="8687" max="8730" width="2.88671875" style="120" customWidth="1"/>
-    <col min="8731" max="8939" width="9.109375" style="120"/>
-    <col min="8940" max="8940" width="2.109375" style="120" customWidth="1"/>
-    <col min="8941" max="8941" width="4.44140625" style="120" customWidth="1"/>
-    <col min="8942" max="8942" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="8943" max="8986" width="2.88671875" style="120" customWidth="1"/>
-    <col min="8987" max="9195" width="9.109375" style="120"/>
-    <col min="9196" max="9196" width="2.109375" style="120" customWidth="1"/>
-    <col min="9197" max="9197" width="4.44140625" style="120" customWidth="1"/>
-    <col min="9198" max="9198" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="9199" max="9242" width="2.88671875" style="120" customWidth="1"/>
-    <col min="9243" max="9451" width="9.109375" style="120"/>
-    <col min="9452" max="9452" width="2.109375" style="120" customWidth="1"/>
-    <col min="9453" max="9453" width="4.44140625" style="120" customWidth="1"/>
-    <col min="9454" max="9454" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="9455" max="9498" width="2.88671875" style="120" customWidth="1"/>
-    <col min="9499" max="9707" width="9.109375" style="120"/>
-    <col min="9708" max="9708" width="2.109375" style="120" customWidth="1"/>
-    <col min="9709" max="9709" width="4.44140625" style="120" customWidth="1"/>
-    <col min="9710" max="9710" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="9711" max="9754" width="2.88671875" style="120" customWidth="1"/>
-    <col min="9755" max="9963" width="9.109375" style="120"/>
-    <col min="9964" max="9964" width="2.109375" style="120" customWidth="1"/>
-    <col min="9965" max="9965" width="4.44140625" style="120" customWidth="1"/>
-    <col min="9966" max="9966" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="9967" max="10010" width="2.88671875" style="120" customWidth="1"/>
-    <col min="10011" max="10219" width="9.109375" style="120"/>
-    <col min="10220" max="10220" width="2.109375" style="120" customWidth="1"/>
-    <col min="10221" max="10221" width="4.44140625" style="120" customWidth="1"/>
-    <col min="10222" max="10222" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="10223" max="10266" width="2.88671875" style="120" customWidth="1"/>
-    <col min="10267" max="10475" width="9.109375" style="120"/>
-    <col min="10476" max="10476" width="2.109375" style="120" customWidth="1"/>
-    <col min="10477" max="10477" width="4.44140625" style="120" customWidth="1"/>
-    <col min="10478" max="10478" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="10479" max="10522" width="2.88671875" style="120" customWidth="1"/>
-    <col min="10523" max="10731" width="9.109375" style="120"/>
-    <col min="10732" max="10732" width="2.109375" style="120" customWidth="1"/>
-    <col min="10733" max="10733" width="4.44140625" style="120" customWidth="1"/>
-    <col min="10734" max="10734" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="10735" max="10778" width="2.88671875" style="120" customWidth="1"/>
-    <col min="10779" max="10987" width="9.109375" style="120"/>
-    <col min="10988" max="10988" width="2.109375" style="120" customWidth="1"/>
-    <col min="10989" max="10989" width="4.44140625" style="120" customWidth="1"/>
-    <col min="10990" max="10990" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="10991" max="11034" width="2.88671875" style="120" customWidth="1"/>
-    <col min="11035" max="11243" width="9.109375" style="120"/>
-    <col min="11244" max="11244" width="2.109375" style="120" customWidth="1"/>
-    <col min="11245" max="11245" width="4.44140625" style="120" customWidth="1"/>
-    <col min="11246" max="11246" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="11247" max="11290" width="2.88671875" style="120" customWidth="1"/>
-    <col min="11291" max="11499" width="9.109375" style="120"/>
-    <col min="11500" max="11500" width="2.109375" style="120" customWidth="1"/>
-    <col min="11501" max="11501" width="4.44140625" style="120" customWidth="1"/>
-    <col min="11502" max="11502" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="11503" max="11546" width="2.88671875" style="120" customWidth="1"/>
-    <col min="11547" max="11755" width="9.109375" style="120"/>
-    <col min="11756" max="11756" width="2.109375" style="120" customWidth="1"/>
-    <col min="11757" max="11757" width="4.44140625" style="120" customWidth="1"/>
-    <col min="11758" max="11758" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="11759" max="11802" width="2.88671875" style="120" customWidth="1"/>
-    <col min="11803" max="12011" width="9.109375" style="120"/>
-    <col min="12012" max="12012" width="2.109375" style="120" customWidth="1"/>
-    <col min="12013" max="12013" width="4.44140625" style="120" customWidth="1"/>
-    <col min="12014" max="12014" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="12015" max="12058" width="2.88671875" style="120" customWidth="1"/>
-    <col min="12059" max="12267" width="9.109375" style="120"/>
-    <col min="12268" max="12268" width="2.109375" style="120" customWidth="1"/>
-    <col min="12269" max="12269" width="4.44140625" style="120" customWidth="1"/>
-    <col min="12270" max="12270" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="12271" max="12314" width="2.88671875" style="120" customWidth="1"/>
-    <col min="12315" max="12523" width="9.109375" style="120"/>
-    <col min="12524" max="12524" width="2.109375" style="120" customWidth="1"/>
-    <col min="12525" max="12525" width="4.44140625" style="120" customWidth="1"/>
-    <col min="12526" max="12526" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="12527" max="12570" width="2.88671875" style="120" customWidth="1"/>
-    <col min="12571" max="12779" width="9.109375" style="120"/>
-    <col min="12780" max="12780" width="2.109375" style="120" customWidth="1"/>
-    <col min="12781" max="12781" width="4.44140625" style="120" customWidth="1"/>
-    <col min="12782" max="12782" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="12783" max="12826" width="2.88671875" style="120" customWidth="1"/>
-    <col min="12827" max="13035" width="9.109375" style="120"/>
-    <col min="13036" max="13036" width="2.109375" style="120" customWidth="1"/>
-    <col min="13037" max="13037" width="4.44140625" style="120" customWidth="1"/>
-    <col min="13038" max="13038" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="13039" max="13082" width="2.88671875" style="120" customWidth="1"/>
-    <col min="13083" max="13291" width="9.109375" style="120"/>
-    <col min="13292" max="13292" width="2.109375" style="120" customWidth="1"/>
-    <col min="13293" max="13293" width="4.44140625" style="120" customWidth="1"/>
-    <col min="13294" max="13294" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="13295" max="13338" width="2.88671875" style="120" customWidth="1"/>
-    <col min="13339" max="13547" width="9.109375" style="120"/>
-    <col min="13548" max="13548" width="2.109375" style="120" customWidth="1"/>
-    <col min="13549" max="13549" width="4.44140625" style="120" customWidth="1"/>
-    <col min="13550" max="13550" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="13551" max="13594" width="2.88671875" style="120" customWidth="1"/>
-    <col min="13595" max="13803" width="9.109375" style="120"/>
-    <col min="13804" max="13804" width="2.109375" style="120" customWidth="1"/>
-    <col min="13805" max="13805" width="4.44140625" style="120" customWidth="1"/>
-    <col min="13806" max="13806" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="13807" max="13850" width="2.88671875" style="120" customWidth="1"/>
-    <col min="13851" max="14059" width="9.109375" style="120"/>
-    <col min="14060" max="14060" width="2.109375" style="120" customWidth="1"/>
-    <col min="14061" max="14061" width="4.44140625" style="120" customWidth="1"/>
-    <col min="14062" max="14062" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="14063" max="14106" width="2.88671875" style="120" customWidth="1"/>
-    <col min="14107" max="14315" width="9.109375" style="120"/>
-    <col min="14316" max="14316" width="2.109375" style="120" customWidth="1"/>
-    <col min="14317" max="14317" width="4.44140625" style="120" customWidth="1"/>
-    <col min="14318" max="14318" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="14319" max="14362" width="2.88671875" style="120" customWidth="1"/>
-    <col min="14363" max="14571" width="9.109375" style="120"/>
-    <col min="14572" max="14572" width="2.109375" style="120" customWidth="1"/>
-    <col min="14573" max="14573" width="4.44140625" style="120" customWidth="1"/>
-    <col min="14574" max="14574" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="14575" max="14618" width="2.88671875" style="120" customWidth="1"/>
-    <col min="14619" max="14827" width="9.109375" style="120"/>
-    <col min="14828" max="14828" width="2.109375" style="120" customWidth="1"/>
-    <col min="14829" max="14829" width="4.44140625" style="120" customWidth="1"/>
-    <col min="14830" max="14830" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="14831" max="14874" width="2.88671875" style="120" customWidth="1"/>
-    <col min="14875" max="15083" width="9.109375" style="120"/>
-    <col min="15084" max="15084" width="2.109375" style="120" customWidth="1"/>
-    <col min="15085" max="15085" width="4.44140625" style="120" customWidth="1"/>
-    <col min="15086" max="15086" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="15087" max="15130" width="2.88671875" style="120" customWidth="1"/>
-    <col min="15131" max="15339" width="9.109375" style="120"/>
-    <col min="15340" max="15340" width="2.109375" style="120" customWidth="1"/>
-    <col min="15341" max="15341" width="4.44140625" style="120" customWidth="1"/>
-    <col min="15342" max="15342" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="15343" max="15386" width="2.88671875" style="120" customWidth="1"/>
-    <col min="15387" max="15595" width="9.109375" style="120"/>
-    <col min="15596" max="15596" width="2.109375" style="120" customWidth="1"/>
-    <col min="15597" max="15597" width="4.44140625" style="120" customWidth="1"/>
-    <col min="15598" max="15598" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="15599" max="15642" width="2.88671875" style="120" customWidth="1"/>
-    <col min="15643" max="15851" width="9.109375" style="120"/>
-    <col min="15852" max="15852" width="2.109375" style="120" customWidth="1"/>
-    <col min="15853" max="15853" width="4.44140625" style="120" customWidth="1"/>
-    <col min="15854" max="15854" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="15855" max="15898" width="2.88671875" style="120" customWidth="1"/>
-    <col min="15899" max="16107" width="9.109375" style="120"/>
-    <col min="16108" max="16108" width="2.109375" style="120" customWidth="1"/>
-    <col min="16109" max="16109" width="4.44140625" style="120" customWidth="1"/>
-    <col min="16110" max="16110" width="30.5546875" style="120" bestFit="1" customWidth="1"/>
-    <col min="16111" max="16154" width="2.88671875" style="120" customWidth="1"/>
-    <col min="16155" max="16384" width="9.109375" style="120"/>
+    <col min="8" max="46" width="2.28515625" style="120" customWidth="1"/>
+    <col min="47" max="235" width="9.140625" style="120"/>
+    <col min="236" max="236" width="2.140625" style="120" customWidth="1"/>
+    <col min="237" max="237" width="4.42578125" style="120" customWidth="1"/>
+    <col min="238" max="238" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="239" max="282" width="2.85546875" style="120" customWidth="1"/>
+    <col min="283" max="491" width="9.140625" style="120"/>
+    <col min="492" max="492" width="2.140625" style="120" customWidth="1"/>
+    <col min="493" max="493" width="4.42578125" style="120" customWidth="1"/>
+    <col min="494" max="494" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="495" max="538" width="2.85546875" style="120" customWidth="1"/>
+    <col min="539" max="747" width="9.140625" style="120"/>
+    <col min="748" max="748" width="2.140625" style="120" customWidth="1"/>
+    <col min="749" max="749" width="4.42578125" style="120" customWidth="1"/>
+    <col min="750" max="750" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="751" max="794" width="2.85546875" style="120" customWidth="1"/>
+    <col min="795" max="1003" width="9.140625" style="120"/>
+    <col min="1004" max="1004" width="2.140625" style="120" customWidth="1"/>
+    <col min="1005" max="1005" width="4.42578125" style="120" customWidth="1"/>
+    <col min="1006" max="1006" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="1007" max="1050" width="2.85546875" style="120" customWidth="1"/>
+    <col min="1051" max="1259" width="9.140625" style="120"/>
+    <col min="1260" max="1260" width="2.140625" style="120" customWidth="1"/>
+    <col min="1261" max="1261" width="4.42578125" style="120" customWidth="1"/>
+    <col min="1262" max="1262" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="1263" max="1306" width="2.85546875" style="120" customWidth="1"/>
+    <col min="1307" max="1515" width="9.140625" style="120"/>
+    <col min="1516" max="1516" width="2.140625" style="120" customWidth="1"/>
+    <col min="1517" max="1517" width="4.42578125" style="120" customWidth="1"/>
+    <col min="1518" max="1518" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="1519" max="1562" width="2.85546875" style="120" customWidth="1"/>
+    <col min="1563" max="1771" width="9.140625" style="120"/>
+    <col min="1772" max="1772" width="2.140625" style="120" customWidth="1"/>
+    <col min="1773" max="1773" width="4.42578125" style="120" customWidth="1"/>
+    <col min="1774" max="1774" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="1775" max="1818" width="2.85546875" style="120" customWidth="1"/>
+    <col min="1819" max="2027" width="9.140625" style="120"/>
+    <col min="2028" max="2028" width="2.140625" style="120" customWidth="1"/>
+    <col min="2029" max="2029" width="4.42578125" style="120" customWidth="1"/>
+    <col min="2030" max="2030" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="2031" max="2074" width="2.85546875" style="120" customWidth="1"/>
+    <col min="2075" max="2283" width="9.140625" style="120"/>
+    <col min="2284" max="2284" width="2.140625" style="120" customWidth="1"/>
+    <col min="2285" max="2285" width="4.42578125" style="120" customWidth="1"/>
+    <col min="2286" max="2286" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="2287" max="2330" width="2.85546875" style="120" customWidth="1"/>
+    <col min="2331" max="2539" width="9.140625" style="120"/>
+    <col min="2540" max="2540" width="2.140625" style="120" customWidth="1"/>
+    <col min="2541" max="2541" width="4.42578125" style="120" customWidth="1"/>
+    <col min="2542" max="2542" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="2543" max="2586" width="2.85546875" style="120" customWidth="1"/>
+    <col min="2587" max="2795" width="9.140625" style="120"/>
+    <col min="2796" max="2796" width="2.140625" style="120" customWidth="1"/>
+    <col min="2797" max="2797" width="4.42578125" style="120" customWidth="1"/>
+    <col min="2798" max="2798" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="2799" max="2842" width="2.85546875" style="120" customWidth="1"/>
+    <col min="2843" max="3051" width="9.140625" style="120"/>
+    <col min="3052" max="3052" width="2.140625" style="120" customWidth="1"/>
+    <col min="3053" max="3053" width="4.42578125" style="120" customWidth="1"/>
+    <col min="3054" max="3054" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="3055" max="3098" width="2.85546875" style="120" customWidth="1"/>
+    <col min="3099" max="3307" width="9.140625" style="120"/>
+    <col min="3308" max="3308" width="2.140625" style="120" customWidth="1"/>
+    <col min="3309" max="3309" width="4.42578125" style="120" customWidth="1"/>
+    <col min="3310" max="3310" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="3311" max="3354" width="2.85546875" style="120" customWidth="1"/>
+    <col min="3355" max="3563" width="9.140625" style="120"/>
+    <col min="3564" max="3564" width="2.140625" style="120" customWidth="1"/>
+    <col min="3565" max="3565" width="4.42578125" style="120" customWidth="1"/>
+    <col min="3566" max="3566" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="3567" max="3610" width="2.85546875" style="120" customWidth="1"/>
+    <col min="3611" max="3819" width="9.140625" style="120"/>
+    <col min="3820" max="3820" width="2.140625" style="120" customWidth="1"/>
+    <col min="3821" max="3821" width="4.42578125" style="120" customWidth="1"/>
+    <col min="3822" max="3822" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="3823" max="3866" width="2.85546875" style="120" customWidth="1"/>
+    <col min="3867" max="4075" width="9.140625" style="120"/>
+    <col min="4076" max="4076" width="2.140625" style="120" customWidth="1"/>
+    <col min="4077" max="4077" width="4.42578125" style="120" customWidth="1"/>
+    <col min="4078" max="4078" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4079" max="4122" width="2.85546875" style="120" customWidth="1"/>
+    <col min="4123" max="4331" width="9.140625" style="120"/>
+    <col min="4332" max="4332" width="2.140625" style="120" customWidth="1"/>
+    <col min="4333" max="4333" width="4.42578125" style="120" customWidth="1"/>
+    <col min="4334" max="4334" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4335" max="4378" width="2.85546875" style="120" customWidth="1"/>
+    <col min="4379" max="4587" width="9.140625" style="120"/>
+    <col min="4588" max="4588" width="2.140625" style="120" customWidth="1"/>
+    <col min="4589" max="4589" width="4.42578125" style="120" customWidth="1"/>
+    <col min="4590" max="4590" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4591" max="4634" width="2.85546875" style="120" customWidth="1"/>
+    <col min="4635" max="4843" width="9.140625" style="120"/>
+    <col min="4844" max="4844" width="2.140625" style="120" customWidth="1"/>
+    <col min="4845" max="4845" width="4.42578125" style="120" customWidth="1"/>
+    <col min="4846" max="4846" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4847" max="4890" width="2.85546875" style="120" customWidth="1"/>
+    <col min="4891" max="5099" width="9.140625" style="120"/>
+    <col min="5100" max="5100" width="2.140625" style="120" customWidth="1"/>
+    <col min="5101" max="5101" width="4.42578125" style="120" customWidth="1"/>
+    <col min="5102" max="5102" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="5103" max="5146" width="2.85546875" style="120" customWidth="1"/>
+    <col min="5147" max="5355" width="9.140625" style="120"/>
+    <col min="5356" max="5356" width="2.140625" style="120" customWidth="1"/>
+    <col min="5357" max="5357" width="4.42578125" style="120" customWidth="1"/>
+    <col min="5358" max="5358" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="5359" max="5402" width="2.85546875" style="120" customWidth="1"/>
+    <col min="5403" max="5611" width="9.140625" style="120"/>
+    <col min="5612" max="5612" width="2.140625" style="120" customWidth="1"/>
+    <col min="5613" max="5613" width="4.42578125" style="120" customWidth="1"/>
+    <col min="5614" max="5614" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="5615" max="5658" width="2.85546875" style="120" customWidth="1"/>
+    <col min="5659" max="5867" width="9.140625" style="120"/>
+    <col min="5868" max="5868" width="2.140625" style="120" customWidth="1"/>
+    <col min="5869" max="5869" width="4.42578125" style="120" customWidth="1"/>
+    <col min="5870" max="5870" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="5871" max="5914" width="2.85546875" style="120" customWidth="1"/>
+    <col min="5915" max="6123" width="9.140625" style="120"/>
+    <col min="6124" max="6124" width="2.140625" style="120" customWidth="1"/>
+    <col min="6125" max="6125" width="4.42578125" style="120" customWidth="1"/>
+    <col min="6126" max="6126" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="6127" max="6170" width="2.85546875" style="120" customWidth="1"/>
+    <col min="6171" max="6379" width="9.140625" style="120"/>
+    <col min="6380" max="6380" width="2.140625" style="120" customWidth="1"/>
+    <col min="6381" max="6381" width="4.42578125" style="120" customWidth="1"/>
+    <col min="6382" max="6382" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="6383" max="6426" width="2.85546875" style="120" customWidth="1"/>
+    <col min="6427" max="6635" width="9.140625" style="120"/>
+    <col min="6636" max="6636" width="2.140625" style="120" customWidth="1"/>
+    <col min="6637" max="6637" width="4.42578125" style="120" customWidth="1"/>
+    <col min="6638" max="6638" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="6639" max="6682" width="2.85546875" style="120" customWidth="1"/>
+    <col min="6683" max="6891" width="9.140625" style="120"/>
+    <col min="6892" max="6892" width="2.140625" style="120" customWidth="1"/>
+    <col min="6893" max="6893" width="4.42578125" style="120" customWidth="1"/>
+    <col min="6894" max="6894" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="6895" max="6938" width="2.85546875" style="120" customWidth="1"/>
+    <col min="6939" max="7147" width="9.140625" style="120"/>
+    <col min="7148" max="7148" width="2.140625" style="120" customWidth="1"/>
+    <col min="7149" max="7149" width="4.42578125" style="120" customWidth="1"/>
+    <col min="7150" max="7150" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="7151" max="7194" width="2.85546875" style="120" customWidth="1"/>
+    <col min="7195" max="7403" width="9.140625" style="120"/>
+    <col min="7404" max="7404" width="2.140625" style="120" customWidth="1"/>
+    <col min="7405" max="7405" width="4.42578125" style="120" customWidth="1"/>
+    <col min="7406" max="7406" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="7407" max="7450" width="2.85546875" style="120" customWidth="1"/>
+    <col min="7451" max="7659" width="9.140625" style="120"/>
+    <col min="7660" max="7660" width="2.140625" style="120" customWidth="1"/>
+    <col min="7661" max="7661" width="4.42578125" style="120" customWidth="1"/>
+    <col min="7662" max="7662" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="7663" max="7706" width="2.85546875" style="120" customWidth="1"/>
+    <col min="7707" max="7915" width="9.140625" style="120"/>
+    <col min="7916" max="7916" width="2.140625" style="120" customWidth="1"/>
+    <col min="7917" max="7917" width="4.42578125" style="120" customWidth="1"/>
+    <col min="7918" max="7918" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="7919" max="7962" width="2.85546875" style="120" customWidth="1"/>
+    <col min="7963" max="8171" width="9.140625" style="120"/>
+    <col min="8172" max="8172" width="2.140625" style="120" customWidth="1"/>
+    <col min="8173" max="8173" width="4.42578125" style="120" customWidth="1"/>
+    <col min="8174" max="8174" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="8175" max="8218" width="2.85546875" style="120" customWidth="1"/>
+    <col min="8219" max="8427" width="9.140625" style="120"/>
+    <col min="8428" max="8428" width="2.140625" style="120" customWidth="1"/>
+    <col min="8429" max="8429" width="4.42578125" style="120" customWidth="1"/>
+    <col min="8430" max="8430" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="8431" max="8474" width="2.85546875" style="120" customWidth="1"/>
+    <col min="8475" max="8683" width="9.140625" style="120"/>
+    <col min="8684" max="8684" width="2.140625" style="120" customWidth="1"/>
+    <col min="8685" max="8685" width="4.42578125" style="120" customWidth="1"/>
+    <col min="8686" max="8686" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="8687" max="8730" width="2.85546875" style="120" customWidth="1"/>
+    <col min="8731" max="8939" width="9.140625" style="120"/>
+    <col min="8940" max="8940" width="2.140625" style="120" customWidth="1"/>
+    <col min="8941" max="8941" width="4.42578125" style="120" customWidth="1"/>
+    <col min="8942" max="8942" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="8943" max="8986" width="2.85546875" style="120" customWidth="1"/>
+    <col min="8987" max="9195" width="9.140625" style="120"/>
+    <col min="9196" max="9196" width="2.140625" style="120" customWidth="1"/>
+    <col min="9197" max="9197" width="4.42578125" style="120" customWidth="1"/>
+    <col min="9198" max="9198" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="9199" max="9242" width="2.85546875" style="120" customWidth="1"/>
+    <col min="9243" max="9451" width="9.140625" style="120"/>
+    <col min="9452" max="9452" width="2.140625" style="120" customWidth="1"/>
+    <col min="9453" max="9453" width="4.42578125" style="120" customWidth="1"/>
+    <col min="9454" max="9454" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="9455" max="9498" width="2.85546875" style="120" customWidth="1"/>
+    <col min="9499" max="9707" width="9.140625" style="120"/>
+    <col min="9708" max="9708" width="2.140625" style="120" customWidth="1"/>
+    <col min="9709" max="9709" width="4.42578125" style="120" customWidth="1"/>
+    <col min="9710" max="9710" width="30.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="9711" max="9754" width="2.85546875" style="120" customWidth="1"/>
+    <col min="9755" max="9963" width="9.140625" style="120"/>
+    <col min="9964" max="9964" width="2.140625" 